--- a/PROJETO 1 - DASHBOARD DE ACOMPANHAMENTO DE VENDAS/Projeto_1 - Dashboard vendas.xlsx
+++ b/PROJETO 1 - DASHBOARD DE ACOMPANHAMENTO DE VENDAS/Projeto_1 - Dashboard vendas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f2cd7accd00ba00/Documentos/GitHub/analisar-bancos-de-dados-de-neg-cio-com-SQL-/PROJETO 1 - DASHBOARD DE ACOMPANHAMENTO DE VENDAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{D4314101-43EB-4601-9411-D8DF73AC0300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CB94927-D774-4818-840E-6B1B435FC824}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{D4314101-43EB-4601-9411-D8DF73AC0300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A80A080-B0E9-45C2-B9E9-4A27FC867CF5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,6 @@
     <definedName name="_xlchart.v5.1" hidden="1">Resultados!$I$4:$J$8</definedName>
     <definedName name="_xlchart.v5.2" hidden="1">Resultados!$K$3</definedName>
     <definedName name="_xlchart.v5.3" hidden="1">Resultados!$K$4:$K$8</definedName>
-    <definedName name="_xlchart.v5.4" hidden="1">Resultados!$I$3:$J$3</definedName>
-    <definedName name="_xlchart.v5.5" hidden="1">Resultados!$I$4:$J$8</definedName>
-    <definedName name="_xlchart.v5.6" hidden="1">Resultados!$K$3</definedName>
-    <definedName name="_xlchart.v5.7" hidden="1">Resultados!$K$4:$K$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>mês</t>
   </si>
@@ -122,6 +118,21 @@
   </si>
   <si>
     <t>RJ</t>
+  </si>
+  <si>
+    <t>FIAT</t>
+  </si>
+  <si>
+    <t>CHEVROLET</t>
+  </si>
+  <si>
+    <t>VOLKSWAGEN</t>
+  </si>
+  <si>
+    <t>FORD</t>
+  </si>
+  <si>
+    <t>RENAULT</t>
   </si>
 </sst>
 </file>
@@ -1845,13 +1856,27 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Resultados!$M$4:$M$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>FIAT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CHEVROLET</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>VOLKSWAGEN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FORD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RENAULT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1859,6 +1884,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>108</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2636,12 +2676,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v5.5</cx:f>
-        <cx:nf>_xlchart.v5.4</cx:nf>
+        <cx:f>_xlchart.v5.1</cx:f>
+        <cx:nf>_xlchart.v5.0</cx:nf>
       </cx:strDim>
       <cx:numDim type="colorVal">
-        <cx:f>_xlchart.v5.7</cx:f>
-        <cx:nf>_xlchart.v5.6</cx:nf>
+        <cx:f>_xlchart.v5.3</cx:f>
+        <cx:nf>_xlchart.v5.2</cx:nf>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2679,7 +2719,7 @@
         <cx:series layoutId="regionMap" uniqueId="{02A53EDD-DCFC-4A88-B213-71274D6215FF}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v5.6</cx:f>
+              <cx:f>_xlchart.v5.2</cx:f>
               <cx:v>vendas (#)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2690,2072 +2730,2089 @@
           <cx:layoutPr>
             <cx:geography cultureLanguage="en-US" cultureRegion="BR" attribution="Powered by Bing">
               <cx:geoCache provider="{E9337A44-BEBE-4D9F-B70C-5C5E7DAFC167}">
-                <cx:binary>3HzXctzItuWvKPQ8UAPpgDxx+j4kUJYsUjRqSXxBUKIE7z1+537K/NgsUKf7sMC6hWHHxMzEVbdE
-UwVsbLe2zfrn9/4f3+Mfj+W7PonT6h/f+9/f+3Wd/+O336rv/o/ksfqQBN/LrMp+1h++Z8lv2c+f
-wfcfvz2Vj12Qer8R3WC/ffcfy/pH//4//om7eT+yy+z7Yx1k6U3zoxxuf1RNXFdnXjv50rvvWZPW
-0+Ue7vT7e1U+jkH8/t2PtA7q4X7If/z+/ugt79/9Nr/RK6LvYjxX3TzhWs3QP9DnPzp5/y7OUu/P
-Fzj9QPTpjymev0yv/6J69ZjgyuUneX6Ox6en8kdVvfvX139fd/TU//51UGX2L5btbHpAdfvM0W/H
-Iv2Pf85+AR5nv3kh9blAll76r4T++JQEqRNUdRl8r43f3999/FMkvxRx9PpbFUHoB06pFNKyfsnb
-ONYHEx8EsSxh6fLXH+tP4r/0cfc//zN79/GxibM/f3/qoU7r5OW1R0z84vG/gaoOm3NSmXzm/4H5
-2P//PdPt3dIzHTviWWyh+gedSk4kTPUIWowPxBCS4sWT0HIbZO825WP69OPdU/burpnh3ZGF/kLb
-Vyhz4hZHl/3+fuL0v4Fh3+7/DyqMkA9Sn/DHIP8CmWPFMfrBkMKk8ldk0HX6J/FfGDRJHUrbP6Y/
-gvJv4ND8+rnKwOv/VZX915jwl907j/Xj6jkYv4gq51/9MxzNLj0X038F3t3T7+8pwvBfEX66w5mg
-/Of7fzxWNUI9sT5YzBTMEkQXOmdCvn/X/Xh+yaQfpEV1wrg0DWEiCr1/l2Zl7f/+nn8gQnITYQl6
-1w0qzPfvqqyZXtIo/WBywzCmJEHqjEjzr+TnYxYPXpb+JYl//fwubZKPWZDWFe78/l3+613Tg3Jh
-SBAgTFCuE8IZAaf598db5Fd4s/E/qOalIfHKQRW8jqk9IkErN02TsmzvjTys1y8k879FjlFLCgs8
-E2qA7jE5Nw97My5pr/SoLNyHPo6MMVapG2jsThO1KHx1niB7xR/jOjMtiJiDKpn4f8GfHqRROcRF
-rwpNT29rk4r7IhAhItdfCj/BlsGhkJdyNAn0a1LOwJQuOCH6MZ2ktmiY+MbN+np3f722f253gVpv
-1s7W2R7Wu2vHuTsc1vhxtbLxj9pvD/b0o3O9vnfud7cH50umdmqjvlx8W+MG65263qjN/cdW4YKV
-Wt/uNiv7brW37VWuVlePodrfbe294xDl3Djrw4NUn1ZXDog4auusbmyl9gfHcRAOzzHKATZn+UTC
-9FKeUab11AiMG+ewPagva2fdKjz3181a3aq1UtPTbm3HubCdizUeYnXhOAtPMLPYV5KeWewIY005
-JH2xfrj2Vmq3Ubv1NeS1Xh/Wt/gDKeI7tVqtPGXvt/uf29zu1E9nu93+7NTN3cX55zEmk33hQa+e
-Z5LYCwtjetu6IZ7H+eLcrzcQwGq7wPIiicnIX5CoqzIm9WRczs2Xb9eeularr1e2rhboUAOIc5aX
-mbeM5tAN3UToy3q3PsDADrv1Pb5xrh37Yrc7QLkPanfY4a8D3cMmV4XCt2uY8/bgbNcPau18gd2v
-H5zd9TXsAXq5vvWU+gwtrWHuar1b7ZVaf1G39l49M7Pb7K53tz92nvpxO9302/31Q6DuR/XNUztw
-u7u9vb7Fjz9+QNtrZW/tq7u9fYevN9u71d32p729227v1P3tbtcr5anN1Wr7+fLq6vPVfrv6tNtv
-n+5u7NXGvrGdg71a3Tnq8XJlb7c3F87dfrtVq/3+0r5z9ltYtQODfbZgcP4TlnxwbFDc2mBvd70+
-XNjb1ZW9dZ7f+Mcdfg0nxLUXN1++wMftpwXjmtzpnHHN8dKoi3CEQg7Ow/0OpmXfnSdAl6x3wrUX
-pmV5bqaZ4eTP6wv8hR9tDs5uQqKVsp29Y9v4314wNASwBb6QrL4kW5HcdFvAyAFufAHcmJx3+g9f
-rx/WBxjKATb2cFg/HK4LBXw7PDzAEtXlZqdud7eb3WazWW02lwqqhgIugKurr5eXsAmlLpV9td3u
-YatQ5Naxby6gQrVd7W/siwtwA5WfF6Ihl/xmev2FFKPWNNsMUoQIYT6Ha+ARUH8Sog3sLhQAXX0D
-JCkwAojeKbwRaLW+hZThaRNw4rtbXLBTVwov4bvp2t1uc4Wv2zvw6OztG3iZA7A7rO2JP8e+QhDZ
-IaTgLfs9YsOEuuvJZ6/XE6O+2kKSuAZyXDuQ1MVk9s72y+F6Es61g2vOi4JOce6MwT6//kISVVHl
-vjkhCFT6BZ4LXu1LBC14ygWcy7YX4JdM2HeO4CwgJWFZMR2iP6yvHyawAvLbj5N47haMlulLpGaR
-RwjD0AzwdgEkuIYiJru9mKI67HNSDLACyADAABQCOS7AO/AK6sSPiNR4bQuQOTirPb7Fu9c7JAZb
-vAp7x/eANhu24CCI4Ja4/fSWdYbrd/dIK+CUANNnQ5ko7tb2A96CR1CTjU1vxw8rNeHjFnTxXtzx
-4+Yatwem4VbA5t1uNVnh4fDFgX/t7hUwBdfAeSYNwaLwcLge95tuZl9OBgtO8ETAVoRa+Nofq/30
-1tV+B0FfPaMDuN5uMjAP51Pr1Rb6nux/sm082wZX3tqPuCtQ1N5f3QGrJzFBUNPVcIQEIQTIZuPX
-563xWGGCWhaTFjFMIYgwTSS4x27ZjqP09CatlEW01hnqvLVNyurVeSrHWPYvKhTpHzMsiRp7BqGZ
-W+WuRZNKuWkoV26jcVWmffzg9WPhBJHUrs7Te80V15H96xb6nxaz6MziY2M0ueytUjWlZOvA6vq1
-H7fGmxLniSuuU26apmWgdmFseooXjmw0VhCWuluqkPnksx4Uya7O+3FBQ69lByqScxNVAdJzfXr9
-BZWyiHW/NmWp+oj5pu3LPmtUVHLeqEwOWaWMovPvz8vvOIF85szQOSeWbk2FFJvJT6a0yJN2KFVW
-pGSvawV32ioKD3pjiQX2TpBC6ccMQ3JqEm7OqgKSJ3qWNBFIxW2uGtFnm6qxuKrCJEbdfS4zPyFJ
-wSRjxGTcMmHux5LkuUgtLU1K1QZVuGuCUGwF6rdLllF53ZWZuRD0Jv3/G3efpXhEbxbBhzobM9GC
-XpkaY75NDDfXVmErggU6p/jiprDQI6E6bHJmIbIohVWFQ6G8gURO05bkyhfCtTmzBkf0FluIYKf4
-4hY1BYHpc0pmobyNvYE3GSmUzJrE4TIkq5q50QJmnDKMF1TmYdJNrHEIMg4qceG3tsv1YHAiog0P
-1GuLBRGeIiZ0Rk04sjEZ/rFpGBrnkdbrhRpKPXZqEourKhyJkolXLvjWcRn8yypekppLbzTzsjIg
-PT5m175vehsrGoo/BsuILvs4NR5Kq/ly3vBPKewFybkoWxZofRcZhTJ8PbFZ6fI1pgme8zeoGExY
-AjU++jiTjF8AVSVzvxw1v1R5IJuPUZaHtmal9PpvUCFMwo8F48KcGbvLXVb40ixUViWBon0m1kGb
-ic15KqdcSliUoSFlSFMaM1QqpRmUQSEKpZWSCtuScbSPReL+TPLKv5eAqvrvWCDGKAypM8VEZQZO
-oebHZSBooWr0yjZx23zljH0jBTEX/OqUMZi6zi1uTYhhzUxdBgnK8RaAa6R1LG6sNjfpOuz7ujqc
-l+FpQkwnU3S0DDrjSHDd9zoOB/ZdzbS7pLIcFhv1QhA2juu/yZ+QVEoEeSmEycHQsdn5mhU0MU9L
-VdCSqiqlnc1HP1zlee5t0i6jKhd847pRtKG87jRVtGmjRp35C7Bo0Fd4L1DGIc0h1OLcmINIX3mW
-b/RZqfzAj/Z6TNp1UeT0PmvLgye0fl9WebYqo8xQlDaJ3Q+Rb0M0tVHLXTNoxUIW9BppJOLqZMVo
-7aEJMz3vC4dMM+JGlVkXKvKkuM2soVgJr4ydljDi6E0cfquDcly/VesgSizEdEtSwvSZ5wyE9klj
-IBj1NLPsMgsje6RNuiDrk6y9oDJLUIY2l6NXAK/RimmdxouJ3RWutkmYpwb5NQu74s3oBr6gW6ST
-wkRiOYNt9E0Z87S+UInWZIqbPLE12S+F1slYj1MGUGGSCIY2K0E79lhl3QDyWgsquW51VHWeTIQi
-dedRp9M9kquk9IOHLnfDm6qpk37BmU6JFcY7TdY5kG8OQqLx+qLIWKHiJC0vwi7LdrnfjIew0coL
-ZGXM1qPQWACkJaIzB07LsR8HiYCIXFt0TltY2gVxdc+2rKQ6kHaQtZONvRssMPsa4yUCPhE6Bn5c
-WPN+dJ9bSRGXKdwjMPiXWmv6ZkVkG266VOq58lOt/nzeN15nGXIaS1CKOkhHQj+LkA31upRXXqFa
-t0odURSlQ5OwVVravz33RD6NXGaaWujIQiehv/D9iI1j1AmWq6Fr4pUejc26r/nbM2rJmWEaGJBA
-fnQaqL6kkg5VljEy5Eoz825DI5aoKDRv9CLiKi71BWg54RymiQphUhrDuGLGE6vTIPb9MVdxq1d7
-39KSTZYm+j5LuLXKTdHe952mRSpBg7ZbMJYTRoqhMEZJsEFTcHMGOGbUW2NUIzyPWi3v4oKTa0Mn
-jZ0TXuyyUoyhyn2XL7jGCYOZZppIqogJTdKZfFEviJoaHXJFw21UTmWsciP0VaC32tsRVT7XsQYX
-AinPTLhWXg0V83JkPH7WXoimaHYJrfk+AFpta9esfRUXVbMg1hMqRfsBPQEE8KkTMaNa+gUZse8E
-328E8VQcBJbTBVm15xltrnqWhSq1ZGUXQbvk/q/Sk+ehHqPEYMSghphBLXe7NC8KOLoXWrkiekrX
-6JO0b02CJirg7NlmKWUzDXYeEVUvANyo++raFl6rJY5LynF4q6mAELIfOeV0yIfIzECTsTLKvoZz
-BClKP8NooltZGZVDQj+6OQ9jpyQHcEEeapkG0q8ZjEUsYAHP61xFMu1zVTTa+NBqJDYXTPKV9U8s
-sUloFroDyPKO0SUYw9zq9CaH9UeDU+UDu9DjJtkVfVMtQMspUib8TKfCwAx6XtLWnZtmWZKAVOFV
-Cq0PzcnH4auf6cP27cJDZgRXM7guf7X9XwBzkVh+0JM8VyXTg1WpIRf1O79YsIYTKpqiDCIyhKcL
-c2bclWf6sggCQCUfMUkWla+KLLEWFHSKCqow9PQs3bTIPOGFtxqWF7uZ6qJB2pjXa9/aRqbeAkic
-JCPBC4LNNI0nx3aQZkPhjkOYKynaPywzpauUuPnbLYACgP4iQo+JmCQpfM2LcsWKxl3XUV3ZEW1D
-mxhyoR//Ku+QyDdQVqJGALYTa8aOUfdFkhlapgyR6ZdF2Bd3Ce2ynfQ4G1XW9f3mvMkZ0x2PssqJ
-okGIpIwZHBXZMW9jEYdxV4Ai8yR4Kwzf6dM0sl3Zklj53PW3ad96qyHgcpPqBfmpDdq+4mm+9mkX
-3Z5/nFPqhCIFp4aJMv75aV94gJfGSWO5sBpTtqOj5Vq4Qp/gx9uJmBxdWRM9JAlxH7Msim4Mqpxn
-qg9KEthDF4raqXSZiwUfOKVNU2ISgj6YQOycRTCXRalOB9hNGqa9HfpUKL3T1gZvt2mtDQvUTsnO
-whQFkZIJk8hZddX0leiTNsuVWXP3ImqHYpcDQZ23C8+adIM8i+hyvhFixmZJBw9oGFZJeZk1frLq
-OQ0W2rEneIHYUE4BDaGoOXpEaaZFMvCnFNX0r+JOMtsIuP/WfhEWgHR0B3RELOwDWbO6zRpbrdYm
-248CmhySoSdO7qbWAt6+7kJMZEyCEgWzFDRwZvaWiDHjemJmKmzc4FIbLLo2inifdVwqobdXVsdv
-c013V4Vvuhfod++FzPOF2DLZ2szP4d8GxZgAbXvreRD4wrPGQm9k7cW5GkVLjFXd+1X6kfVcby95
-03XU7jsZB7uylWSpcD3hBigEsIxFqEBz3Zrxr2U+15tEZmpIQhrZvi4Gp8uDS8o8ZjeVi3/fbKMI
-PAQNb2wnTxXIsYM3xOyTUQeKMN8PVFfRcm0m45InvM4LDKgUGA0LQo04Z8uIURGXJtQq/MCzY8vM
-dkM6mjvmSn/BhF5LEKQwqqIENQ6agLNM0UAY10sOCWYRDzRnyOLCUjo2Gz7JivInv0s6d8HPJxkd
-2wvyD8KQyjHA16vNNj8qeO8VNFN5mmgOkwX/o2i68VvRmLFjGCn5hoZIf5H7NNsmJakezqvwtbmi
-KYgqSaDtLg0+5zhJC91rO3RT9Lj0nFiYT3FpPvAULY9Cpolq2FJG+RpyJoqwFhTfaO/ymZVWXRAG
-xCgylWoE9WrRNFu4SrqgyUlTM7EyZPyIcLBPxJ5ZKkHCGltwWZ2pMtTK0bbSIPhSjEPCnDJ32cci
-asdARZZfp8qM42opRpywWcyAkMoi/8M4aB4jyjE3oxTLFkqL3WLNvWiobeka/n1WlTRccMMTwIdN
-v6nBIAwGFzFnzFKiRayrdTi+qD6itxXdG66MnJaVseGwyud3EU1QjvduV9Vr4rquqbSqKj75JUtz
-dd6iTkge81gDTTKk1mg+znyIxDgjMRYdwL7w4a5tU3/rBHL5VO+ligc3OlTWH0bh+W8OZRACxuhT
-0wzua0wqeQG8eiJjXuRTX3BgcWbXnkvHjWyNoFoQ9yndouhiKBwoyr15lZ6kaehi9TRTXtW4n9oh
-pOZqMKR7UQesMRfyxlPEJDpWlkB/Z2okHXNVAzB8rY4yNTKh73Mja6661NScVmTd/XnFnQA/ARIS
-YwmYkJDT6y8EaLiMD2YKvszQdJ/C2hg+WbXZbqI0jrch9rs+n6d3gjU06rF2jDEIptzzkiJmWpA0
-QwZcz0zL0XyUzGXpYaKOa96uMgsjZ2T7z41jc5Z8ByLJvaoOMyUHVnqK9U3jYvaX0p1BUrQBzzN2
-AlMt5FRsQjmsQMz7VGGfithrtFQZSRLabuZXodIKTP9s16rIUz2Urb4pEGsWippTdNFp1NHdRAL0
-CnSaujNiQk3Q7VJ0ifomYFdkwLSxTAP/U5ex7NJqfW0huTuhRiwoIAUwkXxhqj9LAlqzZUmteYC6
-Gh0CN4WX51GR2aZZiQVoOWGh2BnA4oCBdrGOfs6xhY60a8y2SzLlVuNox81INoNorW1TuqHTpZ52
-eV6Rp1izcEQFnU6dT6n4Mb2iM72it2SKOScTO6KNxEk8nt2OVhAvWOiJqGghi6JIj7FPT+foxURB
-am9wU6V7QXzFynB0Qsb99XmGTlKZmt6EY1KHIuaYIT3Jo0RwoEkRxsWqcHXrwtf8bqHfdlJsAnm+
-hUYxxwL9MZXKx/xNDDmoxLw3bWyix8OWhRiuOQO39GJznqlTVoGscKpjkFRgnHBMTtdHUTYBcEur
-67u2Hm+SrOiUQD6lzCIsFhR1ito0spVYnmfTkPGYWp5WoaA5nLscCm+fBiVdV5Fn7vS+zy/GbmwW
-uDuhMiCymHDZnGjOVBaZJO96HApQXZvnmJn6OmkdLzPcpSzihNZAYmqKoQ8MYc7E2OfM8OsAfty3
-rZk4CRYIHDPKrEAFgVvevVlnECL6DjBCibxzZiJub/Rp7VmpEtLnqYPpafE9LRl3lauhWYzpAvPf
-jo6I2FgjwEkWAOS8zT1mVtL7PUnRBQ5cO9I8hxHMs6qGayvmlr3qe6NbiASnZGogB50a0CgnzBk2
-+nWo5YnGkGNW8Z5gFLyKE+qpiJGlJv4CJWuWJ4gca2FYQUpV3tRBu0v0KBBOj9Naw2okqVjqOk7G
-MEuvpQmwsqbchKA9fOwFSV1asV8Zqar7sd6MA9c+jsKVTsGrYqX1ctibReB+Pm80J4mKCVbgDgyq
-PCZaJrIzAoumquogxAD7IJ+SQXzyRVqudVHQdVf5bIHmifIMZSCyahzjRk4512BljVkV0jJVqJQM
-5fnpXuZ9/Hlw/RBnwWnywBO9dLimlzvS9ckC2LzOpafJE5+q0eng1dz5dZaZPY2DVDVmb9w0JB1U
-7Jfeo+YWzWG0NHdVuUV10PJqIfK9Rh0QRjnK+bREgCbXsagHIqPMRX9SmVobO9Rq2o8yYun9eYW+
-xlJUnSb6kNhhm1rls/jammkTBMRHw8Zt/Adv9FvfqXHQPl2HJisehpiTp/MUXwt0qnOn0T5OP2Gf
-c2a3fp1ovl4ig0jqIOlUaxrN/WAOeaxKjFSwkSU9m3n6tAXZ0aBx3k59yuIBeMxEs2pmwK2W6YHB
-kIbqee7HjqnlslEdz/zOll0cGJgbuWPn5L2eR1s0i40f5+m/BgmKGIKDehhJoHRh9FirAtMIpMkA
-CdJHdIe/j1HOug3xLWv9ZkrILtAZgsdMJjyjhNqByDFGlExdaaZOPyCbQ1pa1XwlWj74C4J97aUU
-dmQB15GngbUJOV6ULlWoRSGWpxBOSFw8IYA4URdGjhG56MDVabbxkqH4mndmvgkHyv44z+xkNMdg
-COpopWPtE8m+MW+m140QUVOBOtbHwgsjF7riYUre7JITFQszfkx6kIvOnAUeYmFLu0OG2GlyHw7s
-qrV6bfc3WLHI5PVYLUULciZILPxp2BiDILsx/4ildHfAoFtvl/a0Tng+mtvYsCOYcuNQ8UxhEnlj
-0qVNqjydcUcWOOoojcTbYemv31tWrb05JcWOmo6oDwVJippsxpdHhqyYVKRpIV3FrRVfcfS9VonX
-s4/nRXjKFjGPnYZKaFi+WjBJwkBHvTUAOs2u2ulhwWw0ExKHDF28y6tS3xeY6d/wMsy/4gxKvuAK
-JxAOaRzqFfTzsb0093EeRy22PpB8u72nEVWgo/iRWbGJPmZvlveEaLxVnAXFPQu8oVxgfpLjzBWk
-gSOs08jYQkdiZj+ZNuZ4phhztTHTv0IZgVApgTPaje/FFdYQo+gWK1z8bwAOCGOHAUrGkG0+AqqD
-oCq8FkXAYBSVreEJd601+l8Ms4kWcteZu4MrKbBaaCIZB4bLeQwxvDx3RzoEjix9bx2nPlkjLxCr
-82Y0b+r9iwx6h+giWoY5X7LFufJEDygNnBAzilrGjTNWOllZDcN2r87qW8uK6o0Yuk++PgzrAtPO
-G7epl8x5Zk+vHmPmOSzXuxpt68AJyjJRPTdx7rou+o3gI3dCd/BsUWFHl2M1bkECp+Qs4K5YpTAR
-LuebWmKk5sCTNnAaKYNVTWPLIX2VvS1SPfP3ksqEVC9CR5kFWRCaTeBYntfseSGGle417ToL2qVB
-xgz0nknJqSlsoSGNWmQKzy9IDUZFsATuTYPfrBnXcRDpf6RuGJfXJSUZnBWrFsMS0RNSNBHwJkTC
-whsWgY+J0oEVJc+k53Su7x3qXqudVLKlfvcJ1qZyAM0ZzBER8WdWkvOEuqwjSN/qzmTf0Hb1001N
-E5NsjaxKx4t8qMwlF3nFGjwdpoeNASy8E/58HvmFPMu2NpnmpszmRe1t9dIdbIEN1IUc/BVrUxMb
-oRADTIEx1zwVbuIA50cyYtheMHitPdA4uw6LXq6Mwcf8gozeAobOsjSsV4AlpBLoc4EnjEyPNeaP
-LCaulhN7iFir4m60HHQQQ9swuzfWpxMpjkY2+tgo4VASz4wjx7GmMiLSsF2k3iu3SEfUjDV3Ipxn
-WRDjCa44BxGMKLCkiAnbMVcyzHQ3ChNqG3rmGx9LLW6aawNtUitRWJWp6oXB1iwMP7OGCIhNFWzS
-cXRQjumFkSiMvukgxUrPLnw3zTeaOyY20Uzvtm4xWHe7JrTDpKeXHeXdghJPWA3HiiJKVewNopKa
-sUs0KZF4+sSGaVobbayJYqJEN1jXKIJypt+cDxevfYGi6Qs1wngwApp3b3Kvj9zQZa5N4ohtozht
-V0Xg1wtKfM3VMZUpWLzwuAif0qEVEXVtjNFN27NEZse9gWjvy5u2pVydZ+oUObREp2VonCx4dayA
-p2hYBpbwnMDM9TRc56wcAt/2eUzjRtUWppoUbsiNpUXMU9LEZBKFC/JtARUe89m12NjPBG47kN69
-swzMzkhD2NsmVjBRoCVAGcCJohCfpXZMJc6G2MdnejF7AD9fpZ6lDmYH+ULf6zUvaBzoAn0v1A8w
-kRmVcIwb1+tl6CRpnzqDr3G7y+Nhc15VJ6lMnRkMItHCnudfVUY7P7e00LFGVLCR4P4m0Kslg3gN
-IgguWFsiOBiJVQA+i6BokLsDLazQoeEQKiPzrXXQGeG2dzEiP8/QLJOFcqaPtpmMT8dSInoGx8op
-s+lsaxBEToFTWt/HqEnuOfeKdRHy3qmsTNt7aF0uGPwpKWL/gGKKIg1sds7srhwhYK+AFD13GC6x
-pCXXXsCWdrhPSVFQA/PxqUDAUZlj1jAoLVjbYGQix6L8PLoG32UW13Zxl7pvZgiDfiQ+01kGKdH5
-OCalj0Uw5I0VOXk3ZhtZxT9LKpZm/a+lhg8mQliZPtEGn9czPwPsiiHDSSI3cKjRjltNjKbTFG62
-gLCvDeKYysz2KmpENcOBVSdn5vCpycbRqfO0v+zQUDrofh4f0lErl0Zer3UFn0XLCiHaRPbx/JEO
-LxA3M/UkNWo/xFmh0W02WZdXZD2GZZRsi4TU9UL9f4rJv8hBojOw4P0QRIWGokPokX+blYSrhOXk
-wvBDN1FB59It82v38byvnVIgQiWKVkJQm8/PRvZjlWta36PUEaJ3REOiy6jWl5pEJ6mgX43BPTbN
-yfyUMw8bpEAuDxyTtO2a5lmE9TBjqWV7SoIgAlVhN9AEM8cWP/IBKOjx0OmLMnUo/ll5UTHepDyI
-nbCcmkM1hz7PS/AEVbTZ5LT+gUQV0/tjqn7NmNaaHeDXRKZR1waGRKaWWVusL9TrFkvcl61ZVcnq
-PNkT1gkoxpYLqE4FxiTyF9ZZa5zqRtECr5Bcrnkajjs3aFKuMlTPS6fUX2cDuAjZFA6oT/1TNrNN
-meqDKb0idKq69jK7xWIBtadzYsIOhKz8bcSyIFkAsFOCRRccXbepu4A645jDzDVdPxhY4CS9HrpY
-MM2bYLTNseqMUkW92Uu7tvy223hNgW3eN4tXYOceG0RTQwVHJI6JMyT8VdXgfHeK0aeNTpJ7L7qa
-bkeatd/PkzrhHBhTAWMI6GF1cGZAqLOZr5HpKDmOJ6ow1AxHq/pofZ7KCXsBFYRWtDUwgn4VDozc
-w/penTjYd+5WGpBtreXYBCoNdIjeSAoaQxDFrA99GjRQZkGuR8WIgWKYOThUXtzEaLU7elV2G38w
-xOfzpF7ZCFwOOSrGJdgnnzYvj9WEz2cYGiMPC5wp0SJ3F4xDk1RO5pa6dJAydJZvsy4vogfkaBFZ
-MFBMTCdIedF0m85gT5uRSM2nxQ8MN47pY0wd4bRnVKwGDtQulTbSmMQf23isvMgWCauSUYkgGWOp
-BquswljpVqKLyDYwqXOLlQx0IzHuxoQO/mMQYfWC7brYyrU/fDM18/qzO0RhGm4xDKq0pzQJNdey
-tUB3tVAFUZtG4UrvPN2ltj+kbaE7dYvpbripZVjS+7bPpZbZwve76f3+WNCvhekn9U+j1vPu80hG
-Qa/KxCyTpyJidWOTZgiMVahlQRGq0KjDZN/kYbDXzVCEmIWF7fCl99Ma83BUsHpkrpk2uI09GFHb
-SYWBmoWQHE+fxBBSP7b+QPOIsAsc/Kn0J1nhONWnCBfSUGU4aWWkdmC1xFtVKZQcO7l0E3nh43hZ
-bPMw0ro7fYg4elxZHbquk2AmHtnhUMvyU89oGV6XGdfoNpbSrbgDXjL+tYiHho4O5xLD9G0edDhE
-vsLsgiboUeCDWAp9W/qV1m3qBJtVSsR4ANPBQZQgMO1EFjJRw5C7upP5Lh1u0S4y0qc4TwX5Xxxd
-SXelqhr9Raxlg91UPeekrTSVSiU1YSV1U6IgogICv/7tvNkd3FSi4tfszvFiEAz4e92xuLtebosm
-PyCPXdgPMzYR2mab7iNWJLfjTy0hJHlL7ZDAgJxHpeJPXWpIWJsBsRQnvyer6WxVyOlp/46dmXuS
-E9v8Llio9j/abpLbDmVf2Z/7MgFjbZ0CXMWxRLMmveJ5ZvxzOXojsL4M0a6gJ6eE0KmV2Wbj7xIp
-isOvsajdSs5IDTicvJbWWf5Ucauda+GQqenTcVSLPFojhyMA5sByG5Z2DIgh+b1VlCbY+JRuzGsM
-+cF8O7oikqd6zwf5l6KLZ0M3E1IPex+PbcpqEPxJYX8uJU+KryxGOghg0PvKk44Prpr49+Pe0r0L
-dkXOZT80yzHg18MU0bwA0ZwhUbe6rOMlDIVS7yabUyHaCef2QGeTtjr+KENdhk5uqYiPq62heryQ
-vQl73maT2oqhGyeecX07sXKHMYGEkCZvNQ1xhzWd+ri5bpjIGt41b2J6c2Saxl9UbXb4mTfMqBek
-cXrZFw0jR4fyE6u2TgxTvVvGkNzPSESD3R5we3yVBPoQ2HNtaRFzcqzV3cKXdXvFLDdm56XmgOQ7
-COt2nvQ7W9KBXK1B2mJo1UpDeFd0xrt5npOA0tNWIokQgaiJqC25zbds1k0XGWI3j4vC8ljJLuE1
-I3UbMwG0/9YS+EGbLnWzjf8VnICn6hnfofPBghaShZ4hAlL10u4piSFtpySq4x0aSoxJLRzkTN1l
-2UCgQ0WSD4THbVjqQXwU6+b12FVDEpPnkmtEF8CXE1gztdFABGNb1NTC/p2xCXLekmxoNtupINy+
-31QpVhzzQyxJIbfrzUiu7WXz8P3uncMWUpW9zktW3Kl8KmeLdKKRK35tJkBCUEGnDYx1OVJqii6j
-hGjRjfaodXYd8xkV6xeTRbD2WYl8FQ3KRlMd6a+NLZhaMJUjrmX6Zh1JdQ8zoPe3NWRBe3bSQ6RH
-ezRoFqd9D5BE9g05pu1xntawXq2I7Rix1M5mEVOL6OSj+a+eM7AaZzOF8p9BFalu00TsyZ9qzPbl
-Za7gvoeuD3IkSAthR13+y3KU4TZzmBC6w4/O3SYlMuxeApZx+5qYZZMXKYcyu91rJE51qFjJZ2Vm
-RBiNNujrjUV5OQqWIqLhWIe0LYdjuC9Zxh8aeAvOmWzEA5gzjX49V81evNRjMYsTsK3NA8DWfOEP
-pXYHLMA6Xyl5y/I96L+4pjF/M+W0Q59rCWku+LNAKqRc2NAZr2R+gaA6kbd7UKzoywPTeicmWNLf
-cpvVJGnJPK/6jhSikc+ZGOV6l05LwR5XOvpwhxKn3yIFJvs6qGZlf6s41vMTynddPZk1ic0b1D7r
-ct4XMlY9T7ULFwzHwbTOK8hCTyuZ2dcCv+b2CGHqOJ/9MPrmE0d2wZljKQQtT1uZKfVfw+hUwja4
-4T6clui2/GukDvNhS7Ax4VTjjCT+qchnEFBEBVP+VCGu8YaTie4C8lMmxSsbapOoK3rs5V6dk2Ib
-fHrlseAx38WjnrZ/rg5H8uUEXdXRcpNSS7rdEJp9Zpv3Noc9Xvky9vBguF12yDoaBt82DR8LuDEW
-/q073Xi++r0rg1rVV2XnJJHtUq/7t7l+yEzzsdIp0a/VSOcRfWjBQecttF+xzDqxhLyA9iS1s1Go
-nbXfLnXtJAzmTdqs9yMpkI8AKYylbb14lHCIC3b7PkP5ubVwSY0W1TAVaSeg9ICKMl2IaQu/jBAO
-QaBE61c/gBp9ZQeZ/xuUnmpAo9KJrrA6fU0JcJkux1nMu2odtvnvbmP9DAmXVX0zJ9w/lerwVwPe
-L3YneM5Vh+qzvtUpqN12z5143yHbeZZhmf4rx8LMV3rx+ZM+jvIJttLB/L8TvA81bLswGe7ljTpW
-bn9iOKjR+3nRzJc1IsjigpwWZk5Jxajv8qXZiiuQcRCuQNA7vy5phYcVIrnetpCkPYBYnrRcI86g
-g9QOWQPFKuV0nsqC3WGdCnOrZxk/RoKWfa1NttKT5vsBkbUx82lbU3Eu65DSM03UcMG2g5AJDX9b
-AtkaW3mvZ7UknYMsvN9AkNjLgY72nkNtKbuVocd0hXB4KGOQCABy0K2aLmyHFdf76KrQUlcbecIY
-0gwICvKH68eAaf8GKXQyYPhX1ZWYN+MRGHPUaZ8QtKE2/f5VHTKnBFQdqWW029KlJH3uM59CRjfw
-Z5S77PeeL8q1WWj2X3Sqhl/F4Nk/Dv/5U7ohLQN3hJDkzMcFYp+k2hK8D8vUHG1T75hPkYejyzvN
-Zi+eliWq/ZLRfdLXfoEL52xzk/lfAn71tadrRcZ2KvYDi9iCo1nuzUxPLNTJ0k34mYfv5wDYPYjF
-dYaxLOswlixVTyPGDygPw4wmMlWza0tls4/mKObbIUfMRQ/t8ohrSLzJLyOJK7zpcZz+LHg0Yzce
-kpzzcZcF/lo1ngFVagVh3yyyDvvNfJ6oxH8C8sXYPYha8Taf0uF1E9PErujAjqytMJxAZDHVzdI1
-qdQPQpY1P1fZhOiaZrelOefLnoC0b6Jo2iXuS+i4g3a3JUXKKV79OSlO0c76+aj2ufg5i2FKu6Mk
-k2lnX+m9FXz1/r6oBg0j9ZBD2aSGo0r7Bc9T/1hjkl0twzQD/MulZ/ghQjFQVjaNbQ7vj2tNZVDM
-9jhSeVazIw8ZxFPLZ7qI0JIaNbNdS2+Hng8r/tlcVI04OQy88rqsxmKAFlxVt42ElutSS9RwTOuN
-El8i5v74KpGL8zZLjX4y8XHMe7U3zXY2cUhwLemuOkxLFKHbBwQdN8xvxWtWhL2+UQzYTsdzNzzH
-alBJq6Gtv/WOYZ50x4G5zkXdZH250MF3SOZpEKzI/fgY1iz7s9OG341ymWlrknwwKIbNNHaKORTG
-I6b015Yl4Q9ZBGtagtSu9DmzBsEHBUQM85vYVgd0TOzGqh94LUNEnKJH5yvZmJBHjlH2JVpCdZ8s
-2Xi7pIVtugXZ3rHdxSKGfhh4nV/hURXuHC0/dhxV1Tw7GEqmE/OjYe2AZZxfjQdZy7OAGEe0Dkal
-6swMA/QcCZt5yxefvtGDfEue4NeczsAj91OTO6c75jm7xMwlyK4phmG+EIzQ+jef8gMMcyXGbh8s
-ahdolErM7QET5Hy1wdH6CAgukz3IKpder5VJ4QEjWFPwfpUjcRcEI/rpStF607eYVbCoCTyW6Qor
-P/6dZLLF3u+ewuwOiwr/DVp9/srSOPzH9XL8h2wX/nEMQt6pAuq7c46d/DFOVrwoRqTvExyoN5ur
-ZL8kIlcvmyAJauacxvxc+VJiKEhYQ/oCA0V+KVOfiutczvsLGzFvxw7b/Wy6aFT+vMFFF07wGOme
-s6lEL4CKce4g1EU6FZO0HjEMKuykTublYx4mRFxE2JWaM1T4yXYm1Vb5X5NqanFtqMA4bFxSnaJ0
-6EPtPqrcnDRi6ca2JIS/TwNs6y0sfsn8Mtlw7L2bV5ZfUIqX+wrMOEy8eSxhrLFN2dI4IQkAconm
-X7Jl/l9iSPNvpwWWWTexNXQ2sQUY2XpHP4OETo4tTefsxAps5FC2fEdC+nReP47jgJdl4Pks2r2J
-+V9wTFh7TJMKjMhk+1WzavmcVSD5TQ7/+SVNynrsgHFtKxI9ADuf4U0RupsKBnUJ52v66hbm8Los
-cfhTKn38KCNlH40J5MnmmX1qSHOIi8bE41oGGBMe6BkE12mcpvV80HkfT03qa9ZyO4b7Y5U+OUt6
-+M8KoaOiLUgwf6ccKQjIi1F52TOfVReZbC4BTDPEjz2hDmZ4XSt/5cSefx4HLFVw7YTlQ6N4xFNl
-6+k+m7LkH8Cq44cjTuMorXv54QY5vfACGRgwLcr9xpYDRqQCxI1rA/TZ7kpCZhv69Rjnf35NyKfa
-/ZShvoXwc1wMwl32JUr+MI0rBUc7O/WVyn0L3REaIU6BUAlwwEt7S2avNywIYf03lJT9Cbkenixa
-+GMpuXnnpgCp7XDX/lar2W79vKaY9RWeeYskF592UhDMgVLyb2Mu3QEcJjRIDx6V2x/Nhs27nbww
-2KoC/14T6mJ8TLPZq7NOxiJC5IS4orPbg7PttI5FdQFNmr6XBjhFC9M9eaBbgdc9g7Gy6qcFa3vv
-YVzfWlr5CpgKZAs1mC0SmtORe5g0hPfLTQTBTM9Hhl3+lK3mm2OlxlyqCfe6bcxsym6xmR1au1c4
-ZMxR+sDWmr8C+5QvR2YB/WDxs3ub62ZNWoaMhbKdy9o/CzkUX25p5P2xj/tw4znJ6ampMcScNz/X
-phP2m1xJWDpcp2slzdn7pnlBT1/G3hWjup3g4TbX2yLLP4vLyb2fSCzOac357wEDq72phq155g0L
-Hu5GARfBnvuCdYGv66lOfSWu1pSqqRuopv/Va+6hKlJM3tK4xVd6WG26rdhL1bEskKMNeDKXGeTq
-cXaOxzewqMHfoVoU87kBkHeaaW2Obi20wzirByx3DBePuxOa8GZB6bwUIh9+ig1W3nY0AJTagWAG
-6DMRkn9ynOZbGPq+SzgAq/K8uVFXHXwy5rEywSGeF+kNuAHxKLsIicMDMtxy33EdS9W6mpTrCeTg
-XHRE0uS6cAcus4HNAZGP81FVLd5n+hdsIvuVaLr/phDM/1F0DbeDtJPvDJfN7/pwy38A/+TjZvX8
-ORUxv15wmVsHSh7rrwcthTwMqPqLPj0adp2rXdb4vTbgRBFmjhNLcpe1KWUr7ixqxtCJrNifJYJC
-sOxnkGCgelbro8OWerSI6p1SqIFI8ceFvbivymn7gBKK/s4rQnm7U2k+xT5WovUSkGe3z0uJmLdi
-klm72b3+YMOBIdnyZriLxeq3NuAm3jMrkhHmKW/vtB0wpCSpTfvAKrnAuLWSsg3YO95Jwcf3eiwp
-/u5Mw/QBlchyoXpiog1u81iBYBzF8h/HZb2wmRz3rP7+9kcJ2te0K8+qodv5UtsTpqagOrrH6Q1C
-fPaY2fJw7Yz9KHbz8D21gWVdrlSJ6MHW6bJauiGHJf+m3sL2kblAX8rYUNRuEtXTokz9uxjyNFw3
-YhAvGm7FvwYi6nsERCzhPJZj49sFORdviQd22mbowLD3j2v6LJ1CC2AcCZkosWX15FVS/ba5xioH
-nTB95c6hdRxLgK+n3ISXNyaZ8lu5Y0nG7Jsvts9VSt7G+jtRFjsDw0JaU0RC7Zha7uaIb7a0msrV
-tXjFy09CDjmc+HrIq3zCRtzJQYgHlWOfAA4E/voiVzbdbRFRCBdGmvS63kX1NcxU3UChjilGOowY
-qan9C8Dkau0hNGZH52tS874uNCTyEoAYwirhjL8fwW79PaRpyrMxS3YuSoeJXpkpjl22bft7sh7N
-Ywm1INT0CqEjrShmuXUNYh5vQWYuRQvCdPw5zMLoThuVSSj9HWavGvFTeWvyYf5pG1Id3XzoPHaG
-pv6O1kNo0ArN+Fwj2LdqZ23G6gwvRHrGM9YRkxvMzHO2k3cop2Boh6092/tCFvudhP/tuBKgpV4q
-cmz8Bl/cQXPkGKt5i1pErhqeeHdJBl1V/VbU8KEXA4oMBVh2w1IZH3Yj1+YUPRe3QYWtwAJWhLxt
-SNgfxqNEV1PVADZT2k1djRXIoVMUBX8rmI4fa+OTtcczFHfWmyztm2PH4ZaCzb8NEfqzmSWFdBMT
-yl/wCuF+qg7De+zM6ofxgcjHBGELZnhuNHDf3i85PkTYMjtu72keZowdo6X2B2XZUPa1qtfwKSJJ
-9lYJg7eA1AZPIcGojs1wz0V+cWNTwcQ8bs3fshhBiq7bHo/3g9n0Zw2m8iq4hOPFic6+LfPR/J3t
-Ivm5TpV6RTw6/W0XMm3dkZP5PRnRddsEG/evSKYGsUpls5zTrcQpbUp7yBPZbVOfvGV6vNoAb+9t
-pmga7wbZYGaJWIt/lnQHvJj6DN7/HJi17Ectat/y3C7+VNfTIgBz5PNP4RGNgID0qEjrN+7fDZ0w
-hmZVqqrTLPHH9Itb8at9vVZ7n8Tg7zE8r9hlgwxrNwPRG0/w388zMDW9fpDgynr4K+M3pBCSdX2q
-J1LXpwyBPBg2jjUcXRwLBWSqsibpSPBxQVPRm+4WUNv/slAl0ADjOYzZVdEc+s/KLAJNWWXXvAPG
-jLUmVLkF0kPKRd/sNCMSkZw5PmiEDAGUo23TfO5UjMWjnQ5x5xJywKVhDqxCQyxL7Fd+Q1Q834w+
-zlmGGaPlfMixWup5AxYO+97ztNkswf/ulh9pPmFuC1NM5nME6ku7Uo3l0ywhHmh9sBqIm5irHwi3
-y6vW6NL+B8u7ty3AkET3JR6z7ueNcABWuhkeXUD0TQugRCQXBxnw0RceAapdMTf1hqOT0XvJ2P7c
-UGzvnQmLSr/Lt/wYPbUo0whow4+PmKZbwlL3kkXaPOjZG3+BIH963NWQZn2BFIgn0yCdEfnWBrnu
-qjwyMFQpt5gEkj1Lydk2gIxeZz4NsY/T4NJuWdQY7wUVWNUKtMG5rY0t/ElHgpBMIuMhb8etTq82
-rY1rNXQbLxynyrSeyJoDq6DLgGI84oUa4Y4YWr/sAotoWQwXO+R17JFBrEFcsskMbY0QbtaVlvkP
-qqRJLhxb6jUw1fxhqY7yH88balG3BhO6HQeoagspY3IWcRCx31jmXo6CzKRN0zHsSL+gsgLvMlZz
-p2cNSXdA+pWvob3IIwS8D5Dcih8HEtKKTh3NsWLaP+p78ELbLwY9XgKFAaCQdtyOCNQvNSACxmON
-kMqxPX3M0hG9SaZUfhI+RoCStBEvDJIAfZor0oSOYD94bPyEyQn+oY23SbJH4MxBimuWZ3DuGg8m
-pkXmOYyhFSbXrbOg9WY8ybhgAfC02MDLafqz2VLs1Slslc9geVJAGGtqMQhZK1ojatBQoTL60Y4Y
-eXtEb4vrWXDMGG4gbu3dwd1nxkIiMe8d+m4Ss0yvM8PIyxZp/gR5cZzbwrAGCGuitu00g+C7j0sB
-AIwPhfn1f5KhbVyjvzK7+QeimHklbFnlqdnW6avIBdqpdj5+HoFsD3lQ/GtdENKB5SBnDzqoEiWI
-LdmrkxT5vA7o01WVLdlfZlHycKk4Y6BCo+2tV9ufShEA8zE6ZGrZmkuYjhHWgrC0qTihz9EHkGb7
-M1bVqLt8KMIbZArkjwIzgUbWcL+30qZkukccKfikwazupw41D5cqj/i4gc6q7WtLkMqCab38IoiD
-TDoso/WPLDsmIL2b338RP2Oy5sYm93L6rjSec/ak0D5Nd5jU3YIcgb8WWumKtGzc0/LeF5GWoGZm
-+eTTgHkXv1I9ZJ6UCC506Hd15VCsNigLn9daTevtzqrMg2CaXdEPlQRMiRDrOruyK0UYVoEMlaI3
-qQr/cIe+ixVGTdFpwKmv6cEBlgok4B1tQQF7DAgfKa7QBFPg2jPU9oDy5uVJfGcJnBuVhTuUvVxh
-/cB435Y1Wf4xMlPaKc9XrMIuX54n3+xHB4p83M8NVYh1yfyYPm0YQZKuhDrrccf4v6Ec1Bzkk+MI
-FPzefTcM2YNH0DubtWsFah0MSG6swjWF5++rLqaJtnNq6dzhkIQ3ZyfyMqTTNoL93fAVTMGA1jok
-vojWeqcfS4Sc/t3QeR6ANKePCAJesscVahQGyG4W+MDGNynsJ5VuvxmQv+Qy5cE+zkm6z7esNDG2
-K16v8gy7Ifi/iXxnUnvQ4qd53zHL5/XYjJAP7WTsoOfln0oAm21X1DO8f5sQoIm04I8Z/K72tBm3
-nQa2g9X3VOS4vyHDULHJpHwSoExX3OoBs8KSZctnIsBFn9SOUtyFyePE1ktS/TN5Ep5psG6/1XWJ
-lhOSY0+7yhX+Azh4RbsdiudLiVxbfj1SKPC/2xwSL7Vecox/ywDcDkEzGesA68a3ybv0PQhZp63L
-BLmFrX35KqsDwDNyuBHbOoH1/W1l5SpoB2bQ9sVQrdfzTvAvz5tbMdLSShbdKuriH3iPAmwHhAPf
-/PAMV5WiO9Ys5MMnf4GdABZXKGquE6APs7uwzckvSSi4foLPEo7dMYLYB47MwL9XHPhvj7S45Vkc
-efj0CNN4xwXhOyxYNqQ6VWFqyo6ubjeXA7HwNwB8kqNdcIR+YlpSsh9yRpJuqSPJLyE1+XtSqPEV
-ilj+xwKbfUdYZ8ovoKbn13Uai68tLty3GHoSYP7g5j71stJ739TrsZ0K16R/oVLXsc3YBJs/Pm5B
-xXUi5PFb4fN1xU3GFdt6AwEIDjKSmP/hffQr0MMVPPHoZMCIB50NEs0F4fq0byO93ZEnAbrJK/rF
-8hlIQLrUrOfbUR7naow2gmcsEoKNYSH7cA+h3IxrBjNAOo/zGs6LtbnsZjy7G5UuCbhkWC6/hD7M
-k1YRQy1hOyu6ALg6PxWq8FOnE5knt5HJjbWIHireSebBCKmhzsx5wgL7XAmS6q4pCAnX48azF3zr
-Bd7/JOWYDaoFKS2LSYHODN9zQDswph+kyrVEcT/UT7KBHkOXnhAwHFNdPSV76YbzQcz8p9KYjrpR
-AaxuJRkK9LNM6hez+uI/JBkDn1HCLlW7Gbhu6BtFVmF6n4eQxTux4ZsQbS4Y0CY3FNUDdMFa9DX6
-cOy5qVcUJVJYGOgc8h/OAz7RIi9MrtV0m6F8AHnmq0lPtNnGl0kMAXBPcZDxtCzwYQDOywAra1PG
-LgsWSuVURPGaJ9gc2hmJFQN+fIt9qbJoWrRIcBwWneZrRxQv7cH4pDflMTMBs1JT3pSiJh6A/uF/
-ctzKVx0jbMR+asalIwK1r3OQOyC4WC2rPgMSGh53/p3AIY8yfSUJt79hZsHrpyyD5iTM2u89p/VO
-uwEKMDCHrM6u9wnv3wd0AiiQtFIgurIcxVZgzMLLqbJNt+kIiAHxJdBHIRlxxxI7lqvB13/mNL9I
-A98JukHFTtRjiWgpMlHPyhky3RXhYGVb+8SP7eCQPdRJBUD1qg5l8aWLlf9WKCkcN6Gy10uKkaiv
-IXuiz1FIexdosox3mM7Ku0MnlboUTrmxK4oZOhpMDkBr0tSlWz+7jACAiQMODy+K5d0FiwtZ83F4
-mrF0/fbYCeAiIgsiDGKt2S9RDzrALxkrKH/QOqYTqN7tVmuMKecZmLropA6bhUE2336k9lj+EkmK
-8dZnZXEFf7X9WzpZnJKM2/UHoHtwXga2x4CitJb/GjeP/wVwq18S6Osr1SWkE0wjs6fLxYDpzawY
-zfvRafpgIPeAKAwcLJKSXPCgHBwVMEEgYxyxmsf2UU0LiqDlQMvRSUy1dZMYdzyKo8LRN7VWtFV8
-p68N1EYfXKb+NVmr2rZzpvyHQtR02k/ckSfME/HVTCv++Kqef1Fqt1fhl6RpUavTCTYr6E4gFqMb
-hpYw6BHu8VJF7G5xN+2IiBdADYiHB8ylq61uU+vpR5Ea+itPKvtECRbUdq/d/jdLBoV5BEuQ7hlo
-zesZF4iRjtn8dsRIWnZydPsCzQrSrxHnmSPk1mmILPDqz/qCXsg/K3oUBiHVIeZIcloRrUGhhBl7
-hhuYdhADV3hXGc5BN2b5CPUyUsHAn2totNrvmgyHDB4wbTd8OOpO1YA7wcgJ/YoIKfmf8G5b+gnT
-8oOSmDxPwQ0atBbo3blvJkf92U+gtVdfzmsXKkFxZWxJplNkaDDgxmv/R4tEfGAhgFN7nEl8ydKQ
-2LYm6/FChzA9Z8Hhsx9ZeoCFQ/tYdAe9BphpWZvlwRm2/phplv/aFDb9J8BOOe1WiK3+BGhb34cl
-zD/3UmDEhhB8ggxsZPkrL8ICj30Y8x8ENDe/WtSwfnC3fIsOsYOI9kBQm7nYRAnSOtugX5BgJ9BJ
-IBNfyhKilonjCyntsSrz5WDu+FNiBR0wb+R4P3MMCQMQyDSGlteeQm7VCFt2Gd+Lp7GC0hrnAN6N
-1tosffL54Z9mfHJMA66k0weEc1g8gnH/eciX55bv3yd33+m4XEUt1NsCEhiHuJF+7AjAgKQFX8Cb
-FkAT4KdYCn7PIfCvuo1m+GDHcOCHziunluMzEByAuExIkFd0ZhAL7YM3T8POIKuYvtX8LaUHD5Cd
-WfKGfVw+5AXgbdztiTzozQyPkIIiEpelil5nqQHuu33LkvCSFQViH8Vi674CkPYKIFG/J8ORFacq
-kcBi3TamPyCNVGWHT8kBrMKOVoKJntIqdKitEGxg3FJPAc66sSdrjofMDejjHsc+PboBwrw3wnPt
-+5yH5OogoNxRtwf/UeuCvRSYXHCfSmI/0zyC2YfNfcSHXdIiYDknB39N2ViwGwStHg9qRQ7MGccf
-xQwKPPTHpYB4G6yrWwdM6/kGjGnWJdpDWLY7QlFP2soMRvRG0jW2pAzsAaYO9+yy2nw6auh2lSIJ
-5FZJ0O+Y1hYGKpIWH8DuDpS8ahuulhy+eeCv43JJjhVqHk+JvsWl7pAzVBnnHT7kBE1OeUDSQphH
-QlMyl/805bI8kc2pj++SgM0MPAfSuTE9XFfMzwgrBEf6vtZHCqsDzweFrkRqQDLAJX7IDb4CSGJK
-9iNWEt/piwDfoD/gcXF9w5ZBYwyi400sFFBrzSCGB2gBxcd5JUH8EM2Chjmv85Hh+Gz5jSjAMyHJ
-Jlkk9qZSPCfGT3+PJVZ/OHTf0F3yPPm9xxWL0P9IO6/luLUkXb/Kjn2PHngzMT0XAKqKpOidRN0g
-KIqC9x5Pfz5w+pxhoSoKhzPdER2xm1tKroVlcmX+RkvQ0lGHAISNL4uQGP1W9EjF9U75ziqMLsH7
-vw1enZSOkhVkeEZITm5MpozOY5aIZ5FcgGEaJhqbHNJRGWwikzTd7gRen3ZEiw6AkdXL5wBxAnOD
-fh1wVz0TlNcMABwnlMLVG2WdeBbUJVuCYr91W8uFcltQdc5cr1f6l1LmpmTxqf0vOSvpiURxpH/r
-avBedmbl4XM/0iKjDtVrVxC5e1Y4GMpg0wLmq1B8KlRe8EZM50KvJPGCD1eBz4gH4TG2Bh/w2gw6
-zDXMk3Zd2YUcsl72Umks516p8+tMDAflLEoKcZsJQ6PuOFDL2DGavAlUkBKUAXH6oYaQdBdxRs9T
-mruH4OhM24Ai250NlpbSY0hDvXYqQabAi+MKbArU72lpd0rMfuIjeBXYpUbTaXZ05lXch5iV1Qol
-8StIa1QMsiHWDex+KmC4lCKoUHBXBM2mK4xE2eIoQxk7apXqRx7J/TuUq0BHZ4susxs1Y/mAEZaQ
-XILnDb9FnBapY/TzS4q+Mr8EEJnQtw3yrR+oiwrfoEXSujamPnpVA7V/p69H1CquY8ulVpWYN5Wa
-UgTGt3DiDYCqLZ3WzNSq7/DsCu1boOXhE0CDpiHJ6ooWmEwogBMZoB3FTlWAujrzKaPVl/CD66sO
-PHnrmJS4pjN8D4swuKG/OsiPoCqmXyRbHbD3wVC9+rnxY/gmmwphLeNcoH3/inZ3/2PwlaFFO6Ay
-c9fiJQyuohXQfORNTUHbNybhxULoDDEuU7eugza2AhBggUlCnecPNa17wFRiKP4SgERk7hTGmrcB
-EGIBh+I5mrpqDS6I7va8AdR2RIJQzsyudMxKqHWyagN0Gd0967HJS/NuapVepEE5MUwo1+UOdG1/
-NXX1RMlt4mRwaYa09z7Y6JaekBSX1DHN+DnMaU25bZ5XaPmA/COxjNOR+nCtceRUUsxD3wQMIgET
-a5oGLIoQxLQVBJYNPVvEGeNiMryzknpyiPQQSa2TizJtQtpumb6FtFf4mwiBNHNLtT7mblJk2nEq
-aHGU4CqMJpys6mQaVYrgP5Aw9t0mQBf1AokYiaqKmAkCD+Ka5dsPIkoGZZSOnh2PHO/0DinynKP1
-zQMakIkBnmuKpFctlmMIyhnimGiodvHgpkqn/g6mjDNQCLGXsQUlpS5rReB+7ZbD+r5KyuQJMKJS
-INAgDs+dH6TBuUCyTT8jLJQ7w5fRzRqkghXZ6Fkj0SmUpKuehOa1jDrzARFgC8ARtkfeJrEmKKOT
-IjfXlRnKP4NcNhCZiAbxfNL8vLiprLy66zFWF8FrmADV8zmdTz0lrhxVbEGCkYULULszvf6eBQlv
-2wixTw55gJueSzVcveM4oG8EvQwYrpIlgjCzXdpbjqmpc5QoBtdYREKz7cuPe0BtrM7Oxby54mik
-Nwx2yPsB4SI5G9FLHVxADrQEgfaULyPUuNotAbmVFziuiH/8ITOVnShQ13MoDUhcJaIejS6Hi2Bu
-pF7hyYnESPM79eW6J4mO/WeUc7u7Mag6bphC91+DMpz+SB7dkm1cWfEvi0u62uhsLLoPZWSWCMtE
-BljQkTTTYcXT4IbKw76BrECyx3M7fqMun73mhRH2toTg+zOdW+oyfd2MV3neW68ouoDgoUuslVT+
-pwiYsiKYv5MonX6FvKcYlYTQid2mRqc6URhpzdzC0zpHDI3kZ4hiK5Y/0oR+gEp1jk5nOFM36s4C
-IJrlUwrgRBT5+D6tuou6H+XGFg0ZOH1cqEIAsijyq41ZWECtuVvwSDJ9dQJEn5flNc5i4ugaoi5e
-an6GhUAo9Um+I2eMv5c5pzJJHHCjVi44+gE5pm9ATKNbOTMasIWhnAobUODebcP5FDik9hJPszBv
-H2Tw4U8F/ZpHTad3oHI7XqZ5otxHiaJmd2XUtwjoWGE3nslmNzzUQV0jbjpVCuI+RdJ4uzFXovu2
-UGqqTf0IN2UUJyqM5C5IoU6yGZsbXkaCvgnVnCfiUJd65coNu2bjN+HA+Wj1VXaeqYPcosvc47hE
-PVXjfNCUhh8HsHbeinAqBAcFtRyJhkgao19mDlhiBzGt86463jWAuPApvx/Ayr2rPAf41JLYY8zk
-U1/31AAI2QjqBUhDIya/+mrwHj2y+99IPc2l1XHoVQ4CcsANjBvlBdoH6I4UFtBLGQ5c5FUjWbsy
-6WM6qxCB0rMBTOc975MCu+JIroHMa3CAemkqJadOoDvasSwnCagSCiOu58GGIY80jFvq0WSbGkyA
-b1EF5M4NcY80aRi0XE8AapRneSzDX4MJmtdJEoMsF4phVTqlaHq3WaSCLcr7mCSXVmsQb3Ml1R+E
-VAa800LVu60FqZmc0vTa3sY1BwRTYYj5oxwa1U+gZpOwHYyx2gUQdSfX9EvvgiWlJpu4ggBHAUfJ
-7iSzMe+xS8xfTKXUhG0HkOC9lcLhVxfQbqLIEqnX9STE9/XYM0896+G1oLk+8N7sy/MKnlW3kVB1
-bxx+L/FRnazibBAiD0AMxdPfdRz6L2PhRz/TZlSeUh69v9tySEPasaw5W1ZSYbR9cNkUkzQEOvDh
-teTvSUJ3RopTjxpu2k005A2z2IG1L2WHN5KfcxvShyNlBpxvtwqaaBu/aozrJtKEgQM8kTSqgFH0
-oyri8NHyYuuWBiK1l97zJmEudQ25beoCvJYhVHkEjJx3r6QSPEBk8JZ2k0N7sGFVeb/0gKLFtrbK
-SHVHUBEWiK9mvFAnPUViQ5zvnUgsk3CjdgEF2gRsB0oNqWnczC9QjaOmnc7rvPYrx2s7qnxoNcmX
-dTepT37M2WYjZhniNMRjZWtWBUkOQs3Vnx4a3iUez43sdpVI5zw04RfYyBMNnaM1pZ/Y3TQKP2Af
-8uWHEflzM5ykR2Uw0IUpQWDKfD8SN9xychkKTpxZd03sTZrNsz0glfAkiW0iysJTHyrTkxd2rQQ0
-fK4444TQvqpRrZTO1FORcSbcJjweq9lI643q0W3KVxUA0vLAtkfFkK7gilXXpuUDPTaklHzfV41m
-cukY9QPnP416uR5p+k5D3HtbIKOqf5ZItXUnZAHiHZZF7/6b0vX0NWiM167XjGMN2YIM4FyOVEuw
-6wbf5CZDTsX1GxrwG56wWQQHMcrzO3mUAAiAHquh03gsJ9okXbsph2As3EocJNUxJzjRziC27Wun
-9EK/6dtKirZWYMXstMDSyb+Aok4A6Xw/ciWKg+HvwadEs2knQeqcNIcVT7o2xoAvrFIOL9Aas9Kr
-vgvNWy2Mk9JVuimBo5WDtruB/EN7u4WxwGSUSvpbijOp3o7B5A3uOFC8QkyLdNmVmMXKnTjayTgi
-+lVMbFIIEvUh2bsPS4MMo8TmQgDy2ZGajGzh9yQbME8PYYDc582IkE2J5P8VMiHND9CzKu3IvNav
-So0OtKNMYwHI2CwidBdVTwKDy3nGk12O7hsp0kmaqamCyesBaLsJTKLfuVeMT3kiRTcq+HRxhg5S
-RaYua/A8zYs/ptfxJKTCS9WQOiJ5WKTRummMRPxJHtg3Dg+XjMS0q8wbqVBKaeep5vTTF3rxCoWD
-TvwGk0z53WuSMpdpEoCa+Ab555SIg4lOqZjdQDNQJND8ShvQcMfMwAEOxI4yhki8CzA4iJ1cFflg
-nShqj21d0WAuW51GbyzW1vko+E2/6/neDxP3+nCmUuM4j6qATrjSUU2STMqdQCO4O3NwKNfkDFwi
-iVjnnT3VlDZ2ZlhWwC+sIPcf09ai7QTAXgY5lcXmnZ7mwGK5hPybMgFTbHfM8new6t3N/PwDlCMm
-MMMEIa9vIUl6b3FBLdnplIF3hzqYCYAR7FNerGBkM/tFMBogtRKKGGmEiO4G5Tv1LaHshgqsXASP
-gZo1vIdFq3xBTklPKLdlyZsvlRV4CC+muGRZFORBp2fFo5SDBeCkBYmhaugb22GNAbnLLh5/WqM+
-dWT3CqiQnqKtBh6HZBLEtJrcqyGsBod+lP5LMyvjjpupVra559PxZulWG7HxKxL/qlAKZz6dx60c
-UfLZRENDQVszJyCSgZnezGjU0Q2Gcrgin8lq/cyntz1uAqQJyp2Ul8JV3XGXnsV5rpybVEpk20RM
-nod9PhTSTQ0t8HflidONHppJY/dALNozNZ/M8JtZhJlEed5vjMup0ZPimReC8CxYlEVpAhUi6Hw9
-It9t+kJ6SbKJippEXh+9WX7UCTYPMRCKngRlaleUYMa/GxiRWjRcrEzjYFAokoGy9SnBA/8Jxyew
-pR1+GhbEpa1SwOSx83bEdfY0u3op5IQ5ANKeaDbAxpKZhgW7OUHfxyqB/dAOVuWfGL96dhuX7c6I
-++FWEBLEXAXP53M1rZvErbQ7HX6pfzeH1xFzxKgdmVp9KawEabVqAK2kNsQrHkYJQOb2TAQjqKBa
-W9zQobDsSVP9b9WQAAo+HVxa0vI/osuiSM8RRwYKyfvUbsDFXlmlDN7PVU462oVu5FuyQ47yXJKC
-srXpO1cwvzZJ02tuFpnjLst4ecu9Dwx75KkPdsNa+73kBeV88XupCy0G/Ml0jYZiZsce1/+mkjw2
-dYoV4Sbm3RMWjMhukAiU6OqHvPlgrm7iDAwMeRZl+FJvfpyeqaWywMcvhEEh8gWzAbS80C8oB07l
-VuVxnKU+hVeYcz6wjoS6ZFzneu6ejraUopijoUzIgkC9FEfKxfCLXs3wcgcHAhjY/KWGhgI4DrKU
-YYeDNvzySC5W5AyOLUNUECVdQwMWEfPFQgAeWedxTRceMqB8qwMyIeGVQOI24nAOds7aFRlk7VzR
-V+wdDgOrOjhjfV6BgBStxfYbdQGaSFFAA8zEfhYxHa9GumffQEcoILfLxi3Nsry3tMT/olgEW24v
-8vzJP4mLKLUaY1WO9DavrsCP5xJ0WDylaiV356Yg0aY5/VEP9xrxUKDREC2ev+5CxqEetVwKVfYa
-DkjihQ+ylcu2yFcUdg6XDlEwATRl0g4IB/PO+jQqQoeKVbJzlF5qLrQZ+Gam0gUt+f7BAG29sm4O
-94WKBIoyO3jSDkTMaj8crqielQqs1KrhBmsoEjvUHr9DrZHOvj59HNSqiNoY0r7Lg7LHDkGlqcmR
-ULUk8FyYYCrFAoDlyro4NoM8FjE4p6uEreZCFQXGWFUNIZeQV8rlOekRlC9YyqEDjhTyc0UFecXE
-/WhELNxFiPZI7BmLPSDxqC/TlsOlCIT+zRuprVlNNBcvqyC+RXfSXBEfOxpQBQAya1nDup8VPz4t
-kt4APxsHDLGhcw90PainC5QsWkj+vXYNxqK9/frHm9Xh0GZRVY1O337AEOw6aQsBp9IogVY3FhCn
-oVz5cscWoyVaYAdIxQz14DbLK80fzfnLSZ1112coKjiD7xvCpk1IZFb281KWZT4/8IhhMXJrE2yx
-TnKrTch74R1Xkp++hrT2QIfGAFem4tKss9nWWGi659MTeeS45OhA80wClgLja7G9dV0YpKHM2d5W
-UW6yAqpZPVJ5VdJoWyaeiSZBqF3OynK/Tgc+MloCcxnh/YcI8vJG9sCoDw3eVBT5O/EHzKCYxkPs
-hTcsHukXKQ64zB7Wobey7Y/FxXRLQZ9XJvpyltGP8aNs3vayDxjagfpKU9iXksjaSM2c30s1hKVA
-avk/To/4yCZB2fa/Iy+mupND9P9Kjrbaa80XGZ55RDokdWe4r7VbHzr4SsAjFwQZqIzXjCJxBy+N
-ZureaoAUJrTxQMO6Gqqh21ZQvqrOx7I1+PtV1MM4tdGe3d+KFXR3A3YpUeJiuCib1nAA62kg8dV2
-5Zg58u2QGVRYL7NdJkPaD1Umojz1WsqagffnChWwskGrIN2GNJLuCiDKP2LJWvOWOHIKWLPyO+5A
-Gg7M0mKAkKURdO7YIiFLwxUroEjQWrydL8JQOL1EjnwxC7yHhYcGpjZoo+4PMIJwTgWJAXro/7hW
-A4apL7U1ybfDKLOfAg4G5mz0Qpq+H0XsTDw6SlxeBMQDbuI+BssXRN1KInYkyiyPx385O2cZ6f0o
-LVyVNNMsmtIG+NBCyjSQOsFXNZVNdDVJFLAt5CZQEM/ajzKIQTfwnMCOEsBIelOhpZO7eSU0wcq5
-cbgKNHRVNVFBChtXg+Vw0j6GnQMdHyh1AyjZCaehTH6AGTfKAWbZ2Mtr98GRCeQikFDHF7njAJfv
-D41elupnGp4UU4/mapjKlQM8ckV2+PBQmoUuOf1RKyGLtBZfSSZv6YeMQqosavFF10R4UfgJ/dWo
-QP945nMX48tXFzk6w+jQA4hH2/DghYrXPK4eCXmyohQ8xQKz2BbjMLinoxwZmGEi5KmKXKa6vHwH
-9CjT+lVc8vS3SpqVSYDMkDHUW9NoA6cY/DWznyNfi3j6bCEp4yOyXIi5LntdPBvvCMDPbPAb0rYm
-gfnykY5BCX85F4ku6rq+OAEH7ow+T3ndBKVBzYyKmw87QkY4aXd6+g6PWjTaULFX8SmxIMrPw/2U
-0QW9nFk9vtG2p2TTTgOx9DMR6NZdCjIP1lsPRqtk52VAVfN04CPziOAQtT5N4cgFEbQf2Kp1CPww
-Kuw2Eb1bc4DNVUfxuCJlfJj2UF1T4e7hrWNKDHI/iqcHyGfNEqEKznzA0JGcgRLUP5Ccl5fQaTtH
-rcKZLRR1/oovypGFSTaJAKKG9QpP8cXMdqEYliV+K3auq/4P+E3aj6m11Hqb5GiS2HoMdmr79Tnl
-8EInkUtF5vDfHy3umYh7IWNod0EjXEeaioR5UfS3p6McOSEBOaApKEPqstgJ+1HyYkAvwARoZiVm
-toM76TWzHoBBTzFJUm1lJxz7gjpqa6hNWqKJFN1+tFbBWAssLK9fcwh3ka6C30tCAXF9z4iussof
-rzRKgzuFFP7x9ECPLVEDOUg8S0wJ45T5C3/aG0ZIVdzXNRgGgKduJXSlNjkqjc7pKMfWCUZWZObc
-cQpZ8n4UdKUKRRb4VKkeG3YNQOKnMiBVCsa3pD2n11+/4Mz5wY6cLgr6hrYY1YRkSw4NEQpRGmjg
-L1WfHqhOOxhsGWpcK9v86OgoKMyZDv+7fBQjgQX+FCkIpGI8yAqYDNOPqXNrSM7iVBPr+wmK0VoZ
-8EjQ2W+FJxYzKqFzsz+lkwweupgg9IyYv9ECgys2ArjPEdDx09Q9/f0ODFH4bHih6DK5oyjxERcr
-dEipAun0IWyLnZBuwq4Rr/oB4TArbLIzz6RPJIVlTXOXxjcAXXpRtj8adP9SpPFWVtORNTsf4yaa
-1jq6GUuZ36AHnIntUw68pvI3OOSC4vPltRfH8TF/CjP/Gp+2RqQ3SSd62Np40zTodtXOmlp4QKqa
-kypWc8PaEs7FnmaamaCMWyRIDgndaGK3E4lfP2gtFccIkScQGrzaIjXM0ZDzDJUhQxxD0RTA6rtS
-lTGoMNG/6GppWFnSx6aYqrfI+YdhysHLUtUnnCIQYLQNTSmRW4M4ZIxpvzKqI6csqRN/P5q3yqyi
-uj/DgIPVZGh5IqCcV754SDe7ZSn7rzhqr12SRwfEc4sEkYsYwfL9UKgwgw2QuIor3MFdrwIUSIcm
-WLmKj0aBS8IxAEmCD7YfBTqTV8j4oeL/64fmFnUitXV5ZEF8Pr0hj80czzfWPhV3fFEW66Eiyzbh
-shJIaMStACDdNfLOuCsgCj/8T0JhyGChrmug07M/prQe6sYS+EjF0BQ3ptcEtDNNkLwAivro6X8Q
-jHIRDyCRF4q++Eyo2AQkwOSEHR2ObYvb0QZ9IkRImiTdng517FuRvHAnobxsIr+zPy5gTKpep5Qw
-WJnpHQoW5rVudmtmnceOaZSQ2bHcRKKy9OPNkk4fw4l1l9VAJ+0WuOg5h2P/HFCa2hYtJJ/Twzq2
-MqjygVLEPJKlOA/706mlNHDFU52eGTJamRNNsOKqCPcvDK2ClY91ODaeWeSblEwMihjacgaxXU1q
-YNUziRpcj1fe5WZ1gRCdfiZWYbcysCPRTMyoKMh++MpYy2itImAjTi9d6wX9wk8t4TGyIGJQ3ppu
-UebzVlLAw/WBTLWEGRC3OkfusnofijqYfSGHy05D/aWYmRCpIvf3pz/X0Sj0BtjGs7SzubhYBaHT
-hwlRJkBtCK+qnV9dg+JcEzM/MndzZkKHheI9ud5iD1M+hxRlAq3PurG7lSRvxkdA9r1Q017/Lpde
-8ufLw5ptEkV6EYqGRPYioKInVegHZOkIi5E/p/LvMDO+aD6tsnvnsxbvAvo5pECLw0IW0JjIpo6H
-T64gnlsjGUNZWc0ccBfw0kS+2ZczD851jWcrwlokfNI8z582V9kVEG86C0hfUraXxhR5V2LbK/2X
-T3dYFSKeE4TgdF8m5WYKuAe0R4wgRpNv0jh9n2ZcWaVHawZbB8sPLxLepgZtI0nGkmRxjyDwWwmt
-CP9QKsfwJc2FYhM3wVph/lgUNi0dfK4lsor555+mLSH1n1m2AIWqBFhKWCnBpRpq6crtO58An7XY
-UQinLyzKlOoUFvmycwPkFFy5QZgq7pXSjjMToZ1+7GPlqmsLgIFRbQHMg4XPGYOOZvn1PhzXCb5h
-9ME5FFkgizMKrXIwAXMFDzaY6VpK/56BMz774t6ag4BLoA9OjgGlZ382I6rrgx4QBH0n7xskGIAy
-gu+tuHbOB8/eZFJSnd1IKNqRM4HA2I9ShVldNbX+s4WAXOTCnR6epaKxzSXZxrqHNApGGe4TKyv/
-oFQzR4XVRN2Yiga2oftRgSciBTzoP4f2wgrMy7TbyLnnJHrkTtOP09O4DEVxmucuj+0Z2oER1CJX
-CxGtmCxrhHKsD/41Uiqe0/Zp901Av31jph74NO5s93TQ+dt8ntWPoJZJziuzH7jJ9sdH99lHBZig
-AUynHtSGMNdEEU9yoJOvISWW224ZbLHt/FEyTLTq4IZionUZZLBZp05JNl8e0lythvBGBZTMd3GE
-VHmO4Zo2AxwDDxw9nME7UwJdFwyNt7LBjwxoL9Ri9jTd84ypJBTExx62ROrtUG75amLItAFAwHCc
-l/xcql7U09pWCoD4I/1IiVnb9ZTPaW1Nxvb0tB2OhSsLugXtmLnMpC2WHw8SpAAGHo/ogHo2clkv
-Yiy9/O9iLD4N9Ikp0nSYll5YFLzH62ADnnLtDjlc05Qg0H01mSsOP3lxHg2J0Mj+hE5bXnf6b2lA
-LCKB/TuLVhhrlkwfDar9DTQH46KakwvOpsUS6BFgUMeONlmMivhLK1bA/2uoPFu03dNby8Tvg5yu
-+IayrOwMYSSfI8GbfPEE5jjkWp6f46KJmJ24+CXSEvn2NDB+WCFUgxINR2fQ47Wc7WCBzEHAWNAi
-lGktGIvMMEVTBo1i/yUey9TaKKWiXWSZOlq702vko5j/aUZB3PCfuXoLmgNDT3OxEFGX6eg0CaBv
-W+CM4P2kS7TW2mut9TU2sdDAhRo0qIswnvoYdxHoxK1/rqFu4vC7ra2mxbBnABDbDoYOjzIyVmuR
-YlWZmfVFMfT2BAj5shpitJBqpVmpPByNQlqP+yw9DmtZmVc8I4wzsnlbTyG518y12yaC9LXz6mMs
-NJ3mpsPcR1meJFOOFYScBZyKAQ4jFczvS0Wc1pqTi/33EYWnMsARwB3Y7ixWY2hmMtJ8SFBAg0js
-Gbn1bUAmYRvCn1tJCj5yi/3FwguMwfCNsHxT9MXZqKopktIj8xZE1WMLgQhJLmU3efEZUshnWl79
-bMP+ZyvhxKN6D5nW/hjobo+klWUTn6N3v1YImdOQxS9ExmcogMZ43HCS7l+osDZg/ppI74tSZSnv
-Kbqy8UVW00G97UtcobZxOKXyPVpz4dsUonK9Ak86spBoXfFtZTrceDctDr9SGuVgnHdP0OjCecxX
-uiQJbh9Ob9Ijn3gvymJTeNUkt4iXdjbQNhSI9Tx3wTwXbhlEiXs61PEBWRaVRi4oMsD9Ca2gznpZ
-wpptJz/YytYgbAsZDauvR+EgxxZeF2l8LF3nLNwbEiTdWEd5FP2EeV1fC52g35+OMk/LcnEY9B3m
-7h831BIWB5jDL7oU5nYcStGuQEAZvTExofEgt0VxoXRR93Q64rHlSNVABM/FtcBbYH/2YG1nUp/C
-WlQo+l0Nkta/YrMgnMMi125TROpQYtP1Wx3+jHM68uF3A33PO479j9koTY/9yEJPF0eoIuRATLW8
-iuIsPwuseq2xcjg+2lMKrSLaVCJPufm3+PSSC8Sy08UiHW0Yf/eirr12qvnoTfpFhyAMErDNmaFW
-X0PKcL4RU5sb7MA7THq4+zEhMfU857PRLisj9d9CVCc7p5CUUHdQrC0CV25pAZ3VGWI5K5/zcAHR
-UOUpyVLlOUm2th8aPE5gWTGhTR0ktTJ40SYvgnKDWxKMiaZaq2jMH2l/wc7xVFosPO7AIS3u/FGa
-PNWXkdepe5QU5CGNvie+722BkkfwJo3iDGlj6+z0yjk8XDi2aD1SgsfQSZEXb65gglc1zXKN6CMJ
-TizmghurtbUtkOv68uFCKABW8Et5+4A82Z9PVIl6IxWQ3KFnhRQ3lxpk6KyZ5UNOj+lgN8ywFml2
-Z6O0yx2/WDPCACHb1CBwaAOCIEKFUFYRY7p2OsrBzM2gd0LMTQU60ebiWFYSyHwmPgUOZM7CldT4
-PTKkxk3LpFuJdLAQPyLxHiYhApeqKfsTZ3mAmSdks6CyoVe7IZFDezrRA+03JDYT+bYiUrenB3cw
-hR+Ifo2RmUCFqGHvhwymMRDRVkKUdCzbcwRQUgdqUeZ+NQqVElrtNDJZege9PORJu8gooT5bca1t
-yqCDGurp00qSu9xXJCvATAz0L7B4Qb1yscQhdkmYRwEvaT1PxMEIGU6dvAW/PE5qy1LuBdlYyf0O
-QlLS5ZEyI8CBEpIg7E9fIhnKoNSwRMK6ktwBIXTNsfJGuJWQaLqxzGYWvhubzenpXJ7PEo8wkSTj
-YzdzPC/W/ZBkSBZkOEqpd96uhPn9DNL2wluJIi2KQ5wW+2EWC78xlcIKIsJ0LhmgDbp3832y356u
-A/u2dl9JHmzU/lb2wEHyuYw6T/mny2eUszipQ6JS8d2GZ5L7mDqT/e7ZhS3a+Va2g5Vxrs3m/PNP
-AWHGR4kw+3NNW6w5HHT7nMwpVnbAwQNsOazFoW/hpsjyJErv/GJG7bfMvvjjPDyfXhnLdvbymy2r
-5WT0rV4mhCncn8+Zi++K/fvi9vV0lJWFscx/kqFvOzEmSLMN7dbpN/lOuZLdtQ8zL+PP9+Riypbt
-cFXAPSag62RLGWrMnQd+Pa/aiy422pVE9SNvOhVqsY/TOqsNpD5ru9ygduVQS3HwBHJMV3dfdy+1
-+4Qu0P9yRWiLo1cJK0mN5k91VW5+xc7ju7Z7fX5QVoZ25IT6fFYsm0KmEdVmNkcxtR+tdxai3FvM
-tptZjEjGWh/04xV6ah4XR4aC3IeczJt3dH5NW3GHn9am3gbX4blnJ7vVz7a2EBdnRWQKsoby1nxC
-IWZwg0mBa2wxQHOeQjd0/8Azt9ESsv+sBp7HcWqcizOj91OE9EsCKw/yRf2cX5cXyi/vlnJYNdrF
-6/iYXYQ3yq32eHrjLQtjB9t7cYrEKqRT+Jj/NeDU4bK2EUh10LJbW53zZXlihMsePaXKRK3mSMKZ
-6vQOBCD7zbgyLtbeGmtbb4mm8Jsh1PM5kMJXRD+BFdOd4QHmeLbhFBvMvV3TMZ01GPbaUtXl/WMf
-CkIySvNSLTdg5B1EU+xnVIFv8J5+Qmj4/PSX+0g+Ts3n4oQZ9DqAHk84eQc2jstU2EjXKKS52IU5
-2gbIiv2tsi9wm7HH76djH717aDHCCJiJd4C89oeKUMyYaD2xG7ff6M/JlkLqdnTjbX0un62V9o6m
-DZ+iLVdOHZtpJs7HNnbJG4mNqbgW94TqWN9SB+fBu/oWIe5dtVMvrZVZPnbY0TtQeLeClqOiuj/Q
-CMXraKyK2q6QkRclCLNoXqnje5tVbjStvD6W1xPJOIVFYEbgPehGiouzTm9C2QsSdXIEpVG2iC4h
-zyxVIWZt47SyG+ff+/PiIRTwTaAD4K+BPC6Lf4kp64PcYcHlQXL/lltZBvZWSb54VcxRVFBTvAao
-RNOZ2589FYdrjCXRUGog+N6gXmlcVF1SO+IopzdRkaZPUC6l29OL88gsghiecduk7NTC559/yr5y
-dBaqusD0EefKYoPAKze92qR36N4nK6vjo3G/mEbecBL9QIJJPLH2Y2HrU02WIYyOkXWZ5SCdUT+h
-KIcwU6XlSvyYSF2DcmxqIIBL6bgWbAQX09skGr1nrcmaHP2BruvOy1SX78CnlJgVVWFh2oWIAdPp
-eVlmpbRXWcMwBS1Y8bBEFqtLQGUpFKVicPBFiFEHVmQbB4n0hSo2GgJ90ZkXYyFz+IfdsDkd+vCT
-KEwQ4DKLtQ0WdHG5Ib8q9CMkC6dqzJ8l0IunBvWgGyQz1zCeRyLJdBR1HcAAr95l5cWvZ586S57Q
-w5vlQAJISm4+Rsh90v95Pz2qwz1EfVC2ALdRImQFLA5B3xCHNEeLyjFQrdk01YArU+mvvAcPLmg+
-28fbXTLNGep4cJvRK1Giqe0cTwg8e8AG1I5SX7ETf0wvwnbKN0biJRtZjNQraifJu5aO0sppsUxO
-Pn4HUDM6hwa1NHWxdMap6/28ZCWbCDDrGz/3hAc1FkH0WQ2yNedoDqO68uXZncn6IKjo7Mwo6f2t
-NYxWoEcxDvEi8p9OKdThmVWL8srIjnxDC2jyXIkH9QZScT+K33c0WsaoQ5EFE05Ei6gu4YC9EuVw
-/iiQMRCJ+hVlhGW3IR6V2GiAdThhX2RXiVpLbiggFNMj/+mm7eBtT8/dwaONKWNA5twfBnkJGWF/
-WCrGO1ljGBjfSl2HT5HAaiGJROc6cIcab2ik47VuiLa4InevFcqGb35t+aYrAS2YtlGh6Gu6GIcz
-PeMzgEzMdGzShvnnn45leRTrBFNbhOan0L+IcmE69zB3WXnsHx5yjBnJESYa0B9eMvtRIBDTMxvN
-2sFoNnNFEfmcBHWgM9HUBNAZWo/c7FB3555Q/wvk9W9vw7/77/ntfx379X/+B//8lqMVNQPRFv/4
-nzfFe/bQVO/vzdVr8R/zH/1//+r+H/zPq/Ctyuv8T7P8t/b+EH//v+K7r83r3j9ssiZsxrv2vRrv
-3+s2aT4C8JvO/+b/7w//ev/4Wx7H4v2ff7/+TpmTsG6q8K35+18/Ov/9z79pUM2V0H/7HOFfP75+
-TfmT92H+1w5vi9/vf/3O/3pokyN/+v21bv75t6Ba/6BqB/UN9B3qFMgp/P1X//7xI834B8c2qGRt
-BqKSC7GNsrxqAv6YbPxDnOmNXCCcQ6wkkus6bz9+pij/4D6jcSICJ6X/hArE//1N977af3/Fv+hJ
-3+YhFmj//JukjjXy6VKn+stfggAyBVNyMXRk9tcQP0SSBkjWplFoueBIeqO0PbYMcF0UHqO3OIkh
-qopIsloD3Ufub8IEeTSrGhlB0UxF6sUNxj3Vg2yhG26j+AsNAA8av3pt60qobievxhKejU8pNdhM
-qTIGr2E84zzPe/TthWezFrFcdLRO68MrEScDLTlDqC/pVVtKqi5COkroauF3hhObZzqaDIkVJ11D
-y7yffZZNGMXgnlJ9E3tPahCQU2qcIzPM4KEA+Cieqxk2v1caL85rlSZa5RqZj+8GjNse3fLS69y6
-svgbQ6upLs2oDRtHRHn6NkmV/s+UAodzlMYMv6N4ZJj2BEJUQtAnt0xHpEN4UYlK42G4a/g3I8Sl
-yMYUXn8Tqa6X2zQKYgg8SWg9hFmuP3t5VT2HXpM/YFGW45yC8NY56Sh/yked8SHSpfLGoNR7xayT
-nUQiLnStVMUe+kVV9jOKq/zJQzRWcFJMyv4Pe2eWJLmRZdmt1AZAwTz8ArDBx/Ax3MN/IOExKOZJ
-oVAA2+ml9Mb6IJhZTQaryKJISUuWSP8mM9wMMEBV33v33vPubBxBgO6N+XdSXEfChIn223kMe08V
-Ew+58yAyCDSEnrnsAIric+HkLvyzwMy+Dk473m+m0/uHOlwNdYC80qB5XYr+LhR70v6waHsmUsgF
-Xx7qyMZw1a0fIQ1WJG5FmCoTwy9VsEdlVvmVUaCs5/JtB+5aNJPuFMArIz3NtkGO+9ZjSdRxePQW
-037prSp67pYuT5ax9nfewOxfm2tBZnoOOv5q9deJ5D5BDFYSjNP46GOkaUkOM8oP4PbEtSlHDewk
-U8QzD+PLGqniOoNmCW/Wr8lddaeboqwqP3bWGdtfXnvuFBsTWZ1xX3thk1iY1K7RQHZ79j+B78QB
-NaJOyNU2voixCR+6LgPMN6rcvGuLdbtvI4Rph0Ev03w2QIF8ReBvPTem6ogBL4i6j2XAs5dQScL5
-MK3GuyEiDEqK3VlAPudBfwSoKj8ZQ+URNLp41ivj6mbPBOiQctRqwfbFnK2/UAjQUA+CKXv0dbB+
-CNxmvZaIdcbYIGDxsZgiGyrX1BQBbPKgHLCfWh7lGvX4QOp2tX3DOIw0VlSm8aaCaX4hxQujXiB3
-mjG5k48dqbPwfis/u4Hp0fmxqQ2bTgjYbmImiXEmE6lYxDdr64gXLmCExNbY1A/wWoFSyclZU3K7
-ja9W5rh5MnqFeh2o9B7G2S/ytNK1feuVgclJlLxeMihXG8BjYdvifdWz+Rn/avlgzXkNjDRYogeZ
-M/pIpsHs6rjJW1LPSSpszrZhr88NEIonac0N9iKMMK9DSSZYjKdqE/FYg0GJ22xZP0ty7ocDkbXu
-lzlUuCOAEwFMCklrvWR4qqFCWHC9CQf2zU8NDprXKMz0dpiCzbpVm9fdyQExSlIYIfp5JyREHlzq
-QKCVwARzabjLuBPHTcLbpLTxruXAlJJx8YGN5eSFAlo1C/3uawJxEV5hv47taZtgZvR97/CKgPDi
-RoZvkB+iV2ggUxB3ET/hVSG8Vh+Npexvm7ptgYkObcHDqsphOYzMGusEtiRvbc//5QGxQLOkPSaQ
-u6Yc4SJH9QjlfmxGJHL20oJAishuf1vqsVtOHB4iEIxWr+ckd6cCFtH/z+ZM/xWzOZ0W3U/ZTz3r
-0Y+AToegjTO08acfIZ1IyYZ4bqFzMd78D5M6h5Kk2ASYjGP/9yd1biRz98m81n78h7jOHsqCl7CJ
-E2P2n8R1ssXvCXhQqdvfxXX2hTKQSPdh+bZJsgI//L9L7iR83c3TQElXP/0rxXeOHltc74Xl/8j4
-TsMy5TOgBVz8PzI8ceCCL2mdVUMGcmqw4f+1JM91QEeSVr6Rv/wa5zlIFYh7PU/DV47R+tFu5dyD
-u/gXDvZcfE1uL+57j5DWn5M9BcgKldrAcr//rWTPvpXtXbG24V1mypII3P9ixmdQD+Z22EBeGUcD
-qm6UtqC4r5qGfNXiqFexvETOljXHxXbw2/0m71NDxJMHIc2shiQq0Iv8IfCz2oKOYHTAWDe/Bn6O
-ti8vdG7pIh067bz66Ko5ikHNxos9RBx6YN25p3XzcjtpmlDIo0f8LiH5Q6Xv1tV19bGct00l7L3/
-DRGhflEJDYSpm9ryUf82KBSOjnhWAZ+Y/jYotIAMWHLG9X7V1P6tuvk/rYZ/V0H/aXX9r1g37zkQ
-f1Y3P/7v/9X9291nVXe/K5h//Wf/LJjdX37EY+KQcOjgImb7vwWz84uF44VaGtMc0sE9YfKfBbMV
-/ULVjiGJqJ49KsqhmP5nwWx7v9DxJ/KDVrCH9t7z/07BzIji54J59/hiPEMvuWtZfxbXz65T+aqI
-8rSlux0mo0/U8kHDOvtWrSp8nrRTvZGKCo/TKzvSIiR8NugYllySICz1l7BclHsVzaKSdDkrcdMG
-Mn+renK749mOsptQIPw+jXYvO2AH7jw84rxUYbxkq34tCLi8pwiPYIMUU6OP4dAQcMahPxDGXdVU
-vKQ4Pp03z/eqD1T3bn8kjd7UryO6eMtOSPa21Luua5OCeVJXRqN6qIGt8F/KSC23c+M5RxMo8Zpy
-mcB3WKImLP3KWQEJL516K0Y756xuR/MnszQL4OrgAsJY6GG582nv0RDQO0atLUp8O7oN1tMwTuo1
-Gqeov9UwZCA7mZZ+K9uBNJlqFaN73USsCvEmlhnYXxisr/68aEC9UZ5xTJ6yGfkKUWAD2UjEmiYi
-ZyyfllPjfBP9uF6HHYzgxArKjEP7uBEnP9PYnA6scTtXSMKv5myc71jODvFPghVMbqh3bXXNykBM
-A+l+kBOGBXxt5tsRqU/mnppu0oj40laRepxkWXyflNKXU+GXwAIdE+Jq78OFpMpyb/HpjzeIQeW9
-9AR2IoVA/GpSQyHTLStAq2XhVEVwx+buOtunJqS/lv6taJ2xjhHnRd8QKk1lrIvCD+MwwMeYroDu
-m2SJmuhJO6uITgQbRHerrHsBInFnNRd2BE2kAP+7hwduRn/cwtX6YvZl8MDj0ini1gNxC5yT29hX
-6zaSVg+qJCaG3Kpv0B3Tp22qmQRtRj/kfwsYwP0hLPrmrSKcN4sncpiPI9OHAaBU1H6x1Nhlp6jK
-uy+8a837HE2QOnrDnuZ4cNf6YzGAfoujzoZfYVmgNuaJWOZq2uobWL68BY1fZB+zpi8BarQLz+5i
-jM3dRlCeD5s+kHQuh7w+LqGWIu66EILjUJRcIHUPNqMq3JanwBJ+QcfGd5iwl6b5Om4FjQoFBCgp
-3Am7U0l8aaycgZ+frWcLGf9YfXP2jI2eBHI2uiuCQpz5QianIXGFOT5R1hFwPoBtSkRQtGimAnoV
-cTZ5Dp35sq9dMqhD2INic9Hgdb7ARwt3MrxfidCvIUVmxjU8Sbog5G5WTxxuS4XoxjCagxCeBOTE
-eMNMK7EtD2TWh08GmZnfCUDoGXaoyruubIctsx0LauZu0sHIbtn5X2Zr77gMQgdv4dhKptyts4w0
-C6L+UQRd+dEy2orqdDEnC5sUYPG0VFv7AnJK5sfGghiXkqiu89QXZISzQhgyOhhRt16LaScRi0gu
-z65ugYUP24hOsy5HZzotWs8gDZtohbtDvjndFbOceEVCd1sQwJh1lPTkkl9ya820c7W4oefUfVDI
-PB8y6xR6t26nvCXtZOY8TH6Q1+lGcFYAps+Ddsdcqzy2Gqf/XCmCQ0IGE9Bejcx1D5PlybcAQklw
-GZB2fk/GePHV1zUwj7wsVpPUDUACx1YIehU2vPTvPSmBU6rcyTi0Lnk58IXQBMM0m4a7ufBhUoMh
-A69Nw7W/MMYOuotZLZU8irlenqQWZUPcfha8UsebwZXsIa8noyOiT+0GmAe8BBn7B0qZCt+s1POT
-YFGEJBJBs4HJuhIq6+YhBEazBDFC82WoH3QlseLxJHvz0Qid/B407XqpcWQQEENsRHvo3Q3kWt34
-zTVNxU1eZDUytFiXU41hoxcRML12WJO1sayn3LJmomvrtoIvZ03OI+wt0fOTrwEcpKguY7sr1wcR
-+c23xe9Zx6x8NE7TlG2HELPhZaV3xFMHuAhokAzr6LB4DcSGAop83ApwW7E2ZqUPoL/ddwjkBg0M
-26hGYkmXrtp3KG9vuJoEeruVbC8dIyigJhQ1zzUBz8V4BX2GXpgzjh0IsrkRQRosGww2fPB8PwYi
-bpdY2yQu/G4f/mp0wd+cQAn/SkiwqWlWS6glkxS5zfCNrs417RsyvCtsvp/guGzLYV7WoE/yfrQd
-MDtw5FknXONtWwqTHceM9IYM16NDLYZVPxaNP+enVrfm00AYV5hy8lijc03ztUsAUorpEBQ9yBtt
-5XVNVpAqMXqVeQuVy3OLK+mVoM06I4I/I2SlosR1MvuTGXbGcPbckYxDpx1ccWEGzeok2s/0Uyh2
-jIQrYA0RB7T4bjw7M027KoSWndDkpuMtVLO8b9VGzp8IFY+J2Sj3mQh11ZxEp5Z3IVu/OcvCW7az
-qSYWKzcseco6MWf9k5utBLQ4LI2gv2b6mqEjlJ/6yxC96QBW6VHBttdpaAeZeQJEA6sdB0J0TdtX
-EJvFblgdWjPr5XHBf7IkW7ZRdNJxJT+PjWEtzpBscpYr+rILbGer75NQ8hVDrxVfhYp0d9TuyvPQ
-GStfP6RJUJwqe2XTkkquFr/KyOtQ6ZGv3gGsc1g5os2HxuF4JB7gUQCSWnvLel0FFbCdWRnyEY8L
-klUSRoekZNQKcdkGBJvIaib3C5Ci/lZ5QXsLZm/YDo5slweblRIc6FRm9inKnVCet7J1h0R0rTOc
-9aDL8IPY2tk/6DXc/xRNFmhVa86dz4c6NM6znulMmBZzwcui5IBzYWmjQ3anM9NPhyFkA8H7Rnrz
-oEfTS2DWtvJCjQY3kmzNLvG10M0hU5b1PYOdMjAw6XEFldvcinNZFJaXesJY54NchdkdhtbvXmS+
-WOQzGa1BN9uBOS2djRNAoMXaMdIvQNlVYFVeGBpk2QVMSp6lFZELvIzZcUJs5lPgnN0B8k8Is2I4
-iZKkowsNBERwomnd/NZ0gCldsebP7iUcRh5jXAzhdi8jWdQXHePL8dXrdvwlkL0nnfsmdA6pVXaq
-GBFfONWPL9HxKl10tVnwokQcsHk6ih7CjVwCJ123bovO/WDa7pVTGNZzGy12dckT6OOKgi9IUnMP
-PPlAuLH/hjS//FqpqW1SrZtqODE+INdw70k7R2HUzqdwATebOqC9bo3Faffdy2xO7WRwCS2wyAcU
-KlkEuG/iapinmUQWqql/yQCyTTGFKGwiBQTDOHR8gpvgngCHC/l0AOVm2J/Eppf3kqQXHml3Zf0e
-0U6IdMNe49N5dXlIx3bgjSvBs408/BYPcruYPOBige4bG4vHkxR0eNTTTenhsdrCZkza0jc4nraW
-+8x9BZxY1c52gG3VXna6CabYt5bytZYb54fCG0yEvxABJngAofNSFmbpM4GoWcoyWQCHL4qOjhkx
-o+5FiOTCSkSzbYCTPTtiL54DTpQz4QMPuP4cFlGVRRxRne5rNIRiPRjT5D6EcKkCEh4UR0RbrMv3
-LqjWIM2IAxySLEJlkKyBqL+ROsdojypkNI/loPMv/ThPDaiGaSgONYHFaV2D+DlAL2rQrG9Sficu
-w4A1b9T1S+QvJdlDDD1uBhciLtgdf7sTpfY/bhuMG7p7TSPJQ9DW85Cb9nDmF3fteG3d6bhq/FgH
-wxhVkY6V433KwhW0YTBYTWJOik3K596qQ2EBxSMwwhivWO37JslyKZ6MIvCn+2Vg1H1wwFiTH4/f
-wDkyCvP8eJ7L9t0Jd1ilmOUbzzMAejkbXlIakSkSEemCLC2yJhW30nDJ1WyLfEnhzQAKH7QKyTCz
-er7JZnEyGLKd/YIDa9oQA4fuZwg7RNLwamZfwUJFVaKDHWsbds61GLwcrHkd1jNU7Gpw8PKIqjxO
-eWe6Zw3B9macc9Ue58qcvgZO3UUHLSrXJZ7SNg0OECjFkrnUoGq3TKg3o7BdApYZo6RNMGw5Zy3A
-cqeq258JEjq99gC30oDgppwF7tVILs9BlW55FQyhzGLXn/WXcgFsKGsjN44MPRxKklGP4NV69st4
-NPXoH6rQlG8gMFgMXe2qh1HnXXj6TdX/jxn0b2fOP0wxvxs5U6Wj8tlFKLtnxvlJHLEyECyMReSp
-BXSVwOM5rG6cuirfcrUNLzg/6q+Ol8GvJHvA5e67+5FdO2atk2lqAhCoGatDWoyj+87YGx7zn3/B
-n8QbLlUPcas4lfZwA0wxP4lxnNWln91FItVZLm4m3N1pG7nrX4g3flbQ/vgY4jVQ7+3enj8IIJeK
-sZXBpJl1tA689xDlD9s5lFM8gkNVmQnTKJB4VN7z+zYt3nO32Dne5Xponzpv0p9Bnk2vS9F441/8
-Qj8peH79ZgSHkg25B0b/7EADWYNIOhNFGoTvfT9VW9oTZXKe3AKIwda8/83b/cMChH0fqdWu4dlV
-br/RynDVgWtkjC68YRKEYoEbI+z/r3S1f7gmjvYmJnYSv/DwESjx+09RNTDipuOtEsUqmDfzzn1g
-vkYI/Jrrk0O77+8pM/cgQmKX0AHSLYKK4vx0WTgGazszejshv5PSVG9hmsuypEmhdfrnd3D/U797
-oRDQohZBabT7L9Ep//7a+toEwkfGJ6viDIJxgHK5OMDFqmgY/+Kp/fHw//xZKE3p0v2qb/pJBBqV
-HTHRZeMkxbq0r82QOcBRqWNi1hlIgL0oQNg59CgYhM+QKZO+F611YDhk5GnvAY3mmLtlPvnWWsAa
-15t1PXjr9oXnzP9qOPCEIGx61G2W3rIX6avyr2Rwu1Tx50sgQ/xHQhox2N5Psqmy8gdrUZpfRprd
-VZ61/QnsMlhApvoPMHrBs2pVJmWzONdk6P9VbO5/8CTSfEMgR0KvjZ/vJ7kaQTDRNLX0vXncw5Ox
-0VB3/ZFN3TQcWiidef/nT8cfPw+FNRIxZNZE0PzB7lZhhkVy4GRJb5gBlYbfJfV+8LTy6H6eHe/v
-rp67oPs3H7d/nd+8zr1YCHpFMcL2V7nnqm7nw1DACvzzi/oRuvX7HxHD4C5kBDhM0/fnTDhamk1f
-hL5Ip9Upbr168e77tePIG7QGEdBwWy17ebf8rMrOeWVZJ1U2UZNWA01DmrabfGHDpFKgKqlJbVra
-omYY2HtWikFqI5a50O5zFIleJbx68DzpYVpPvbeMHMJAdP7d8Hef20Z32sRyixz9DyHpeg4gSPvk
-zK/2kj2GhBHFtrLdvxDY/mFrQ96P59dk3zGRmf5sZai7tc59PPLJWjsw7MyOJurS9r+a0f/WkON/
-2vjCQU7Huvmfy/5uClii/3b6Nn4u5G8HGP/4h/8YYDjRL7zYZCoTB0vMz48pxT8Vf9Yv+5FnD/g2
-d9f1vq3++wDD/YWsK/Yn1IJ7jPC+Jv37AMP+hXg7NNfkFvBv9+ygv6H4o3O8r2+/f3WIs4t2KX9E
-oA1xP79/Q+elpV/Uuqx/iMfvQo98JUT8c+zJtbu1a/uNzAu0bEV+sCYKoyY0EwdgamKr+twGyvo8
-bDq6KMNCHPtgJPBGzHnsGIDfIU3SQiNz9+DoMiOUz33Cm8Tgv+naWxbD4lqALo6dqa7O41AOCdmR
-5cEUwQpa0a5Ti5DrUom7QWYrEdvlh7lU/TGf1gf6OCcZAtma89BI+2V8qUZjOayzYLdpRxbTEYh6
-MXjyuV+j8RqUd3agV1BcuCVTmnYZn4cwl1eGObpfPC+Tx2ZsgyTkY0+VQQWwQjT9rILWfQyraDuU
-VBDHove+enl7C2JRnExv8nHJ+4vitoBPs5DNnnmZUMlp/Yn8pP5iQTp0VxYiSMiCxjKz2OGpW9f1
-FmrFB2EEzcFfDOtUW5SALslcbzOephRF197AiQCfO0b/cej1o+RkfpzWqPwgXWnTKNqD7DoWBxkg
-06u2oot95d4vRuulbF9LPOztZii6oKFlZx2k3x5XEr9jx5b6QIcYjcXYOimNxEPpNsFlHo63c7iV
-h0mGayq37dn0AZjCWEYmtYwjXmzZXhQ+aSrm2AuK29J76PRUH9chVMwK6G8S+tQctko/bJMFysfN
-K1qMdXvpZd3F7C4uuUH9Rl1D+DLGmOHF2nD3GAPuBN+yhr0vm2+pNRjuhTJGSUBF9j6Wyjz0TE0e
-QsP4yPH8oH1/OeKHemj69Y4uGV62woCajTwrVrn9Yk8K917NSCdcFb2D9sWo/RPd8Rc3Qxe3MXuI
-I8G8apvHS/oyuE88pua59MbzEtXZxQAVlIh1TS5NmTGdnvpxfBKBC9YXVGMYTS8On/GUG+549htA
-tZsc75SxRPEoPf0U0IS8tvT01lTrc7l4H/tIfq+2rUw4zp/6Lrr19x3x3lsM9R0N25xfbj/GGBSW
-U5vIzuuXC2BIS3NQRdcGV2WzLm+rO4Y0VaOsu3XJ1wPXUo5F9WFmPv9BhXVZ06Bzq/DjZPS+VSb+
-ShOemdjo9ulSR5yqPOTnMVnO4CnAPkRbImoX8Wo7ZGt/yDOHBoOb03J9biuHwGw6XkPAb2HleMRX
-1q/j5umqT+fCqpZ4FYjQbyo4bR/arhf9rTPS0fIO5mD3oZ16vAPD0SmKvDk0ukVPiTPDKr6Oncss
-kO7OJEArNv1HIJT+/aJAMaT5RvJuYgYGpDK/KRms2L7QnwAUzgI0fVjciskNghOo1e0yI//PSBsn
-2BviW9EoQFXdwOs2jA2vOyPPAcmkngijc9AZXlTa9VRasY8+ocuLstRfBwTOblSb6BcJJE0mp29F
-EvQDXSxECq1zrOimRmfOroHHuEnbPUK5cNn27q0sZppVgzIjlJqZ8mNvzWnThLaKprMBGt1LgwYL
-wdHGojgct4zZNZ5rdwJk7FURtgPaz/kxpP9WpBMttiiZgikMYg/a3Ys5r9JIl6zvtmRDXMwfjhp5
-Kcu1KxNCQdd1x7MMA4V8RhvFCraF7lg/5hddntOQXf1CvuCnZf5RWhvYPjWG+f1MQpUdR1bDlEio
-rZku6qCKGDiTcDvdNjLALCYF8sSbVbeFcTtGbUGIr6HEeheZMpyejCVrZWo0nn1GS8oP3NneXF1U
-WQvUOegLgI418u4ltt1Ff7ZlhuZUutkD0xBuSBcVa3QAaYaXz1/HdcY7MzreF/qs7h0zXRJ/XGP9
-7GrtZQe/cGYnreqNhlDL3holHVgy+4QmcyabNECseSwit/fOImTTuM9sFVSHXkdqTZzFqyo636pA
-hCu85VH5y/RhZK8/IhyZz7W3XZlGXl5V09gfMKG1954YbovSXE4DmuY018FyVFJ0HwS827iPTP0h
-6IMMoXfjM35DvJnMuf5siXI7gbu/XVBbnvDrdLEspHkNEgKXbbNcmD4vW5vVE+3laYiXRaTm4LXp
-IHt5Q5lInoulvNgPVHGMlIWYNdin8VF26kdSepzKKg7VojDxdc1jLeZ74XCI7tk/k60tmHZiFRhv
-yrUS1fNo1pVxnUn3DFkeVng/kUzjknfxxrisXk40su/Qm/eXDC0QBEebd9EJ49Yb/O2qMurTKJd4
-olQUWXvDGMC8UTVtuTn77KDPZ+TbfR97EEG5Wtpjblh3RcQo1iwJRJYyZJ5T+06qpow1obvL9ie0
-sUnopPEe09gxduxzEc/Qk2471D/JmmfHzEQFUfXO1157rwwyzUvazDm7o3+TtcFy7trev8H9NafY
-dYy47OyzvXYHw2rO/mY551FP8pu/eYkNsjvtq1qf86KbOkYERodSga257IMXpgZPo2VOFysPROoa
-8GxsWUTx5IzvktnNlHrL/KCRaBfp7v9aDxOln81O1TIE7vsxS91ZsWIEkXNV6rU9KQSKj5Owt/DC
-DUlPusi9aPkCsV6Vl9YKLJMoxdGuX3J/8YDMN669neC8rP7tLKzpyjYsAGxBtJk4HDI9i8PYVLZH
-F6cXXbqtoCLuo3r1SQbNRmnGuxSYLXM2T0XUbYcu94P5yt3MvooBs5f3pdlNj2WQEWg/FxLDfONa
-3TfNEaw/gljyvLspJ6U4VcVaRSnB43171cBEPXfL5pNwXgVh65yLfLOsS3BTDJN0ZdfQpopo+Ap3
-OteMQJkFnPVkTtzY2famCyWHfD31ij904QuVN2zetq3nT62RNx4jFywk47EsR5dl2kaQcpHnhhek
-W5G55eVa9StTAXqh42Vrt0XByGIfioYt0PAr0usrEZd+bQnOISQwvmyBxcvlCFcUMrGF9OVNbUg+
-c3CKtr7zV1OrO1OqBZ6zNIwtO4RaqwcFas+IKffb+8gct+2g0aMN9ysHn0+Tm8/uh84P1i0h+muu
-4xY7Kik6zI2DR7DS3nTCSlGEtIQYOSdjrvoozfyl44jIsao/8y0kg7dch/mFbxYeknbOBx2NVF0I
-81BJq7ksGWFxdJiQHBgimvLnpln33hlDp5qOvNcaD/Y2fvKaKjiHZngusOPRRomGo1Vvp81ax7Oh
-9oOtZCcKogpye76gFCrUU+HSMUdU84VZ83tVQN2Myb5knjhmRphUtOAflZvxNZlfH8qwe9aTf8mE
-4sDhLY2MiUxidPpIMrf+1Mj+bAXEWXtTJJ7LBi6pNdxYPm7ArkH04MkGezn+/tgnBtXnZTn6OJ0u
-3H3aD+PgUg3dE3586EKa56dl+qMyI7U69UGOnr7nBr/kZZnHi1N/MMPqchoYMAVMwtn3hkvaRuU5
-U94F56IP+1DxE2vZcutNZKQV+aMy2qNy3INX19AnZPtqlRZie9llx86PEni+H+uhv5OROud2+16H
-XZN6bfFo5859Lg0Gv9mwvBWi/RSOUD/6vrhECDScmZtfelWeOkuP27zsc6Y8wo+Nanu3dHZTD97j
-5GbklwXzDaGIOimDaLguQmIcO2c/FvnRi4vCH8NF932bxcQcxaJgmbjOQN/C07uarehE++jGl8Z9
-3ZQft0DeOmt35xVOceln9ZdeTeWxkcKIi8zJT07ORFYP3evOlEsQlphxttaMnuu+f5/V+KjM4MEi
-YioRYr7J3ehMQXWUQl2pBZ8HYiNm4CMs9VZyIlUiDtaJToh1H/T4YBzd35WRd8+o4ojF/uPcARg1
-bRnxim5j4qh+xsc1vbJf76qq8loZFgEOtKQ47752YjoO68BODiQoGcieWrU+OHN/abeTPpWGrE9l
-1H/NbLrPSCs/jyivnNxDVBBdbmL9GFIfHXrHbmgJel+XiJP5Pv91Rp04zfY+15GYEjJ9Tm5Rv5ZU
-RGwwuLKv3Ml/Mbdh+2b6xnyducUz+bzTI/3DZDbdmGHnBcsAteuyHMSQXY7N+lw15lW7wR5A5nSn
-/eDktf61pIDjkHkoA3P+uCp1vfXLXUV1dTsEwaO7S2KogU3WexvJ3LiEF4UqsVKiPXzDmJauHmYL
-YNbOJ8/VHyHXy1TONgNUp6A2E/WYeE12lw9dn/jRZqSRrOyrzEbXsUqLn2cdrOpYuPZ6RxDUXZXh
-f0FDq68QPXxBqCXinWl7zY7Tx/t877Aty/Y40iG64G/YIokYgcYrRvNDU5TfmNaFDH3mDnRENuDQ
-idRxU944nVzl9PZJzyhDYrZc1bzge2GCLivJmNTVc/YBqbtE92JOHKU+UMohDcCTVagL4AD8KzfL
-zTNn9bJPp9HKh1NVzLI8UPu4LmueXTJUZkDL0BONX+0cu1CS7m9IZBpc0ugH8RatTPidyuO/hqHa
-B6mNgQhClcxOdSQNxDQz/6uNlKS8ZmCH6R4O+vI0LwgptpWW+PXckEeX0rUqrkqsfBH1EJAYVMWl
-DiCyj+N+kWafrjlEZYq1dsNcD8mFMWpk9SwMa3lYZm/jXDt2XJqhfZpbhtZHIRd8Lwz7HFkxCPXs
-m9zLqXoi3XAuN4qGcy3O4u5rlvXzpaK6EgiK/OqC2Ye4rywkcFdGL53vjnCGJ2SfUGsM9kFOtguO
-W9lTffaL+dmrt1fhOiVGoinkxnVRftnZOpyPy2b7ZTwP8nIKszu42x+nYrnyrfBWGmvfpONkmzcN
-RqirtmHmdxwYiDQnGxPl0Vft7ejgVwwiqh+0o7GYZ2IIEZgeSpoyHdi6hE7rsZ7Vrt1SzIKty3bZ
-7lxdc/3Dlji5f23LLlUDO2bjqBOxgx8dSsGrPNhukTngwdNdMtbYtVaj+Uxbej3LChGDCvGkDLK5
-7TrNAdMbdLxY9sepluuh2fyv7EO3i7sw73Qel9DPsws4D8yIPCczPptRGz1mq2lnh00WkzjWUj3Q
-3squQa1YrBZGpZ9Ep6VzQHJUPyD1qay4LHujPVjUdGtKq9qfrgPfiU6bi7Yz6UoXaY/T6bG6cvzu
-xsxRh5R5ThEy2wAFhq6yv0pzurXpCGV2l06GHKq41d3NFM3HwuzfSxumoe5QDaBr/8TcXZxGY1er
-6iBnZbSPbEZfGnoEHD2iAU3fVrJihfYDNSTVP5GJDWq5yLnp2vWVjtI3hrkoe6PK/Ox63WVhzt39
-sgDZGFkwT2zPW/tYVgNHvlAPWGw7FwFlLJr96DXL/8PemS3HjWRb9osgc8zAYwcQwWCQDM6TXmCk
-RDnm0TF+fS+wMvMqo4buqluqNrvWLzLLFCUFEIC7n3P2XnvWLqjL/XaTtTU/Iiq3QnLgjOkbJRB3
-pxesmVbicBSTAgXuVqBNYaU0vDWrM89XXVJR9CSgapW39XKb19+SLge6lOzVWyi7qCaqNOG9tLJk
-egDgEfHqanWSA/2NlphzTOch+siKkTdYIldor9omL7q7tkd8u3FbLekwzldDu/URNiHg6kAsf2tK
-332Z0e8AlLMGbQsDfGRmPBccVHHfr+dKEhgqVJxZK7b2kLI1dKY2vtc4YrVDqWaAoYyJkw38TmpU
-0ciNTpTrPcpBdaGPTnZjdab7I2lEQwJr5e4LGomc0BXNvLoW3yqTLhyDJibsRd7Xj64Xj6Tazjf1
-3A2bQoru3O37j6JisIPJc9xF/eTqh7o0msAY621bGco/xJM3LHvHkK15m87EX/K6e+wCtAQzFVCS
-+ulh9FFhhDqRkfKic7y6PlOcUL83hZcQTiC8+UfjSMKjmT3iklRZNvpnCI776Dg6VXlImYfU56q0
-hgRRWeGa5xl8a7TOPZLwC0jUFCpZQ994qznsEuQEiSSl/1LTYksK05OHOqe9u2WGw0orOxVdr2F+
-c1CJyiIRwZteGkY8j/HciICk6TxQaaEHaE+nY26K6Qms/Xu1mO25SAr6SXR2PqxoDbYV0k7fRtfJ
-z+DC5ciiRsd6HLJcNzadsLVNgw/9gAfDvzezeNnz6Ps+PSj+7ZD52TAGoozd6VJVWsz8LzUjWVy5
-WT3p913qIqtkUSkb4obR3O3NT1XZMFGtnGdG1KVvS4sihyIQdQLlarPc5Cgwp7cprWREbSxn+8Ee
-BILLthWotdpPFRzcRvQcbQnSmS3AtR5RY5XlHafeurw1vTlpH9OZBMhzFYFgAe34Kdpjbp0ugWpc
-v9qqpRrK0PBK30YsmVbFcuk5EfdgLHsOCBHaynhfVpUiyajVsvSBSzFQx/jU7DtdYO7e9r4l49u8
-q1qLXXbKXiNyGrWtbIWm/7D1pnhP+G5+UGTruFVrSnTMolXYmTka6SK2kKX0MkWvpTkkwIdSCYSF
-46ewkvGoFNdRXqp3Cw3PuNV4YmhBdqq4SFDEerumSZyRr25kA1Oy8pvtlGU1VRvwF6KLVk1oxJaj
-33C2a80AK3F7KTV/cHe8Jo0W9ihokc+gFKaraFs+v1rlEuiTWJxttCpUKXcQTI1odZCttDqPpzY7
-xoL0q5Hf0fFG/sbVCPc7sJJppGXgRmCFUBGrWOeX7fqZc5RiAL5Zu+rI6aajb+Xxec98EuBl7q5V
-e49hAVx+mjpbsiPEENIgxIceAQTNzlzerOPk5Lm8nkBC8Q6hEnvhzdRCTRaD82L0sfuKQcC6Y43g
-2OfWGot743LeV3HYKE5O/sj5kolG8j60Mt66qu2PS9UsV3KYzbvcTggWYxa6G5GjH73BPG+UMp5m
-JyLBxej2wOqnbUS38xFjubPndMG5aEnq6IgPE6lk5/U0MZGv5ktTXmHuyvZe3b7FOsnuQhD3Vdke
-pu/InI/426dNVDVAQI0I7WM7908ojRIuHAQus81z29fYmIV7no+9gVfEO2cHEUwC/TpE0f0wjCV/
-l0pADWcKf3YWsZoWhYQdnx7KxrvjeVHfkMI8Vm10PitsDjknkJD0Q+e+z6LLxK+vujEF8lfNZ14v
-mS3m3hbnw7Iz7FQ+Kc/7zhLo74zR0g/ZQMJWmKvJ5NDEjUDx5tj5BkF4Ti/Hdv6/JQpWyW8oEZ3h
-2t+fKa4oETAih7fyI2n/bIvCWsQf/d0WJb7wHDAE9FeMvgcw5A9blGV9IcKO2SE6v9/sTX9MFQ3x
-ZT0cASRDWsPsf6VX/jFVNL8QMeuQHwGih1HNP2eLOpkrI+Ny3VXF9Duh+ESB8i8Sik90LmSK/RkZ
-dyKp+ZXIuPWCf1Ix/CJk3Mkk9j+DjDsRaPx3kHGfWpafRs3rN/YnZNzJbfwHyDgbs5x3GbmD+0PP
-6u4FeIxJT9Duxqt/RJCrfJTibEte1YWfHDnyevRy27MFUFH8u2hyJw/ef5Imd8Jd+4U0uZN3WHa/
-kCZ38uD/Iprc6RUxT/i30+T+CtB6ipM7UZv9F05OATuiYFhEdGFrDe2bxc12RYTPDwens+310cTP
-p5UH6xM2N1qT+dWMPdT2bVftG68sLmKmOM1GRa19qfTS+z/lxJyu4p8f9ScK3Yky7RdR6E7WHzn+
-EgrdyXvz36fQncjsWOpWRfMfFDpx8khbf1DoRsAHOG1o3DovMamb6hEMlbzTvYEhGsKD5o4SsbIu
-9cJMk7O/TaZr5jK/WlREqu//DZ4OZeifNUDrp0XmC8kRJzMqOnb/P+1vYvLdDKINgOkG0E5g+hnl
-puU03RMG0CrZpoi0AdhUeesyY1XNQ8yIkFYhTshogwXKezbjGClMyjj/3enS2A/HvhGvi4ajCAvV
-NI2YV9L+CQimdqcmv302MBrzBwA57DHUWh9zP0ATIVzYL3YRWDG4NTOztABAImgnFHK0rCJf5DcZ
-oeI2Uaxd/apVM9CdeRi6B4iqUxyIuhLPzZCPGT3RIbnXRO7dMfr0msCNVX9eRCNFR19F812rLFzb
-qq/U89SJRgVJHiP8oZ2oGZuiV9ZZsdC+23RABOuzoRhHFApe5DN90Mvh1SgFDmVQwOUFVlB2myRz
-bZLNGshGMKvwZQSk/9Yvreq6J6bpGLystC9R1zjKSs/GsVyuwGDQgqxNfqxhrg2dSCtGtA/RJC96
-TDYMPrFX9M/+PItmiyInfXXKChivxbzjqc9dOqRl4ll3LV7tH2hWY6Y7RS86Ooj+8kRTekTcGAlP
-hnmNCmNft5Ih0YKOaw4XLUZVXeMsMJAW0jCmL9YMNJOSwrvNmMwv3ELZf8eHQVomrmPdDftl0I9U
-29gE/LhWr41LBwYTG3Oqi9YZNIp8s4+rSylniuFyUiLFVVQ7VR+sMVjJYxU1+BlixzTTANcPaQsZ
-ehRUrxIHZ2naS4oBVzcrkGulflDlIhZm7u5EwyQfoVLp7XzlW6OwdpFyI7kqvGb6SaiQre3QmvO3
-2HVnEaC+wm6X0slNwy4b52ozTHglg7GKy1uQmG571EGEYW816e+ZIYHTs3qz4IOVN0DkPabzCeWs
-Hdi51Ywg2ZrJQTLQRMal08KpjfpBGwPyZSUMPLgUEO659/k2sbVuCOeEHl7gOnDcgmhJyjbAZZU+
-2mLp4g1iLdcPk16BdJ6XdC1NUzt+Z7PVzXASA4O9DsdxvYs6v+63IwoTOvgOL9vQUFG2zIXfVWbT
-f22bmHdyRLHw1Hc+uum+neP3brIR6oDju0e/oN9XS1MDURae9R26MsKvqMW3ujX02Dt64+JzT/Nh
-qUCAyoW+m+5N7sZcenFJc8fgf/tSHAUWGKYSnRQ0ugXtto0btTycOjNkH9cUbwau1waJUTnb/k1d
-pqbaLktsorySnbddVLsE0ari6egcvnhLPX83irTgyWnn+a0g4kzfeFmG+GcoWz9Ha+FVwNES/bkx
-GAeHZKolxXZIkPUG0iiKNJwmm9RsQS/pWM6deagGhDObCatGuYnBF6ZhL+Ps1kr9Odux6Ka3XWUg
-vwiYbjWX6zdW7WYmtdpxtvMsOXjuyOBT803aIHKcZxKzzUxBa1lVTnWFYZwmds8goCxRKbFIiIkp
-tS2iN202TahvGLexh3uOCoxP2RRBOpYfYAusrifeCdy1JgKgqsa/fpSs5nngJ26Nu86xsOl02N2Z
-3OTq25TGdNX9yUJS1PPu37SMACCz+ZF73WRGskq33ELsmZa7Y9DLyJ9umqRNnsg9jNVucu0lPhSD
-rPdgIJk6FBN8hzCN2+k6pSHWbxylzGU3zbKa0H1P7r3XpmlzoWSLEVwZjI8+5V9RyLcE58VfeufC
-IqEXnEIphoeid7s5GD/N+IyPMOZbq0efbjh2/XF17tO2w8Tvfxr6i2SMnlijsfl3U51f9av33zAJ
-GQg8ZlP3szXX6PVWToDeN9wlNFTgAwg7LN5jrvub+MQLmHFXfWs+oQM13O5d+okigJmZf7XmqUDC
-FmfACvJPcMGMhm0M/N6EMOB/wg106vN2131CD1LslMfe7UtkmysVQTNT/Vuik4q9Y14B9GFuW/xx
-vS9cHPaNzhxSZpp3I41K887Glb3QDK2PHW0Z7DTE0Wt7G5A+GDVxgPgfdMIAOPDXO0f/E+tgr4QH
-omuAPfzUGrj5S9X0s2/qr09nGNPFfzFlT4qQX8SUPTnG/Gqm7P9QNo69YmL+fh9o8xYnbz+Lyo3P
-P/C7ptz98ukM8E0CuzDOrcLx3zTllvPFxkBG2LpLpQ0wlnPe75py74ttruc7YujISMf8xEf4vfuj
-e18wTxg0hXmgbM6A3j+nKT85TeKNtRkGoCbHkQcf/KTQ+n8dj3pScv2ieNSTi/5F8agnB/VfFI96
-ci2/NB715IrWc+GvjUfVV0Pnz10qLGB/ykc9eV7+dj4q+3IPiyaNu45hyElKait7rdqWg6Ub259e
-/L+xyq+r+Oln+TkrlZf258bjvz/FlBXgt1jWk+Zc86/Fsp5uW+vNdQj/E79lpZ7c3PaXZKUaJ+X+
-L8pKPXl0/wNZqSde5PI/l5V6eq2/Jiv15FAT/zuyUk/8n0hAOTn+lJV6cmVD/HtWqk9/hUJE55R6
-lTp6VG5+ZW7qyZr7y3NTT052/5Hc1M+0o5/mKP+d3NR1Ifnzyun9KTf19FH6Ize1zLs0wxhhld8Q
-r8thE/lJWSD6XHQmua0G7eAfr9l/tcRxLuPgwzmMGBZYbScP1L8YpHp6fSuKYA0yogjgEf4r3/C/
-I5+TOeLJTV3/UbKFDJJbiQ7H2vjn7Ugf5mK2TJD/BrSS/ECSa6t3QDnhOnwUvVGNR0VyAyokumCI
-7Rm9N9G5kmXuP6TRXBRXXdql+p0/09QOpTf41T71xljd57FCBDPNxaCBebdLRNpGoePlyOLejPaT
-dBu0knh42qDKe3f8Wio0XmKjeirlm9kFl69W8dvSfMAyoyWAPBpi1xXxodS1bWvGDLKlMvuWho0w
-zes8n/wful+uDocI7r9xMaB+aK4Mtx+dqxjWQr3tC4snx14SrjExl6zeu4jmprMMI09zULqy/VV0
-pxmBIxtuSpnSNtuo1hgVxBOtmV/rmMbMIfMTS219O4/mS6tse3lv0vxNNij9/ZLmW6OZm9iLk3kL
-FCiuUZHI8c32I3pMwjJJNCCvaHktEkj4NOlia956fJByS8tlwiDHzXFCLD9RCRB+qZen3mBJ27jg
-7zLA6FBS6KEljblfsnZ5stt8Gc+MsQMZ01t+8u5reNI2MyDG66p3uEHt2LiXaknQDbQAomQwdUbr
-XeS9ZnzVUTS720jYvRvM9RJHdwakEvXOCaijG5n2Uzze6VVGP2jbzHkPWxAW1jy/llbhIK/0E+RP
-PxrRx+dkvU79cRwHG7tlOTevQ1sLfUX8FV/Hxoq+Z7EPZi2eikIP16ckgTk/9t/GBaEIaJ4Fp57U
-6dFeLK4RgxLOLfs42R5iW5tBya0mqhUSI2urvoqjqOB++7O2ozslPdwxY6lt6lpfcvBT6IuCotSc
-H3VXWnSQCMduAlVo/ZuYWv+ewayeB62wIlppdmHHaKMs0qWrPse6WY35cgujs0jP3DKGceljeP+W
-TJ2FS7OJ3D4skPV+TRsaL4e8i9Tj2hsbwx4Pnx6CstSeRvKx7nOAGnxfhWU+1zyFoPDnREcXXLvy
-qYlIiQgm0WdPMkn6mGlRWdpQN2UyXmYzOGVRrHA7Lx6QO89qxDoCKemRtOMBBZirxcfIbn1r45Ig
-A2QzdV2xBSdGZ52+W4wOCq18foZac763V/NFYNRSPXjuGjydeNUUIT5rl+cmcauPasBpErKtOtV2
-sjw4+IVvm09jnSmB+1YU5xM8P1peOj7PIPUX/6puWrMInJqHepPrU0mqsEjcwzLUM+5NMRA+QDZa
-1ofgLBABaraQLaiciadxmQgO2Vd0JtGO1xU9PNNKdOSneeZ/9zSTfIE+xjcA5E/UxBQ4GSiHLJqt
-K6RaNTK6BGxVgHy1wpVa2P0QuhoPm6k1/guQlRzeUNEi3UN4qrfbyKrdMuhL4RC3gcLysQPWieyz
-swVJmCwQ5IU4OP5C35Gy4wUyVuEVAiULCCPGkx1yLHCfIh6x/yTaMuc0682iutK1fnqKtbi8ZllD
-pARGptVpGZp9vkGUqMzNFEcxcZdI0dpg7pfxu2z0PuhB34AB5WPFhzqtu6eCh0c/07qZ5zzRh2Xc
-9kZa7Odq7BFv5Zn9o8hywh0Q8UCn8qyGnKHCx1lNIDtculAmNY+4U86RHuizxHPCGhUXt3OVIPnU
-SVZIId0YNYY4N3YYUZUOIJp57B1iM1y61BsH1b6+nczefqvsKYnPBZ3uKcjInXtqhkrw5RqDgauT
-/KWr3B+1aCfTCs9A7S7Fk8oKDZ9umY3YG6JchtPSJ2RQCZ/G4pwWLevfEEOFc9FW3uBns2Ro9yL7
-just/6qporycIy3ChaANUmxYVCovqMBFP4zdDGdr6LyrsVtFsDP3JCzIPbLYj6T5KroEne9g58kq
-Ny+dI/7hhWTD1GQ4Q2LtqpIfVPvC3YC15SJJA2Y7Cq8OqxQcSViiqcOYkUl8e4UfYdwsLTYLEFjQ
-V7fePA9YGAzSpDfznOLe0LTIlns/8vrVqB13Z6XdSXn0QU4crYaklMBBgogoTmvtu9hhhMtArURL
-H/VQbM+aRZvjvYhov182eDReHLsx811fJDO5bnmBZLOb0OD1ANaIh5SlkcLj+4S6KQ82HlMOnaGO
-N6Fs7HRBsI1kFX3QV6HqzvZndNJJPqjvqWkTY1shlr/OtBVWWrFI5GEvci3BElVzizqmQWzqQsXP
-I8YeHzF078L/Ne2ajvLIESjIlJne60aafcA18xCi93zZm16NJHmLNpnvLCCyZJ8i0LNCa2bp3IPd
-gF1eKRtGHO7gwCIWLNugkFTRlteOESGpfSqcekni0Kx7NUl9jsdvSjHGALxm+wMNr8a4Qyk4oT3o
-RT0slsyeL4aqy+wt5m3GXSoyrPzQ+7OJhhMQ44vROgDO0lwa3p4JSIvRqezU8oDz1n9gLYJmQ4wH
-pA/U2v539JjmNwcBLKG/JjhjmF+eSDd4Ss0jarnEDVqjE++Y+7NbHnvX3kb22DV7Z2Lyu9GQNld7
-pKBQWv0h5dkwij6+a5eCGQPDX5yRRpYsDy0N54+hTZcf8DB5gxaJkOWsNWbFW5ekgE34QN2txdaH
-RRqdzQzO0HGMvcod46PGrWztMIqg9I0WWeCttGL53XNsXBYy76NrjCBRvhvM0k3hCmKFAzI8OY+q
-qGEJ9I2J6afgE2cbITrrUTI0ZDZhKLEfptWZyNbnHUdQSfq55DtJdzZgsjMn6sszvHRK2xmGPX0z
-k8YxbzPTM3nXmaJpIZnTrrPRsXoTUKrF0CEGA6U+H8+d2A+iVSmc5UQxdZaLx6OyZ6J+0fTiuACj
-0AZeb8nmkFiFObFjtKWx6YGdkkSfAKTciDLClgZtnqvs/JUHaQ8D4teFNHe8u0OZENAjoFezCsAF
-3cYZnOHrYiKfaCeFkiPg6S5r3hw2p2nrt5aThLaYUGZbQurFrm11sF9WmZfvk2ZgWHMRu2sHUfWj
-zvuhMevdFEOnq+elnbkzUVl2Z6MT92+Mc+cHZHBomNrRwhzEqc+XVzhUyvGMOB9XXjT2FFnbGXam
-cxCTkXxXNYLYoMXd+erH7oiBVlZzMEC/FUFqM4DfYBspcAWgrd92UyGhjWdufdFXpfPDryIr2+sd
-9u0QB30BSyDrZLQrAKS+VLVpXiLarG+q2kVZXwPMyPYitXM7BOnqVyEjvHorChGR42MWMW5wPvbX
-GPeWcaFilVxkImsvkqlg1XZzz63P2Ip1joqR8q4dwT03/M7Yj2XsZ8CmSuMxQeVAgEnrJi+pVY+3
-lcO6tZmxsn6DGLi6JrTBe1vAbXGU6DLzyUNo0IadmoYxpD3HXFmPY+MWgQFA4s4d3QtnkPFDV3JQ
-xk21tBeNiGO8lfXSbQlpzDwgiXYxbaxSW+0ebF7nQ5rJ+2Rw3I9IaeouHnL3dlki/b71hgIu+WgR
-ZZYAmAwwgLovEdmSh3LQ1QdD4AKwz5hanFdIBTxq/Yp7Nlr4H5vKKuOHJibSKo7S8ivZALraRXAM
-CKsCxeqwekgHmLaRfO3nyXp2J21AsCDGxThzDCw++MU9Mr+aEfgs2oHmJsJQkzGak+sjnwHH7dAS
-IyHnnb+wutr+OmaJ/1HkY/VmOI1nX6MeKVgkIw1ALsDZ7hxIazYepmJStwPrWwn7q46/2tEE8CIr
-jORu4VzBcL9I2OltbX7AHg4pOEtnKJnQfiHLqVEB40g4acjjaIhhRWkTD7mJG2Ejlx9qflfoOsZt
-wbAUGfjq6fKtdjqSbwoACa8zFYxVIvrecAhzb7uEqDMMDJHA65b1MNvxl0GnTB1XzVuTqbaLcWkA
-2FdlbcE65zNg5+e15j3JR/JiFT/5ls6LedH5bfKR4nTyQ8prSB4ds2uB0zP2XPgMVcb4zTfaewLF
-ppz1xuy+F8CNnnuto6RwyL7kr1CNdUbVo/WYK0vjTtkeeJqiH0k2KzMMP4GW+mg6einEXZIMZBGb
-blpfy24QVujJKs63mRrSaivJtIUwQh4Y966DybKPl3a6d8Fj3GFinj6azvCuTAbVLkrzZniCTdVH
-n2lad33Wcq8w06BHx57kxmvClHdwU58nS2g1rEkKzTnm3MXiqvV4aFDtJ5xxdA6Y3zTNiJtLxOH5
-s2qAH7KhdsU7hmHcnEXbum/k6Yn4zDIl32jVVubrIvQuPYs53bghENKVKNHb1HCasBtMxPVkdzAu
-G/MqJSbqqZMmi2ACF8Tda3Eyqh1Pd3kcbOQ85wQquFZYJP58NnkR0QJ1qrX3uLeKAwc039yC2uLj
-tmz90BLtOb+fnZz7Wnf9cCc9TyU73Akdvh2o9hj92/hb67Td89AZBHRlyB5EWFhN3RCoZwzsrlrO
-Q64nAGB9YLBfZz8DxZUkbkrwXlKk3/OhdED42W6ertZDNw3jNveTbWHlcjq0qZlm20RWDI9b22rY
-8nVX7gvH5PIbGQ23GcKqdJvp6wFUtOnwFdNjnWyT0pnf+ZuXNzPNW/wN8UJo6CjQ0wT40fC6AlnP
-qsBXmievgdxSibJZNmozFD2WuxgTwUPtUXqGkyzab4j9E0pzptCwVWzqXo4IRWLubAJtCQ/P5OAG
-C3bMg0WXY7gE2UzvEVs92V8dIfX6PgVFB73a8tM3TU3udy0rFJDeXGS3TiMcir0JY6rXGZq3b6zG
-HVCcxEO2sYFPH2aEsT5ClwJPT+lV/KrlsHYP8tOUX9e952wnAJyPsqunC/LY4D17f/Hww2O38BbY
-fzH5T8kKflZpN0z0GdJa7klS8F7dJPKeM4CvL2Zb5XcM8kkzAJtHeQTFXSVB/skRiFekwGisDN6k
-zfEOxEvp4N6aOfFvTBGRTzenpUlItjfRdJlaarzKFw6nbzwSFzQsxg7WkT/czamh3RG+awH87Tqq
-rRipzIuDmOCDsCRAJ5M2GgjSwEsGk+XmN32f2O0WBHdHL8OTg73NV0xCCXv8B4DBVfgwLLjbcmce
-roHDrVEBFGNLaC+LdlQ1LCOMklZ/ZlBaTRsiJ9EpSTo55Y7XJ2XXajoNdynnlDSoJg08FB5gEA+y
-ixICA8YV1JlohnwmuVuKcMEyh46TltW8K3NOK5sBqduyc/q4QfMljcQOHN2R1Q4qZ0TGQedZ41WS
-TPHHqFzjdW47I93WyZC+27Udp9QhJo4iCM9Jh7gKUYqZZY9jxLfRTtRCmxkdAwBZPFqWvexkM+AF
-jaJxpEcjpN9CcWgxhs40b/p91cfDhV5WePuonNpvEJQBgcA8v+VVxhtN9ed8XTSvNTcuSohXkwzN
-mWYTYI1No83RD9Hr0bMp16OtSszoqGEpLTd5ERPtNReeHvr0sTjtq5F9LXISPST3pb2aW16wtaFD
-ne/Zonwq/Hx8nbSqhqPfKSG5jyWitLhUy3kdV8VbzsnkBtkibY2YhiVBhZFhHkFBoV0kIsGMdgMc
-j3qnKLXwx2WpzENoEculpYZeloERGwaBA1h+7I/PDvA/Rbz7nyldcNak77+vXPhf31pu1V+CdVfL
-y+eP/6ZbcJwvDqoxIgZ1VAEQL9ET/6ZbcM0vvocAwbJ9V6foXXN+ftctuF90mCg2gDrXhp2KTPEn
-3YL+Rbdck1LLW7Wrzj/HwoPK9+f2Nq8d2ldUu8gXHCyW/sl4TU4uOp2RN7RLhyZ/E7T9wrFtwKrV
-hjlQttg97KKsZ6OpaSsGEeCrK7+LMwRoPs8iHLSXiG35ul4ZxXVhEhXucwbqq3ykz+hLkE9rPwv+
-WDZOO1nn0b5pIS+UpqZuIck42xp0tEXtDvkmGc67WIERqjStAZcw1y9+5coyzE0WfUj5BQkiOXhk
-D0bXx0Se41EBk8ZrS//t4DYqwycdRTc5nJM0GOvOubLoPW3qWLguLZMFWa1jZbsVRhtgBU63Rt4D
-dlFLDWncKQ6Ykwd1KbLBuBzTvr2lAIyBNKQwPHTT+WET/pkEdGr9a84O2RkpoQTHGI2RX6YzHLdc
-a+S5rY+PhDuJbmOZRfQMIiy6bHtHcuJx/ctStg+Uk8lWDI15yEiUAPEMRmtZkptlmrMDrJj4rsny
-GyJ+gDyZrTzWQ2JcWTAJniN6wPvJS9zzWatgXEzClE8dQcBJMHNWoVOnCLuYMvFA+4bwGjappzEd
-6nAZ4Z5ZMLP3hkHQA0dOQuU7Wm1btxzoDtsTYtyyr9jCtAlXPR3X+ap2SlyPRAsFzTws530p/S3l
-VXrexPodUYgHOy2flc8EEc9/6vXJRrojvvGMHoleKh1ytaPCZLa9wDL09GxORBQkMq9Ktu962vFV
-UuIJMz9IeLAXSyEInMDuuPGNpNmx5wCngFUbzo3T7ZTS2tD2lLmDITgFrVsZ53GWlO+LZ/TbBX4J
-lMY1PQUoQYlQG/hK4DRmdF3W1p1eJiadwQqztR20srOCRdbN3dwKuVsy6HpQdNz9yCkdsTfXmzl5
-enQZ9mx7REn0uvvqTusNjMqdLncmuQ3bQpGmkw4ZSA5vqELAC6O6LSZ79HaGZ9ORTzq22ZTEl8GG
-PwIe7xD1ukq/FmBnOsS74+gn9lESc+wsGwm6qNgXNCDpCVrUlKa1yxqZeOMmRbrKjMhamrjSr2pd
-09iRJ4PcJIeM4zJHCHg3AxpekgsHpXim36ROUp6PZFmHZpdVYd02FRXwPHx4ZDmj4AOW0CLPvpDz
-UH134qV5jGiFhIK2+nnrz8lLkRIFsxlxvd0M9hpm0XKzYrTSDLjiuNviXKruGDLWO2SbVPw9Ps89
-owrnkvkAlYkJ1fB18ajlZG6owJnM4iaHb3kUtp695pHrn5WwJt5Lo/bP2jpyr5amWwTR1lF2FoOb
-uVsm9uwNHnBK36YBdT+MVnHhLO3KNYs9FqlxAtvpqd4BhRKZFekoKBBJyo3vJ07u8Ipan8uvlx0y
-ZR1ilw9CLy+9crukln1Ih9khXTdSNyOW25Vo8GDC7bw04jpH5B57MIyitm9ebUhjd56vq8BlBsbk
-RBnfbTeZn+YsByJIk7O5tEz9dinNeFv0vDCOmxr3MyCCO7db3EuXqJhtkqTmjTB789mtltLekOhg
-7kejtMeDPjEeY961dk7KLrZ+xOjTH1pq0uvRyBcz6NIyeZ40rbuJIb5R7SvdvRcWUwBCODhJarK2
-n8q4wsRObRMyGYKckU5pqGsm8WIxNd4ZQl1k5Uz+4G7aNqAMaZDWsK3o0h1jN45ZMfPsdlJAUAXZ
-5z5DpJnzx6xpHOk4ZWUhGOHluhmYeIZW489EGWNapz0+Jl8lJ0qoLIS8bGSViH1MTETQlbnDf6fK
-esDt7r8VZTJEmG1NdUXPxb5P5ykh5VyIGz9v8nuqOfOQDIn1Nra+fltAj76auhzKaDy7y2bqFFpx
-t3QZpPFxNpyRhhtCkYytkybZVaZ32gvHTbs5SybNPY6mPe8scxrOWYtomHX93O+YmHa3k95AEaFD
-fJHwrFCnOO0Zth/BlCBVBIcT4IPYmg6EeS6Gug+tfMV1muaw6Qz3XTjKO2ukmLoNUwDFj8CmCnu2
-ylDTa2bEThWHlmvV1C/2CC7HUd+csZeXOrvlZmpM71hGZTpudCLqjvSll8OQ2+Mt9Azyyid6/Dsa
-LJTJkQmfUqriTvP1bkuqj+w3LWOwc2Vk2o0C0TDQhDXrDwHCmKIknl8j0RZXjckujUxfeldZaZdX
-UCZg9WR1kgZ+4WHDziOlHom0T2K4mJZHRGWXP0c9u6OtsCFues21z2avTO6INRE3NJLqs15fyaaa
-03KwzesLUee0QrKOrgj5U7AbSWpb3G/+rHTnnNaM9xYziOVWRgIAhMtdpYYQc8jhowzhkVhvfQWD
-BRFcHSLylkcU4NqVDbQWM8unfZ1A+O9Fn09PFi/1WcygQAtS6UavILSis6JYrvr6f7N3JsmRY2mS
-vkpJ7eGCeaglAINNnI2kOX0DIel0zPPwANypTlEX6w8eEZUMRqazo5ctucsUDxKEGYb39Ff9lF6g
-Cc1PE4pXhBROV2pBrN+G9kERy7WTGQ7csempi8PukCm69mg5APncobOVM2ng2BO8hb/KsP9eyklX
-N4uSDQ889ZorsCD2vraj5QYmKMmWeK49xSoeAIRdNQo4sW5yjGNtyNklG7k+6BJtl5fSKbEl9orm
-lAxBHpcHtCs3TEzlckBw8id16AMdvAh/Ap+nn5phd5Rjk6IjCxCCZZS5X2STTErdSNyuKSq/ge69
-5x4GiqWp8S6VWxNdmNEcoMTmDHNfYUBr6Bu27fNFS6LqMMp254EFCbdTJ6W7BB04CBXZOCGnOxte
-Uw6mEG25EZkyX9foL+dC1PWVQ7z+hDmk3BpO3m0Vmm+CoqT/kL10FgxpaB7mtBqvTccCNG6PLuDn
-IeA+awcvRY9MFe0+0RQEBmdDvdAKFosvKRo92EVMxn4JjLDxR2Hvyh5AoEyuo/1Wa29K1pvXEK8c
-BhlqyaBf5JXYLpY5rIV+WngLbCI6d6W8xeyABVFR32gkUZ8QI8UVaDqWO8oyxuBW2bDJQrrQEYSV
-y4ILb/LbZk0OFPmbYzXOmxYOoJb1vlkYaVHmaEWtfNVTvsFsSzVioID9hVp33JdD094DNNJ9YROn
-YE4Zm+AlwzB+Rmdf9oUBzDlquBP9AW6Rq4TymY4noIlVsmDAGIAtySltkekUQwnNVeEyTVI2ajZJ
-L3KFoL4OHjZANsSGEms54BGQg8GZ1BsK90CMQvXFm1EgRM7Z104u+o0UwcGrGcQfWKCKb2KQxwC+
-k+oZsmkgmA7l9162wl1S9MtVGY2mx2wkWqHK5kZixOvHJTBYMKo1y7ikcy7bbImCXi6qW1u2Wb0i
-GW9zHEIHXYrQ9WLVuXPGed62XK57cyLjMuiDn0TmdDDbXMP5kZko3oO5NWeN2QBiP/8J1TAjcCIf
-KqHqJwUsbKMiFdGMjnJsKuWrNJr3DAHOUgQRtXbWdWadgdQOpaO2jhQVc74NNdF4DU8VGBGM0sK4
-XfxGUua7ronIX/Vp7CfMSjZirAiOSvXjAhfCzyO+0bJEpxN09rl5Mr5pWhtvOkghfoKMIEXWsSYg
-tNFUW1B/YcMWK7rrtceUmWfIrn8xr7hXrmSrg61GKx5Yo8jrjQUass5brTWSF/JmPJJFpwZpzX9N
-W5rLfE5+Yrj7VifFA11z17PSkFON8tlTGL/A8LToqZdR0cOSKiulGH0msR6Fu9ohjGb2Kmk1MKMN
-q7dBGSYiJJ2k7CjiMb08V2bPSuV0Ax9zRXXr33rK7I5dHhWBJpVWoNFrs037NL+jAHBamxxaUmH9
-PeOj5IrhThM0lb61JLtyGbwN/JtgKKtbF8kCqG7sla+qBgYDckLKQ7l8WNpx31LaiFat+jOtzG6e
-U4NMdSDej5AmNGegsVNxcs+m2MqlgurY5wbkDcw4QWOQIpKktN1PmVEe5j529kBXufh5q2zpY5/d
-njDWYSFGFKQ9jQiinNZiTEnhcu9mV7Wy/gSBrN1LOUVjcSq2dYvnBS/UjV1Yj1UKas0YlmwTYVOw
-u9wH9zt3+5qfAz+Yj/fDsrWJf/l1lI/H2kppktEk/BPmTdrV40ZHrt7B+/X6Idmb+oVoi4XfZYtA
-Ln6gabrycJUtU3PgrTvuynbKT2D34v0aIt0LZ8FEV0wQ8CSFhR2IRVvd/1tA+Q0CgoMOAeMXCkr+
-HFXP3XsR5bcf+SP9YXxRDJp4bMQOnXjxOxVFs2kNoGuAI8gGO3cZd94fKor9xVboQqbmwUTUUrDv
-vVNR5C+646xkEDIbpEOcv5f+sD+YBGmeoc8J/DBsEoZc/M8/mwTbCPkxjCJSa4KClxtZVWZYXHo4
-QHleIDj1KLzqlU4/oOK21OIg/86DGm4X8oSAgueys9krt/D+qOBai+/JivVvM2usk7mink7xaCff
-4rqU6S4Hm3iaoG4zX4h4efQV72YXeFB2lJxYJ+CZ027pNmiz1obgfJ5u5QYJIh6RV+8pQdTvWA1b
-6QrZndId/uMuOZN1ra2gjGVZBApmITDDOtVMvl4D+9uYmUUTn4YU2meW8ziPKfTsyKzb7N5JWKRC
-ppNRpmMrOUtiEM8g7cZH29CRvKt5stR9ng1teWVkdaQjd5is4uNmknxDcYoLUzOZzWexSoeAzp55
-J9drf2KSVRPPhbZTBFAnxb7EjyHeJPSWyOPxhBdQbdMK6K6WOadYp1DOjXuNXnWtSnrZCxGxFq8e
-TJ022XrMzlNN2eduGXShBiIUmS/VLEtdS14XEPjuustxGPEY6I7In3rCsUqQqPMgbZRIkWdXG0qt
-9OO6yQXOPCe7GpHVvyUQnkYfYUuXmOhVMQjRBDPX2tRoek29LCdCkUWyKY0e0b7qx7H0RrVufgwo
-/sKjbGGaPFFUcRQYcR91D4ui5+ZGmHJ62bYUN7ijHA4D7VuQe327afIX3hb5E+Yeem+pB3hm6CBs
-3rx1e90Y+Aw2RbX+BYLU5rTTLKHdNrMaw1fnN+gbC3qoczm0Cv2qM91NP7Q6M3/EzkRE2W7a9LYc
-0YQCjMN24lE3C8uuzeP6sdacyYIzKXdGYDAfQt/76V0TcoxGOP/0tPWrva2wUiD4VWlguqhLWzqV
-dMwh1hhCfLVpWZv3UIdZheFKERM5w1mFXT4CwqQUWQIOZsV2uRwmsYzNLmftvnhTpEvn3FIGMsUy
-gzIvkRcEQlook9vFArZFTb0F2J9Ko+9WOvJ2AMxXqUe1hejlOowtqbJRDeO+t0pOp0qIMiLjZ/qr
-pq0GOYPt+rCRuS/gK8eGlu/Ic+DnxYuak1SXqmbw8IFmRKm7IgFrbhA93iWMf40tCoud4vY0snOP
-qs8Imk0lxlboFsr23SPx81QMTxi04LVv3VSJwpnqh6jKlEs4Hxdu94pN5Xdl0mO4m3xyrtRiN/n1
-sT7GgX4/GI9NVYVrpKywpfcRHFHZiz6POkYTpR6fcKFwg3ZNy+DOmYsblgwxzG+jPiKSMG9KUnUf
-Uf+x+/cL8fcXor6mAH7xQiyel4qunT+9EX/+zO9vRMP8wvdCHQ7FcbIl02v1fq5AoY1OOxnRRzyo
-6z/9/kZUv6hU4aiO7ci2qmnwsP7xQqS0R6H1yNGBa+kMJP7W+5Al0IepAi9pgFykMjVahk3tY8GY
-Lph8okc3bIcLPCNDl0nLpqwXXX2i41ItdsMkJ47iT0nbTgwVmrTmVh8ow6i+yfgkxcZsmAsOXSv1
-AdvRqPGzVhes1GYYWM9KExmHxqlH7TIuV+qfnPdNfW3GolOO3EnNdEPGoY32jFSNxK+pPsFzNdUS
-UA2Z5/c4mne9WsVehU8n21Zd1/tMuvFtuINhzxbVNlzt30pblqQ7O8bXqk+RtJYxI/UEWVdZ1hF3
-nfxNqoaKXxLHCIEKKn4EYcHPslKpv1syyM1slpbkPpHxQAEAVpPk3khnmeqDdKDVoMzBreoXDE/h
-AFPIha41ZuAOtuxepvsFlmCPWRk/4ryV6l7Rr0pwGod0ntv4ZTQ1wMXy0PT7sTX6YkUpYn6twhaw
-fBpyxlAvHCyU0aLF4BMFJkttXOJz+5OKTLWzhPFnAIXn91E677QyGZh/8v7B/O/yGsAgw8QyFkM/
-3BVk//Nn1gNheZyyIgwvoQGX+j6WQ3W5S5eRGp1isqIAioPZHIqWUiSPafFi3gK7yOI3YBIDwrxF
-bzNIFRUdnIbHGkbnUrcpRsI2dgIctFr+yFuVPcYuNxOr2HcF+wfo5NT/0EmL9UEuMg83HWRjAMtG
-oi+vqinV6fJ9HptRbni6O/oYALIdEC+TbDLVR6pHyLXjkCrge6ZY9l90rP0bZYgaT+iRcgxrCYgh
-u+UfjdLH7H/ZLVoRjQypWRcnOAVM10UBeJ4rdeATyg1tvGPbrlHLjZhVbOfJtpQ93eBhc7m25IQ7
-fL0D9kInG7OOEVIimbcSN2QI4TXOWxjrSmgtXsvGJz1WadPFDIOGEnM0b7Xp3E1SA0o/laWnpoN0
-cO2YJO+fLMWGedqmcaRe0FisTf6QSRiEcQQItdsP7MriVytuVXXwAL6rAp8lKGcYpZmpXffVrGGS
-kG0pw5VkJKNR1k+VmOZwj48hLi9FHPa6pw5SMXlTWk8xypedDxvdquN7qZYQSUA24tUhg5J3p7Qx
-jBSxZhmas4XxXg5m8ANuu2qNvlkoc0XwgTFfW1Yp6+JIjSv1IJd5nHtd44CxT0oLrrqyrB3GUYIe
-12fjrOPnLReDfgvazJsbte/S65SW9AKbsbBC7XlkTZGk69grFlcsSsIE6UKzQq8BDOFFLVz3Tqkm
-P9VNejZ4WbbGdNFlNT3GjCWxeQjVnOQbodXgliuH0qHQXgt+WpotvC7quq3dZal+ZVjsHNhYTv1V
-KuROoZ3ENnLJUwYJLLo/j5J8wRZ/xdHGcqAhCbtLo2dIePUEadKRv429+exEEB6uMafJSWBMjj2i
-KoVJUEZ1j80fs6zmi3wqQBOz36c+d7DL9gKacwI9WNGwsd9E3STaS7msHLxNg6o4j4yU6RJEGarw
-yINpVy4i1mDjDhe7pT1WJnMgt/rpecG+ZUYXleLALZf5SnIWkNGs8BiQpOkbM9wGeVRhGZbkSEyY
-ikSYjs/UShRp0PayXd5QLFinNxFBPdqNpk67LjCGRgGr05mCeIU/mocNZaLzlYkX6WkpLSU6NHmn
-mefI1uvmKI/WrO3Q+GhaMYs5ftaqTML4MJKFuJAXp+TyzRTDHAq/Q9oTPjNPyb43HZtrD23OXNh4
-YG1Jx2OhS6Y1ueBS8uGg57UmblKFLME+hnZe3mnUlxXY8sKFxI46x4gLiUgUaDtDMc77NCkwe6tN
-RZ7FHJUCdUnn2el16M0uZgz7DRdQ/rRgl/TzRXrOQgDbTrR0OwvDLr2lpXVjpsjmr5mFNegcL0bU
-7+l/Bw2Tdw5fPQGIJOojOorTPvEn4Cd4RJIkaU4SQ9v4ayeGLKcdgXEF8lZnoMU3NuKWR0FPHh0W
-1qWvmWYxuHFTancRjhwk8Y3I03C1Xc20hoACwvmSyvQ8+4kWLy8Foh6TiNypHghfRPllly0zMKaU
-9bPYq+w5m6cJMBMTfKOCaHMrz9N8GSLuPLW0E9CGEA9O+8ar+mRD1jF9s7GqO6syp62uSsdZie5p
-62vFfpiNhf/QGGNN9caFbx2jJNCPSUahCpUZzBR3E9cj0pWMKxO+ygujclnyzWxOlpMJxTrZ1KRL
-EnWHo9eeHyqJshBXA3pInVKvt5RsNzYMI/pqmGxiqhz6BSd7AeXKTZu6YooYOrV14qHehV9bqqno
-UW3rwQpiXdIqMEMV+xNaB9jLkDyjHKR9JKlW0h1hQ3zm15rRojDYkrFDpOBO6mpCP0ytrttUTD24
-IkpFTrt9RwOp4+nWkIqrjBpPBglgpvqgxjFMD3dDdmo74K/5ypDQrj24FAWEKLvU7myk6xS+9BBa
-rRW0OHqv6xLz5asWORlyPCzezHN0pjXH3DLn6NjOrVWcxoaxs1/i+e8fJJ1m88c44kG7g+PdDXgu
-e/tYy6B79tHcy8Y+VfNql7FAr/aWPiIOUgvW08mpiDSpAqOY2zGI2QKZvprbiPsY575TcSlvdLUp
-z8KcpnstG8kKNVq5MwYpPTiaAi1MkcuXxKEHZtIxT++mOjXH783cZ6Un9bI5XOJXUFjdlDaXBjvW
-Gb3RKRrxo7fYSCFlkGFMttHY0mGVCHa7Bv1Ztg/3tzW3dScPc5BI2kLbg+40Cp6MRhnpmyIuaSJw
-R0uzgsYcko6XOjRyqcEobrTTgYHyqBGD0EabK0wS42j4jrV0R163yR1SqiYxx8SFjFFKQPqIri2z
-w3SDdqALEz//htefFiUSvUpL2FpP+W/jd+RcZvEqPUZZ8f/Q/vn/pxeKrnL2E/965xK8faceNP8P
-P+n6Nnnt3+9gfvvZ33cwOkQXdDcb1qLJHgHt7H93MDqaHnYkEgnIZKBeVvfTH5qeYnyhUJrXnKbj
-PUATfLeFUdgUEQv+h21K/ztEF6Atf97D6DL7KFp8aa7WgVioH51R+twudleQ4WITwWI6U0yhvk6j
-msZHLkLRfK/LwrEY4lpbOtkuQtvYLpUaKFp3LCIVTcnAQmDNtZ/nT62FzqzLezmyj0VDn2NV3VHq
-Asc92TCHPC9Z89pOFaBpWwLqVL91dnooQib8UnEraqdh6FJ6htL6+I0DurxaP+xEUGtGIDviiUf3
-dg7jR7LAWzHaN2D7L/pozDyQUD7hpZuhNm5jFjvrOnsUBeYLpopOK2G8pbxGTUCjU89hJvKbkYUn
-1Mxdac8qUx1526vOk0DOmFPloM71mzboJ27fq95IN02Mvdyiziqbd2oI7Cqf9oraBWkZYsYiHtxR
-RVNq9VOsl4WbGOGBT+ZAci2Y30R92Zv3amZtFAm/9PCY9xY7QBQZbWm3ZZO6lMh5GZsx6gB3VCRs
-qaC/aiMK90wtC4x5eCjl+EhPKL0eSHg6EQLooukwsmv5ppFXMtfih8zXbczVcPqyRN404Npl5rOl
-RNWD+DHPD0s6+JiaPakz9lGj+/hM8eDOB0vnidij/9sE7mjyqpZnppkubn53GKu93hi3Ufq1g26o
-MRYk1MGSLHVhh5f5AJz+rpaF14pzlExBYlTblq/TusKP63aRxSuc3OocetN4aTFQMbUNHRF+wbkO
-VkTz6rof0La12u5Yq3ll89SKA7bWDUOrYf5Of4sni7shfiRFPmc/pK4PKqsNLO1bTK1dlh6k/E6N
-vaZ3dovUbTMc0fgWGNimG5PQFQWXjsfi76TSx0qw66lhJIvWgE3cupjYxIwRebU0pNTDiIMutK8x
-d+/YZe4tyzxncX0TLQaOI7FLhPCUJPUTh2+wDx/DyICaXl51YXwZRv1W0YzthFnCH2sjUDp7zx21
-Zz4XJCRV7LzddnN7ZerjdnDygBrLLYorLwzGn13R88XJhLjiS0zAnFXGRSrbR+GwlDTUh1rtMc+x
-aF5M3uaRxgSM2WGp5pt51r4ndhrERqS649JuFGe6KPRl1zjylrdh4zZhw9rF0bb5FF7nmnbAoLLV
-zdCDbEZwHL5nX6g74tdfG3x3EbVToYLDIK/qXYypd0vpscWbKvblSAN0OXyNxHDWeppA+5zQKU+C
-uzbGqRiRxaWw8TjL9ZY+Fe7C5Dw3qrWfnGFPFeJrE3dc5p25YbL7rDaCbXSLyT7tKB6g16tiXGic
-7H5+rQzJs/PkxMPH8mRJPC5Fk/MitVL8g0QyB8NrIj20zg5edorfjMymEchu1P6blOg2DSGL2Nns
-SresVV+dse82dM/UgQ17cF/W6gi3z3ytQzQXYjDpVdHY38slu59wIHlFs/pCKKzz9QG4pdQkFK8Q
-qFWltHhR2zEJQtGPd2m93BcVJzRkzXHCsO2qLSNxET/yBArAcDLz03aRmfmG81UzbqvHrM39HHdm
-b+MkNxeapxJ2FfMqyrInotswkKhCKaJugyhNTCy/oXIv6AqTsgRH+ZGNfcpkQduPybKhsLLztaxB
-dgh3EcafUEiXQjU2iRSVrsZEoGJwrC/OqZWUI30mJJlT/WgIzWsVnKphMqm+EndPllpd0j9zmfTG
-DnPLdmY3WZXLDwdnDXGZUXXpFPCRvAJYnd/LDmed4ewdx6CBtbwxGZOznypPgsoPmuP2dtHeS3a4
-pY35nPdOICLyWpGCEC3vFDIcvZldddZAKUPbeoU0qTwYql086NvRqnfLvNiuo9iv6dxfKFFxnFT7
-BUrkbYTpiUHn7ZRSS0dDJiV0TwY9TRsn18yNGcXX2EMRixHuKaFGzjZGoqIbSnqcy7I1Fs0HZ3li
-6XppLJgd/q3c/jHKpGbwVwugTVf/z3+3SV/9x+mZAsX36x9F/vmzvy+AVMaTrHt09HxGhgZbzH8s
-gJQv7BTA+644O9L/DBP/d/1jfcFq6PBTWLVRIFbO3B9EO1X5gtrL2gjLucXqyLL+zvoHqf/P6x9D
-tpGETdPWdQ38ifbz39+Ba3ISomPogNNN4VOssbXZfE4kSEFbmUaoNkgAXtKNlei4OBawsBcZkoXh
-CprUaeVLq5LXIR1huH57R4s8jhUhKOIuvXdU2sCr3iLNIjNmwEo9so1T8S6/1U1W4KBO4/7YLw7E
-Uf6AuUdbyVVGWzqVU1s9h7n51U7L+rmP8VW6qqNpYpNgrdrPoUxp+2xJ+m2n6GMELrSLXsh3Yrks
-6y6JPK0daddS5aU798Q6p6O1NOKhhUsMtqNeSJOEk6XNwUCU71myYgIjhmFXeNhyBxeDjo8nx32I
-brXj4Tym1xyFuBKDwoICWNGmBGSnAsPkJXJqG20hmMrqSV0WXLcuSUIlvQcmgVYV9611VTpL5mD+
-Cp3+27SGMriV0yKQYGkvTP26TlEKT5WqsoU0OhFCS2V5bn1bZPGTmsX6qRD8RjeZgXp6YtbyYtPj
-Jz0uRWacltLBQaEoFTzqIYUuzDTLwMGb9BrBz1xKezc0VG2b6U11kvEhfUUrlRd+T+48mWqSv9BL
-V85UbMrM9IyfJcYDZnGPOTbPjPULpJOXxBxByJQQKAyLQb/Ruy6863vakOcxQwIzM/W5jUNQucqE
-uTaAAjzLIE5GVNe+oRfHWxtev8mKHWm+mehdTJPP2r9M93y0Z+VZpdf0eanfqYIOyfPp2tBukh7j
-MN4UUxjUBLZxTi3O2uuM1Rq7sdIIneVO3I1PsVqTssKWBVeHit7kNvlZEU3tWINyJfXSY7/QmUTG
-bSTnK/BNXlktM2u34a2ALlha5VHNR4vk9s/26bLpxV1KLIjBeaEp34hDsNXV654PIYKsQTi34uLA
-MbbWWdcQfXQvDhN4tjVi761GRSxfg13ZrI3llGyEzUaqdWlBrsgW/izL7spElnEQ9owfnYwuVeTF
-MtqG+rCK6lFJtjuylJQ+SouEIICYlQTQmIBsMJgOskMhDyMDDPaZ3vuDQlGEL9mJ8cRQV063qSrI
-CrFwz6fSq8a4jvZohgtpuaYfmLYuQiQbKBLjDzEMlQStv1XOBhNWEvHAD8DFUIGySbErEkKDX/5c
-Q00C9l6XXF/w9PqbyiKD6NZ0019KGG0teM0raHn5CV22xApgpsfbvgqdBlEi+olohrOsf4/moVrT
-6DCcrUbLTnZH2SEqWvzS/4Q9I8tYj81PBDSoAzHzUffdy7AyorEo4haPRts8Oz8h0kxRAEr3c0Z5
-D/EKQNOGWSYvTSeDn26IKYKi/omldrgNMCyutGqlqfvDYlc8xN69Av7J7PYv3Coe8jhM2fAyqjOc
-FUP6fpyaqqy855ZDtiPsDTTJAps10T0kf5+Q2a8PtlpN/gQBcwgFweHiDYHDQrc/WFG0vM6ILeg4
-G2PCmIqevaWW0vusF0fv10dS1r/7r4eysd44DBPB6Pz5vJwQKMNiED1RFDyuXiErxjabI57+uVZs
-mlAi4pqbsfF91UeD3srKfTvEiSciqw6JMFr2Y4qHZ/PrP+vDvp03Hx+ASeUPNB7+z1+Ba8SBEXvx
-rc/NsLfkHLuW1ZS/rXFep/+K3qr/u++Ul62KVwUeFV/th3MnVkuotcO0nXTgPqY5xjIDeUu6YQ2p
-X0M/bvZFN/efnBvSx58+cV6SLBd0sLVoVhqn+edPXDdSEPksst0l4JHnocB5pVd/cmofx//Gx6Os
-1/O7Nz/525wQBEcZ/dgjL+5hYHRLD2z1Z0f6Z3fG+/NZz/fdkYquBEKTcqRmQwDVAyrvodB6tm/6
-z9unzn8QbvTZMT/Mpv9ydiy83h/Tadm8tOvZSTvgLF7nRe6rdWkdut/8C//yClE/OZD2IVqHTh2H
-es6B1K3l0u3g4iW6avgQFb/yjE3ptu6xdQ+DS8vt+df3gPIh1vfxJLX13999sJauDGazHrv2vz2W
-fuKV7vfDzfOvj7J+Uu/v/w/XySoNvj9ITs5mlDMO0gcYgjyxqbbaperHn1z0P+/YXx3nw/Ozpz7Y
-YUG5Xo9UyPFBJpvz4r4+XMXuTec/C5f8uZt+9nRb//pfHVX/89kxP1B0oBide9lsXjLv/s3YPj+e
-NPfXn+Hqx/jlYT48r52JBJeyXo7Ce+EM3dfSPfzwTo+fHGZ9MvzqbD48Odh22pLdcBjtpB66x+qq
-OWgv4Q0GIsZU9fN8D4XmWrsx7n993E9ucO3Do8S20s4u1w/RNr4OeNTBLtVICkaJ/061P/vKPr6Q
-Pl6QHx4ntqLls5JwNBbtvuyJQ+c+ksC+Rlp4aF1j/+tz+8v77+PhPjxJNK3M1Xw93Oy9LIG8pUtm
-Q4DnKtmDUNkOn1wp64Xwi29Q//A4YcgV9RTKdiQrkQ/HkJgaraWHEW/mJ0dSPjvUh6fHrJZZ3q0n
-hpk0YO7o3xfe4r6FLjgUtwpovP3sFv/kOlk32e8fJVE/JSZ7Hy5PbnLD1fkkx13iJV7oIi1uqKjw
-bc/2PlsrfPZoWS1R74+b2mTG6Gb47VWXX1eXoY+w4xreA9EB/4dwKR3hnH989hF/8iLXPzxcJvJC
-NLlyXP023DaNWz7iIzyEn32s/+zhouBuZpZiMGr56MNKGtp6DMFheh9L1WMeYOELZj8Lur26Cz+7
-/f7Z++D90T7cfl1mF7hOORqzu43C2kHzHd4MuuccCw/7/m13g/11CxfrwvntXvw3fuA/VxsfV8e/
-nrndVe1zUvDq/geD4Pef+cMtiNQERQBBCHTuyhrg5vudQmDSnQlQV3Z0iiV/wgT+kJqMLyr2QUZg
-tqU5Mtl2fugPpUn5YoAf4DcqMgt/3O5/yy2IMXG92t892jTwB1j3WbSs/2Zbf7n78Rt1JnQ/Ytc0
-3gDWU/WHPmtA1rUmLa6kmwCzYqpJnxnXWz9MkEFE38c3k1GaWcHX6AkUusRoQ88YF2pnGSo39ESp
-IX7uRlaOjFdIlQB+AbyE2+xS7RWCTOm01sHzCL/tJj28BdExYoNe0J5mI2puh5gR2wKEFQV11t8c
-8GUTFEQp2SvlwACskc6OFSdHEYnipHcFhqGh66rnPIoxbg+tWV+GWdo8haS5rxLDKE8muU0vBqfI
-hKGO5EANjRJPkbpaDitFEJyWams8aLS6HwBbgewsCBmqsZZetxF5YIX5v0wb+kTbUDEVqwOj6ZLL
-IlSzYzEUgg4gdXD2eOq6M+lG80LqQ5thF9XbcLpE+BpRBH7fLGh77jQNfY5EP01bJyLKOpPirNGa
-FzOQe+cHCRyGLnT17POIpCfU1dJGA0yWazh7eA6kuca9MWcYx8fEmB+lhZwnaKsEAxUDgtxBccco
-sxZE2QWUtCTFEZDlZJzlhXKqDvSwF1mZBZR6yLclWbBv0HIbGsQSZeeQHrdKpbu0irLeF1qtXmC3
-i7Bh1qa2H8JMeprJ+vpjJTtbZLnRQ0KEamRP86uwjfjRlEW+/r5zXxlvBVnLayuLpdozpUw6Eb01
-agR/3GmwacTekVTmh2nlIM1UgxEdaxyod8uQVwGpOJ0/OAyW1dyGAWwgrV5oBzx99aYuW31D4nKq
-XGqRdH9sS/ucDhr028qwDlaUxvda0psHKqGWAOUhYmoUG/YTEUd6y8HcXLRKb2xBHziHiJtwMy2D
-cxemZAdKcp6RKzlRCRpWW/jWM3L+W7BPvI7jJdkuAxKqVCS3RpgupJTn5CFL9H47Uib3AkbOCKbQ
-MW9zKcaplU4VYxxWDK/kmsvb0YSIlDttTkTMji6iBnPfiO2SSRD4Qy2bvzoWTjyFkjvhSoUqQG4x
-MVsSp2PYJLLLhmiZV2e1CaQ2Np5qtRpfkhyvIZxb/ZodceYmI+NHPjFu3LIds5sh1MvJ67HvHSXo
-Rn649PG26Kf2UYvr7s6QO+YfgCvogS4nab4UCwCfTcRs80cqibpS7xaz09Tb0YpDtb5DjxhvhCQw
-ytnF3JwyROaLleZ0j4+RyGI2aNyY0JrPohrFm9z3+kPeztE1ZkgC7PXKRl2xj7JmJQSa8XLJkmMD
-YzA0DJMVEllUyvlWzlT4TxVeI98IaYAeR7XdyC3pF3tQ26/U3QPVYAl/7tizXwlLk44kS8UbVuOS
-LAXZadGBs6gVbTrK2Kl8jIJ5yffaGLtK1yEw5rP9PHRVfKWpYggqgi23sRDW/dh0FF3K4Efo8arr
-Db7u77IOmgIWH+bgrq7j2yw2aq9qCNpCeaA0jJ8Wb1VYxWcdO+mhHfvpSprK/LmS+CO6BnbAMFHm
-MbRCftQ7+LFLuaDvhhRrP9RhtSX5nL7OFcgUcJWzcqsVprhpOi2EogKV1p0WKxlAA8jES2EmnyC6
-UscWwryACLukpJR0ZTsyZ31CSjdv5Ea2zngE5TuuK+khxxTr663av+StHQVDNsb3sWOo53awytsc
-o7C1KWka3JPqmN0Q9pinLwAewNNNRmDrsBTqSuoawoJcVCDBU4JLc20cjIp60BIp26Wa3dx3Wd6c
-k4msIASCyB+TNb0PUrjdWeMEKybCRn2F8a2/7nN7xipg93Cyyz1TV307DOuIj/o2a9/x/Kogbk5l
-uyf7ezPYGXQQOssrr7OoGXcmpX1Qpbb2B12aj41ZMKde8/W+1DB9Q9QtvGhJi3u76pXHPkEShuUx
-Lxew4Nct0PJ/2DuTJLuRLMtuJSXnCAFUAQUwyMnvG+tbkhOIGY1E3zcKYDcltZTcWB3QI6NIcwYp
-nOcgXELcaYR9fED16Xv3nmtcVvZsoc1EscXEQK6YmSxzTpIjGdfBcR4wReeW5+/oNQ1nu/JgSdup
-/pDV2joQ0YaXcmLwEnd+hx+J/xhjUdmViAce8hBpoZ9VIEmaXuz5/uBSc+NIb8+KKyIhwy3s+OCU
-2fF8KGOglABwwmSLnaq76vVcX2RJc8+fZWmtyrPysoq+ZdUN2Mj5SlBBmntoK+JNshufkGkan8B0
-+1/bOgE7LtzSOcMdzNZId70LUPSgIjIk6LS5rwetsq9JDyYNRnb5UDK0eZ4D1lfAiNdT2B4d3LMJ
-cEVX3FSA1V9kkFgbSyn43Va5ZMSL/uAPpX8AzT6uFalo59lAFNvH2MsEfPQ3y6qcm6wOq0urU9m2
-qkW071tpIFi2L1KTGYO0h2hd2e1L4E4hllaa7aZRlFcpmvk19KHuELtQ7kOzss4Nh6G1C6US6WSc
-HAdAkZt8rHKeiil8zZIovfKWgXKunfLod06zk01So8yZ7A8p9+etGuzk0huQUzIFKK8oA4LjIM1b
-iO604hf8sTH0W9JQTUzXGS/AQJBgHNtiI9253HhW0fAussNFhQW2J8mtWe5cv6negOqxLLGr2PNG
-csRnL1flLpw4Y3uRIXeTBWIDxXUWMl+z+y0IXH2k0iJyzsM/QIBeRnyfjyW/wti0njMgiCD241s5
-DPXZwKu3dQYLYO7QpWcPPd+nGlHlIRZtcA/R0F93JixVixzMTWCJYSd6STopRsArMen0HEbVRyI1
-64+R2eBs9nq9LTRaJNzN0wY1bnKjq366mGjSQgy2oi2fbz75Tm2u4yKDZxikNu+6NIfbGUI5ymZZ
-6i0yb2gaLZTUD3CciisAnuHOLufpFFpOeqT13wNYNMwbYN/qWhOO92rMudoETDrvwkHhPq7B32O5
-IHihyPfS6cM9kunoUqb6Cfd8vXbSEWOGyBhipr5d0bfO7J015TlHKcvRGXmx0fAwW7F86InHTFao
-fytUkaiGOqg8UxAbp6kP5XoRpwJXEZ26sK1EHhSCiSM4v+48qk8OjN4TRQuwjNGEdSJmAYl5MBzW
-qxGvhR1MiGsqEdF6nYt6D7SObo1jW/ltlc1sSobuMqb8gddcFMIyjkPLpmlQKX0eYfAi8QqqBERA
-18NpROR2lMk412AJGhJAJpzdF5UPQHOMSdnNxn7eeSr3Xp3WB8cVeZ8m6OKHGcPe7TwAy6X6i68s
-1UFB6eVBIqBkR1D9Iy64Ymc2YvxqdgYrgL0gsvn9fJQS83Bi7JY/hUDrnnWVt49jpDBmQvQZXvgc
-Ai4kKlWkbfb4ELey3Y1WXr/0s12eUW+X5Tpy8/TLmJryliBJFMOGAAQK3BAevTShTwkrANXusWVl
-Lt6WVSPcdZtVcBgSB91LqtXl4NX2UvID+ooGgMphFUYf57QQ24YSoljBQ4XXmjhB1m+iqLaebPz/
-R2se5K4KOtJufS+7QGkbnFVR6SsFYuwFRbZx29H3f8sMIY40tvTGDQoDpUVdBZso78UFxJVBr2BR
-JyX1kMpOOXP2EwUIanHLwtnk9EV/5cHAWfezKD4XzIQ3bkXwbW3a7U0eoLs3NHRPbqTlX4xDWJqr
-GhfPRSpA08zAoR7HOo8Os44BducGkGpj6j4PyJewTQGLhy85mPuE8cwGcmB3BKo7Huyed8pJ+vgr
-VHnxIGXzwQ+yM9MaeeXrBxyn0z1oKiiOI/gB0Zx5cuYz/8c8cnCI6RjOCi+UlP4mZU4Rr5Hz+p+x
-ushXBOC9uxrDqvw0FQ2rWWOMWytweoR7s7xJ5yzdlUNqHBySJ1EzCfMrmG59FU+euq2ou4+qbi12
-aDtlJyif68y7pMDZERoLMxfMpn/dCxFczEmbH6Sh5J63o9hiyIWS2HTeSUBUeM1QZu5J4m2fA52H
-u9TPxS6e2EVWoQP/Cv17fsxcB0ctEB+YH+ME46cY8Wn7QT/d2tEk993CYHZB1+4qIxTHdp6m+8nN
-sCRL3rwbo9Pt19JohrOM++QwtIF+xjy6NePkCVztKkqzrerJoYjM07LX9lX7OPnBTYCrouSsuJXB
-eBf0OcBNkd9NhQTS4F+Iyb3PlhmoF9xlsfFFuca9AOSYuMFVlhog5+upWA2lXMRVrlY7J5YGK2Wt
-vox6wsUaS+c6r0F7Alo3qmM1Zv05TxgzVi6ATd+HkFWXwMitVAYPRmS1Zzno8joagKNWTh7u+ypq
-b2Jw9vtBB/4dA1ZjZ+Hh2nscJx4JCwbkANy/HvV4ColZvgoaARjOnS6SvBrxauSyvbLdxjkRFqDP
-ISLRYa6qIwy4klLQCr8Sv+DwRgqHilpGT+HIKdQESo1Jj8H4xDbNZq/YLq6oe5PbKH/L+ZIuzKZ3
-rro47Wh9who2N7bbOg+ULZ65IVX5TkPjhd1g+mi8wvAOepAHEwN2IWnQ0j67jGVvrVzV+8gjQWYz
-tHhQVhVAusc40XIBEYEbcoOYMbJkJPWRWxA+l2oyb6SZpkBU6niIthDQEDMW8bw3iHsmdGUO7213
-dEFG49bem0uJx3DbbpjuDzuTHJfbLBJfsUMM6FEBV92CfFMvRcbMv8xHCEDES6OGdKvbeUxad+c5
-sw2cKwMhAsLKf4L5lm+0X2gIJ01RXzVzAlpLmuUTsbGdWid2anwtag3/XrDj7mo8RXvGMtmN007z
-U64lZZZyYmdL1WOfw6E2Ltw6FJu+1eEhRnew0mSYQHCLjQibizvtXfKbwRUX4HpMt2GM6ibFrg8M
-6yKemFaPTmoASAzSLdHe1t6a4infeH5Fi6GAaYLLMBnTC7dV9jYYiOpQnRzMtQ3y+eSmlnuRBAs1
-TTbFRaSNYlqbgRUeiXOZHnKXQOMhChOFqFN2t62Pl52DYhDux6Zgs6k8w0VEGOtrU2q4kU0UH5Is
-TTGIpMs1NEE3rCxDtSXKLNxqHbTkYBC0QJI4eRabpIXzUmvlgVslCHiThjY0+yYbD31NQykzCqvZ
-+fQIVkE9qHAdJn29ETlz5FUF3u9Lp3nVAQtlNxGR5vzmDrv/2JQXiUQ9bTem8SDquNjjk2tfVRjI
-cwZIl58tpycqK+8EUCwA4eKGx2Es5/vGn4vj1NvtPoJeiI+v7C/xSUavuhr5SpxOQGQ3wpp2QNku
-EhSfs3yXwzU0SwF2iUiG+tDhD7kHb0TrvK30fQwjcx+5vrzvc4H2z/Y6vSaLNz9zwi+O9WT4eyDe
-rIUclIuNjAbMXpBsj7DqYavNKUtdy8mK0BnOtc4Bmax8IEJh2IhAJM+Azc0b23DNr9ptBLxpJMQq
-lAb9iSrEMhk1zk1uOsNWkrNwmVH4HP0oz78GUeffVoFmwbE9YEABWK4VIDzqvN4WCD6N0v86dYRH
-E0FVkn1hzLBzwzCAq5CL/obAA8TAxpgSlcxOdDGXEAULux2vlULScswN1X00MiT2sHJ5uSrOVEeE
-q+4d4erqLqzH8b5o6v7gJI51yQtBejthyhf4dZ0NrydjDcq1daSt4TkUy8YZmPNFG+GdMVHJfCrs
-ejqX3ljsEl2ZnMzkcHDL3jqaJodsDyDRm2nl2U3TV/lrFfWQRIG27RCzdayJQ3B0Y9S96WxOJ9KO
-5HFSBNhkUxbejVLAt0v6CPykGPvLzKOgXNliqr+ISte7thlcxgSDHR3wlM3WKq9rOi04Qmd/jaMW
-pp5XVISXO8UnQxX5Pe7M5gGqVXsXZKW/FbG0DhiMkktntOXlaLjDvePa+gPEIHFrRoAEbEj+twve
-+NyDy6NTBNB5hTIWma5hbGrwF2vVW9lq8kLv2OdJdulZeX+QajBPWZza3LFyWFPCBndBHHCslka0
-TtvYhR4xujU6Lzj7HDdhIJWGw9zbEPwiYzns3UCg9h180/jszCK8MIq5BrI8F48YoOr9LMiWsoLG
-emv7cLgr5jI7OHFl7Z0UYoQKVHIheKfrlZraokYoR2cS43e25xRr39DndDfelJV7EtybXZ+QE1XT
-/ege48Dw75Wu1Z1ydPDAwRT76ljGH+0JEF5Gjvi2h0B6P4cooKhU9TYygnxX9NaA07H/ihrXv68x
-vwekBxnRZRYN8wYUmfWh6Vw4Ly6Q0bxIu+0IYWu7oBY3JB3gfGptQOEBgd4r0mTcXQJxC/Ve0ORn
-lGHmPhrT5ENAwgJqLJ0f/SrFfJALYBRYjOlQ6fupC811J7uIv2UkSSSTfX4uORDfBDqMLvuYDTBf
-+oM4psV1q0LryZPtcB1pmX3ww/HRnrxMHMaWEAs6hZDrkIBOzopDdHMMwwbOE40UVP1mimTHD0pa
-XdRE1EchbnuEfoUpiguK5vGA09mm3rQa9yCzdMpQrFf9h9Y2ETpCfHKglH2zkuLzkjdBFRk8RSNo
-iz3VKlUycwdagWYuPrrkuKldQ2wMBuiiB5lml80B3tYCaiyqrc67Un3o08CC4JVr/K1DkHjxhrgY
-foLnjG4dkBz5MbHoyTH+iM/stOOD15Eqt0nLfsKKYTbRrWvRNCPbib+BJKtRXHqdje3PCL/5Z2cQ
-sRwImghtdJUWG1SA4+v8zW3bGLK+omQwzjaQHpzbDfkt/Em6j4QNgbgv+n58dTMSY5pAcTlPd/W9
-jDh209OMZu+Azyjm629iXOgKzM/aYi+lHs3AZTZ4oOeDRBlHupszSjpWQ3EKvdTb8k7pL6FD924p
-LVjvvdhAINPr4oTgkgM8riTiizR6sLXRA8n51socvhmLMW7QsrX8g58KH+UEFRGhIXwwDDHRM68S
-H7GrilNnjOPWzXsCM8aE/onoCIkZ2hb/PM6hMHKDE+tuf9cS0rA1HIwW+DSvXLe0CK8xsoeil8ll
-2JMv6I23qNLwzaRmEXH2pLthlk5zQIhCbVZE6UXSyfCiNe3irALjU75I9QAncPxErshKGSpYfEFr
-hq+NW+mNVSvj1iFsZhMr9cGLLgpbPcLe4bGHr/4l7nB/GwJ6S2/77qGYUGMF3uA8t14IbScJ3HyH
-7C3YuVURcqKHN0CGw30vOaCHkg3TSQlh4zbNB6+hgBonN/80tEN2kdeDu8G9UK997YfXoOHa3RTm
-KecZjF2YJnxweIEmnYzopFVMIN/Goeg7udmUvLgNreiGQu3Fwr/4Ibdk/AThvTsWxhABC5yCYNtP
-CKYR5ZZRsR7V7MMGHQAgUU3RW+tkVV7hgJSX8ALj20D5+SXLT3rlQ5KFlxw4cbSruyq4N6JsvIFm
-3O7zROLRKMyS/aEreXHGKXxrEGyq9bB43aeZPj+FnrqeEcR6W7pnJWeeb/b4b8PH/53E/id6v0VN
-+e8nsfsy/u//034/iP3nj/yP6dH5B/YqCw68/5e2nwH6PwexjvwHqfEWo17fVgJCC/qcf4n+xT8k
-sDJhgjiz6GIvYoF/jWJ9QGaeXHhpvmXhzvyjUew3b8H3k1gb24DNsFcxQXaE74tFGfKdbsyyIw+C
-Z6hou5QAJNKR7Mqj7kbaVK7SwdVY9KO/JxUQl5taMi+31HQkeKkBqG3rWtGbGaQNdif6C+F59JlI
-bDAUYTJOYUd2WJIsGJjkTs75bZyhRL8NR2+YDwZVln8KQGNao6L9Biics2hSQwJh0rilrZivzQz0
-lxeQPOT4VbvGWPaW9FUHK7GvHqfWm042fYEvc2ebnxNDxGsSTYutN0psW7VJyIzl0KAXo+r2jtd1
-wAnM8t637WEzOmzDJazcaeWTOGWcqGD0K/p2kkC0x/B4O5Bxgx1prFjycbEDkkoVd2WdxcLYUoJG
-YlXBnfqg+s7zPwcqgKVi60o3W9UYcbuDgknahkEwS3tnyEg3lwnd4o50N7izRJ4EAvIigtk429GN
-5ARCguP4wFwDIxQPBFTb1KqjW4YyCMrdDAbhc2GUbBD5Evtnxg4YjRkhdrpLGQEwOZz5Lbe2Abd8
-g3sbr/y3vMBE6eSFYTY4jKSpBEKbeeAT6WVrC8kmZD9DZs6imNeOuknTmj9ikNlT3A+O1HsoBMYC
-cC1vXc3kNnOOqorVM3hJpE8dBroBU/9l5FCY1KNw2xeaxY9Ni7m8n8yGY4ukGCRmxFiXMFo2dHit
-tasJWzNgYK86o6KJNfHUiam9YJ74NZqjY253t/BfPThhQNaAEaw6s7uqan6rNya8AK31WD36SfPm
-5glNasZR0KdlDpBvTfwj82FVKuiuQVbj1UzKoNhWeQCHjwil7C4CVSe5T+nS94r4tBUQkFOd+p8N
-7my4A/IjAhyEhX+f9V34OkodxhRgdRIcNc7+MpUg7opdMzgHcDdvUTFNW69IXtk9iPZQMwFZoOx7
-JzpTGl5k6H7WXmUXRxoUD21mVqsujpilqq9Nm9xlsGzO2vK+MpohDMEBLS8y5EEwhmumFMFkbsC/
-PsyldW7N4GX0vG1mOHsc8jhc65LmZZhtzQDDax/7SzRqTZe7jS6oom4NO013MMrCYj9j9nF2hTv6
-57oT5qUHPSffuJZ3NfY0tJR8ImL4OjP0JY84vY1KaI8JlZ3Fp67usEgahZ/cqGz+4CfyJW+ZBK/Z
-n5I7I1TPoxqLdG+zwT6AMpRfM1xpxZk5dMhDI9VOTPJjHjHcXRlBNZywLpdvYJeH9Dh2NRtbLkyS
-7Hy48ldeV1jDvQerraaL6uIqmDw6ZlVeG9Sqo8Lxq+k1H8fcirejaAdf30GNCAiIw+XxihHBMWna
-h7azybEZtmG6l7XfzMewdOmjmQnMw3Xuke60KtLAjE4aF/DcXRiRjeORVJ4puZqYd9t7+s22fw7q
-Bgl7jg0bykWFQZMOaS5o9s0aDLRmAFLRxoro+vtNnjLQCFHP1VMaHlsfbHDUVPZJJtplYEgGUJGu
-U5MmG7S8YnzAAZFWL3oM4BuDw3ugyBpG6gSIrHx9NbwjXcFdaDOWAPqj5JC1bsW/tVMnk8uoicUk
-1Ow9q7BrWVLKOPhWTurFSel5IGDKcKTT4vodNewqiRcebjT5cb13UKlUG9uuzANZbstUCIZ/fywT
-ZAN0kWVZX8t+aulkSD0E138BpExEFYs1jPbtsw4rQdusR6exlwziun3b+LBI/LVbefnONID3YhC5
-zKqJw4tRMNtqmnCr6r7/OETZtWXmz0GU3VS6vMjChk5Iqq8j0QGSmIFhY6VEhq7GzyoAKFX3swFl
-wq43jaoJwjStLx6wuv1slLAJy2DejSpNPpm1VIvFI4RkHTCWbZglBvqBlka7iTM8KD6x3ceU4cZN
-iZdgb8SCyFdTeaCHxqs4avq9l+RijQcGh6jNd8bS71xD0MLQ03RAmQJSLaoAAoCT5t56IKXxkgc4
-2GdxBBMltWFoM0m7sGKn2ISBf2tFxLCN5ItsYn6JYxvkH4oqkduWFvopzj29FXXV72efbuesp3Hv
-yVzse2d6SXT9VDMZW5MddNVa8P7qyaxP6I7M+xSPDESsaANU9LEoM/PkRyWnCeXJM8hfVt4gjHfK
-GRVnvI5dzuXkHPGcL37sr1bvnU2ZTJy7oEMzn5Kf5hAkGEsdcvXZoBNbRfkjvUZjNQZ89EA1+FtF
-U+wzGFu07Jk5ePM8bWds4HNkfA7ZGZjkKhI4UNFcRbb41BKKsHKos8+N8ly8X9K5aodRn+Pc7FdZ
-RY9HxypZu0tPhOZIAqyNDto9GQnJTT/Y4nMfF8lT6A4lWCRYbc0Wyo1959qFc4g4HuOr532wqlDp
-7cBz/ZGmKBRy1zKbHY0KnMWzN8hDg7XugxeDB6E8Jm+d93nudj29CdRASoiPSVR35+xbPqAOCwBY
-Xp1N96RSFU8S7NmHZmgAi1ZN/pEOF8ZDbxw9JsqGvGX/IFYgirr6C89Qpk/g1LpjX5r9kwT3/zZ0
-9UQ3pFjiDOkX+zyyVngbWbN1g4Om6CFmlQHuXHIQF+x+u57m+QspleaNNzM3ckRt7JtxMi4VhZbH
-1LKq7hesSbq1IwsDexFa0K44s3dbgNbSWbWsWDnKVREAq05bZTzJZnxT4DZvIjUG/aPB6B3BBBSf
-0NgOUaw28dxodzt1RHCsBMwuseCITGIAkyi+D+aYhzfu6Xqyux9rCbVsTTKIeTcSfvVK2kW2Y8uj
-rwwzolk7us8fu8K23E0rp+4+j/z8pRtUJYHxNWF9qHvs63GTTv2aBpH1EURXzgIWZgTbcITcukHe
-XHWlSZtzHiuSKWRTv5qsdVj1yqlL+D2HqdsxVzdvB1CxZ2oiM99M7uiAOou1wCg4i2blAp55Td0h
-zo6+w8mrB18WNdQfhk86ajkIFsw2JchrTasufNOeSdmkHb8jIDQrYckxJ7JOjUEw8DocWJaZucX4
-LcG3gVUVG9fI5IzDzEWJlYn5s9NGH2aHJtJg96dsyA5kqnHPZiIjjigr6g1Qx+DFLqpqYzj+WZnz
-jYwoqkyPlBtXv7Zmwem0pv7lvWL4S5mzZRe76h3yx5Y8IZb2MKN022Pf1ztjSFjfbQ4cvDPEmjNd
-MyXtDY/51M4rWwqaslnKOk8hqtnayP+yEzprD+AEpnCbvR7qWXHzTRvkTbA1dEsDokSUAFAD4zxx
-fXLVUc1DzKudmlebhAbajNh8C6Bjvd8PM43iGG2XIexSo/PPCZWGG+pfRGBRkqcmDd36tpjJorxP
-vCSeUGz6Dfx4uAYriTgZjbUWYK5WeU8aRLEPimU+2tnTY+pUjNslZp23JGqrde0l26Ke0WwStfzc
-h7kL5titu+7G8ORyNpDgbA++KHMCMCEkPA+D7qtdnbfGWxqM3IypyGeXM0Rklrs6AnW3qQHUvvFm
-naHw1WfWXvu69tEuERLjO6+0QGxxBojUP9t2XO3boexe4FqqesdQTKLGQZt6HbHXfEQRwYBKFI27
-lmVw1QegjniZUSydKrtPo63tgYhez8iNgmWy6vWXsUWKNhmgU47y3PMasU8mCVCA40TiPIGPKmaS
-yofMv9DxMM77LprMgd68WdOlcx3WqrIYQPv7COJIbQQTWZHDDFVDRai67KQojV3eCflomEiAJP5n
-BiW1MK6SBrBf0dZk64wC7e2lVUz9cEhHL1+7Zaea11C3Jag/poGbRDqtRqqTynpLB75tKNHmku6h
-4e5ZC2UL8Ss1J4QvVoychb5SyvTLMss1wQA2u60A5bWNZqn9DROTargiFL0iwr6d2MjCgmTfJcov
-hy41rzOOuOz4lObWPiuFN6/LyqsO3pjH3hbdgglj10gXyl8AU3MlieMhk4cAENJhYITZPIBWlCOR
-7O8SVyw9a4560I8BZUUX+Dm8I294EX8thzh0LsPWKHluAyQzSYyPFX2SAoG2QxZW3NnYru9aVzCU
-asPxBRj8c8uzdpvEoUWgT8BJU9vlItcQOtnrKj2ijpXibAVIy1apNLqzxUdPOP9a9VVsDM1HR0fI
-DUwihq7pvPGQs9bTFHXBxbgtdlW/OORGPwOZHz96dfEpousNt2IwPnLKll/6aKzj65L3Ce1fmpLP
-4YLO+TYLj+bw3GrQEk0J+KNOwpu5Lj/GTv2QTVLui8o9eSZ8R450FJxEAm2Yva/5Chck5ah3uIF3
-oPTrFWHnYOFYYFZD1t8V+IY2s2hpzTHBXTNlUquqhGbIXP228hFrRhVHKaPxe+o9IpZvJz8/e3lw
-EnUuSPbtRorHUEW4CJsCBKr9BQu6713zgA7Tvk38MNzY0uSI78DVRN3gJ8YqEwHZJpDHy/6WfcFa
-Oz1E22OQ9q5xtJPRhZJudrXzEDHSegCTNtcb5icIZmtRt+Ux+bYSTrjzBXpDlXg7tgXmmSnj2rfJ
-ddqUmbnIbhMQUGqHyIlI0qRwF6Vn3VA1a1OJjx6iKs7nUzi+av51uYI4IMM7hnQ0iNEeeXt3Udju
-atWminXSIt3dH6gaPS9H08duEt10SNDI+4zJPz/b2kWPHHco4WIjPvg5cr0kjdInvixPPAyuG+cb
-NWIsXcVRHt2jvQdS3ra59VxHjJU9ThAxdv99nKD16iIbtTmSQgSHVvKYd8htNuAIWRB5Cli3W48g
-HDxzBUHPNCkRkfWVsl/oAUJhiGePlCxyXphNTKBzqnzosg1/2P4MzsAAw6ZIc7o3/agbLw1O4ket
-VXNMyf7bI/RmFpEnuSv/18MR/4UNEUA5seb8+87h5UvzUkT//X9/AIb886f+p3lo/YOprWea0rH5
-x7cO4T+bhxDT8PZ4tilxWNO9W6gg/2oeAkUTwvVpLFpkJ8gFc/av5qGJycNcHBweT5MlTf9PiCHv
-LE2SBqQNOVxhBxEEK7x3RAt6+44NtGfVJEYzw3GN4w/1POUwtaqAaVw6ABZOvagrEKBlpNx9d8Nu
-/nKL/AeTtxta+137X//53vK6XN9BOO+7yrLpay834fvWpRRGauvOBEev2hsb4/uDxRF4M9gN8W9g
-JZz7lJx3zTlGA8wSQRC4K6Nt60ekG0W1+vVv85ObQZVnkaDFjRVUAT/+MiLjlAJYhPzMmsIkG/ru
-VavJ2OCPAtAwBell6z2BsY5Ov77ueyfNt5vgCdTXpiUoTZf//l3/1iRBFv0ZYw0HjXG5Zugo570/
-WHH7m9u9NIK/t+wsFwJrzFMlmeWhgPvxQnlRJAQTkOMbtn3wOEyJ5Oxg+YTCxEjA9r/+VD+72MK7
-Wfp1KMqcd37EzhZEGHSkd5EnaZ7QBPdXunCNzaBK/fDrS73zyS5PEa8El4Ee4AJReN8AD2wH6Amf
-y0V09ZYgGnz0OnfYp0WWHZIEQ8Gvr/eTj6bo2oNJh2+78CF+vI+ZbbA7TKzbqnS9jUGUMdPFEJE9
-P/PnX5m3JAiwVEAt4Mv78VKxWgKqO7SI6JIBGtpjD+mMjCN5pE5p/xCQsNxI0EF8MItzNkC0d68j
-xFFcJv0yv0fMvcaUABnMQDfG/NtrxRvJ4CgTa0AHf8E3/63tfnmz3j2YZCWbJsMQOiGOt5gUv3sD
-+k5bmZAu19VF26/GPrbRIptktBdx9KhLu7zwhsi4/uOvkWEKBBSXd921ccT9cNXBHaCM0N5f8ZiC
-sCt4y6u0LtcuQqjfLC0/eUKZtXAJFmyW7AWP+f0HpI7uXRiONB/bmYIZ5eh+UoN36Jsg2egiNC7+
-/KN5pAbAqgL0QULAj9ertRvCvPXJ5G1tdRQGh/w8dOBXenH2myf0J6uXx7FJmtzDZar1zqRuq1p0
-4UQSvBnG2ZXd4GwiqzPa/foD/fQqDs1fAbdEAQn58QOZTG9ALbGaoKNBaouK8RwZkb789VV+8mJ7
-njJdrJcuW/B7+kPLvKhRE4VbnTlkp4D1yKaDTUowB33HM+vfLJE/eyoAdtlAxiz2Wfnu1pnmrBra
-ZMsD2N0P3XyblzVhxyhhVy7n8N98UT+7GikSnk/+hC3wvPx4C6uiTZTE4wQ8oA5PRdzIHVoLJCrj
-WJ1nPfe/+XQ/+cpYkRlLMj9drrm89N+91KmLFGo0oAXrARPnao5MMWzC0gp+R334ybfGJSTkMyBr
-3Mx3t3GsbCvqYt7jcRjcfMNooN+4KcpzUN5Bc//rR+Qnd5GbiHqahxAz7Xt+TjBil+tCr1gpzhro
-MkzYjHgKiW1Gl43eMRvs6M9XR3ZsjLsgglggvfeLR+nl0DRFsUqGOFinBqevJXIQviJwxID+zzha
-evPrj/mze4o7h6RxYZOG7r3bd6IuIWrJABjpttkJ9Ta+rJzo6tRGS/HrK/1k7Wf7/v9XerfnqMrs
-PXrMjI8YBdF/p5/9xHoNFpE2kyLHQWIW3SK1V79DT/zsyi7rFhHqjiWkfLemEB7kZRHetVU3zt1+
-nhzjZoZXvqmdtt4u5DZ4uHHw/Ocf11XLCsObYfO7//hWNLmvrdiTWPs09zP2s/Qxn9RjpIpmZ6pa
-7jRxwr+55rJ9vtte+QopsIn3dSi43z1ArTeD+ES9ixKsZhBFzqmPyvwZ+nDymWF1jqfFJKbbMJuj
-0GP+m3Vn+dt/vDoqCF4UxPkczXlTf/zEpk2iosyQQ/XuaN2SGjqtsqgJX0Ds95ezZwTbNqjbJZ3k
-N5vg3xcgLszhyXHYBpGmvYNvTMJPy2AseIaNIdtIrx9uCK0vHn79hf59QZAuZQRQKZdt0H2/1Q5u
-0ccxSRlol/roUzhHQ4S1vS1RncIj/gTLQbz9+op/v6Fc0RfAJtF7wIeQP97QiMEO1iyKibyjubAa
-XKt/YNqOt7tJ7XgXtz64v9AkMqTXOB1+szL87OpLQc/aB+2SneTHqw8GrSQgO5gsqwqGn2tUIOAx
-0UUa4RWY01VcBLPeoIamr6trw/ry60//95UJ9AAPMhvmwi97T+FQ5LhSMbNeiBGMLP97SStb7wVg
-/90fXwkhJVUASIXlEX73STlGCH9GYL4qmBgWm3GisKNCbTtnqwZnin5zY//+loJW50RBiehQsYl3
-21ibGGkydszRlcjqN/YSMupAYVtoKLddV5T7ENP0x4pR9NJytp9+/WHtv72lXF05ICIo5FAlvVvw
-u16pFBIC0eMAEc9WpUzsRoX441dyuQo9DQ6fACzEu6vwhnhx6i/9VG34pCLZV4QsGn/1pP7taeKn
-HwUzCm+9q8Tf9FAt8Z8oF7iI0nN1Q/JGQKiHaeId/fUt+8mb7/FkAGpBn0qT592yStiXk+uiL1ah
-iVrBx1i99y1IqI3vjiePFvYfV6cSbh8FAF8Q8Q7vr9fS9yvr5SsitFVus8HLrpxF54z0wL759Uf7
-2bNIkW0KT9icj95XpnkSmxy90Fu4rm6PZlIjYLLs/8femS23zWRd9l36HhWYh1sAJEVNlGRJlnSD
-sGUL85CYEsDT94L/HiyabYb/666KqIhy1WcQQCKHc/ZeuwyxqxT7pmvVS2H01r3VZnDinaQ58ymc
-mGNYJzi6gM5bA0SPvjyryEfaBqsvZ4oV3ReET9yZbkFkoDo57aOur25Ly0zFo5mSaXHm5v/cFzC5
-USlhR84uGdDv5xkOjCsqKyoxvkap/5WXkdp+pfMxBgNanQ4xVJ4/xMpk/TcmHC7sEVuwQoE553y+
-cE8DXcQj54FZo1Or8Av3I2iTFw1P25ltLCf6ow+eQ6gJWIZj9Vp+Y2vw+WIxc8vg6sjIoYsT6Jg5
-wvrWL+bUs073ZY6XYFL7TTrrQt+BynSvarUaxE3Ket5uKV078U4xTfNjYi57dXq3rgIEBPWyTXXh
-/qzmZsaGzl9C4x/tFkSS9UQzlgmS9VEl797Wup4dOuvbim9PiyhwVIlqZ5nGmYTpgRaO0tID2ZTs
-bTLgI4n10S1ZRglda0oHMjq/xpa644QgOoGD5MiZfiBKIhCOfufkbjIhIfEjyeKvpW0wfRN2Wryr
-RtURk+V16tpZgzgQlB30AV8bODOBIzUVWEuxK6+TckqdK81RY4FBlZTyVU217Fp7LKygUEwionP2
-7PEGZUnzoGV0UfxxbuMvM11slI/c5ncQFobHPFTgr18GR0/C2SNsTaExMwC+14o3M84Kj9wJ0yaY
-HLPWpVrM6D5Mr6+uF7uybwGzttOGXDNglQprgQU3dtFvEsSGM0ao3sLPHRN8mgwIfcJJKKRUuXEt
-irAzh/5S7S0StR2OCeQlzLG87zmI9cE0Ysz0J7fAWotonwaGo+f1d9VtENerGkagLStt1AeJ3pBl
-A5DYVH29rKb7whkda2MMHr5dDblDE8q0bupA0uN8GGbP4ZDnDf19UkSKGugzrum0YfvP/t5gQhGl
-NtyKwtCbsAPFRpIqjaLHkg46kPasaRCvK91LWzv9VxPZGrLGIc2m0I1WhaSRRNp7NibSCseRDvTG
-tSaMBMg1erkhva2dtiSPIc/KaW/ejbaGDihtEwB2ZteQMkr3BzMSoOW8C/FbgSOetGqaSbCau9Jf
-rLXZX1GCgtIvWisGvrAor0mdY/YG4quVvgC+ofhtH9uGX5VoFElnb5Zhw+aVHIs6HVPsr3gvg2ku
-FyUEUTAMyCobNLJmIdz7UgDiIc5aEW9RQ+Edwk+33OYmuZGBHiMq8XXpWKRJeZH3WHodlGNjtEwE
-UQu9XKS9irhyZ3SiYbJ4Ug0IdBAI3tuUfOuunbtH8gdHuN/2NLyjahNuaJDZ/baUTvLIaOAxIDVA
-H5Gp04vlZQiGYrfzdNzAk6nv8xKH6x57ma6FCJXa7pskc0R+LHNiYPe2LUmfr61VAtgcQzZhVPRN
-Ab2m09SXEt/7t65pK2hNcZM0t+MQK/lDQ6BVvquspVuT+zrOPUlBB42ecVS3O+kgnHzWEL4qYV3Y
-UXEpymmeLkarSY2rUU/jBNECrs0AtV43v8SqTO+SykGWi5AAXeqolTmskVZ1v0pk0trGHHFU+4ut
-FuiTqbipkIBa52A4s2Uf+qzSHkWToB+xEgKXLyJL6m3YDiteykUSVbzEkMHzDY7kpL7rK9VTw0FG
-4kc/YeEL1WwBBDMo7mD8FIwi8kMKK5rfeoQBEVXLZK6QWaPXxean6N5Vamrdt5k/l4dopqpziJqC
-piuhxEZPLoEVLQ0huJZdZl8GGwU3CiIIAPuMGdDBJQRndSeqIr2Z+mUCel7mFfEIMFz6XTqZpgyw
-OqpflXkcI98jeYfGOQNcXMaoGPodrVg660XVIw1TcqEceqsfvQ245jGlx5tOMA9liuB1yBRC1RYV
-U0rYLjORILlHHZ0cmFq7E00jUB91o9xlbdr3geEoyfVY1kayJV4ZDUaRlCJ9hd2VJTjRbXyBHd3b
-ZqO1oHUuWCvpmcre0+RhiEg9+yYGyzA2rpraQIVLswLMMmWDct1ns/0RkSuFqDjtmmELqKcCWuVR
-ibuviAbrruw+L1C527z77eDp8sNEFNxeVOVYOmE+R33HC4mcbB+rWvaOTbdJUSCrCLrYTDUu+KSK
-xjQtIKkiXAHbhY4uWgNPm2ZWLtJy8h50I4a8ro+LUQcCugVYmVGdktBqRjUlQr4X5HwX+lhc0Qwu
-adDT//D2pMGVr3CvLOaGTAxsU/q6LXbTrI992NOxR/hNpY+8PG4piDpL/c4aC3QvHWY4FXBUdtKK
-NAWBupf9nHH0frVjGd/YSMwPnjqUWx2/20Er3By3fTkIGVQdCYo05WYdTFWdQlAvoeD0t06JmmQP
-aSfT0e9hkKeSMc/qdtJlM2IJLAdSpK0KtnJDqqLcaip5k+EyMzsH7ZiZ9Z7dwDIToATDINCt0po3
-hQHS/rZUxxKVxsAC6ndJ6job2+yXS9mNeX7hTL1UkKPB18Sdo8RAZEAd1H5flLybVsG7vqlLpcUO
-VUxpQTh0bbi7wbWxLnaTm/BDckVjv0NWd4Ggff0aahYjGfC9JgT/9cR476lxmF+Au/XOxkxtyWg0
-l4WWvKcKHfc8Fwt6AHk6MsIULqrKNHDVzVVkhWjoB5IMAJWBQqCDeIvmjX0G3AZ0abktOC1oRJP+
-jDIFq6nTFA6na34d6hmkVhrfRXtNY704dF2ME9usidkOm1iwjI1gQJoN67Ax+/MM1s1H7tp8rTOs
-mqU7s81IcBM8SAMxEvGuFuhyw0hxgKVxbAzBYA7GB/0PDKMGYuAU/DuuXExRRpF8Kduu2mW9PalB
-BnYfjpwmpntz7GAyjEqj5niv9dQJQNEswDSqcbrGHaBqlLRk/JGYTvItw5bcMXJt1JVmWdDaKGK3
-rTZMXVa2NZnakTPR4hx2rMHZ/aKWaeHbvW0fHKuxs7AZV8Z8aTXeW87nSaMEAfIzsA0cu0YMvASb
-pJB3TUZh0k/cfrqOGVfY6xoa7X7pRtadRC95DfQhf5GDdL6jbrLikMpEAhFuQSKbWm51CTsFopuw
-BpHj5tSLdQQBfQhcxOAGSbmivpVa693aE3wfn/N68dY2peR59W33jhYRBAcbWodS4Wjj0HKgrQWF
-yo/xp7wYP8a5aJ+qZqhQt7fmZaobuJlrQojx6ivTaAbEYcfvST0jcpQNHw3ayIgQUXzGI4Er6EAU
-i9AHVJoRGYdt3Es7LNlEzNcGbjEstmk3hs0MCIwwxJQ4JG+sGFtNYYvHbnHxHjdoW4vAg5oIabDh
-tH0Lmyth54WMsQvk4DkGisYcEzRUh0qwDUsEm7GqQWenLBnBPDrSXFIBoVRlMOYo8UT4UDoeOqiS
-ibEEAKjc6YREGhvMm8QcS9r4TUB3l2OLglgu2yiyXZlB5oJ8i/pu8bC0C6pyRR31ZTPCozQuaBm1
-Lx2+FC+sIiQuoQJUx9i6SI1BX6it6oXFyIaBNWPMviltsqYfk/XUbxa3XSXtycBfW3uod5w6w/uo
-Q0xbAlNbzI9YorjEHYoR8lY3sLqwB09VckznBJALwACcmjGm3JzN6pSoobJU/O1jZSDxYYKY0p3D
-0veEXN5bNqJl0xHEUVIbF9rcZiZeiZ5dTi1SJIQ2blvvwipE30J5b6PnxHQVEbAFK5/qeSzYejrG
-olyVVWJbIR4q8RB1TrLgaQHyH5jVKqhirYiXbd/pVRNONKauZ1GZWCpJ1EJfZ7eOGrgmQe++0Bag
-GI3lCvfS9VL3J/s7vrgx0tmP96rXPCqcuHq/pe16J+HnQdDAU/rFWFJbrFLP7iMvR8/0ldRBC5T1
-HT7UtpvdBIlwsmBfzrzLatKMbuPWk/GQd+NyswyFfIam1szMXkp54S5ljHaox7AV2KWXof6JdHeL
-l93W96CsvKupTvgRNuqlD1ftmiRYqjyZAovkbvwgrULbl1WTAwKKojgJFCCkNvt+izyXmC3oD6vU
-x5EpL09RrDnRTASwOWVtwHKGxKpyCgSmiqZDQsjcjj+pQdk+mnAbEcmPEsNTXkG/DKinMsQifvkm
-zufEDut+wijRWDNm5sUmtSmXKp5cKRWVobBgFHbb1UxrMunxdytIyP2VGrZqZQdUwe00oLiUGTpa
-J7YY0OTPogrOlFX59cvpq3YtF449cg62bbZacnOFFYeNpCkf5UIW6p3hxlZ5UXuJisi6n9G+2gMC
-1KrCORc6hLL2zHiJ7XA66OTPdpX0QfrhBxJNx0lljFanWaX/kiOXXXTIkGI/qVPFyaUGjsCRwfEy
-mOveooGxLFYwoBETtUpanCioKAj5M1PX51hbU9JvuhiU61YmdmHCDGk56LCvSu5RDy8au31itv0q
-XUGJscnfpLgAuvZ1KdV4X2UeVzCWHicZqx3W1lKWzjUGGm6Hfa53TRgQ/zgEHFxlaYEyZ8PWev0O
-e4kJ3CgXdzvGE+4rvZu9M3qXo+oO8RbEAlFasohEIn3OPKqbWZFs+8ZwSj40UtAQw8H2u1Cx2vPU
-I+JXUSpxFjOJWp2KpvX/Xtn6VbX9rR3xX1dfGwPmL6mIeVSCrFRhW1SuK+oFs0g2rRZhMyy9atqQ
-+vORNvyTfm9bQBtah2q2BlRok6OG9dty5Mgj7P7lzC86qlf+8YuOql22GUWiRYHtx7WpMDXPccjJ
-TGeT7j6LBoO0GHD/tD2YsILXE1YZyJ2KoKGNLqHSJrPVflUMBvTff9dRof2/fpa35nJoNgI1/ahv
-I5A1smeCa1CVnI+JOJO42VgI6AJ28IjOlPyOiqm/rkZZkwFBLRXi8VqR/K1b3EizkrmGTXzOLPe7
-mTrspiBBSZSVkzV9j/JaP1O+PTUMHaQuJEHaCF+Oy6lVFHV4teHKmKLS72wyb/0h0kA/9Oj+5xFK
-bVMl0C8M+4zu5Ki4yq2aFNo12n/QJmgiH5X5jM5EKd3TjgPD12BrICnbu+VLnA6eKNMROOdKFRAa
-1Iyn0mz1ce8qGpzfv7/eP2//8684er2zrViFA75rdaDLtbA738wIm64mlPHbdhJ9SNS1ePAsMIR/
-v/Kf450rI3C0aKxw2DqWoXVgpdhrM94Llk9Oq5l+WDX3Z7oAfw4orkLmrKvrOKP/6JJx6dTwBN+5
-IbX+0tJYwBH5XrpCyi8O/JYzo+nPl0qDk2GEKNOhZb6azn8fv8y9licMbgr6hP6mDFQhyVQcdk4u
-pztFIZoF7yTLldUP5CcO2u7vz/TPj5UGJHOaYZhAwdFCfL68a1IwKhU+n7bn5NpPUUeOLNMCfsmL
-v1/p1NvjTk1qH6uu41htIRGPoKCPmT/bgeWuM2qzCNUGK+eZYXLqBbJfh6SNqsP+AzDeeHnbTil9
-4wiF+L7IYo3Yl9XJ6zoKZ/Q2d5zbv9/aySsaKHVV2m/0co3PD1EjI09wiob9myjyPZoVhRD3DOW6
-haPzro1m94yy4+QFTbRnXI9JyFif9W+TnnTcfskTbrEfEgvrY9Itl5mRDOT/Svx2mA/PtDZOvTxE
-hPTh0f3SVzlaatIBgE45csEFDw4bRXDP+jSJM2/u1GCk4GShJmTnYB6r3eya2unsrm9OG717ufKB
-gimOHWUzFCURGH9/a0eNjF/TqYerjZsyuZh3dE+1NxQDOiqGPmGb31JcUFTHVpj10ly7XcXWiO3Z
-+Pz3i56YPZm5NAM3HKJFWz0aKratIAQSNbOL14hN1bgpubhz5BtltgVf4t7mdWpdq2qafv/7hU/c
-7Tpl6lwUcQ68xs9DJnKzmVokooYafNoLRLwcK1sepQcGj/adfReWPCzFY3Tmsz8xVPHeWIaHioSr
-e0c3TC22TlzBBNNFg/uqazkRhgK2EiQcanWxkVSbf7/R3y949G14cxSv5g36/HFZAIorwGWHMfGr
-3kbr5+g91/B9+4k28Ad/v/KJj4QpXEeZR6+Vd7w+it++yk6CAzYTKr2loSCLkQR2D4qh/vtH4vD3
-A0Rm0DLdHL3Ilt6E0w+8yDJvpkvRD04gKck8QOUbzkwzJ8YMEiuD8WKj9Uc68vmGRKHqi7RKxgzN
-sVCBUrObLKDFfppBZ2/qtH3JNe+c/ObELPCrOY6WEhU46+Lnq1pNNXgQnys/5U2FaouhvKLeusNW
-uZyZAk68McCxqFFI6qNffSxeyNq+bIeFG4wK3QyJBp9CKaxzQqY/r7JKTlb17iqL+5Xw8fu4UEdK
-cqlAE0cO5XDIZV5tHEj9Z3aHJ67C3kjj38ydHjqbz49tgPtAIdmrfIicqd9olUU2ZnIuROfEVdjY
-w4xzfzkvjp8YNcFx4kRBxOVMD+XQgpytw7pV+uTMvHHcZ2Z6RoiBlADHK54V9/h+SpkTj61zPM7g
-O8JyKcsI4iPGSwjCCephkqwwVhK+1Fi4zVQ2nV81wVTv56OOD5x13qre3VwnztWawJ34xaRYCZVp
-Nil7IHXpIUdiZYf/Ogfwq5loVY7oJmeg9fn9NgcYo2nGlPPXeFgV79Xqi6uT6e3vF/lzTrXY/rOE
-UIlmJ3wse8cCRF4p/TmqmVZ+STI2mp+46Hs/ayDybPMkbubXv1/yxHt32AyywbUsPETHu7e0slFP
-FZw9DKPh8Ju4zbaBmXbm6Z24MQcdtYoY1wGNdLxYSIwEMfUKlDGeIO2gSJxrRIDd1nWoyTZTfE5U
-efKubHt17ejotY5Hc23r0ZivAkdl1mdfLW1tC9fI+ed1ASHYatHheKratn2kmJhY8mRdcmJKhKMs
-vlKQ70LbHPXfmc38n/O1xV4Q3BR6MM/k0/k8+BKpY3C2p5IAhGrZWYOuvZFiAl9H0TmK30X1aGgU
-OVdf6j+PDhfHpmpZhoOx5Xh7SGmasv7EmjsUanTnTj0tqyyf/7n+g3LFRMWHhhH1+7GeGXBlT5xD
-RE4ZZogtOLQuMLJRfmGHL66jNRkGYB9O1zgb4zP6sxMDky0pcntyuEniPpb2jKmaCoGuzSckJyYx
-xbZeiG8xu21RU+707Zz0+TPr/ImxiQ0DSAbHGL46c10mf5tJMCwBmqp7tCFJj4vbMku/axp5ZmP/
-52KLVgq/IFszaieobD9fpW4mh+QXwHZe4VY72qpIN5AuOqhgiqK0znwJf+5+16uhH0LER0DusXNm
-MBAwuzOKFfCB6S6zIWT6sK9N6BJORlZ9PN9Y9PN29Hnmx38fog4mEC7qagjU1m/nt8fppCM8Z9uC
-AAmD404rHazRs2YHf7/KqXFCOgvbe5YvQlvX//23q9AzbPAm8qpKe4UQVYryZkzkkc+5KS4mxT6X
-O3rq9a1FBxYBnSxm62iQLEsHZGxAQGSVifWgzyZuMtcGO4SvOFW7M5/5cVjsuiYjjeTMxH6J/zSP
-Rks6zXmUJaBB6yUapd+iMRr8rvYmUK3aXFSbIXfgEY5GSwJXVTfv7eQNpA+UCPPO/JYTT3qVu3F8
-40FrLEqfnzQAWcI2FkSNM9r7gG5nM87bTK+n0InLMvz7a/21EHwu/jKh4gRHtMkqwd7n89Wm0kti
-WwXX4PGBlJt07NUbORXGzkv76iJy41WEJWA7wxHAZqEIwAbx7GiPBluR4cwgO/1rMKCxy7M1tgBH
-vyaz+wJwP3q/CJooO50BWMvqkzEh0RpE3TAYlL0qR/pDhaATWxCupoyziw4xU8/MjCemqXWp+T+/
-Rf/8ZBKU2hkS4JXMBuYJ42QRSLDvZyaOU2/btOn/cLxad2hHd1zDbo8ck6vEBFkwzXvdTyAx+c3Y
-qfHl2GnTmdF16q4o80Ma4CRnsZ37fFcmcTs1Nh10rBYkjFZZ0LHOpTzz7E58veyoVq8rpyxszEdj
-eEJiSRIHxw/EI0THZbEVCqHH3/A2n1s7T94QRzn2jazPuII+39CYQe+gZU6xo3HyMGppE7XQcc6s
-0CevAkWRycH8tYP7fBUrdqJGx5mGpilOCaObJnMIOcCBV/r7B3nqybmsWLwj7oWp7/OFWjbfLu5O
-LgTwcIu1IAudenTuG4BsX/47l7I4hzL3OWzfPl+q7OAnewovqZn65uBGPaqS3G3HVb4ts6f/xsVQ
-EXO4wo8GAvTzxcwSE48NC8bH+pZsh6HHUITuJQTZUG7/fqlT74o9DUuVjgeOWeTzpVbikd0hDWNH
-b5X3uZq6t7Y7nvNKnfpwYQU4a/FnLTsdTQ9VMdo0Khl3FbpZ1R8WmSEUSuVzQtlrCyI/D/9+W6dG
-BhVEk6kCyyJnsM+3BS07iUubJiEoS4TES6k+tRkqhhKw3JmX9ee9cfpir005htxO4zhwVWKAK4Bn
-lj4xqO0uiQSpNe0lojv7Qm3T8cyNnbiaq3E5Snd4PEj4/HxjcjDIx8talnqp2Jcx2ZSP6Jfg+mnD
-cheJJDqzM/xzfNhrvc5a13qmXOdoxkgxlZmaUiMkIUPitdEWRDnk1j38/XWdvAp9Bz5jKiTm8USr
-KKNNShFXcZo4/waQpL0FiJKfWTFPPLt1v0LziMbAai79/OwozS9xA8fer8Z5vNO0iFA5UWXi0iyl
-/VUXUfHxz7fFEMStouOew7693vZv+0DDLlo0qGzesd+zrS71H2nl/KMNmN0YO3fIVOuBy8ZVdfSG
-dGWIoEaNnIdqA5A+kEGFkrVZBS0u7t5XeWdnnuOfb4t5HWU9tQecXNCNP9+WgBFlzSNNxrkQw7Wz
-ZNGNOkhD/vPsjqseZy6tlHV2PwYTu6Wija5n5NAD+5pA1vLn0sDYhe5zLsb4jxuyEVlRSV29Sxgn
-jn1Fsbq0yqCKxtfEnL6WtdJs8j45V/Q/dRU+WiQLLEvsKo4eW8GJIAWV1fhzW4zEQ7VGcm2mVnlm
-9f1ze87deCgkqAOuUIvjydaBmiFch+vA1DQEkhk3M64k2WzGzTg0xYoT85R8owqrmXYZkjvvLooo
-NPuVJv6938fSAuEfEQATJIPlaL5SZ7qY5loprB3pkt8lfxLtFp+pEp54siYWFDz3dOTXnvznAZnR
-P5jshIvoyK2vsmQhV0iJo/8yUP1/zPn/YG1f7cv/b1jRY/3+rSKKpfuddP6//qn/DSuy/sNyBFyI
-jha1NL7X/0s6V/8DYnyt1jBn0OVe58H/DSuy/kPBgemLrQf70dWZ+husyPjP2pZe/7U68dgi/wus
-SEcfwTj4/fymUkfRqVDhknIxStlrYeK3+TiejNIpWGGC2pqrSyTESATzSUpCtVY+UBwv++kXQ7Ic
-3VwhoECJn2zq+Qc5Dj3yPsJ/HUsRuybPupCEgWqXpMlPjn3LARqKe1k6vRf7tiJsAmYt0Go5rUMc
-SANheakcX9TEig51W4oQMWR9Q1qd8p56mvyGX2xbN9bd7IzqnnpQfSVizXuayviFVWp6sygcPE5O
-FT2YWl/fokPVXs1YH17zuWnvCleBzxH9GDyluobC1j71WeJuIRXXP1AQjmtOXqZvqcyJg9c5HYp1
-y7iiZq/7KrR2CAtrQguy6BACDnnZFjl/h8LxCHEe7PwOEOoX3S41wnrNhYDkYcDElsGlRbBGrEYz
-Qxor+vY+qd4cjSSJ3hjfBGswqa117YRNjmTTJd4vwIkz+Jaafm1VleIPXO2n2cWKl9hIWQKnLC+F
-U+6BZhzoKcXhMhXzTqpWv/OSOd9OU7E279k+hNLJiMSY2NZt6hzZa5qN4x4Ddb0pgDjQ7BtsB3ll
-RP2x1kRQD5EDXjTFeWIYMMs3jl0NxXsuXLq7sVqpF1ZltN4e1W52WAYFhTuh1RHxVdmKUe1zKa+6
-JC8PhJAgmjNy7yJGMBlagscTziMw8MZ1q21Nht1W1fLG2dUkIGHGN03iH4a+eMCiE6sI0+1NCwjy
-gnIfItBp06pyuM6zd639nmClAn64JRhtvrDi+NWU3ddFW1CSR88m8S55VO1EZG9E/JM84A8vpeYP
-mJSELSR85dOQUVCLkRIXtrFPybaNWxnahnJTknSjkVg01/HDGgrlRtGVIEFwXqbuFp+0Eep1dzFB
-aGcnlFIq2AoglaFltmE5f1nd6VaAU+N+KFY05UTMo+rPXVo9ZknvIsLRzM2YuTe64qAK1yaQndWF
-A/Ehzbx9D0ffheGBOW436eOrY6Q7KdytPn4nHfpeIaOstx94SNhgNChdvhvhRpEISI2pN7Z22se3
-C5V4xiGJPnmIznIri9n0U6PNw2m872w78Stv2lqDtUOyEsYDTsI5/VoM0wX5H5veFbec5p6d1u78
-Zv07kA/5RR+Txn2lux8L9rkE1HPizHvg5Dsx1NoOCM8YwiV8Eo2RbY0ofoxz53oo5jZQTdF8FDkR
-4a5yZ6IRLSzvqU/dp0RN+OVRrW5SpSGmVr0xm58paQLjIoCRr5ktZFMhG61yDWGqqm7yCUiyM2Kh
-lPWOsJ6PplLVt6r2ihs7Qz1tElPLfu6r5qUbQxI8UCqwIuFOe97WKWzi5Bb9Y6YnsiPRCXPCfa/G
-P/hqSSUkx00EIvYOpXmz5MZPk2goIpyfplrzAq8C7mlWyqHLlwQPSfVNK5Q8GGJKSXLKHpI80YI5
-Kg6Rqt9AbpK+KmgoKrF7F2np+5TV0ENseWdUA9Fw1ivOua/WCHjTKxRiGosvqWCUNSA49Kq7V/vi
-VUtMxmd+U8/da6RXezZbm4HyUBDXGflvvbbCR9/RdT4P0ZIFXZ/bQVko31lPvilTcoW58gJn27NI
-xJObrvFRcfYWVbA35KSHvUW6PGEQ94NLsL2mbGU6HMYBq08fizvUzgWJu9lWkqPa1e84TS+cnO97
-6VQsQXcJqvSqfpuqcUvH9DrjV+XKC5TRYGjR3Mbu8o3dUShXezbxRAYOPAbogP9QS3GX3CaedrEM
-ZtjZwxuOsfkbjqmtDlhBzwnYvoLy62Mh+pjt/iPPFBgauofRKh59xOcfeA7vqcvd2ynDYGn7q6j4
-AVQT7W7yFon0+2R4gVIpd6xHjNnkSoEgb2E8gFpBroaXB1KJlUDrRRlYjXEvou5dUPAl0a4iokHe
-oUtFXFE/ufZEelT3nQigTe1pOfYJsRcRejNBgqDRyTEo+jFYrPFj0N1DtqjPRJffCpV2kZPspwVA
-E8Xb0IFe7sP/xZ8qk3yfdQTVLWvY0uSBX1YqIgnZmcIntUSQFjAdyJp7wvt4V07xBecfuHha/8Ou
-osdJ7X44NSrdMsM9K70urEfRbIwq2vf2TomwfUpEs5bdgzAgzHPGsLONuj7GJbS3qpusNQJLDjdx
-1vygSSr54+x6EiYPuVSDsvEwppKSiUhYwJqQPXmj9XNaNvveJNxB5U3gp1AYe6l70EtGglo/UEJH
-Li/0r1PZ9V9Vu08/pmae0eTFWOG87kKqVH3mmpRTQpe8AJ08MvZ8umWSedfS4oC/Vrkfyawip4rM
-XdIXHZxXgU1KstFZB5Zyw2/5VtH2E5ZWvIrlB8zuTUQ/bhy+mGpyhTHuOmrFF5dgqnjErZqo1RpC
-Nlw4sgm0+D0jQJuBmPqehSdCIbgqqknjEu3qfTQPVCPiC9m9Je2zgN4a8a6JGR3R9WGZlhLnyYRc
-HxVwgSe+M6ENADHVl3ibJLCBbNz41R4r35aYS3COmH3Gu7Fw/YztktTjg1drAX4tBMajXygvXUfW
-RXKwrD2dnKCjY2v3SdjY3aUexRTJwU8UvD/EyL2pYpPFNHCXVlVIQPcu8SIMJ8mtSgiuKV5R2foN
-Qi85xdeDXYQSjE3tCaZiMqumAmK3fLOXIpjYWfgajNw4q2+xRW4JsLzQdJreHvHro7nHg7GBf3tF
-J4JjMFV4K932DY1CDC71UL7khbEfurkJpHHTAKhW3fENKO2VhgENWymHJpI/a31baVFgEl1lWd+z
-2rhTW4TURLBPNYt7rd0nDBXD+IBfzcQSXzbIJnGHjsTdu0u8KZ34bdV7Z+rXbuHT6ZY7vS8O4Htw
-HxTKCmIOmhpevikvOwPNVVZloatRyWzdidBKsCtO3j2qxXiZg8Gd8FzG+KPg/JNIMxS/bK1ka5th
-gf9rkyZLfcPesghYZbCENQTLlPMjK1JIsMyawq5deZUT7aYm/dGW3XwwGweDi7edRWdd6pPnbqlC
-v+Nvv6lSLM42SXjE1dn7ZMF07xAMMpPSoeqQlbSN7SY3UYdv23ZBcXfNDeexbcorGoAi+CP6/FsX
-pgscq6VqP1qFzQ40X+IKorkUt4JQicBZRi1s2/RRaES1Y+JN6cd1Xji6JR/G3NlFYAozHLElJhX/
-9yYORS4IrcFepKW7KJ3wBGvfEWBvUJbtpeNssoYoGic+2KnyDW7XBsl9HKAfugIIh/0hu00E5ia1
-hfRMhF/XGo/12E5h18wbMRO7VctLbSJtvl22kYElUwwbU09Dz243jnuTFkposCsppmSjEqvCltkM
-DC16jdjWanXzpYO8qQF68ZN83vXmz0h70Q12SQB7JwxQQ6DjSg1yBD80/k1SajD5xuYmNR+a4Zbd
-bDBaxZU9mL7bX2j2eGE4WJtmItuNod3mVmexs403M+eV0tYvlNYl3uS5j2rfJIvUWFy87MWadePC
-TyDjYnbHUGOhvLDlY9m/rJhw9d6dn8c5uqAUghFdbInheFY6d9OTNmwozYQb2viaERCwyDtt8OAD
-qT9pSsMdp/kccQdavktszkPyldM2oRXuc8fEHLsfuoa7qRB7rbSUMHadMCFJuucPU7b0Jsnpyjg+
-CjfZ0FcEFwBeaCFckKz3Dmt+nKdbbbGZhMUXq8nAhuMyISkmxVuj3mgFPvaXTOybmuQhw751bcAO
-sbfx7I3HTEAMo88+n+A6Ej+qHJ+5bmDqI8hqq7XKJsrWtVLboooy9/RExPpCd7ank5bIfyG4xK+W
-K4gM4VLo5WWTu13YFd/U0nnt+OAdoBB4wtsvFfO+JK8I8Heoa8kd0XnVI1nl85cEpbbtHCwvuek0
-zYeztrX7mYAVuU+a8qKzWrm3Y4sfXcTVz7YRzkVc1BskoX4psv3cIPokvAH78UPXP8PNzHzPeO4p
-kucaJAbNZAj02WNkpFhsePv4Q/PUCAUrza7VJINwIDzR1Lvr3MOaaxDEUiRISgeXZbWPn5hY7oWq
-7jwbOyPggA3+Nz+K9I2uMp+QghV0WtOFGIEnNt8e4V6W1sDtmB9dDb+pXK6ivNyNhlaRi2JqQU4b
-5xLSu7+ouKyMciIBGT98VJXbhShzIyYnT1ZesCSud9G3X1vBbqbSL7OxIHNC9fEbIoW6RW2DsdCR
-bCZisOtODYuGfY2NbLJd/dL61yUlodhUbutu5hv2wFz2oCIa34OnkeTW5n+ydx45tiNplt5KIucM
-UAugqwdXK9faJ4Q/9xdGTRqNpJHcTa2lN9Yfb2R1ZSXQtYKaBEI99ytI4y/OOZ9ngAfv8FKS5zCu
-7ZoaHmTBOsqzdcd50mfn0OPzNbcZcVKFDAQunVsp4BQnvwcfUbb7qzc+NG7ivQntGGQj8E3vsXPa
-M6F8KzXV2yyanmRK+TA/hkjP4vxLms+BYNPLt5XSD8+yutVA15/qiMiO3tMHYuB2bYJDk4f3Zo6C
-bVuPR4Q/M6Tkuf9tjB3HS90D47MZyQXyVBvg+/whv4vDdA2u4iMP0KVR/ZsjBSf54B2TyxX2uuJM
-Dto5CKhWAQzA8THqU0gQ2jrsVbcqOKgnT4Ur4voJIKl6RZ5KHmaQfpG9uVvai0CcfUDL07pGevyr
-mAnrJyiZkFQPWddGD1ksl3KtfJ1ihYl+zmgh0+53rEMwgoBBRZofShkSiRu7XIGJYXaXaZTBsYNm
-kW/L0TSqA2uIXtyNJfDzhzBSo7XBZxzAQ9BA0fNy4wTjLk47riW+bIpoKnGCEnqa2nArw4liMje+
-/UBsx6TlbXfF2sM0O9rTzWyRRuEXu4JHdzwdHC4kcNDTNmOhsC+Lnss5iWkEsiwa2pUXLhlfaE+c
-U9yW/O8DE34Cz9pfPmOCjS0xrThxV7zPTM5vWicu5RdRQIkmVgSv884fiXKf/bq5I/QO55TEFwcX
-Fw642JqgmVH2cdayHIkuFY3V/dBkmMoVrj0iMtKzRlHzQxddfQkl8dM5QNE9YMSsG+b8d2U10Z/o
-GaONcoS3DozMDDkBzBdo1O6rSM1mm1XaPbkZzLu2RkcCc27ajlVb7ooutC7V3P5qiGrZzYbzDHwS
-12GOKZntwPBSwKDbesAgiVDgbARWcTGG8EXPysWTBy7AQUFHydAVv+qwAq+WlExLCxOeil6mSkEZ
-fJogtgESGw70pDIKPlMWKvZKC/5ZmSVDkxAdzdPSWe1VAPaD6T//SCjXORwXFqpnjxQQAcEiD2rx
-D+a9YOAT1lPyUF+9hZAmumPoGAjdefhBq0HyDpzJvsw5jwaFA3aBuoU36CyGUzXJo936z4yX61PS
-9P5BsTh9CW3aMXCEPznZzbCtgS8fXJ2Zh5C9znqe9TdjrvbRFHBRXLHQs8wq+wJiEm7NhYSqCc7e
-hwY+TY1rHU5Curymru2OigiKL91Kfh4zIvDjOKzWauKn1hE0LFylr4vt9E2hv1xkLpTry69UjQz3
-mhj+m6RQ6S7oZ3Wo3Ql0AMkwxOl31NDL7xRg4J/x2vZ3YFnUTY5hlcogTR7gPyQPDfb8g+wAYo8F
-1q02+DHthp+rTWfDCD++g50d3minxOArouVvMaWf6oZfq0PN9RdFvJRi0LvaJ78mdBDKMnwcV2ox
-nJrxEO7/eqd2mJ7jto0ZabjjXsnoR3lJdiZ9xfkQBVAyAazpoJOeH7x8tvVQ8IG0qN/Csm22ABLC
-rRpByuAlvdca44RovBNYp2LvpmN8l0tedu0rmmjtzA7FCWwpsovfvL7U+6YxniAd8MYcriI5ld/K
-KpK1lnzAZmr8AFJzN3yqasVG+ceMeqy+dVDsaztc+DUR1wt95UdWmY/Xi+n6AmZz+jJm8Vln8N1q
-/J+PgtiDvYiMV70glq8vrl4gijkIu+31A3KhSOzdiX+nqK7CqORgCDy6cQaHOTuhLXLA+K6I/fTQ
-5QrOybg81h2fQjAYo4uKwSWHER9DMadix/fhN3zYNSr1tSr7cO8OfD3YDj4dnKLb68tkQv7DjvOt
-HknQAYKJbz8E0qsyjQm5EW/XFwevXa8N1AGP3HL0QIuVkrOlfXcnKL/5wC8JivDE2VvtBJu/jdDL
-J9PRXi2fnwYGETrN/RLVIfP4J8+5W9yBz0XPuNrCYRgJJUKjYTq8mJwXIiZ+Qy2N19ZKvg0/C9YY
-3jkP3UBv2+XiX7xvu4wbnuvJ+HGi+FUF3EeB2eqdrrjWNFPBlWsbr7W1zGdDfplZufeklvygjeoh
-HXvhJiGu5NCCVfnr17MAO+UkYG2v7xLZLz9hqOKDHQ1fbscPNTKuLFX43OIjKJ71PBA3o1GKA1Uk
-nMB0i+5YddzUoeCts3arNkk0n3J7eYPXH8eRc31VV5N3XxW3RjLJfSW5oa4fSK3A4CnCiLbXd1jP
-ZnyHeBUKdQCU2YUO/KjJe9hUi8nccHV4E3od+LixrU65rjkvpE4erlenlvP4C/Vq+15bsK4XC/ZF
-DPx+rbkyBJ6xv75qN8lJC+87kDzmNBHcEnD2XO8o0XLi/LWeKInHUYnC/i1yruKoN55ol5hCZAqf
-ehvJ8NkKCb0g5inkHF6ONNnyX0TOOwvHqX0vDCN46NNPv7WZpHtVvEt74Tz3kfAORFk1z50JLi5K
-LetEPoixIUOyuYx2b75HMFdWZn9YRuydpAgVBDet3NTI9qKL/Id2Lo11p+VdaOPxhBRZ1AArxeOQ
-Szp6A/MtqUirjqpvh7OIERXxa5ms1rPTgPuand9+6ZybYHzUnfodsezYGmG9DVUQbaxkccw0BOg1
-Q3+MZ/7wZN60rm4P3Ajnrm+MV+KrhtU4Tqcuz+TBt5jHyqA9iboo7pHL4ALnb6JW/47C4aOvkmrv
-S/WFP/rSL7lcdEFu33z6vbgPufaBrOT0zz9F/BAxZMu0sQNW99Y77m+2C2C2SLJy5ntAWv4HHpvv
-ysrOuTCOFRww29Z3o9vRt8FIo9+EOWcCaCLb62NsCma00iOiqJB3so4oE6uHXnQPskm/g5gAMuII
-wFRXXbufCFqPHRt9mcdc1nob+/oJSMW8pXGZI3OXhPVDFQbYUR3Sfv2j14dvrl9fWixtDyQ+TZy+
-VTusDcxrZFqQGkGj9iN1c8jZia1KHlhMbBp3FeXTa5tk3I0i2reebPl47VdCJ9lleTeUQ19uGW2B
-b9mvUQWAKHUPOopR19mPqXZ3hlNswVOTIeKvgna8LUwCFbBXJGvfauSuAm2zRlLxMtW5QXNym0BG
-JERjA3edXYF7pDD7NAoTvYq7jVEHn2vPevQ0MSpRZRFUB0srGd1p3fbJ69BM7yOu9g2xkQl1LsUx
-tgBYimwUfA6r1EtPlc8qw8xDby1MvhFdNDTpVbcNU2ltCIMxD6YfQ2xK6tdWNe9agr3r54FkFSMq
-dkGJs4QsA3fVc0pB0wlpj+uMUQXhG1CounU3OGLj5eP0pPpPKw43XsO7IUA72BABxQ6C4IRTVIz5
-0UpYnjfcTKvYLMaXgmL7c+jj7Eh0Q7/xPF5eW2TlnndfEGzT2RSVIVP9IRzAjRcQFNth3k5Zbu3L
-ma5hnOZ8H9VOwyFqPJDDQI/tpqthUP6WdSTwHkO6z0QP/bDtKU5WTKwb2ngb8HBv7HClpGd77kF7
-VoZ6GywJNYzknvvai9sNeGZ3+QXOXsMy+pO0DItTMwzpoQjx2FuNl98GzpC/p10anDJWSMDdk2jn
-+7R2qslMHltVdBJc2AWvyA+OyrOSHTJd51WEvtrodiCYR0Nv0w4JZuseHNm29SurW3kYuG/MuHBO
-CKPzndAlX4YnrM8ReQSVWu7Ckymk3JBaLr85VmFKDWZxLAgEybiGM/Oz9qA0knRfirMnGvZeBLiX
-O9H6HKIxX9DKKAOCxDy/uen6lNXhNAWvWWTE6zEJvVPhDM7GchHXrQDz0jzJhTPbD6Qs2tbEmkhQ
-wK1aTbhOinnCT6JgVfHwoegfW4YlcX2nvN45u3KOVlkfQdUieHfTu424jHhU4VA25VcTJnCyEi7y
-s2lIi5bcfm9COf6wofaYZ4w5EQ0lEW7svTF2eyO0Vd0HXJB1ZpEWV1GJml00pfvZmhg0uEG2sR1n
-OPp1lQD28yUVILxr80Daqr7EIorfc9YnX1dstKgNUkfywo4ubkDhpkc/vHFtniPkk0ZPTERJTqrn
-qPkJLV3tRZo6H9eSV2uXYrhqIrnMmJv8Q3U+Be41iccL9JIZNY2z2PxVtlp2eg7nMLx1c8Wz8q8Y
-n85nTrpQzbbLVwB4kUcmQ21WPSw/O8DJRXyT9bztFdFt44+wbM7mXNm3OaGXXNfX1CDX084m9zvC
-SsK0a9+vnFxB5LrJ0G4ptCWlfh505JAQ9UY0zJUISghi8djKVNzWYMS+itkpuHoq/9PxpLqbbKN7
-GWw3u6Qyjm8mv/AeSUwpD8S5QcOUA7udwvbmQ9SaCXtFO7P25EEtk+o0ZeVn63DVJk61z3OenUlK
-Kmc5BC/KSJubHhDtfTunoFZnBuKiScXd1AfU2A3XHaYiAto7b9WLKHi0DTXfECsDldSpumiT+A5y
-nXkqIwZeqbdnaW2jhesJVySjJckZjnj9n7YzpJuktbID1DlNFg8+gsQqCXDDJ7FxR2ZVM6bXPcGS
-8f1MiOhNW5nqQlhYwpq4Sz1Ge5ayfhhfOxe3tIp7lr+Keb4d0V6UTJNl6XGLOYNp3BqsxO9mfNjm
-rmbJ9xjx0b9NuibMllyXel2EjvpIC6v8rUZR7j2/xu3G++pe4SdqTuNKZ48l+YaHGPDGPrVm783z
-DLa1DblFP0VgAoUagtC6c0nM3VbkJv4ePKf7ITfQPhIj30LmM3v1aQUdPil+Z3sb4us592D32mXt
-nB7jyOvTXVV4Ob4DzeKodfmABsH0cYwLcUlEHRY8vcesWrvkjF+8YCD1rhS23rU5dwUuaC94B2jb
-XIpRymEbpW72S2EHI1R2yOR+Qk18W4aD/QUOHJpAa6f5fZBAAc0yIdyVkM4yzTUhXm7CpqJk7DSJ
-V6axXPZLdU8Qdn62ZEgx1Lcd2ZJKutwsoUPsj7CgkVd15d8U3MHu2sTEkfLXbLJIR3BCgJJ9cJ8b
-TbNzsjF+YU3HVJ4y/yYmwnknCPYy1syBXgtiyMWviE6bTqrrLftSL63KOuG5Gt6GRJAVm2oqMJ1x
-DbCudGEt6lXjjJQmLr76M9pih7Ec5a+xRQKXMzpzyC2gQc/bU1Rr6yOwEmbOzdCKcm34MFjPjN76
-tSK4T21mK8vLi4zS5CcdI/1FzHH2PPYWGYIGKBl/QyXmIQzg++Tq4mFSb3gIGS+Zk5dL+l5Mx9WT
-Acv4dhQnw5hx/YF2ZGMeJrZ3sXLehVXq+T6XqCrggkdMQwJC1U48qxknD7HXvo1k1I1rgnp547lV
-iB+js4IPY2pmYmfSdptaAfupBlY4bGatiiMwvAritfWcqPEBaot0Vqp2m3UQNj/epE9Ud09k69QP
-+XXO7ooDyKuB4UQ6M2UiqviQGpP/WJqWIHJQT79c2d9Ps20CtDaYFAb8vzHUPQ51P/dpYYZ8ywXq
-blJnEA9TXnoneLzD3pQi2A5d6F1ofPwHgvbm/ZSOCIz6RD60ReKeBxn4n4EvyAlbDiMZLYVlWLVn
-kl6cX2NqdLuR+uJU8kGnK9arcbEZtPeVjt5wLnXvfqMZaNnQeMFMOFgDAGrTGYy3Dj6xleMxGp0+
-2czKB4tcJVk0wraE4C6ySVTg5gP7qen7odty7w0Xv1HWPnEQ8zBr90O98Yba5P2RPESMpmCk7xYq
-O2EZH5ytEzs9a0hb6aeGluDbU+10F8ez9TlY4EdJAwG8gteOAjcO7FfHq1DxTSqvHRKz7OiXw9eZ
-riOf0DlefPjIqTZwG1ZBd0CBOn17iLh6JuJtRHsIEto4ELWXrc0m86FQ0XjhxGSLMqdxnO0xX0Zw
-qZopa1dR5gV3jG4p/sehGfg4efUuzN+GuiJxTpG0m5duSJIv4afmVmQx+hxdMsxyK/cm6zznm2PE
-/0XmcBSQEl0FVG1W+cmx1t8LZ5CXyfSHd0XCMzWbsMK1ALa0miJV7kbVC9i39oTiNK0p0tjtG/1b
-UzNZWkXSGqiFlYMaqPWO3VR0J7sKqycrHtUz8wlIt6RKsAYJi9z/HOdUPzmGZz4GSCA+yNQgh8+s
-hltV6fKx9KBEBX47kQvd17dW0ojffj1FZy1E/idBlUKxWY3AyoKbZgsvxX28RH+WWZwQ2cvt9RkQ
-LrYfdR/f2ii9BGlug7dJG1lcRo+MUdQL27ZSC2DcLndSzOLCyBuRiVUjuygqBvUk6bCxFcDAGjtz
-1n00fwT5Qref/Ph9Av27l6F3NlR+n4eMvaLGKaEMx2KrbBTjqwGj+SF1pbmdGorhMpmrNxDX7gZs
-dXEyp3TYSst4dKTVPHTNQLa6LeIdWZV0pVB5hZ64+Ruje22s1iKtKW0ZHgPuLboi+PAWmO+IlPBP
-QSzybVLkmQaPCtJQ1yEzqyLaU//cUvFkD3Yw9ofayqN7hlPdl9d72b4wO/XlGb08xQSF7kekVHto
-6kCfC9e6Ce1asOxsYnYCM38Rw8R82R32DDGxslvKOMZtR0pm2xBxaRD2czCnkfWuF7btYbJGZlGk
-JBKoWZvWDckLMKsbb3j2LWC+TqPDLbEFx4SkxLFShzYaXu2M2XEnu0vdMrLTtpvekoI6nwrltPfR
-mDhruNzqucvldKJs8WmSGdH8NSiZOfPPFCoMVUKLHO/cVExO8XI9tmZasnET4jhNebh12exv1QTe
-lhFB5t61RZ1uGfnJHfRTVgcJGehaE4Lozx06CwT5dz4SvAuhBerUdE5yxzI633Z1Mt0kRqGO7JLm
-gxvUcOIWqHPBATpsuhHxEsMI9sWi7tJbCJLdcckQ51BnB1DR264tMN13WVt5O5FX0W1b+tF5yKP0
-ItH/XhJzLI9Qx8MdNsySmcQ0iWMSEw9YafvQV2V3Iy3V7x2cQ6O56aRui4tiN0DUqwVB9YltRAOr
-2lm41eQeKyx9Bas8p+0kDzJv1s9NV/eXFK8l146/JO+h43Eizg9By4hKkuUjcfzkmRZmAtgcHIEF
-2VkD0aU2vMdby7gmHhquYyaDaKXI1guuOO34itYWKY+Ksu+bY+JHgLGVMW4JgpRHr5HxrzBIo9u5
-HLOvti2740CcLatdAmBZb5UCvZtvRQzwErN4DOAK/7g0bacpIc8qn0ZOckZn8Z3D/OnsThaz8Kmy
-3vqF/n2d8lYLEVxDAGAwySytlQwQw7i+v07lyMxg37pQxdE0LmGBuanx4mmG4k4NJ7e323cRLtcK
-hNM1K5nowlgsPV/XBZVsmZIh7jsGC7S8pjNgnpUynlZ1QyXfZooXOw/kQ7m1mbwR9sW6VKeqeDTR
-Yu5qAmcPOVxbqiXyW26Z51ArXEeizjIct+2IEanfmt820PbC16zou+nLjGb94HscLEUBcKf1C/bG
-mmoznJbtkybV3VCu8axosnaRbl/N4CmFGbD2zPleRSTTUvYD+puYcEQyWOlE1vfjiCdMOvoB+kq7
-a6M43fnUIxDYOnlCLRXcicQMN1ZPIWAhGiXkF7gPhVO4n43gNGG5WaOxRI7YlNQDcb2Zc2NUpFYR
-2MfZbNobFkrGl9mFaoeUf741zJGU7D6S5zF1bQpA3mON/eRgOFNGtRF49050mj2qIdVAFZ68cPwW
-EV9rXypmqGWyoU9booeoT3k+0UDlHMxfdVWNzzlJ8U9UIKy1IIY/uibt5VViC4Q9vDG7Qfy0uU2Z
-Gma2fFKEdlyGccIKYoRcLabPpJoBZnp2Q00XmfZok/Bytv0mGxM3/rhq0P9HkP93EjsWZ9f/X5B/
-89XVf9u3tVL1337qvz31xT8r8//xx/+hzPfMPyKbWAZ8d1iF+AsS+39ghL1wkd8v+YXkC/gExvBL
-/0OZbwX8N99xcflcaZ4ugn6FWDn5t78btvsHWnoKrgDXRWQHKO3/9//6L4Qd9S///M8cX/ya/yLM
-J9GBGm7JBMBpy0LnX4T5DD5TsLUUPkzIPL2qSAl/UYsYfWcRQM06t2j734OW03vWwzowwwrFV9RL
-69jYbP/roLKeXGcaN7ZopwOt59mY3ObNCor+W7QhlUXRd7ddb4NaHcVwJDNcJ4Drk+EhcZ3CXmUJ
-Lt+ZDmYzBSZzlTQerE9msgOBSmRLjFlZvY1RleyaLoPOA4l9RUQr4a4JTjI4b665dzD3vLh2jl7W
-yia1071q/Z0ZCPS+Ua+CN5s5b7augrm79EylPoiOQrIxlBmdBEfJD00hr1s2wQcFfbBh5/pYRxGT
-N3fmzlxcgS+KBc6tO48s/K7LPSZJ5HVpixNcBtyFKcnq9SZWguoKEsKvXCwbqMg0zn4+uXeyzLOb
-GhTfh2k7WX8Us8W4ye2k4b+r5Xy/LqNMYlTXuhrDdEO2pfPhkpd35w75+FyqwX5hVIKKue4MRKAx
-FcVGZ5pPLNSQ1vtCCWeVumN9IXLdmbeUnaTcZkTer/LIWQJ8DRZv1w2oaWjxU+fLG8TD0Zd7Lgx2
-sV1Imr07gmBPpx5IO8+FFN6KO5+1Dhlpic6zBAOCiacDbgASaXO80xsA92y/lk1Zatn5U+l0UcYQ
-2BI/sQNsZY1KP5u2qhE8NBDbMNlFx6VPumHUVg/LyjOdWPtowWxjieO4x0eHXwmhMaH8QcGj3+xB
-MvBFUgKbPDkmQh7eJs/i2iH9kukN8vV77B/msC0gLZ4m12uY7dvYLfLKqh/iXvjfGjQDcbCuRM43
-WutOld8pFYyuxTRtwrC2DoLSAnEUB+/RstzoLiyc5LW3g25fj6F4mYIUvnUn8hnaQ2uhrDPihll+
-18fI12PntrW8+uKnTfCQZG1yrOzxt+HGGdFWOnsbwz7bEuFDheeU0UcjXf8l1hagB6905Ivi4AeO
-ahRvVChOwoJ+4huKpfZRDVnVxadJ+Iw47o2DWfhkGl23jdqsFh8G7c3N9RFi5h4DDBzM7NCJ8g7v
-ak/zbQ4zFD3X6ft3dOPDXZIWDICEW2TzusdumGxziyhjO/BQqAjpxncs78hKLvymKbaEFofiZDKO
-RNGrXGQtAeKW4KRc1tlUEjSdZm+pEdtNidJA8LQMjpoY3i3WyHbnhwbdzUhfa1359vGVda+zLmZ7
-xrR3HQGDvSfakKm6m6FeWPNU708zzRlKDA9NFhMPsUUjlnEr03t8tZhTCEfOUIK06IDd8aEpHfeH
-ZQURzuCNog1WcusFl324z0pd7OfZW1kGaBfD7xT/i5d6LFl4PAcE5VJLkDda8vNI1n42QQs8kNiD
-jMOP//R04GMiARmdnJtkMII1V18s7pnWl9ZWDq7zWXfVcjOMMXnPWNJZBqolt5pQe0886mrB4FAq
-Kk2qde181DrkpMirAGWisLlNd4RdsxVBb5GDlKDMzdfmkIufcPToLDz8luEOZXhmb/I8Z2Kf8ofq
-4wgXoDj4E1U0ost6qV3DNRKDd6OIsFbJ6TGfg2GHhOWzErH8kq3PwqAmRx9vh3/oC48k+sGTcf5o
-U009sZMid56egxcbVu5ja+Ny8CfYO036p4xqeg1jyr/JHVIAWlxvL+jIvZuEnjDetqVJGDlb1Gk+
-1BmiRt0SHXvJjQTUmeKwSPdlp/J42BQhVeAq6fvZX1foQMQmJoAGXbSfRskmmtqpPsSjt7ILxjI3
-qd90GAwoSoOtqqcgRAYSfaKcsP19N5pD9c1/N4Ea5K77ajogIYQ3Bgf6CDSNLMnCoAk3Poc2XF6Z
-0wwmiZeDsCommQO0cLqLJ7hikNQO5qFBD4bpbLAY+BlJs4ukESvoBoaJNG2o+0/NYCw65CaBWKtc
-yoDtW49hyOkPyTC7qw4fzHrQ1m/K2bXvj+jGfY2yw3MbvDHQNoI924G2npF9RmPG66JiPNJoFHcs
-j43qJMZQ7iXF4IulEd0vVa7h7+XYRc1q0Kg1jvYyy7Y69JlVXvsXjUS+Zl5sFy+0ZGazmTpd7yah
-uaMcdRfNY56vickO0Q5kbX+ODeY9e5B6aj0XGbrSKnZoGJfAHgxnWcozOWld074Loyw39wvQ7FSU
-7mjtel06QGT9LlpUsva9cKfi3HuEdG5p6EtnOxWBn6+tpiOKxiX7Zd0myfSInGH+3UIOwZCVJy80
-vPV8Ghi8+/swDYqLz/77N/JI+072PdMclfeJc4wT4Eg39cCDu2BfndzLkKnfbR3UiDrSpG3MdVWX
-LKvSsh0eEamNzlH4LWSOlB03nJdacceXDZ/Lpiob6zkv0oXwk6NPAZ8xcP6y0DR3c96IR4VqcX7Q
-QHSow72h6ddhIuODYHj1q63GmJu3bdrMZEYgRXsQKbTTS9N4zcoxjGnrmmw3g0V/Mmu5xLMXtPuH
-vEKEb2yJB3DUt+lAVjuHGU3/qqkCgVclNAYkkrwPkukYAWE5GzBgjIEbq1ceLgHh4LVvjbdWSp4N
-4xVO3o0wSkqzRjOXQ0Mi04aPGPXLC4scZW/8bNiDwZJI/DBt4PhKMqwA2mlTfS/KNs1XHWjsM8Oc
-gVUvKTTI5XyJaHs22MQtbUm0q+s+bDeT6OnE8rHxjV3G5ie6MK8El9kzuWg3oD0we9VARno4Q/Ti
-KKV4MMVetkSads2lzvz0IRp4Y9tReelMqeLAcTNlLj4kM33o3IODMn7kp7YQ5aIJl4JkhJsZnZS3
-cW/nGA4nZdaXETpK9uLE0pCnqNPpwch5yAVzj01A4MEsNl0Ij+oYFTFNbj2a2TMzP+9bdtbYr3OX
-kmJb0W+F7AnSyN1CEW627EDJhp+G+KgtMb2VFvZpitKJusT2nQEYKmGoAbKoMmTQZ9bcYEmUsVwJ
-+s4N2AVXzZ3JNP95YOif7T3yLeoDUmhi0ESIQuFIZZGyntAbKDgMahukS6d8GDoTQ4qXszuu4rHd
-ECYNvKltisbc4p5mbMyXgqhrUAj1uhlrXMwZog5mH56CujcP7chpZzE8FBcOqOkzE9TD+zYxGSSl
-4HQ2XNH93gvl96K7bQDjjRkPlZpB5Zh7qF5x8HXlk805YwyEmmTeg+jsV3ZTP4wNUE3gYQ3siznh
-ukybdNWqAKhOVeyDbPhkzXmUKLP6sfjya/WGNeVtctUTC6wY6wCuFKYxm+tmXWXltCaJc22gjrcH
-qAlD/Und9egN6YXY1F3Yf3dt+knfjORsOrUgf45ey4r5YIxOfSkYE8rjmHCDpVSAMBMkUlDdssbV
-UgHi8Mgaqr2mYlOjHkcmHd6mG4r3vEy5KkSPLVRzdeZARFZzEA0+65Ep9SC0dInnPzAHTMFm9L5Y
-kywOXSN15ql6buO4fJAGF9im4jNOEDzO/JmSfRISKBqA7MXwol9lJqanLEi6P1EWRMEJwTyeKq0M
-0krbRL75U6S/G1dhv0oYWeLca7j3UDhYRnLQQ744R5waUURkgaJb67lNceN0zvjmRnMebJOhdnNs
-MON86XjP6Q5h2mifpmgysoMkW1ZvRovUILL1IRXvA6Pa+lZ2UrMnsZwwfkou5DT0HYQXamjsJVQ7
-G7C+4guFSBzyLTn0WVKKUtwYiYWEXPpTMhFCFPXBzo1N8yfLHexQbWxZCTbmIj/2VdMaF6tk1byS
-YxXk+/+ZInTT8eff/k5ar0Oqz383R1j//mr/z7//8+zg//2hf0wPnOAPBAk2zRexgC72vf+cHrjW
-H/TrPoMFQkiZIgRkCPzH9MD+IyCYJMBnHwCAR/jxn8OD4A8mB/w0IuQi9ItLGtC/DAv+u+GBc039
-+mdXf4Sb3yOdBigwOVzEC/1XV787sppqU5DSfjcgWAxQYMBimKX6mYbaA9PJin8fWkvnx2p4/FWT
-WPqLHPz8awhadsnYKNjreXXlvTt92n9NWa/izVwriQduCKYferqe43QE3bmR6eQ/ZMaMNVdYTLFX
-flS7f3ZE8j5MSZQX55FNE4tlPcH5Qj0cv6D3p+JEDjWA6GKwz5bDp2VLZhu5V98NVr1OJ42jgtbd
-vrXitPiIU/um9WH6HUy3x0nXa43yVLPYQ38wT8MLihu805Y75ffc5QPdzxA7pzkjDGuTpUXF6A0P
-XADro6pPraUKVP+NTj9HnRE+4PhlcWOYPp24XcyuDUceeca6H8wOeR15dqvZ61hbMV4kF90flT3w
-hIq7RzMJjC9bSrT2A6YG2IeWbr7gPqv7ZmywmuFmXrZF2SzyDbY4cYM1CRJHoyKi4n059GfLiQsP
-OF/ZPWsRdslexxqZDJHk7nFIafnxkANKRK2cN/6p9CdoXRQh2Z8zQWAwk9BRqY1PJXWaizyM9kLF
-2XMXd8EtvdFEgZOG5VcJKhAXuGmhIooR2n2Q+99iLvegUh1SAFrvtOzYGp0ukPFOeG4QrxMrTr6J
-tsn7NYdlXj1UgVkTvOX0ASedq1zp7zylE+crK5rivY/tCOkc8CaB0+paP0QOi4uV7XSOsybWIv+g
-ybBvtfCCdjWwieGJYUmj/sqDeQ7OjePH3iX22A4P68DX5bgu07nND1JZMYt+E7P0sUwjtvYmC3u1
-xivYZLvQtzq1sxqrrve10Zvefmnt3nJiDeqtR2DP1icGUGxdq/m/7J3HchvZtqZfpePOsyK9GfQk
-HQwJgl4kJxmSSkrvfT79/RKq6CIpNhE641MVUUWJADZy27XX+o0BPVCyKOkqRd5ojmzmELdDEv/Q
-f2sd/g24p2y+5oSDh6PGaAQ4yFN3JohrWX5WUix4UUy3cIdqV3gvXttDAyS5CBOTxDTZGyCHdQUe
-yMoL8j8GWpCU7CJ5W3XjpO6lhAobxih5Nt6zuMpHOOLEv5UgZuXVEHaZ4iyr8ysE9t6pQRbdCK2g
-B64lB9ImCIIZY7lB6+eNNFC4eyxiY8l8qI0zEBJx0PAcbvrxpkZ66SU3sFd0qV5CpEsDc8qeGuhp
-6SY1h56Eu4VQoK0lIiwVg/rAS6MmNTeYJKySTSlCaMJiL4sOBuWR6ilIJFjFYYaCbKbm880sAoMg
-BBP4lmCa8otuynpO81FGSAqTTaK7VpiTu9Qom/taX307ywnwvKygLhWA1hMdRWUObSUsbx/DHGyP
-rbS19AxeXJV9DvDiUE8WsblJCWEEghJk35l/0PnibFBeEi5pT41Me940GMWDUGqYjGlUgXZkCWfu
-d1W8ECmQhHko5TRNPJJ42UEBqaN5sagLl808Bq1HTbp/xN60aPGBravFC+VSO1ClBAWQmKOewuMR
-FfHGwm4Pk+RFa/ClbSJ4OinQ2thWuaNqXK3a4Es4hapKrBh26ZryR7ZB5R6F+VHVKKxyjYJmjn6A
-xHxP+8SXBJywnVgY6i8jN0yuxaBy130lVi7HsplNIqRRmB1hhMEEqleCYKwKsnBEM6aExd+Wyj0B
-Hw5FoiiNuznOVJy8xEr5yoUIOzEtLwdgDlqLbWSaq+JjmyRNBes6FCHMjT1o4LyCREMUpHK5L8L0
-hny4CN2d3X85kLAdnwfqmm4YaM+NpIS49k05HtZCFHUtNj7F6KZ5AJ94Nuty9NMGU0dbySrQ7kGz
-QFbtlVGGthvLY7qFU0gwrahYKG4FQ1SOar/6a00shJsYF2u4TrD1jnkzN1+jMp0g5GglBn7LYAp3
-k1Gu8mSaku4ROrlMFDUzDiuUfTtHXSJcGLM8lk6DKexdYHHwXQIZsn4WOMKsAn5xfE/iGSaBEAkQ
-Hwso5lzqw7QJ/XCqYdri6xBTXoPSY204DwpEEDLsbWzLiPvbNCpJ7gwqBsTsNQUsKbYpckSQ4Y2W
-MhO8WVcU17QvRzSFRqGnHpfiIyc5SJBRAwziNvy+FBEQwQw4Dx+eirCWZBjbuxlpOnIlODK6IwmT
-BTtrSoSY380QGvsq7zhqU/YNZ+mW7h8hsf/Wif5H1oi6Povvrn80xdf8W/+9fB3j/fO2fyI82fpL
-QZJMstZa7Cpsyyf+Ux8iwlPWKgSFHsI4gjaUtf6J8CgqSSbVISK81TuBH/+N8Ky/8E1iqzMMgkMc
-jXjbn0R4q8zqvwHeGivKAIfR/Eb5VdfAuL4N8Noap0Ejkm582/efdre3/s52Lh3Hc5ztxcG9cJwz
-hheq+FZQ7PcW19+/EopCzoxNixYvdkf/uHV937b9i4Pvu65/cPjzweW/ruvYW35yDxd8ox2vORz4
-4951+d3W3fM7b8+PvNrf7Y7ult8eePOOlzrOjk/zNzYfycevL/FL3r+794+7HZ9m83G2t/7a3/nO
-Cy/hK9jO+jf8zB8823a2zpZ2eS2feL058vEXrstHvfA3O8/2PD7xyT3Yu929vfMc3uN53tpvzvoy
-j/fzeeuHOZf8cOBJ+Ea3a/ObrbN/9PbrS739zvacK8flZ556uyl5eIdv53tbRsHfHfz1i/LdNrzz
-1vnKp2556f7qbru9W7uJjlrf7R4Oub02e+fw169m9fWvyfC6hEht7Mwkeaeu18oVAUgs3RxuLvyL
-tbP8w+lf/n988en3I/1weDn4L4djbTMoh5cX/963Lzd86d3tZrfZbLzN5tK+4tvvnYstXfV8eXl6
-1Evbudpu9w6jSpe7zs2FYzP23v7GubjgyfbbM4J2J8W6z6b8O0W7rm0yuVunvHvz9O0Y2kfbe75y
-RPtct1nc3j5dW6z91zM9HQxjAAR5c8GEYFIcj+t47uwNQ86g1vaR6fFtnUl02GH9DS88+Lf+7Trm
-zGHmAT/d8oadfcV08/lpfe9ut7ni/9s7+tLdOzenZXNkRJy1H13mk+/vTpNxu9/vmS7uBSO18++P
-/tqhkb1lxOhrxst3GZELPovefzqwjtzt0eU9n8+gsxPoXQ3aDINSMOgJmuQZ+Xb25uAyo+kKm0f4
-NYedcwOwSvl+NtDr+LzaaQKJet/CQB/cl3uWKIvj88c6ab9/0oD6TsN6oSBeaOtW5r8cQ4+VzY7B
-IJ/Wxy3/8ICMyroxhDYTef9zS3ba/ulut9ufo31zd2ZvRYry8ydW34kbL8aMFuU6tZ+YP4e7rbOO
-Oj+4R9e52O3YhbYvrFQ2IXYydr+N59VsG76/ZQ4d3O26u7lP/sb3X9zd8cj842GOt6Ftf+HRfKYN
-E9PbswM8sRvt7dPy2W12x93tj11o/7hdP/Tb/fEltu8X+1to71hfnCrHW/744wddxF62da7u9mxU
-W+dme+fdbX8yk9nN7Ht2x8m2Q3vDNvHl8urqy9V+6z3s9tu/727YAZ0btjnH8+5c++vlOmVZWHds
-D7a33186dxwKzC+XXZqNhOW283/yfw4NWmTP3B44bw4Xzta7YuqfXvh4x1+vG9Kde3Hz9OS6d87f
-Z2bIenx+NkPAebyegmlJ3pNEP19se7Cf6J1h7dLnjc+yXte3x4jwZS/WJXrDIcK3//wbnNvt1HcH
-vCoOKOsxJdwn954TiGVw9nzQ1o3ss6dU3z4lduxKkq/T7rhjj3F+bnexzSRadxO2tSMdy+bFH9mT
-+I/N6c0OxW+P/r17v7s9uE8lvbKxny6+rZsUK+i4sTf318PaP+yFt0xU585jK/Mq27v6mth75jbB
-gGy7Nxw3L5b94F2tm6drb12PjrT365Z7Zhs7WQt99pzvzsE8aVoV28abg398WRcWS9v5um66d2dG
-7W2H6qi7UxdDxdaySLpJiK++7dAYWvRiWdzGQzzVr0Lgeg5VuuFCiLTBM/OgQECqFc80un7ov0/3
-T6MEmxQ0SG3+Uvh8tV1iycmlDjUirOJHabSRv6YyguhG74hAx880tk6Jzxpbf/+qsXAmLhaKKULL
-Jhovo4LC+DLAf/x89n/QioQ89ApVAWuFa8/bVqjxB8aC0ppNmWB0EFIJYM1r53TeP+i4N628O2ea
-spQFS6OVIeK+nrDib0yppj40dcEZAeKPHsjCnEETMcrRwWi/faC+lyK9CYDIoCaubSCii4BSF8P/
-vNu0k8Puu+HRNRM3DkMhMX1KdL8eHpQbxdVhsbPlGoy/K0fgp4GYL8KXDC74oxBDE3SiEO0HH5nk
-4dDJCEq5dR2IeLJ02fxoImmEjXsKxXw3w1P4OoOBkryO9KtiA3lfBTULHd4DNWCdbBf+79NmWkii
-unEngbyieJbkN/BVEQ00ijmQoMzrOLyZgljWSKwhnE4FBua905oml95eknvKa1mq/VzKsS+8vGry
-FectQrHXUwRj+wC59Y2Vye3jiJRutJdloCfgZJjhRjI3X8DPSaozRkGEvNmSg+oEJ92joIeHuGTL
-uJLNdie2BZTSfnpUWiUvwVgvoC6WaNTQpwISEJFyiND9o6gNErkDswbmAnQ3gGFdo9IKvrtuMPrT
-RBT44gX0VKzM+QP6BSt7So1grWKARIEVz5V4tA2hyRpPFmrrCU2p+rlsjG4A8Fkj1BjECvyNmGSu
-5YmguA4TiUPZSbqqlgCKK2gNpakZRSDtU+vvRezJEJIU1AqnkMwJsb0JFN0WW8pctDsNhokjoC3z
-SHWMxCNpa0RzDGEeNN+om+QGWW0JuBZ0lJ+6Xkk/86TWQNgZxgyxbtUl9uZeRrgVSQPlZoSvMW2B
-rluxjR6uXnp9UjVH9IFh+aFVo34t5BBlLyT8nlcSBNV4zZxdg1Jh79bkEEEF6WJymCU10z0Vscn2
-YchhLfl6AX4NFaIpHckkafXPohsGXAg6C4CDJKtF7FXVstw16TDpTies3wA8RYSt+qSSa+wXBSSk
-XEcvZLjTKwmwwUg9IlWRdgjXHGrMVBY8rBM6yVesMSPTPMizg1JCexhMEU2AEKhfZocCUo8DxBHZ
-tzLFyrZgEtIv1iRrsZszaAvqMmZHojMvi4R0f6zVNgNm3eUAsRt/Npem8GBTAk8emfY/VPg+B2qQ
-MqD4AoUB5Fdq8kHZ2HXpFoXc6bnuhg6ShWTll7NQzRRDtdr4qQJ0UOHwAVS6UjXMyXck3foMGH47
-PCLYM37NJMqjZB1X0UfonvmtoFVNej8NzBSPeo3wMM1mg/kGKpFus5gQonVmpks6V7tKtSIvfFMw
-AetbWrfmsVlLEITFOnks49pCOaidZVYkwjarGpkeHBQ519DVyVG9cCp8ySEAQzzT7EhVAbU3jUlv
-hUgr3Uhlg5odJObiRgQzgqSOVAzUq0mKNZe90mm5lwh5KYKfkpTIbzoFRWWACJaI94QBMWaRreou
-MHPrSyLG8ncJk/DFbUUN+HSB7+xVM44pWu0QuTM0aSd52wVBgcxvaiH9FsM4uF4wThVXqmhab3HM
-kl/qMjARHkbxMbpCRLa4bED2svqHXrwtFoEN12p7MoCqnmsPHTh1i+Mxgws+oiH90MJYg1pbq3O8
-rRMYcnYMlwzebR+D2R7ZWRBYRab1yppUYATVFPW128LORnfDQCZtzR/HlpNh1PUM7L9+JvuXLyth
-uYi8MJxHzR6LEpVtYTajb1ZdkeOs1KbPAWnGwX1fZqrd5jkjsVTLmiSXKtBLLTnoyA0VKP5oKxnS
-DDaDvKivo7ON6s9U/pQrVEEDOHcko8Vluq8qUf8bLlXwqKGl1O3CmZqjrUD+vbcGhQp/KdaPjTFq
-QJTCWfi71sPhKxV2qOORKSp3ap2hyFQ0VvwdOrkA9U0JhQeR1fiV/HuEXB1Q90OWNuQ2qclgwQ1T
-w6xsmPXlgzGZET49ptoCg9TDeN/FSf8csFvB9ITT/hg1qCV1eU/Gc1q66hZlTfacLKlzW1czFfY/
-HKurYegF6vCcI5Ch88YEq4h823aql6iFEtcMjUcHWNgsSiYKbkNtBQ8wbwLUnZLU/KFmWn5XxfCB
-0JhcMTC6GISwbetq3DYCSJot64ejK+7V4Cq2KhkLhaIFYqQE0xbIpgUssmeV72BTaA8CFVbN77Cb
-9JOoUos96G/y5gMmt1+KcKXcq2LdX6G8qde7QAzQiCuKYu1NZI4cNdcT6kvWSr0LBshuHmgxlRJD
-Vl3MqVI/tdGw+mDqU6mxx7cwpbUEnqsNXXBIAK/UwQUWK1oNPiSvOs41cVKBUqNUoClhDRlLZrW7
-kq5J6gb9D/jzOQWCyBVMHIdQ7Er0R0OSkadZLbmCqxUWfFGxXYp2XPdN4MprcbcbNPUJ4SYqvkml
-QQTU1kLw2KxCEEokwV8R+WoOWuHRZjmVj4e1kizES1bbOlXQEfGEomejOaWrh1Pq2jqlscVTSnts
-Q9ZPfUp114IRfmfjIQEurrlwji7S4uIpRR6gR/AtHNbEuThVouSEA/l0wECk1lOd6UYJd025z6f0
-u3hKxZentPx4StGLcoLJZ7Bm7oXI4qQeBQHlgSJedGsjSTWJ/lCvtMyLTgUAKohrMQABl9aGwJsU
-0D3l6N5oZ2C41VpFEE4FBT4qusdQdUKKpBPK/pAAij82UHBws7MahOKLWS67TZgDfXKXXGsmD2AW
-9qrBkofQF9OByI/cMOLyxtgsqL0MOUKybd4iXNlqcosSddGYR1yY9RYx1BAiIWRBpBew+7ibJ0C5
-vlxW0kPARJL8cUyQppyCL1aZjBQdCoWHbOQi/Y7GgqG4U7lED3MYU/walvQI6l+5AVJTbZiww8aC
-Hm26GWrshZ+iOlPJ65B3aPzemAIJZztDpmdyQvQ87op2oPY7WDECxkHBVKkC1NDdWYqCF1Csw+Lr
-jZDsjXkekAUpQfl6uQpo0M4reFZOotTQ+yEqIaNXJOAQ3XQUEdQo4pl4aY7yEHBeajRPjZFyZi6J
-wjQzWHySY0gcYr2WxZO3tMw8hAdC5RlxW6TLexwDprlk1qEmVbqjKJuHoZ3HH2VljvezmRWmU0Fj
-hVqaFsBFQ2b9ZWI22Yvai+nfPVpAoUtZtbwWoYHqlOcCamOjaLUzZ3ofD2fun78F//Qazgpk6iEJ
-itIps/7qzpTXgDvzyHhCnn52a4U4aNIBgZ6J/d9fzNZGsIaAyiKrlm68u2HkSqwCSub04Qi0PKVW
-tL3SSwvCok0MHfjU2H+rR7CMKM+86nn3a/f1//zA56Obr77mP/7v/7xiGb0pH/1637/0IsozkHck
-WVYkVdXI3vxTPtKlv3QZo1ZT0aAkiag5/L/ykWBQdDJl07K4U6zOpq/YRZL513p1xEPEIKCUdFKE
-f1A+0o33c1LEAgyKE/9ikyTp5vr7V3NSmUJAfklpIubDvQ/1jAZKODcBaQK2Krc3ptjV2r2WTAY6
-xGlvCDu9F014gWYtOURrdX8TrcwlB5a5gG8FYtY2LiMzomW6GoVuhi/RvFnmIDCPcgPRFIWJqUMU
-ZqqPuQxJxUGg6pB2U5fe9HMBxbytEOhEQpP7kt2X3GZe8rhr42MvZt3fOeFe6aaBBUaXWn59pY6r
-Vy+eK80zsRI0nGXoODWAZV70XR7VaCjMYnmFRgSaoamGI9oxAp/ycwXgLwD+xOJWalIJXZ84KMaG
-C5uSy5ktNRjIIxIrpGF8aY04SXopNfQCqXkJ39CdGLeyAGnWWhpU2BIUYOVR1JPL0Sio7Ydzl6NU
-JEHdsrPAnE2ElYc6cmWEx4arrFImiwi14vYc5DrqpAJX5RnNJL3ufKkrFnSEYqmgyl7XBAeot5lN
-vcExVg7tUjVVJXHQZVJSeESAYy+oxqFisKK8IN7GeAo5kxXkhjMpHEdHeQi4pBaiuWRuMnfAkcJC
-nZdNNTaK+DJrTaY99jGsGBQTo8hym7Bo1WsVuxYZeXNIm7YYZWzK4Lan0sc+vO32VJOSB2xNpK+9
-nME4R2pm8ZJARlEEdSZOeDNUN2meEHqpWFh5kTHCcA+tEa8AJALvFAViWg073lgsHlmOTETK8C2O
-KqdvZu3rNAtxfR2hhXhtIEGDsfk43E+BUrVoZtXc4tWoQA9dUJoS2FNn5fGx7lqx8SnwRwAMMHWS
-iOtM7pgN0Q3s+LiN9auRS6G1gW039j5o6tzCETFbevRgBGoNcKUyonEZwTDZDZcuA+Sb6wpRNrG/
-B7wl+8qtv36OIbkClJ7FRrMbCL0CF+dRdCpLQpFGzoKw3FcSNuO7ccTIos7l8h7B7WraxykSyT7d
-AqKBxTKpX0G2WFjRrAIT3Ost6YeQL7O6r2MuntveHIh93UEb8zCkH2PiMq+EYMP56jQgaLQA3PwS
-1Pl86CYFWNmez0dt04W0uKx6NNwJtWYoHfi6ykbt5idDW+9cc1rfpkKY7JAPbiKo9grhbjl7MXhs
-EkZjzCIs2wlZ6x5UAnR9Iw7QaBaNhUCkLgHSI5ubXMndFD0Cs5+e4fllW8WaJr/t++IgmL2yzeKy
-/D6m6W0xVNwcTZxlLHQkri2taFnXSYthjTIuQ7rFoY0IpwNqhQkMxhUlIlLIYwtivgE0pnFTDNK9
-bLTj9dDq042hVuDzwg7gVYUsaJ/Od4Dvm9vB1NbrF4kvyGIim1gVQDzHwdG8NBBq9aZ4CV5mVUeM
-PVmasWNJzMIXZIir0E5Us888A9bidTNIy6WQpek9CPX22YT5hoRzxjS05Qr30bYiBgUKLF5OUq2T
-DJEmA5SGLIEMgQ+Ryyw+rbkKw066ybVyzOwKvs+PwlRL1SkTSB+uBR4NCZyqLGtfQsuh9IpYAEGT
-ZVKYuGIZIo4vpZKOIUZcTOq1rmfCtdS0DbiXVNzVrTnU9rKYbQDvZpRjzxDS+R55vSRzAw0BUian
-HDU+5psKeLPOZC/uEd5vCBBbgPT10t/DlpGgQANkO85xUwyHepCEHsWNHDNibQzUBUCMlCWXeUZK
-jTyNFcMsQKfK1SYFqYWsMQiV+kZVYaF06E37yB2DEuqaByts2v4mqBBz2FljawYHto5WRBkVOQ8/
-sAQ9vEmGJXAJJnNn6uv8ahw5JxOYOhV7OEkrS23SXayULeSE0RA1IXvC9OXvyUjA51VtpefHIJVX
-nqk1SYjkE091AE+HtPXLoOstDBCkst8MIhg8B/FEbbcIp9xjUwgbcJT+YJS7BUhF7o0LFAMSB9WV
-NlslRA8UBGa/kQP1RSEbhSfTbKJOr8gSpwU6ZztBbcdtCAo2wqK7idlzJgNpoFKdyDIJhdmLDjz8
-+igm9QVml2N0gSxCZqL/Nk8kYpJ0WrZVC4AVysNYXS0Ys7a7Rkwz80A9svIWYWQfH5GINL8oq/Qq
-dFKoZkuw8vjboW8TTzUT0wtTSOWmUoy+sGZlSM8ZXHyRF7xJEmBO5B54F3rvSxY/9VF5D6JpPdfS
-Rfve9d18geVQKG2aPLkOeqF6LrN27lEGZo7gS73U+fOClABXuVEVNaiqsPVg0XSQTOtFMw7qlCSq
-nZczJCiRTQDSISzqAkSaHN0ulQqLLlmv8wnUBiBY4z7LRgQhTeMFGW30XZbxa7GUt0MY3UKxXPZi
-3z6JBMS4dV8lg/I30omTM7eWid+UhqbxiGl3ryFdgcIKeNvay/X+AiU70576Pi23BYkUnf0P1W8f
-s3Yb+aZGdGRJqbUdOWij92Y91K+qxoy4teeGji60tAA79hChRjAEmdX2mz6iQraVpC7/VmaDzIaY
-lfezZEawRpF+0XdTW3CuGhiequg2yVWLNLqMrjbZqHR1L1GKWznsJ2FvwICJPDgr8K4GDNEe4ATV
-BkDSpqjvZWxRHlru+hzUXY2PxyQ084YK3Kwv9gSjEdGGspg3zQz5Z0kjPprtMtu2o9AOnpiPtFh0
-ovEdH6f2oVI7zBfCURJ/LFGp3wKmrROngb+9Wn9dk68nS7WgRxTrAxTCGYIRVGJ6NdqzxyfeoIwg
-WWUVR7IpfmLzKfyglixXV2LjuYrErTHKDU4XooWFtGZaMtSUKJhcy6q5UnLBXCQFW3OR/OCsU+1C
-BEdLro04kbVdvyCJrsNfAB1aXQ3FBDW4HIGrdkQGYRZBZUHsSkseUnT7LjJjDrE/AVT6WCJvaXlr
-XgHBqmZKc9Ls45InNwtXwSSCv4Jbz7CPpkDH0WbOzRkq1iAMclsSoeUh8dxYLorgYDKfSLteaDqc
-UZDIcvFqKxEnF4kbX/TSHA55ljTmSyl20ResU3qTr4oDDh0IxncTTphEKDHwVFsskfMTGvJuXpnI
-44+xCCLdFeqB5MgqokymH4ueclxwXjI4+GpSCbCmhQ7qvn0S/lCahRqToaGAu5pAN1yLV7WIQlgg
-95qixJ21UZGaQ0d5BNpuI8Gu1RuGDDeP1qhmrLuWPHYEbWXTVSdm3Qxy9TY/8e2iX9y7Ew9PV/Mg
-RnSlsKJrstqSQxYSndi2tWJlVxukQb41J2JfETY/FnVRqetwbACRx18I3nu97AETRw+D0gmbauUJ
-KmY732oG3MFpDLPensXZSEEmd4XidSeqIW7X2YW28g8r0ukX3YmUqFXBLMFUg6tonGiLEjo38jE9
-0RmFUBGkI0+AYc6wrGSuVm9A6+ZzFG6MEylyWvmRDLGsOGTw7upRY8md2JRsXDlQ/5VjSVZEuzSM
-ETcIUYELd2JjVidmZn5iaWo53tBOtZI3o5XGiZMCTKs87rMjLoMrz/PE+Vyq5Gt3ooI2J1oovvRQ
-ROVu9hdIoz3k0UqNZnJRa0Y2GbcoK/pJvVJNsU6BdkoyDAoqBa/+JToRU6NMFcg6xBViS/D5fCme
-GwE7DsLFrcw7kaENgakiHnQZBjKnanhiwMIXgg0LJQtmrPmLJatpu6REK7sFGuvI1MEeyxO3NpoB
-on/HIwbObdNY1BF6VSEWnWW49Gix9fAsiK3Tqwrxl3IraIEVuXldQ1KF3kFhUGpIFKO7vBJ/EUAQ
-rMGFYjnFGzEXIsWD6qpLl2iLowsvw2va1icysRyA4HUI8qviaV75xnKhIkYuRNn3amUjh0n2UzGw
-VxoG02/1Rb01EUJDByULFE+yYDT3v8jNS7cqJ0N5FrAdzpxOCeIDn1pfZDH1p7aI8bXqLdywSD87
-6ojVVF52vXL13yzGL5aTrEmrX/T/Xyvl+j3F6Z93/JO/UHW0TIhzQDDgUQqYgSTFv/IoJkgDTEkV
-dOJUUSdJ8Q/8Vf6LrMWKbsVbhUI3euOv4a8AFETwsic6ko5x8R+kL94lLxTTxBxVlsDQyrphsAu8
-TV4My4KmBEk1WBmIYs0onDkG6PIzIIS36Ek8TNdWFPI4qsTxRo7kbSslhk5ob6EPFBQJHjC9wL2v
-mLKXcFoQXE4t4dd0fCMB8xqv+ftTaSQHyRGKEpd5lE3etpdJi6FZExW9nhXtx+Y4+VE2SL9Sd3/U
-CsgKwjKqI7L6HleE6FKcNCLaCIkayV/EuM53XFIX99Vsuv6FOHj9LL/3nSauGr2GspaQtfdAmKZG
-26vD7AKeK2YCq0cmBdi00bTeLq0ZAoWEPvz9522+g3MwXuhHaBpqB3DeEAJ5138oc69h4rzqi2Ou
-g76wRoIYcRfouvqZx/ugKZ0xkjCBxyObPN/boZJR1ODGBE+OaKSye8o3m7Y3NY6HPDuDHPmgJ4H4
-sKIMVTMN2INvm9IqvQBwwymNCEWy6+NE3+pa0l2qpWIdxwYxqc978YNZ+Lo9810vzl25lPpAe00h
-LdU2l9Dq9RLcgc6089FzaQYyS3CFRPO3GWLVjW62Cey0ELqD2w+NTOCiB9CUARTok6n+WX58nR1r
-UtUg+QoLE77s235EuWaZV/QLjpx1NBBWiDGmQLIwvyjhUJ95uI868XVj7JGvs6tDFgK/KmUaw17P
-1axE9vBYTM9sUB+1oouqYrCQJe20Sb9pRY2FCaJgjTgjN2q1CTQfz+bwP5jrr1t59yySoGmor4k1
-Fu1o5nZypl+1yYKVZB4295/PvXfwudMYvW7qt33dqJpWotu0pTxGkRFuTMoZj7MppZewF6WXxuyf
-Pm/ywz6UyAbp1E9ETV2n6as8OOT1qFmEiJQZOkbXaVklJA6Qef4PWqEswzomLOLMettKoAUqyoFG
-TX4NQXVlKnEHHEp983krHy0pHdIJpQgOWkt8t1U0UJZQhtK5gTQwmh3gGuk+g4v2M6/a6N5iq+rO
-zPOP9kG6jp3Q4hNl813vJUR+TawrCBCphr7Jhv4ZlYFvci0b/8FUN4hGoKOuO8bqiP56mDD9Ag87
-sOFK1Bj1G3OoDMVPJpSWfxna/8nxCA8VPZX1dITG8+6JdOCA4QhAB5F6ZIUQtzVRwCVJ/PlISetu
-8wqnx0yHLgOuUaHUYwDjezchIsHkFoL7lV0rVPvbQhkdbcEWoqqqcFOMpWJXugbjM003yJmNq8gx
-OalFRPjzzDdZ19T7b7Jy4omiYIxL8ruendrQjKSJ4B3b9hRJXHxZ67o6WUEeQl2Y9k1blV6T4hCt
-KD33QGwgHLqmkzpr189CfSYK+n0PWMX11lkMPGelOb0d6aKUg7Q1OnziQ0u/JXVce3oIEge2MLKP
-fZZ8w7Fs8T/vhQ8bZfoSs1qKrLzX2puHylrCmj0OEP7g9jBdnRHRr02OCtJsPVNmr8/sqr/vOzzm
-qxbfdfssK0AUJY4/9DVMIGcJOFqlL86M7oetMLaEk8xqis9vO1PVCADRPqltyhilrSGj6gggmM60
-Yv42hXgWlQo32GMie3PdJV7toeNM88JAK5VogkcYQyvXbbkbQVSNYiijT9xE8ctIYv6mpTg3nVlM
-Hw0ek3e9eGjsfO+bx7EGnfpSrUkAIf+djGW5q8ALYqcgNBdEZajIkww6syGda/TdPlEgdrbMFkcV
-sbYOEqE2hQs5wLkGCbL2IA+z1bkl+nfxmYddP/ftcrU48MGYk9OA6Ci/C2OmysyBaGHinMaS9oRE
-9tR7+EIlGwwmkQWICqH78vna+H2Pp0AsSUgjwJQnoF/n2KvR7ZVwLOAR1+DfqM/qNTBYJQcqBAr8
-z2NP4mliGV3RRJEo9F2npuqypKOuVvYMEtIT06X3p07784jagvRvSNxHTZlbyrulVyA2W6oyED/B
-qMaNkpIYThPjBjUkDQ8F8czW8sHi4M4LqZlBU014n2+7T+0KTL8jHPyyQWz3kYmVDO6x4r7MNRMQ
-tU6BE5TSak5MRfvMZPlgklrcxmWLOWjoUDjftm2kk7mkHcfzInTWXQbm6iiJcu8A+al3ZaMvyI9H
-gXZmaXwwYRAe4RJLqM1IKu/6l/uCTvJzJIqT0BKswNjaFEYRAhMp63w+Nz96wNM9FlA9QMb3E8as
-2hnD7oqIJyoHVNDqfpcDP93H7FZgRg0SplmNc+fnrX4wpKQfyAlwgK85gvX3r1YEokLy0nW0qvQQ
-6jGijE1sWMt2j/J+fzWt1PbCtFqnRjjwTNO/behgxAghKTuBrVBYKG+bxkK3qNAaQQ2Tuqkti4Xi
-kycZ/jQIWlvhyU5zVlHUtdtfPeAYyno76Wzc3Pu6zgEjKuRuACRj/tOpQkNEPyBROJzwPH93PuVL
-KzVTx+LAbhURPalPb61Wal05idKbzwfto55jcyEONcGOcdS/faYUl4lYq1D+SK1iqmBfCMsLdfPM
-ODMlf5v96yOBbmBqkB3Q3x+58ZIAQhN7ILESaK+2mtULBF+R6gK1f2Zr+agpg3UmKjqKQ6Br3j5S
-t8JTyjynqRqeAqkPwa2W+RmM77z9884jMmKpwWAB2rp+k1cTogbYGE9yBSRbFeO1oNzbERDqM7Ph
-gyFaTxlOZDpPJC5+20obGhEOS6AQMg1VXLR4Vjni3DwzQB+1whIip2eCvoIj87YVVqtk4uWJm0E6
-W5TFgZwOvVWEf75SUQLgWThswDq+H5yinOtgmdGttfTh0SSR7RVyUP35DHjTyLtowMAgPBJCoPJq
-3Qd+l3b4qSsAh2XJOsNRXY+pN3EHGlKkJ1dVKfZ2bkZvew0hnBqZFrg7aKOIlzVMFvSEx3KHbaK6
-IO00TZvPp5y0Hk6/tUhVyEKIQdJU8V2LS50l2Yg2kK3i4uV3tYQ+YVGkDhgwCtqRFkRbDMgwgI81
-a1MAX/0pzMK+1YrKj5Qxvf3863w0axhIpLmQ9VpvKG+fPywyjEtxvrGRr0NVrxISjzzBjz9vBNSg
-rBokj2CerV3yapnp9bjEbQU2f4pxVXLmMUEqrhXxFTyzBj4aTcNC40FBvGw9O982FKiQJ5SZeYMY
-FgZBkaLbOBX7kjZsC1DaZ1r7qO9M9CHQIgOgysH5tjWq1fqUD2Vl40wWXKQD3sUVO6j7551nrmND
-nIXu2YkE+qrzjMxo0GZmN0yoll2WfZR7k6bEZ9KxHzwL3cZ1it2QgXq/e4BCFPDSiNYQ1YiustFS
-Hel/2TuT3citdUu/ykHNaZB7swWqakBGhPq+14RQSkr2fbfJd6qnqBe7H5n2vU7Zx74eFlCTg5Ow
-5UgxSO6/WetbiRX/03kRWDkWKAyk1n2K87XCcJdRQ4HFvU+ufXFRzIplfkie619fsT9OIdaPIa3C
-otPmF7K/HCBoECtLLxxWqUOYnGNNkQejyU+r1RRn6+OlO1m3NaTzfRM74Rnz7lPbq+u/OVv+UMPx
-lzAsQ7ImYGzvfl3mYPMcvD7KoYXbo8BpqOKuvDaVpY/nFpA3yebZy5MTcIji7xrXP3kMaATYpRLK
-xHD966xbq2JLHwqPdKWC3K0g1m1CWurkXJqRGSD14X//+or/2d2z/orMvCXjja8rikEgSSNKl3ca
-jE9/6mR7cApyoP/6U9Zz8uc3Jyc0zxk13Nojfv21CMKJVOvwtdoxLrXcRfQ0l7gOTLbAf3ML/fEK
-8lGuRNFKj7NCDX9+tNGm2ughuYKkxmEinKu8cX0deMOD10nrI56KKfyb3259W3z97XjyKOVYXvEE
-fnkTx1ljKawvROGWBbZFr7Eem2FavjWDk+8MoxTfGIgouOCyOi5a0b3+9cX94+1qsMLG5c3Y3VsF
-2T//xgUZydE4MU3R8xaZs+18oIl7xW1n+40Hvnkw/66i/ONNs34i/SrNN+Nd68tT2k0JFC0DSG+p
-CfpVqMwEeo3l33yTf3LTYGKilqQAYx/z9SWNedSBf75u63NCiyyycVFrh0Z8X3UtwuO/vog/nurf
-f4uM2VxWy6yJqUWYin/5Fo3R8LpOzjEWKRLGjgde15/QT7UyGOa0u1N66Bm+ItTOw+rozvW5mEUt
-jyjtiT5gU4aXeNE83Jomz08BrC4V5+z+tDEwaMch2ZVdNZ4Qr5Bn4BTZd55OLujjgys7aOZTCSEO
-KnoGIVI3rTk6DcFJ5ieoroxq5/RGFKP1y2LrmCvlDEdd4w3ldYwrqz6RGbrng5FBqg/cLQJQNaHx
-UnP4ZEGbE8MedARloVN3RrHsM7uU/S1IYuIFHbeLuptOJ2dy51ZRZEBBhtMfnhFST0qyWxCQtNKJ
-0SFxAmQfRRlOEQpzh1pHB0exnJpTTwCAiWoTFQ7fJlplXm3jjki4ngAI3MvA+kXS7yOcwmZgd9Fo
-Bk2IlW+H6ydJ9qRjty3A5TFtj/MOrzeuJSuK9umWCNliJ/MQIQ7UAJxLOlxiGxomfwXCAAhD7hXB
-hROStaBawylJVpUvaikgrQ01ldzOjAtDx7ZYwCubwmUqjtjFCb7CpWLeon5EZeqeSSZzTATHYWSg
-S+IBBqPodHCUY1EtTxJwwbSE04FvoBgJLlg0sjWjNnIh+deFgc5yse29nTd94bN9ICZU8OzjVR6r
-xEWHhlgGbyiUzRamWsnl9BcjRpRoFtE6OLPmboQILYlLRxiDKDtvVeL4oR2O6MyLFttvXnYdIakd
-2VXHTW4393CdiYmQZZIWvlEZ0+SLOMLRTZOenAyT0ubzsqFnJspsgATaluS4gbovk6ek0RGbTWaP
-PSDNl/mQVDOHHUDS8A0Fu4M6uEpYEqZChh1dlW6epgTrfXdI93yYs3z8Hi86yWhEGpEZLI3SKYMi
-84jMIOql2fcIGN8hisO3hk2Rv2JWZzpQlYIUrMyoLtGXxvJobuVSBLHZI6hrrQF1Xc6xTxNnueXp
-AtwwCpbQiV8GaoVoB9nV+Ta7af48AYI+L93Qui5qHDI45fkOscb2ihYALTmKY2O6NqOxq3auEbat
-T4Bf+phVnjPvcqv2XvOmHJegTAqSep3etq+kI0FBkwWe3niOO4PHnmOJ44IQ8fRQe25X7qtlbG0U
-gsQ+EgXTI8NNTCd+U6RSfLeWUTewm5rqPByHJSN7VqVO0KZopLF1TEV2sIxG3cCOxx6f9bYC6N4v
-5dHgOGV8Nxp1pHwn7UQCtTl3On80B/k98QrGYmjt0dpqVTOQL4MQrWatNXS3uTvrPM2GJkjKipon
-siol0m/Lg+K6GEYBbj9qBDHRVUL4NSJCKLc8KfmVqmu9PZeQEa9BiNo16Ektd3wt1YwLTBr6Z7a4
-mFiapW3bZ5TBnnqjEreKszhM++igCpFMp5gMm/pcszIvvxVZkjfnRkpe9XVjJmo+j/S+fl5MY44f
-I6IJwvcRdIF+J5qyIGci01znpnF4dR6bYZ25h1IvJxtbrtaOvsNzYmH/tsPlrBwFsMYmC62BwC3P
-mnZsZ2aQ1iVET/rxzI6MEw4d1R61+hLZh6xx4vAIo3v4mcpw0jH2oQ7d6bIly9HJiYQJOkSOrIsi
-4k+/DUZpaGzDObGj49AgHOjGNR1hnuKh4Qe80EzJU8FPTqpDiDz6OnbYITyvN4L8TMwRjDzfSyvS
-CHbEpKubjAKxfELDmaV35bwgXOQEMAECE/mbZ48hGF29JDGxG3CnQ5OqHSKRrTZSpDBXbCJQHBPE
-3X4PB2YBt4tl5vIsUUTuAAMn2I93ppWl2fUMosINkItm05WJQzwkFwRrUKCPdtXuolHyS1WERTA9
-MKNWiYsOJ2F5NjUFYnTMFbV9M8X2GodrOryIKVaE5zdYOb1gHOKS2jbtqyczAz9wmGU2LyQFR1Fz
-GtUFR4fO/JCBJmbV4cI2nEHcKboPsUUTCve8zfRRHnKqQOwuple0V3gD2P6OWaGpfe0moR2Q4ZdC
-MaZluo+ko650Z6rvZGiA8ailOQGWwIP6bhsInHlhW4xqtbzIq2BGTfCyyKWbcMzmPKq9085Ad3l8
-fJ5AUZ6HTj0aUDVttwgKy9CuU2bBGrLDgSiHOSFVGh1OPD3FmtF7+35t/fYZCcSXudaklzFjTJ0I
-xyp9Lpw8LPhY1X4qfnoJDLR+BLzbHsmMysS7TS/SIL4ylyl9QwCUtxdLB/jWH2f65UA69Wriicme
-DEZNeVczvizvpNQM97bKAZ6iaR1B3g66N6P7dMwcxXPMS9qps9E9Dd2GsJu5S8sPs8xCzN9l2XyQ
-8mpeReE6iySZe7DJQ1osgUOiwsVeCrvedWFTPedtOjQHArqqu0qzyPSEPlyxiPKi/NoAROtwMpEt
-hQ5p6cx1ZRMuIEtEAeG3H7JPVC4IS9Mcxw8lXdXbQdKRvPVq5XUnfH2OmksvLMnlQyQ6AFM1HYcc
-VwrCB5pdSCDVXIg7R5VTdsjiIkFk7EVZvjcH0X1zJa49OB8LwXkSLu2rIoSo8HmpLGf2MtcvJo1P
-6WfFHHmBnPP2BZq09oixDMefvUh4FqG19B+j0ctbKchoJ2Q6fmcE4t1BrJcvsomSlboSad9lPw3X
-DDXyb/3Ia9wnSKEWfo2l4X2Wo/fuaeDuj/jKkhcTI823dqqyU2KODDJUTLf7IBSlemfvE08BrvHS
-AqUfSeAgVtK1RHq4DdELhCgf6bPlPCYRcY37fDAw1qiu0rR9llQu4BE54Rpi37KIfey6kLdFKB3t
-qEyH9J5MQwuVbFRZ37reGqJDmcoI4z2DP1IRSB3ApzI0+nQkqHxhhGN7vMRnZU/HppeIOIg1Z9Vn
-61Fmn+PVYlHLlB+dLudV7gE3sOZizw4yH18nfc5x9iWzBQgdMPpkXMcsSvgSQ4LDqyDt0voqxPMm
-fFDl1RiAthAiyAVSrp25EEqJq3EuSGxJHaofuxwI2p44FCKY6WrnOF2CO0DoSXgEM0diT1qS9LWx
-nDUYlThI8tdYOR0siziGfQ6yVwR15BaH1Mz5v5AgICWXeAJeZWpEj21GsXFsRuEEokEPpzO8BdMT
-RmIP+5iR11dZThDPwREpCgHepnZ/wJ6j0+ORjeD5Fb6NOYhH4sx9zTJiMjzZbVn7ZSjqWysddDxX
-duzeFGQgG8Fka2nvF8qpu9UtYF8PGhfmBHl5zeQ6InwxMI3UeVFRvM4UdXgnl82iC2xqaWGdVDJX
-sHaUZhJZ5OBthmvhlaPPu4VzoQMdnR849rQrAT5q2Dnx1J3i7sSSmE4YyDTXm01fCgVuwCFn5CWO
-GsfYyYyQuD0Pqd0TIMm5u7OdhCIoLEvnzMtTxzwioRKPVKfHKg9SRI1vvTmm02HECrL4cRcvbJmI
-f/2crWYcCepLoxupdOfN1Iy82SMwBZBgo2p4XnpEzoFeAhGCJpEkki4g6y9lmEbPk4g9Co4l0u+K
-jPfxygHmVaX3A86XZimrlePSNtgDVGs9xip2mh2BddZ565bZTRkyqgpiNPW3ixNR/dZwmc7UGPIX
-Qo2WZuzjcTqMS+2RS1OZkYJ3YYIAd2OVXM+NEK8qUazwkdSMdz0GeV7fJA5hUwhHHZTSYpgPrdDn
-V63ChetnzijBSWPqKgPPtXPDD4f1narkxCBFjB4+Oddu4uQ9NWRtBiPFKSAGPFV0bGbH6bgMoVXv
-8d9FH2UZ5vLgxq6oDxVfkHcw7RLkCdiEKd9xJYtbmuPmHbDKOjohR4VUZRGn6tgjpIlIXZdgzqAe
-UknF0rb5fCCIjhWFDeDmlqzgiPYBaBJeLLLJTvi1+u+5kM2TsRjF1VylveMvvVN96qW+fHM7pyaa
-djBNtZOxY5M5ntZ4PxhA8zQKpCkc48qM9l3SejfGbMp70S+8HKg0CDJHOmndt7NLDdKnRrsjPi68
-0ecu4S0cVsWx17cEDZB6FrbYLEftss7oYn0Lnv/JnHtudJzNNn1nOtcUkyoOkelLQmtOQ4k8EgOV
-ud4abm9fT7FyHkhikU4g+rr8HPV0uhuq3nuqB0gtrGq68SyNAfP7NgL860GlzRtDC9H5tMLLo+VU
-4XWFETdj3GzOd4a7AsGL0E5psJr6Jlxntvsob8IPwCvL7UhoTAd1K5yfUNr2MvBENt7lapheReFN
-audSr5y4S9i6p5x9M8x8SSxqsLaLyGO1igMLqwUvoaXPOqK6QTNgaii96j5dsrQ5JlaQiXRfI0DF
-T+uloS+SZHR3tTGEzyE+w1u4ZXhWwmEs592MdAhy/iLCMHDttlx8cxQ6QWpM8YFo85BE3JmpOuRt
-7L0KD68lOdmz7I9VnJC8Sz0ef4PDQh7lYtbreABuxC0S5ZUD1GGn9pnTYaVre72d9m7D5HmPzsWz
-BuQC7Dy8OXDREYzLEBBjX+oFAp6MQvykIV3hg0I4nS60ZRjaY5WR2nskNRu8EZW0px9LEjPtwxC6
-IG/yUEfIvuR9fFyoSJufhmnImAuQRGsT1xAz9FSd7FPf6A19PKERrwnk06zxHhM0JlBuMxkGeWjZ
-fCPcDOku39yjerY6SZfNVZptDlMG/lZ0Xm7+0w7jlX2G6YhDFAGuNZzDCsbEOlShnnGDk1lJjJLW
-PA1awuORFSgbWLLjjKW8zu7nKTKJyNjssyWOUOYtUi8ebWj88a5JuxmbF29uTuwwozaesWMRAYbu
-8XWSos0CJ8ZdyP1fuo+07kMTdJsNuHNjIS/7zSScemZe+I0754JgJGdsAssrwg9yA/uUFILJsUCK
-lOEJEBhcygAZ0/bM2DzMoTGmVkDfLa1AaX383IlhNbITbuZwqnCIY1gt81QAZYk72DIudJL6h79a
-I5ck6x4wnqXlyTbz+v/MDIjrKMx+NwD8AzMDt8nb//0/395+Amb8+KHfEnXMX9hHsfAAWMRUcPWH
-/GY4ke4vzqoFWsf0jJxw5/6n4UTDpiJonXRUPBKFC2uz/3KcuL9IHeXLKp1nuWAznf4nlhO5Tc1/
-N7FEMWJCDCPzh32Z5+Bw+Xnwm4XcaWXeQJVq4vaxxiT92hpDdG8OE1ZxL+u1/sTgrH+ssFZ9REjA
-7wuRUkwTxtifRSuty1m5XUvdw7HSN5wXm0/OOd3peGyI98BgNm/4rwzRTB6MSrgMRobs2tUweO3i
-Cq89bUubfFMbTAxcIrGMetdWMU6+DThGqMALMrjopaNto8v8ASdjuNeT2xcCLXM3gBkojPJyqgRY
-pnJDnDUtMCSOuhV95lYdz4sOfZZgwJWORmgmoDRWDUDTJrlYD+6GUnMy3dJ9OUJYkwsibT/HGHae
-ZNESX86G7WU7ZyWz6RF+zmO2vJQl8cpum/Nkwj+9Id2Wle7WbKA3TU8YjLUbAM6d+uZO37BwGg7r
-d8+FFUc92NyR7SrVLiwWQg1h/XWXvem25h0rF3M5wqaWMX+cYDUheWSdFWlZZp/YxrBcC72aXgrR
-1C1Dwca+ICUveaMhR6gk4XaNOxN9dHxad5X5UKENSHaNQ4CZb7d9N+GezYbwSDpFprEZchVzSSJk
-TGLc6+JS70uHwWgUUq2Ui77HOjQT95rb5ktiDbG2C6VXMFdlhrMEKIy1eGcb2IiCcGkUHWeU0Alp
-ZmncVyYCEt+hNyl3Uy/bm4HMO93PFyXIx52iwX2sGRwTF0hUyfe6bJv4OG0hgQReqdvPLNr64UTA
-WnvJcgxz6NkS70TNhoqCERjLk63VYvBHGIj9XrLRpqgf59ghtYwOeOdGIuW2y0MAGiGEbNOvKPcM
-ulJgU3MUQboayaGXAQ2q9uBAZ7lh3mEOwdwmmnsVdYp89raz6Mq7HkZXoGP4bfZzpplHgxfWZ+Ws
-Em2P6z3hIi2d0qinnewWASm5UkT/2doZ1nfmirWRkKzSyzRpTxpDVqwgW5dGuo/N6cwxyzhk4qyc
-b1gXl/jIlAvYK7se6zwwqVgUebC6RvphqoonI6+mJxVZ8hq1OlARu7fIWxu7rr+gwQyfHbecv9cx
-JNggbYvC2XthyMmBZI3SiySaibB7r+8e+JKK3FdERvX+0syjzSy9yesDGVrRq5ZjNfYZWmcP+YLb
-yV+cLL+j8gHNaInQ+2TcLMRhbDus2UQz8ecoyXdeMnQWeLuQ+ZauGeIajkfcA7bznGtZJOq55MG1
-6Et0Fk4eUnF5Qs0x9WgxEbbu4WvOkAoGwoa4fZwIkms+zadaBz+UORZ2cp947UGwHindFSLpGNdT
-ogj5K2P1Los27HeR3WvvTdHFT0QhPeqKwRbS6wRAiEateSu6droxGPohShCpYR1lJInVAQOfEYmO
-5y0yaD0a+93SCqsiO2uKe9Rc3tzvWqnmG+WNzveOFO/Ij8lw/FaOWVMRcpTVyW6g7wSUIwtIb/jS
-3AXT/5qxRYlVwHAdid6apwITekgmqvDTycJqLdagLo8iutmVfBevWrRkc1CsoV5NShO0S7asr3nL
-/TLWCDCGQgxPFNOd61aayB2llY8PkamgDPRbilhGTDCzbEaw2THt/oW+Bo4RWGxcgoQlhYxXDp17
-XvEVBhlz98FHBd1el1t+mbdlmekVT0Q5zcx+c9WkoMdikqTOujUEzdZM+d0ciPX1E21NSUvGwr4h
-tZS0zEpX/YRMWmafgnnAB5QMNsMVQCVu6I3cZ20QP3BuzoEuvSaNfeP8wVOQ5hGnKfw/c2MBKral
-pLivhMBwXGmB7dw5kAPJ8zqTG0/Q3NiCjClS8uEJzcTQuPEH1YoiVGZzFirC6S6GCHPJHtEf1MJJ
-NhkEw41m2NUAfQHCADmcauE0J2ZkDJdtzHqJW9SQT2OzAkQlXqXyNNYdkIlM1KxDvoIUiT82SPnV
-B0Zs3opaJPe2H3AGAmAkpEq75FyBythshMZ4hTVaG7cx2xiOJDeBDpAr2tHqdOez3XiPaTeFDx6O
-JJgHAxHeBy790O77cgCSaa3QSG4f+JHjxpJMZ53xW7siJmcykMV+3MiTHl/rzbSAo7SUUgWjhWa6
-73mFPopFNjw7qdG/tCvOEhJyT7e5US5zcvQevI192W4czGxjYkKWNC6ijZTZ6UPy5phL+FBvJM2l
-HZJ3ufE1vTQ278hH5rol3Ti+iQ3F6Uwof/55zXlVf5Z3ffv52V+81f9zLVffq5oXchT3//vnPxIx
-+Gs1u1ZwP/1hvxHQbgYu7O1nN+T86A9Lzfpv/nf/4a8ctfu5hqP29gHFZocfrU3e+58KQ0R5rMD/
-vXf5Nqn+ddS+lR+f//qo/nVZtf3nn/z8b4Wl/GV18RDWg0WBILyVi/erk5nC0kIA7nner/+EHfRv
-UY38FIY6JIIIOXGyGis/rauGPv5f/4Oik/KPbYyHVY2KEPPMPyksv8gZ6BglQUK0TwYxkmgFv+gJ
-CBvtKDDs14Fbq660G4yWhe4cKoNpswNcpJ6J+BzTHzfGv7U5fVEx/PhUrjMpRat/8KucTxssdjfK
-flXDqRe758W4FxVdJClly/L8uy/n+keF/Hsr8A/Lzs+VM24q/BmrOYQ6zPsiaxOjbmXoAHiNVIBj
-gmY7/p0SjOl+XKsCG4n1UZgSk+WLrF2PwiHunaDbCol4KypIKo69K28rNgiLT256rJsP01aMLFth
-wgI7fKq3ckXbShcmVPkUdADm8sDeyhvVcgIeia3scWaZ93trK4eGtTLqmdJFQEeolwjpo3Qy1iqq
-IkdtOHHX2kpWgkFwtZVcFErV92orxKa2ndxHFTeyCeihKdZMwgdvQDxQwpVbOReulZ1Z6RR53lbw
-WVvxZ26F4LgVhbhTSzZDxoCIpl3rxnU4QtZxY+kQrNJi50IIATuS68WlJtbCU7jjPNJ2RBK7LBFm
-vMsLA/yeyc4P5HtEoOzZPI4gkHWZmmkwaOZsnU6ZtM50qH6R73YuIzxvjMRlYsHZp1qSlwiXqV3o
-JG7NOnruIg2SntOlbc6OB4rUDrBN4TJchHGCHzSDCt61bcjYN+yp7jUUTbCocMbYvtYbltobRhi1
-Ozgt83yoddV2R4ZJ8cdxP1JjVYYx9LeLSxY53oBKuzLj3PlQyZRhgtPnHlwbrhbz0KZuHp0RGTiF
-J7IBdcIuyK2eq8FNPxvEhYpVRVrbe4GNGHNayWZj346lE69ShPHC8+iQdvmgeVjdraTdeSqJp4OQ
-bZld9S79SoDDRWeQQ9IAS/G45Pw2GqJDj9iW1M3OaawyPdUYBkf7ZQH63LCsjJPyphmnlGxMY4zf
-8d8gYU97vYbVqtsUYPEaqgn51suOq3ZomN+usZvNaPJfFImdMTmFF/jWR/1qA+tT57KCvH1f5vXk
-HSVyEqde7S5cc/DlE1mcBH6yrGG774q5tE+7ISITFIwZDqDBCeWJ2bjpyhnXOzC9a5hoTHDxSoEn
-YpQKkbRRrho7a+Y92nlvCy3djaaq86Me6p1GPR13141BeCll8NjuOFYXln1rvOko5/5WsZl8rNQc
-v3tWMZz3W/GmcaNR+/V4BKGYUN91ZpZF/rRWfRpV4E28lYLGVhbOW4nIQLngR7bS0ZiXSQG8XUtK
-r++FdaQ6rPW+sVadjAn723wrRWlmaNuEyh6b0YppBKlZEbhp/c5tJvU+bjUtO9PrPHModOuSFZjP
-QJQC2GnW76Jd6+K0seJ+ZzCtQ3Oylc5tPHvWPmoxIfhW7JjypPCYepJ7blJ2I/VVz9Vaiw/smfvD
-slbomDqMlFJ6LdzDrYgX9tB/DmtlvxCAKQ6YsrxPB+d3s4Onm92xRXOVP1ZZ9kCTTZswsdp4UWmR
-1QeJZ9bee7VH1RxvDUaex91DsrUd1daCqJxnlg0dMfX7amtTRkvO35O1d1ngll5YW0NDgGrEDnft
-cwgTnZ7KtfdZtjYoUiEtUePgHAswPrkSH2VhxEdwH5xv8NFoprq1r2pCsyh2SeXUEOa21qva2rAZ
-fjPpIppramesLGnVkrVr++elykXy3lZd9b3/uS7Zao3/Klr+nytokFhz5P37guburQQyG1BJcdr/
-PCT78aO/UVkYaa2zp18TCTlT/7OWsShYqHJghzAnw+NiIdT8rZYR1i8ricNGqsbM7UcJ9Fsts+Yc
-ihVUywdZ5irG+ie1zBcNISq+9ZMRfQJbMCX5Iz+PyIiQgME0IGYqGWwFaWOG9zZTjONFVuP7767Q
-n1QVX0SRPz5qheEKPg+WyZdpnFWMZqyJFa6AOxjmnIYWoVPZ4a8/5U9/IS4N184TjBK/SC85sSPU
-s32xw24w7bXS6A+88eLTNR77bySRmFy4Or8vkxDIe7qNh9ViVg/V5oskUvMy3Nc1pDa3jJiDIB/o
-dkrLgVkuUQ16LyaAI6hLnl2IkxJj+jKt+FINhm57pvdeRoRLC6zpQ58iPZRBp7WDJ4Me7Dm78EI6
-wLBQFhXxtUAo5aGtsNIjJzLd5ADtUpW7tE1Ir9XYu6pj1l8a+2hUDrRd9hjNO7jpxqeIIvkCnmn8
-yCMZLTumX4QCN3aYSsaVBeJBLSrYoQpFGMmxpbVL4ffC1L63aD0uqsGwocuz+USxJdLhk26TbfZU
-jR0FSm5Nd8p2epQZkyUeSrcKL3GEId8rQnqGAOZpmwSLU5B5XbFlnXaItqBpJQwXnnjhwwpMhgkF
-pMg4A317KBF5GTYYzWCZSSwJIHP335vMpO0ke4KOfsFV/2iJ1ELOh9/tvUf5fyo1VnK+GkX6xn8f
-q8loDFXKfK1YXZpmGjPRsYh0PluZeZe6k9oM7GrHetNT29H8VBjsoubRHcagYuFo+7z0R+KFRLlc
-lNHoOoHN2X/uzmvObQPJzKRiXBi4Jm47uMeJZqvsfEZxGge203YsX73Omm80ErD1IC5t6zVmB84G
-Xan2puxFoh83FvI+nxKqYzTHnO9Cb4r2MRQDk6LIpaZQxVR9Q0gSrfJIpQPtRauYE1WS10DiOkux
-O7FLPOg98hPzLDOU6fktX86naRXeQ5hV071ksNCjHxmTfi07MLYFnePWMxKXqL0lyKR6FXqaXlu4
-+pTfJ3b+GGdu8yqQ9IFkVG1+BYpyDndRbdiPmV6UF2Ra9GdlkbjI/mU5zPswcoarECLnfFzHvfss
-Ew9kXZsgByAoRUvQ2JnVuZWaxoVR2VRyQ511915UZndj5zknOGtRnsbgb5+R4EzZLnaQUKLY1OZj
-YKlg7JD+tK9Wh0cQ3OVcZr7Xyw47JbfuG8UcGsde1G18lIdh1AczJUFEsPSSvFUR2jYGnaNFuAUS
-KQORTEomja6DMwqsVrdIT7CW6CR1NaIQZmB9SEWtFpq1y/zphnZ8nAND5PhgmkWwzyJQ3owCLZ+K
-t06o+masHPsjq/vwWFG8jtQstvZMmflaGW7OQ9bq5lOICizxh8yG7BiWdoP0NRGihdw9dTdYXRdO
-eMB+FCjhIvr9HJpYcMmy7DN6oMg4o1bWrxS4vpkbculZvCFQYvpWoP/pXK0LgypP53e4D50ZlKVe
-w1PW0NIFFWrPky5uQrUfTL1DJplqlAkTerKQNOyExXxbaBrB6sppRGBTVr9N/aDIkGmYwJLEgO3S
-t/Aoniy4QXC2ALq+Ydm7fusV+hKG+cWMRmQq8+RUIOwAtwv6+4GyY7YPxdBFdDIiBcelj2oByooi
-uw+4jUic7hkuTbsGOES4div9cJTZU3bXMP3bkeiDhTAKjRJ6HxhjGQwuOOxAOYA+gjqpC7olbQHB
-maVzFu3MTMVPECIAobu4b5IjlNS1Qdlv2OKoYuPI68mcm5jX2Fy96PH6+GdkDbSgcRL3AUhir++T
-VqE/msFP9/uKGbXGXdVqwtcQZSFZ1ZTzYYUkMJxbjKruijgcn+uhcq5AEUt73y5h1e8Lr4yP5kXU
-qzCzx2ckOxqQwNHjOA1KHvjkSDlzewSE24A0mKYiJoabc9HPNVneGG7v3gIxqV5UbdrhIZEmkrnB
-SNS3MTYd1NDp1O3Q0I67btGyW/ITAPdNSyvf6qma1Ro+05y0xZKPezo5HgYRDvo9i+/6WGlpqDMV
-zeKPLkuil7mO0tein+UDoT/ex9AoeJV22KS8V2Wh0XKYKfIP3YrZdnWpJ57yXMRXVrrQwTSxIS5R
-K6oRdbPjkVmf6LWC/GOlr4YisNsvp7gM/RqfhbaD2gmLts9lfG3CEVY7g6n/7Xp9Rh/GT3iO6N54
-TtGzqX3YQBwFr1yWRQAGvr6ch6WYDtPipM4ZKRer7sMZvedpMNzXhTv5PIe/InHSDoMT5FhhbT8B
-UZUwsFXTt74CXxs0yk74xqOc97PW8vj4sZPn76HJQwvb1BSngygWTkA3TCzfBtxLulnb0h/1i1Vd
-W11tXLoux/Q+b0T07Ka2/lJ05NH7Jm0e/UrYWHBkaZj9wWVDjq5NN9+7URuA34Zqfmv4haRvlRBL
-Vvl1qvmjFxXPJPJgQcndOryXmpgfGrcsjvO4XIBCLKsIpI3Zo65+V+9WwNhnK2/G2a3pRfobYTr5
-t6lC0hnMYckzi/aMPpPxtrgsOajBlMOHuC15jzxb8HjjoKCx+DC6nuFDIgbzwAYmOeF6ZQSvlGzm
-rF4fbvVERZ8FCjmDNpKZBSBhZhdBBOeE0I2MxCnuC7qtguHRnRYl2b2WjsgrRrLSniaVRG9wRQTy
-z0FfPgGLd5CuCsNqWOL36DOmvkC2b889r+jUnIo7ogh4FQJBnc8JwViummo27zivcum7ulWf1EWJ
-AsCWOvL9JA0LcMt1KZ6Re1kGBPG4e1FjMz2aojLCIMld67SzJutiYVMV+q1DycU+tdAmP2cdQ9vq
-tiSyOJH+UU+opo4L0LjRvkjm5aZEZXBdVmEFxhzz9K1tldp7RyJfjtBvNTW4sOoGf43eOq9y2N0B
-+OpoZeNanLFiHlHEJmpg/o5Ao7/Q0OA+eRm/p/KG5HyIzPZpkdlINErLcccxcj51YHktQn7KQHJE
-3Sni8ZJAcXXMXYSy+gz6mTX7iqCv84mTZQxKhHBMYDLvIY8T+ZT0Ve8eihZFaWGwttg1o0PbOiXt
-RBwZsow2tVDHL47I4jPY3IhLM69mr1iycInRtlbzY+pOHrpPmWjnrZrEyIuR6LRgHmV13anVm6kE
-7qm9ZtqNva9l2d6Ejh5+zJXB4zuTj/iWSVudedNIfJ+XhJjJMMLkPWdtPmIJsDLyJsuyjb+Lha2/
-H2pL8+0/2DuTLUmRM0q/S+/Jwzws23F8inkeNpyIjEzAmDHAgLfpB+hdv4FerD88q6Sq6pZ0tNfR
-SpUZkRHuuNk/3PvdYJauFmZ5Vz9xdVfvA96ceIc42jiidjXiTWUnzhWGl/ZGm1zxgDbVE8i1Cv1I
-PE89b9Cy1w8BvpjnNvGcZ8oRH3Mzvy/cDAZ7uxxy+/cJhIHAW+olN0yEZbxOMHS8E73PU8FRzhME
-yJn6qvezl0opXwvTtlI/9dmcbgMxkBSWIv669L2GXTq08Xjcqrgw1X/aspg6fQQTbazTOo596889
-2AQzpupsUW+htrV3hdYEWwQCmHfYyL/86+7obPv/U8di4iD2V1AovnAclPSjf/Qrw1mcB6MRjLOc
-pNY2ja7F762PRH0jvZmJhqtm7pzCtttsFzTOzPyqDawod8zm2fB6nVGIzBvjwurIz9pANkejhUrA
-uJiwmTyyqfb1LW+pCXSZoeCWxANLbiaSsX4ani7vkH7M746jiKvDDkA6QlPnwcc0WNO7kSmU8KKZ
-/Lu+JNPJ7ezls1JF+YAASUIktxb7HR2Ye3t+Sf4r8vkfK2+IjvRfTDF+dCCN/7SK+e1rfl/FuN/W
-hCKACPS4hmOuJKF/rGIgUQH7DyymGswv/jC+CL4RXsaShm0MAB22FTTpv48vDOMbqhMedBQ+rE44
-xf+T8cVfG3A0RAxBDDgkPt+Lh/rPj7PdB4twgMiQ0NnQEswyjdBAx/+m0f83/4rzl5nCKDA5tVw0
-G9QleMS6/A2p3tsfXvn/z3QESRI/6x8/muvvwv+A7wMONdli/fl3gZ1Bgi5OSjYEgBO3xGDW+Ebc
-Svuqar98H7oGG1UGwvGNdYW7qpuV7PbFZPbzFvcjwTZxWg7aoR9L0lIFwRKwFdxheTX9bhYb4mPy
-n9x3xnyPYKUlxi3NCQAsRgzytAOFV70JtfjJMUFhw5ggaev2UqEdKMMqcJAPbjJHI2pXY2sL685v
-dfJT8dy8eG2yHrNGVzp7GJoyOKhUZwnBz4IQBUt8S/MeE9RBb+X1E1WNYxUHwyp7bn7XE0NkW2vI
-KvBS+3uDRBdHLlR+Nu957zxS4TQkvXaky8Kh9WrzYjRtJ8aO1hpfeiLIFdA95J6d6rI7oRP1uen1
-tmnD0jOGLsQUor0glWCNjPUEaiia5Wo5Va7Ws4oZS1TVaQ7OdDNA7J9IMcKYtA0CtczHMRPqtQ5Q
-X4QtQNcHvSKIxXSmviCydQmuwMm6baiMdG0jO788jk3e65uStNpno2moLRfHJ4+1GuVYbiGlFx+u
-xARpBfMLWYMI45sgy9Rmqj8YWvWPBnqsJPRafXqQUluKPWawlK1I5VIx+DO1c8S2zqwodvk0cF5r
-6bXDP16EaqyLJ3vuFZYIvfL2Szk7TNjmWV2nQ5uoS5jwpYOBMxvSHaSbnAuz7OswbbzkuZ8zIyG1
-uRtYMJW29TJhRkBg7GX5g4mR8Dm2cOdsrRmU/paKpL4cE4HgBD3xcrL6WHtpyqDgeaX/rFGL6QHm
-xjGuyMrrCwEZsVjuyI0gnLdTdke2kFNSjba6HeN/NGajYCZhBQ8S3t1HMmA0C43JsAiKGkb7JymA
-cRKSo8elZOG8Y1iDuYooiUTCvpADYq++L/v0EmRRton1GqsEgVD+nXJ8as/RIEuIQRKwUA0TnH0R
-I8uHdc54X4T0e8N3mM2IN/57o/yClMPi/deQ8v9ZfjR/+19/3O3/9iW/z8ODbwA/GJs67OnpETzm
-zb9dKI7NH0EJ8FYYqs7gm7P8t3m4/c1mkusg5SRFja9ZeYF/v0++YXBlwE795LoO4pn/aBy+lj//
-OIO54wIQc+C6LEguMKH+OtBdjZ/CTPDN9cnQU4Ehac4pRsElRHgNg2AjtXhibgqD7YW9DdOpf3cL
-/D8/AOUZylm+pYlu9q8cL9IiJ69AhrVB540AexRtMu3mvNPeLcLoX1OHuMttZpfGqyPqTKBRl+yQ
-EANlkZwtFW8spOH6vuPsrY5CMKYNR05U79cj/k/FCH++EdfXCY0Fywc0EA4/q7neZX8gt+hZlXeY
-ppiGanp136O4eGwzV+z/9atBYfqnlwOg+/mVAF4PRIF+lV3Hn/6dJEskkxo8Owlz8mLjnV2PtfTc
-7wIRKdOhCQGSfTZH+rHfPNi4Gm761Tvp+zJv8YGulkrRsqaNNElqG6Bd5HI3DSAplAZnO2YygUS/
-RG6njNs4mFP7KvOTyXywa2Nm0oWVCPPMTD9wTIzawuNZ02GcXDHqyzMH2mLujMGtXzzcyhb3TY7i
-1s5Ti2eFEQLH3Zo3pRYdAUCt412448YYg9AXWltdTEGvjbsuy5dxY0uCUnc+Kxh3p0/EY20xizXd
-VnVmgc3KqvjT2pWlwi7JWhjGmyjy2/HsfZV+5cHe6pdJB3RjFEYpT0jzkTZXVTExGXGhCoaUBPHB
-tcGyvKTSbvtjZYqe9EAkX9lh9ftXzLS0ZjkmOQtlVNM2UAHi8wKuXozxREwXTVrvta7WuzAD+5od
-pT1oPpdgn1852K9x4Df+OHEbex4VSq8rVveJNF+JUsNfqCENoPPHT45DmXmdvnXw9L4GS5n2kSiC
-EiEi0W/mVeLUYx5JWS5m2HmLe91iWnzJptwsQ8xfPamDJH2QuMRcsI5s0cPaiB16+s3UBfpILPho
-yJ3ZKb17rih6gqOmhIlUhrlnF7bMtprnhOVcf43Hhtmr6Dv70e27wo5EmWnBwcMy6x4LjWDuo4rL
-iZj3wW3m93Kp+vKRp79R28r3/aems8z6KONZFSE4DmuILNNvv5zeak64wkh+4r7ChO37I+aIPCBT
-4yrTHKCrc5wONsrtCcyEXiHdY8Bq29lt6RGuskEjkSFaFMSLhblXwWuomYn38P065fD0COuR+txJ
-IyTXOslvOdaO5ykx7PI5Vlr5lVSN8Dct/kbMIaO0n9xMzjGBbYbGPBWxtHlpMLiFdzcs/n1s1Omr
-AJv/XS9bvTtOaUMh6lZqOujWkmrXCqnlgFc2bV+pUliOSGvM3yRslfsCP9aXmznkNDX1ZN01Srl3
-EO2YP2b+2L0lvtERamRI96QngTc9cO7NfCRkHjdojPNA36uurNsIJb49hVZNPu9hwbvHW0rd8lwb
-XvdznBft2HWzbmxXJyaydALv8P/7dtJuKJdq/JO2qV0bsI7XQnNyPmYj0fiMCy6kTdObrR0hl1AH
-IagYiIM38p3rzwaDMAq7fd8nUG4bAFtkskyzyrb4eIIlHPu83nYwbYa94rd5Q8+IpbCN54UNQj7y
-BmawIUQ4aswV2DXgBDpi91yDD0efbF0CKdCpNtmkxm02s+88oadERChE5R3ysiPlHeCOb2xZ4RHg
-aKz/FJYeMyehGBOVHXZsTbStNZk8guhH0nvgi+YLKUWsG0CtyCcGf8mTg2DgZwrHC+EvuN5wyTqS
-fgOrt5682nktXDP7zPUueamzwq3YXjlzvU3ODlnSydGi22fnrNdM2TWSOuFtIQItah9bv3y2Usc3
-bLQIe7uzF1etttwMaxvJYqtZ1zj7doue0c/GOvt5h7O3VyYOvUGPNynZ5Wf/b3r2Ai+rLdg4O4S9
-rOwukEbgGw7U6iHmBsNPTK4P3mKHAIDvnZD9F6XhqrhPp/zE9mf51MYle/PPLuXpbFgelfrOBusO
-GEErN/KXq7kozcsuAIW5TN5wOwdN+1Lr+qd5NkIHXDlvJkE4caLuKd7T717Xevi16nQ/GHiog9VN
-PXdEoG/as8m60mvt2Vyd1/nYp5iwz4bsDNf3m1pd2kGyYMgzV+/2cLZx5/HAyNpa3d3VnBbEWItk
-/khLeemePeBJ5xoPOOnSzz7oEu5xkT1BzsAzjlyF3Dp/MevXJjOTeoMKub3u+XCibz1bzudf9vOz
-FV2dbenu6lAnCxazOhnNPL0enkWkxWuA0LZJA7UOAJPidskyLO/V2f5uZVb1kP8yxa/++ORslS+U
-VzyDAXHwGJ/N9NoZ8slvat+owGq+rLPxflo9+PTG2PHdszXfONv0C7g98EFW9359NvJXZ1N/ufr7
-p7PVf9Bw/ee4bJzQPMMAvJG3Gk//CglYzsAAa2UH0O4mLuLjkQ81vQB4gSYxWf6pM3agW9Lux1Dq
-dIzOyiUg0ZZkSoZo4roSmbgddMHsKjnjDJJgGV9cP1uP0DPwQHMtW9uWIk3uiAdjnhuc8QjzGZWQ
-e0VLO3RGKNTFJO7mM1hhRpqKnW7FLfy3ZfhHy8BA858PoW6zj+Fv//uvLQNf8nvLoH9DWuHqjHgw
-HIFkpkb8rWVYM49Mz1h5eLQOvzKP/i6h+eatsDHSlwNKR0Q2fNnfewb9G99NdwJCdQBD4gD9T2ZQ
-gEj/XKXawfoj4HQzPKhf+NpWTcofqmHZdFrgIqBZg/IyqCt27F8v5IfX28YkHvZXCZhPjv1UBtQw
-m9hu0A86uVfD7ppj96m3bGlsBMgCQKB+qxU7ApzjG6Q7DkAQTSVfMRi6AlVFUhlhAZjD3uFVMn9o
-lUsefUbDPIcWTa0WzpYj2STGLlAg1jpo+zHmGHsiVXVvoyhXf1Z67v8Y8Fc9dk7bIVVmXMDIxXfS
-+8bUUUywvu0HTEE2OWQwCpgqmMLv28Mw07VFs+ljXp89/dNwBKoQrant69LskdhRRvLlawqoBHQh
-7O+atgRfvcf8HAN0TXm8SC14bCrZL4964HaUNkVi+odhgSMDgTmpXlkOs+l2+sotTunoAWte6rFw
-opL+b74wSe1NUQI2oE70NF+IfeZY3PZO6v7QFoICR9fv42jCGW1uFPLHnNBqQqm3XbZ0L7PfDHFk
-aSQGsqQoMbmnde88WV5c3RLgORQH5RCBBpShoVqXypzu+151xrbiNEetMYlV01It+Q+Bz+nBUeDS
-QlbwuEtiXWNBq5Kc0p6YuPSlUyNEXOkLnDIx8dpiW3mmU3DPA9bYNNPo3GCQH5lyqbj/KkoBCwQ2
-RA5Da6mnxzSzdWxrRkIRCOzMNDadozX+pkQ4ciPcJLfDrIlNHhc3Z8LeTW3yVec2CYes2FBskBAM
-W6Exl+5VWu3YXLq4a9PD4NRtt7e1NfWTfSABiAWP8z2FEDM9q3WRxjrSKq87BJ/JNdR1Ifc0VgMq
-WWZFhySBDGHaTfFdD5T1pXQdZ9lkpPF7QKBnsdWqbPgQGsLysJN1MYRIYLIHp54SrNcCESRDy9a8
-M2pJLojfuT+QtFREraaz5m/LpB33lJnNntEeZeS45Dct+RVPc012pduUGMaAHuXfF6CyxCp2NkV0
-IV8nxdJgMwyNZ+xgZxhP87yideM8Uw8qMEgshqFQXDImdXksc9O/kYox5T01jWceeA5Ybfqqg7bo
-0elwu5q8RZshCxLs58SjA1otHXbTKUhl3D+zWfekTJCOvPL0gfBUcJRuKtaDw1VVOrMZ1pNM8bPP
-poLKk2aFdkFEx3QYs7nyrnw9uKwdKz/RTxirAojJojekKcSsepUXsZ2UH+6Y9jeZ1eVrGGpc3tVG
-BaE88XXrxrYJ9DskWa8yNnimyg8juuNpi24L1ZRdNIgr9GRKq83it7XaFSWBkpu2qsgOzdJe7vMJ
-wgiyhik1Qrv339Sc+9tCKvWmd3m3XMF60sdwWLr8buoMuz60fFA4H0qnYT2r6fq2F4JE4aK09ec1
-ZgCtPpL78aJLuhFLZm1bH65m2Aha/EAdA0atAZ6Z2nqkwQaLW5OOeztPBvHK3lDwluiGos1kv4gt
-Cvepdemggqo2E/mPME1JXX0xNWOp0Wzng9hV7BwNpqQOxgfR0H1tHF21P/3FjVGFYFDKNymbVDty
-PBm/OH46EhHQepxzAv2Y3AydJ4cIW9YCrLBFMHCX+8rNj02AY+oAWNC5wtzbLtGSoBJizOwPz+iQ
-NBnNfZ5c2dianKjuqvLKzopCRFW1lE99k9EPdMwTpr1Lp3lMGodJ5DzixNWYNJs0hcXyKorRei+6
-ggT5OIuL70EuJibXU8BqnI69unLc2jF3tmyNt5pdAUGvQS6fbXvw+OiODaIe3PYevNx6Mt/mIokv
-0CZ0j3qiiQexQu037HB5qpw6BudVaUN5AbAuJS0YvKmGAsFbVU0a+r9BaMMVMvWmec20Ir2qfYVg
-WOhVK/bSZuqEbTQL3l3BhRAtQQd3hEITJpOdWvLQi6b1UHap6cEZ+dBgwgCmhRzaU1gqCDC9x4sD
-sg4GjOweCNG0947J24ysq4P7MRZoJSJg6O1X7QGCIkBMbWGkpfVt4mt2HmVcsj0rSuSV23WsBW2h
-HLIrYVNPH81hgdLBT96/9iONA58Lz3yf6eBRUwp8G7ofF7eeOwukXjHTo42xdN6NbkwnrVpmfpFl
-DVNffYrJ1hnLtfH2UuhNeB6N18Et/RdllCgiIA6wzc4qLwAxhpX8Nhm8rIswgA+nsQSCsKnT9dgG
-Pdva0FFmXLBu2k9+BG0JfgvJ2YnajPB6nU1Z1c4bz39QnISK5R3EmVnfkMgjuKfBIXBITbM8pMxj
-qtBpWQjvjVaSnzvakmE49Cx6rz41VL4PIJltYS6WXYT7jQ8Q3FTnR1AwGowad7ILcDUeqepMk+YP
-bRjGN/j5cNZQ3PJi1W1dFDtzKOpi76cqvZLJAFawZS77YtWlDsXIdXin5jnFa4IkpoVpgqMJ60cM
-HMr0Mzy2HrNPY9MMiqjphufdOLCCMYxtEpfjEnWMGPrQx8QAKyOgzqjJmzHDANsq4oBWa555G11w
-dkxDXoTW9f626/IMBWeuuz9sT0Kf8NJHjw3zO0c/YeWlnQ3fO8hBHodKIR9J80ZS25pWg8V6CVBZ
-evOCsCUfzPaiXAxhbczRsZNdEcB8CbMgDh4N+BMTFiH0W2hPVmFNksjlOmjsuqez1tp37nDQkqzp
-/busrlUb5ctaCKm5XGBxJiCWUE6M2cuibM4apmXzEHnV6BBQ33TcbXM6zdqmBvqBFKTO8fpYU6G9
-1TNDr7BeAaYYdCvZklyeIDEKZKPIeIZrH2xHpxQSo3+MEwO9ESRK0aXozpS7jmsw7YtbnbT2XeJy
-wm8J7ummHZ8XqSJ+csHa3Bk5ZMYmGx2InrHxXcbQLrli82za4mOlLrC8vn9JU02+jmlc3xaV25uE
-byMQkwbbtdDNXKPZkkVGHoZZzBW/Tg5Uehj6/gJEOwMox0n0o+YP/V1paO64nYTU75OU9B5gW5Dz
-tp3Rov2abMkRaZqeumty3cKX4+udf+F2TdCH0q8xYFOeUU/5Zl5/OotHYTpDcjFheLoNeCazXnpM
-n8Z4V7VKaWFDXZtsvXhxT0zSYKnMrTZ01C9qiEl+6o2diQs2QKmp0hkN7GJeLRA/nY2VjY0TLknW
-TpHuVu4105nqMp848LleGnFi0QpWLwkk8mF0J8X7onHYUlnNmHCx3KfMJwt2TE3JibTBdqR/zppn
-lOEwd8lDOhKbtGn7rkGKpxtJhGm+gFfFzA73h10sqyNKGDt4TQypgtFPvAsf0d6lXhQFfvu2Nvc6
-/E4UKLknUC2bDnOxvvaXbLNY6+OSMbb9bnGkfJRkqdl7y9AHDUZOo/yI4Q0SOzRR+VdVCge8OSRK
-D6zs0F4hLyy9Q7fQa2+6MXV+xjGVKKSlqvEiImA4x9NlQtw6No29n4aMlXnqOB5KbxRi2crEozgW
-KZkzedKCI9TQoB1BUKouWvSJIyo1W/8HuuJB31lORUhV77XWmwen6qeda7ILHSdIP1PdrrudPYyy
-veIC8C8yXEHm3vDYwEUxjCO0hYvN1DbnQv/QF53HP+8mG1dhDTSLEWnmBZHDwZFttQyQPLtedCDs
-difKssDvmx95U1W4AkuD2kPHkzdxKFtUt/myFlrNRCHvQ5nP9oKsVpopj9kJ7KYAV1VfVAjwgQXx
-6KV2ydLFGxgnngyeug7dtobiri7b6sRaFJSQKDT/2i2Qu67nx8RDAKOczxVRhLAPOW26vZn0nrup
-a5/JgoBWy2WYta51x35g5n0ce23nxEO1t6Wp76kye7H77xzh1xwhsGjmPTrrfz5JuK+rr7/9nyr7
-+OMw4e9f99s4wQm+eayj8O/iDiFY9A+SFtf9xlDA5+hnwbWKXdh6/T5O8L7h9WV+ysDARW543k7+
-fZxgfePPLHaQyF4IN0Z087vX+jfhBzbtf7paQ7zyF6svnHk6e4O6iR6Y+cZfPSx+PwLHsshYZWz2
-w29EfXSzZjiqzGLxHoxD8471UMe0HlzYYNGicjR8TmfskJURGG9V2/Rvuhyqeisl2vXFTqEnV6lz
-AoJhdeEyWlg7tWNQTOW+dIf8CkAvXX6g0aYpMvAOgZtxDA7Ksp4zk1qfjVrwwQUyRqwlrTeZiWbn
-JWSJZF077/3Oi18Fop8d5Cjd2bRF1T83DtSydkH0ShOlG1fjVPnvHVlk5CB588GyCn/PWLACq00o
-6gfJeuoW9a8khi5R4p3Zudrhr5EvmWsqxJY+JQi/u2U94vdd5rBLxnYHQQeLZG5410PlOOj7/Pyz
-AdWNolFXr1brq2swvBxoi6k30UxnbG/n5QTsBcVDmif3hhDHCc5k6PR++dmWdAuHAj7zJ41vOUQo
-DrzXEcsK6lNdXrHpkfsxqVh4ocbhxBTAeHrgI6SqV5bzqWd98rW4iXsdtPQN0RRQMkWQDeTLMJT1
-W6Ux8CmEW+6MiasLNbvcuSWMzIzz467VfbX3+jjDYND0oM79/MYd2FhA8u2u3HqMdylLawurI2rK
-nN3MF0Ae7Zm7WN9UoMU2jAxEKLpY3HAfrvZBTR5KN/O2Zc2OqU/d9MRBe+M31UMpgtPEQN2au6jL
-CrnHORDsQYlibVF+G7Xocl5mrYFFMSH45jYJWnhpFQ1nmFS1GzoDL2szOWhpVHXn5PyhptiMizHZ
-JF4OmZGnC6V4Xu06+wXGXGho8sNXzYW5lKdYSuPOao3vHROhfWGLewgc7R5mrbFXuIaiGcNG2LSd
-iBi5wpd2PcxAmpdvqxU9PToYFchfa0lmK2i2N5iNjT25DO1OphOWIyjVLBrZEBoZ2G+kNpmlrIuJ
-5UpUSYjFTutcVVoDtI9b5YUXI3/NzaC806CkHFO2r1FhjeicSfhmuiJH7pLMFj5PwAgvJyXC6RXL
-Vr/pRUyP31GnW7VX3Qp7jI9NkkxPZtl6e4fVwXVSFMEzwpQKN3Eix2u3zhCcG4v2vFRzfx0YgmmK
-mN/dspdQ0VJtiZJBWq8tH6Udlh3zBphgfAV5NW3hCvryGLCjfbPjMRqrbJv28KhC+tiANajr3SFs
-mC+gDMUUTyWpLdU43eDmal7Nqn2cXdO87f1hNBv4K7bUHrtJVLO90/tEXIzCt8JfO+6AAzTsZsM6
-ZdOT1scvWi7lWz21fqQ7vdrhLhUXLGn9CC2FxWQB8xp7NT6yyNb4RK5/r+78vUwl064k4S/6mgML
-OKb73+SwDB50qoldjrnnTrYjdD/YnK82KKFImfW6Hw+G4BKl6Tr3EI31lvt5tZWUD9F5vCbrDltA
-7xf7pLOKvZ7AmcnZpiFJNdQPQND85a7sj1g59INi6EKlsX4xXSF+feYObBedxGuuBQlWJ09REIQl
-Co8YkKWIL+nLNJJetdyvNqqgv2hMR/uJ+g/jnfDkEwzO/tAjxZAmA5i5lYclqOLThL3oicdUu9NL
-bzjkUpUMQERwwXiUUZtS7Y1XmaMeBgQzQwrteu0YL0hc2dVql0Oc02Zj1x8fOgbJu5ZEBZSNc95e
-LmNKBTPp6jB60oum1um3+PBYblVjeuMJ+1Mg0gtzfOF7f0nLLy3tnfcis+GFyzWLlR1fg0rQa+RW
-Zo26afCOQXJs3RA6AqTLqZHLh5zMKz5I9iFLZ3FrjIa302Kj2Ol1AduqnYv7vCx9BoIFyQXn177u
-1//m8CYJFkeAzTpe4wZhyAvrTHHEjpADThvM5AviF1qGxHE4Ms1lNosohsw2byRKoevEtOGLgjL3
-Y5bObXrMF8X3lJghiAvh/U2G0o9q3A+sfBmhP9oMgdhro4enV5/iG0JnTLaBikdo0ZaD7GT7kKvZ
-fkKNQaeRQ3W48CbbfgLl3Jwm5iCHaiz0AwzqBtIp39FyyvbU12l6r4oZyisQgQfpeYBT9W42u9BW
-Y3wDOzJ9saXiaYLWkL6A1O1elV4O5f7XJyIn3h0hx1ydktziV9KXqtpaFoY/XcRNiFeOX//Xj7j6
-GyJKjO41r7P+KNj/fSWwZKGJMgTD4c4KWC8QLKBysSTtQq3bT4PXa822zAb/oxZDdZIpkFc945PK
-g29CalVlCZj1/ElQjZw+VetZYM2DYp+bRMsgN5jTOwIo+Vk4ph59EM44rbIx3gOwa0K7S/mPxcj3
-y1XD3//1VXrLn9Vt3GZ86AXOf4IytIsEHcYpYfX8mLs9X9Ggs+TXNQhz6quQ96Z6wClYh+5Q628j
-fOK9amDK4zR1rCjtwQ5H5khwwg4xYhWqtrQQe+hMyjbjyoPYYapSW88zVXOQyIAuSpMhZ2gPFtIF
-tLF7r6oDUGx143EpZ9AhgLHeuqlhGJu0TLVo6qY2DQWv04WlAmje1qAtV028LA9O1iNBUUGDJESL
-5aEh3cfYeGheQzB1+vvSJsMJE4QWMfsbTvpiTZGwvBEGO1Eid7W94vhXDsir0yxklwDXrBm76bV6
-dXWlPXsprXM3Z5rOWFdp7bFYPO/YWVp2Mwi9xknRWv2bpN/F+1X10wnb9AJ8TYnqwOLAG+4DBWh8
-XyoNZRVzy23CX9saPRM7sPoWtAJrVp9GPweYl3CFMMR8wye53GbjqCj7MA2HBW/NS7uMdHVCePcq
-xewZLkua7rtaJMeYTx0lVaZbF31p+FdNCfowaoRpOJFvDfjyMD0daU0b7YA0T1wOtomfUrWmdqx6
-21qHRp2zL4eheB7nwAhNJx2uDNn4pyRN4j1Ktabf2s0AXLsuNLnFc19Hmp6jzygG51AJ7kkDbfXn
-IhKp8+h2wcn3MrYcfT4E46Ye29TcMb+WJ0N16oYP/fQQDzgRRtw8AEzNiSJ25SSKhONnaw5lGjYd
-Pk9oG9ppACGCjoB7+npxFqo+XJYnBFL+Lc/cfDVPsc88EoE7Eo7SWzYx2ZyEeki9PiVZpj8PqJsV
-KuZBnSp2HHaEHyW+swcWBck4JntBkiPTmrIA2GzPQfvlgua48kZCG7zBaiR3hiGujIqAGooyjExb
-3aZyjurZ0p74vwmIxMJ6RVXUQQxhwPjlu5LWFzm9/4L8y33k8XSvgKcwvIKWsod458HlFu1J6cb8
-MEDHXhHgIwE3Km1e4EP6zxrasi92n9haeMRcSJWFwVVSMyAInSVOP+Eu07Sy+Wntrd0VzSPen7I7
-sYvSrgY/w5CWGVJ+Yi7H0lwYXjii4I60Qdafo8U7uaCNuSomdFu7Nlla63O0Y+3Uc5qF1tKZR4Ns
-0t0yucGOZIP6iuGt98M7g98R5m8CUq1OS6VGeughn0Jb94P72LGdA2aj4EaxnODMtMXJsn1qTF/n
-PigVVlOzIftio5Sn37ZuggF0rIKOwB/GubZyi2sPabDp8sVWll06RYIzOJ8uebjcQ5DHOCGzPtjj
-7UaRt+RufckUow8Z6SGYzKxkr0Doh0RpZhe1NjG80ElHiKkGwqXx1YU0NBjgRq/uDNMsD7Ou/GPZ
-vjgiGF556Tvu0Lq4KvF+p5sFfuWWU16LBr/wTllfGQdmXp+mViZ3DY6tzYTt74hcBAw6POg7ZWcE
-YaOH7rdcYs1lnPoQGVWtotSjICycCjAaNsKHBRp9lBfxdIGHoHyS5M1uDaLY7hW5nuxnOK8piRl9
-1kG8nBjR6ndx74+X7ExnEmuST7XqBfUMMD9JLVQL42IV11lqd1S4Jiq+OGbVmdM2ojrqEn1LJY0r
-fKGJ6DGBc0OZGhYlpR2KRasiHSbRoTWVvHFUhsDGq5avtuvMgxEk6uSgxtr57qBRIQXaVUYsw8+1
-sUuZhE81H5BGvbRYV3HWy6PbCIgBZssv0Fhz8oGoi5dz4szqYj24cWJ/NY6hljoSQDBe6KQaHTgQ
-enyf8WBdjEuQNXvT5ai+qAObBBvpAU7wTEb2o6rKZt9LLf0UuZ9d2OAyB5oI9GRsxhVXuuZ42ZZV
-zvhj6RccrnTnVZjHAnIDT6I9nThLrAOTdvs+gKn/Xhk+glDPwqVlEB31qPm6wPkdTDWxO6Xfb70+
-8I/5YONir4rKeZa9Z//oGlzgx3ychn1jWnU06YF/KkzWYmEgRnvadWRvAWgyG/3HEKTmEHI6z/Wu
-57S1IOL40zvD1Pyj9tTIIYct8aqbuc827aiND0ZdT1dj65inJau1p7FmKDCwKLu32WxQFpYIX7b5
-JOLrsY/ba5XGSWSyrdvreTumUWbGsiCTfLFIUVHx9D6no3rDZ1c+MHIXRGDr8UNgsCrdsKuwnlPU
-YznfT3e2c1eMSFGRYVCBkEe0K4N2uNTwVUeEABpdaBX8BJhqM+tWYrT2KSbn+j3OHRA/rBISphiJ
-uCNcCPqhMHwCk2Yifi+Vv/iP4xzH71bJC1nkOhHDhtfcwLkmRbQtHmThGBfV/2XvTHbjxtIs/CqJ
-2tO4nMlFF9AKMiI0WmM65Q0hWUrO88y3KfS6niJfrD/SllMh2fIgo4AGWosE0pY58/Le/z/nOwHS
-o9Du6fThcqUhCP5vncrgLlyt9r2T0JywUBImNm6rRKCiiimBvgV5P5xFkrDkPSke/Is88OJLb2y6
-u4HBN93zsB7D4x9tyJaILlWwE0Wc/cFowd4mPhk0V1ByrHNfTyxUm3naseKMh1tcMsk2MlsqBMNk
-i308kAe8kkXgSnZOVgKxEkOF670Qd8ykq61WFuW6YJrO8khXQvQC/tCc+bWHlbeXPeV32j7BMUgw
-yRno6R7IdiG28Af3RavT+EmKIdtQpNWIlKnlAy0GfYVw3K9OB+pbm6Jq/FMZoXu4mr30vGZ6exsm
-ir7PvFpVcBghtHIkTOMnGoSutaGG1W0rNf7RFHnWfZAHMe7isdbfmiLhA9lVoXzC0qoCzdlZ3QS7
-wwgzmN6w41exloWHQ6/aGxiJJMEPAHN1j5jbsbAPaS0otCdI+jj3K1GCS9WI39urWJ2kUdS7cZBL
-57lGt080pD9N9O4PqRyNe32qOk3qXzJInTWS0u9JBpC9kKqDEUuqM0aj5Sih4d+ldXI1KqMTyLE4
-FllTOrEpVcetVqnXfegpmzTR4nXbeMZeUOrnfR3sS0XpUkL2DiCQ7dl8XSQlOJvEuE6lyclgIPYD
-YMg8eMvimN5m7LnmILtpFe97Ic1rz9DeBXm5mQQdFPTXlKPbNQEj14VnHlZFSQOF1xL/y9w2Csbx
-GC6rtldoVB+iethLwLFVSjxtYp18Zlio4+RUCDcqIPJrKTfrE73JR9fObG0/0ZrwHQ6j8r1cgKTt
-raY+rknMoBnjI1721ErbTpIR+StD7sSfRPAVJzy1DEUaCvAu8KcrhY7xQStlDaSuwGzPKrXLLix6
-J26ZCTRzE3EguTZdTp18aKY1La2sY60lC+FOSQ9fpANdhWsIWK80oCFowdEVU0SzOori46GemJxm
-Jo3vFGk44ViJE6imwtIdLXAj4CaDnO4Owo5sSRtRRbMJKqTDUi63dxRp8xM1ACAwBH21yTXFWseI
-wFes+dRDoobG40L16xNEBR3dSaszL6rOaA/jwJyYTsLGNZOgW9elIq8GJpYrA1jXAX22ZDNqBTZW
-bTJuJbjf6KjzBDmMotN1E9FBFWhMpgnrZZIbG+9ULVBc+HvTfpIFxlobFUxMadmkZ7UeySdaIbWu
-TKK2m/a2tR1Ho7mazSDrFlDwh3RIm+O0HO23+PFi9OcxDUyWcPdiUNFi1HFfH0NuEW6j9dEBYYj6
-US9HtBLw1w2bBLjptWDYcgH+syYex4poELr8bhTgBq8iEV/TVkrWpGD7p5k0WMesOxJXDn0cAHnv
-fRjURjqlrqm6ea/YZ1HVqKcx1dm1wVR0m3iS4U4GkTewlOMDL9Suc2COGxQCKKuGPriP/Mp6i7Rr
-PEc/xoMELZoiatipN6XFlRvUwtvP+zCmSCKqixn7jD0v5oDypqJ1PxbHVkFDPJhM32kZz46kQIIT
-B9UNOBKrTFjpWK5yYVdvE0UqePenHvKv0MZphThqyh3atsUqygqiWcD5yVThxmlNVy0+MmNM+oJp
-0y0MdIJkprBwaVVPtxHN0/0IPdKxbXRiS8K1dBiSUOkqRiZc2lz94Tj5/T615Hq1TFFTkBrbBqnJ
-+4FaLMNYlZ3PNntQeuPgliKqLm00EOvc8jesw6PDAFv4HqUoAvkSv+XZxYbCJLMDLyK1XBFC9EzA
-lzhTjQOcilQQs7xZEyxmXo3VZFGkDEguSrD7D6mBmM0OYjIU+dztQ/Wx8SrCZHo3jJF1YUhShwSs
-DfN1jgD4rV8E4UlEbAK4ALtX9gmWzKv/l52Sabh/91//IIJc6CZG3a+3i06JOMh2zWqf/9WD9tRC
-YEqwKkZqoZI7PHdq/rarGTIdQ8xaNqJU3cCa9NAsUhQM0OTM4osWtK2A0f6tPVWMNyYtn7+N0+aP
-NIt0FWHsI8cadjghs0ay8V8r2OmgkO1qTxGjBTJZa63DN4N1kt6X3ehGM6lHUiqFCrZkSPuaMUC/
-KGEtwQRvZsSPOdN+tAX8w3tKezpZgEDDAgcylbDy+FzP0CArraXBhZvt7xvgqcQqsvISktJYN+CG
-ZvIQ7Z/GW4mZR1QtaCIppAe9QmOHkHNUU/FWnzlGNDvaeDUseKMadziBpz2QZ4ykMwIptM36TF3A
-SF6DcYrlAEs0RhumkswT4CjZRoqKXYQUd7zU+GMSDd+tGu7HNjIq466ZeUwz1/kGIjl6ixGTCgdR
-hVyDiKzqaRWHREppfUMCpZwL5rLhgn3qCLPaN6oZBhVXFcv2sQ+IqwJXTiEBQgzwqFyFPb8yZqbU
-GBQ0FuIFNRUECP027YKgCmYalbWAqZQUngoMm4HpZat3FZPdEaMg1oFx6y9wKwIMAV1xrPUfgG7A
-X2GaNvdRv8YXGC7qSwpEgLIQHijozaBnFQtIC60uUK3Kr83bfCZtoc1hWmtTU2SFVHDXKwNBjTvO
-hC54Kdmx34fm75MpT6gkUiV5W5N9B5SqyPr3JpFMv2sL9qsVbXTazywwcn3K87AbBSGZYQdNSrYD
-gjgRl8R6gysdophEtNgde9QRgqihfiVbuMhheoQhioI+N3WnbxN5XJcB3l/GUzW8xQdR3tM5CKmA
-o2ZtFBcfjeK7XgoyDl+ZXqcrWR2ojjIkt5cG5ScyX6o50XJe+f8uK6lW74eR3RzEiCOvzVGLDrFj
-eDeVF+R4BsgbDDZFGcRHBmK8G9r2w3WQj6yNEJ50J4g50pO864cSo6BeqnPAnocnhfQ+da/1VOhQ
-c1QXs37ZMm+ZEjfJKqev4znxWCYSj6BlHQnCgvxVJE/TW5Yu7UkJWuqP1MqN97Kwqf8ZNASPRKbG
-h3AK5jDFBFXQVGfJ+YgdqqGBVlBKURjxz0jZQF3XSinLPZuUzUsqZCMDfzD062gi5YyPYl6vtcm3
-z3HcV1uqQgO2nsLesGxLb/iQIqxlzMrqlWDqihO8D3KLPkjcnUuwqTPyw0X9HjxAZRDZMNC/k3DH
-s0+TBR618Giky5HL1XGv+v0Hq7Rg5XQAhw8b+rOam8hDP64nX/cAFCNoIZMunyZmAzhSrU2rpyJA
-+tNNioOyRj8H+d6+R2uq6CuCPlW0mWQwSji0YwTxlprkttvHornDLVdnaxYnlGBbbuKWxV8crXXq
-VyzuyYXtNszMA3z646geDWaenUVxYMcgfj3vrg0mFgw2ZtQblVtESxIdm4x2lDpnJhdIcqoeCfsK
-Xx5EM4wBcKaoBPIoVREV3D1kSpHuxBgQwd9kpW+QlG0E11Ju1+9BFrHg7KLstm0q3dhDmKuozP+o
-hJDPBJrapWVtoHoKa/Mi1RB84sZUqsNIbhB5UoupmBg2LQUdq+RAkM/T7axjVb+OwrwDnNtzG2ch
-b7NmJacpEBCEUm4Ns5evwkif+WhTQ3RrwGT591RPKHFpJD+6rW1Vx54xRKFTMdt7h1xZmnPOrPrP
-yk/AHlN67KnYqmixiETDAlxWHeTLrpCCDxZtUbHGEpeiQy2H+F7iVOqVkgxZuSrMeDQd1R+HP8Xg
-z+IkgfMJ2FOgnXulhVlWRwF3R5PavuiUBIVSX1fNuZfi+GJMU+xoxYDHMyEUdSAlGUXcPufqw06q
-YfGwMsBViTwZviKt91Z9N8hRy/pep1yF7z6ALmfKQ/RH0afoP7U2yw4og5GfigS0vxcZTY08Mkhq
-jWHOVSvR9uWFhXErcfxRJ8bDZwpM3OAwJ9Shi5u7FaSmVUQ5l8O09SHHqHuoPND71JEBIc5vIVxD
-+wFv5fhaMNz6ALeugTOUF8grA7JCaXMReUdEhOQKk5F6L9WJ0UQI1RTv6iZA0Vd7uGuZyAMRcnOJ
-N5tBudMOMhnA98YfVZ7tJEpPyPuBxOwTpn4dDXTr12FrSvR8Ci8sNxRAKDF3TRndEQtsvGdWbSlu
-2bZUlHzF1qQ1eUFKfEBPVr6ydUlohxMsK3vL82GojkydS3HmjHtk1Ag0G2bFNO/3a6ui90YCmj2x
-Vmm1K5+JLLWOrCCMFvFgP23jRqaV1fDYkpSZG7GTF7zaK0QiNRXpxiRCzBdWkzsUZ8l1K8yh3Bd9
-XFL0Ssgm2QQkLUvbnJJgz6QepfoFlQrv3GNw6vdUAtn7twpeTnkVmHn63uvkMXLGJpdob6RkRaxF
-WNOACb3G2OLOpqIiRptSiN54UwWmofbMgzojr5nmWGtUmzFXo/O2UHHFdP0Ir28UEwo5BCPx6Ew4
-UCw36k0WNaGWI/Ae6tIAf41/t3QJdxlqt7L7KtvPtEFp18KQoZzSlk11blfUNYALh0R2B9z0uCvU
-ht8PjDAFPjIV0sq0VMKZVKo2Fo+mOl6YJmW7A3If23YTCr5RFagpb5vG2UC6DMkhl3j5ZISrJV05
-1nj9Js98agrYPnpgilRHUYs2Al5bNXiXHhU22rOkxaEsHXoihofe7FdQQcrDPCzVa3q/YP1wtWnX
-cGCplFeNbG+IiSHVI44jGHHUgrxzjKlFRwVEqX1yu+PI7eWplEm2i0sedYq+ySpGczOvvAhJRmxp
-mqd1L0EvyQvVO0DJr2bOLFwnFa6kSQGscBRXglLZbVJJONwSkDAGuW2yVa28ashPs0ijP0vQEtYH
-WamDmOjHFAxcCmZwr6kV8zTwdH1alZYHTpNVX9GfFKbIL4coQa5n+QYQSWVBIkJKAY8YqqIcHAX7
-A/ITv2xcY4Epwn803yYzYVGbWYvagl0sZwKjt8AYa2UGM+aaDqSRSWHTuMECb9SmvhVugKXiChWK
-YDgAEhmhWIf62OFZIM1ygUGOCxjSb0Upu+YCjDRDEwuFOnMkLY+0aCdf8JKkg3PruA5gJxtMUUj8
-FxylZM9oSswSYCqLmVgZzexKo54xlrS7aCromVz1TrSgLlEc50wGFgQmniKG+2RBY/p8KIy1TAzw
-lbzAM6lVA9IcFqjmo4XNJ43Z40CHXVwDiwTZxC6gCWEwNiNsmzELjwxqnjHSPA4W4Eo3bSVjMh2y
-bfKzl/fyRLb2bC9PliK1SkSV1oaRU2jmeAVKZ+L5yoYjcEDVMVyC5DibwC98A0Xxpb2i5pt1foj5
-kJLtnps+jCQ/Mhl1DBEH5ySOI7bXCuVQDtDG7uGuUrda0HiIBj8vFb9wReV5s3+TQj5e0se7fUKm
-yE1ouHz/I8fLGROcss99QIV8zmblkwISUM2xsqChRr9dVyJ7X+ToOfCrQbHcU5lifbKQflU3+Owe
-IxbUdXk2IkJRIORk9zrIfkFnG6GrY1eUHChhKWvw/ob78nnvAlLm5ea8F+SPrGwt2TTno3j0JGno
-6hpUVHRMKggRA5LhTduUuF70SXcib6QEWUPZ0Hvhf2PPz6/4k10/cVkSd8P3Gy3FbPvZNjZtnKkW
-imtR40XupzXnRm1hHTDbakPtiDWIkO0z/NfaR2DcD11og+wXSyZjZia7714CgrbNEZg5YVi2Hbrg
-lylBk2r9Ucn71b3MZ7PzfHG2j/fyBNRX5SF4F7MNSXhDiqCXxugKv+3WOTU55+V7+uzJYcnB0EAn
-ABstI8UTiFo0Ja3nD3bk0JrLAFVJ+qonAGnzE3uBMm/opiEQuD45ITpdNKktEiysaeqd2NADPqa1
-/o3R4Nll41zg9xgKszuKM/qT59OnYzSi+4wcNYJ5BtXCWocUWreDJ4bDl0/o+cCD5dgEmGcJU2Ai
-fjLwsLoQQoRh7JR1438g3DC9xCFRrstIHxx8DtKBb9P6enmnX7pX+hJxBPHIsGZB9OP3j5Ii9PyS
-q+h743iU0YZak+kufvTh4yoaKrQR21Bo1D4dU+F5lVrXepFD+A3cUk8mytvSpf2kx3LwoyeEZZph
-ZRZdE2mgPnksxFSGY9FasVP0U76x6+TPSjUy98d3QlICIgTC24Q51+MeX7Vhqsm/GQaGDsOAd9Mq
-8VHcsIz9ib0sgVAynCrFePIeEZ7OXMnTQ8dUum6tgrZcy/OC8OW9PH/seEPxunOx6GAvvvbH50I/
-k5cIFZaDCQhtGf9xYQ4BsNVJJ8SYiRgYO3T0jXP7wl4VIWxZU3VFaPjcd68gXQhN6syet9fENtQ0
-MoV4U8qtrbBNlrVRYR2hTKzTb9y456+zyZss6LoqzF1Al+7utpFIp5LJ0nJ8ijNrIn0mmm9ovfco
-dirGN85xAa3ujLnz11NDA6uDteIkn9xA8jhH08bv4uRmC3IoHGA4JbV0UerCdDqkFz46EhlMYJ0r
-w7EsJvuENn4OnoWl36apcB1T4vE2L99wZcZLPj0sjY8u7yGgSwBouxcByLMXoFwPHXovzC3bgRm3
-qwG/sA5MycpuFMmLULrmmXhPf2Rw+gZ2tJnkqbyJe1k7LiIPa6TixfRsuijeypMi3beprDIniUPc
-PpRCdAdSuY3DkaXAxwf2/xBg9dOhfjH47rM1Y/7b0zzMmkuQjITwjI+i877rlx48Hl/e0Hcn6cmM
-gJ9nop+3tRzMS9tIbjjm9o6YPon2g02eC1Nh8BfLzz9+S1hyPvy9pr4huY7Hmzd6+eGtYo+PrtLX
-rsPLp/g8ZvD5dl46hfvlss/dGwWWK2P0Ky+D+oZ2Ce2Z+VLMP2xx5zIYb+iZWIY15wnOPx8v/H/+
-MnzIyT2oSGn0wzx77F1SWVR8zzV4soFHj4IMPGX5EWzq8cmTPvTx7jMZW34+7uo/f/IvhkryOfie
-83+yjUfnr4o3BI2z6OXe7py+/EZhjsPkjZnv/PMDp/8d1+jzeLEC73C3DCfhPabuz1mc3/yFhzft
-+QY+vUHza8LzsfN7c0znxy1/fJXm///nzsVZXvJHf/nw0i+7+fTPP53f8z3v7OvhpB7+cBveVzfV
-h2Bc/mL8dJQnNykj0n9/qO4fP9cApR/+d97ns2TRz/f8xY0mN35+Uz9saL4eTLi5z3+f3k9uOL2Z
-8uzJlrV5VfTaLe/dBLvmRCyIjL2v3ez6/o5rn/z2pWhWW54Hkdfuwa2Lv/5NlFT+2xx8lj9s8OM1
-17RfsIdNHv71r92bqSyc19ce+vHc5Q/++p+dg1ZgvP6Cgz6+4YoglsdFOefaXrTJ4yvDxHXWC7z+
-BD7v5GFjyydSMHA//MHPv0WIIHYlEIouz4jf1x71LK7469+3Nw9bWg6ZSfwveD9P76vsJr1tP+ze
-Ulb7v+Bqz0nFpBQf3GT3YbW7A+jDv+DovzMKeZkK/fxt3d3L0wdz9j4/3Jif38e3MxBfeRIXvLW/
-nd6AInk42OUp+jg3fO0DevH17INXHvZl/oFBkkb746OGXTxj4V571F/na7/yoI+Jsax/2/AdCXeP
-G67eLxgpvw75e+VxU9AHArkzzMzEccpmr73U36AJvPK4XxSfvXLbq/ungzrREnN35FsX5Uszv8/r
-wufzwYf13pf+2e5cd/6NDwmH9c//BQAA//8=</cx:binary>
+                <cx:binary>3HxZctzYkuVWZPpuKIE7AffZy/q4QIxkkOKglMQfGDVhnmdsp5bSG+sDKpWPAcYLFNOsrKyamRJJ
+IRAOn92P+41/fu3/8TX+/li+6ZM4rf7xtf/9rV/X+T9++6366n9PHqt3SfC1zKrsR/3ua5b8lv34
+EXz9/tu38rELUu83ohvst6/+Y1l/79/+xz/xbt737DL7+lgHWXrTfC+H2+9VE9fVmWsnL735mjVp
+Pd3u4Z1+f6vKxzGI3755/JYEqRNUdRl8rY3f3x42b998T+ugHu6H/Pvvb4+uv33z23/887d/+1An
+Cf983pOX/qvPdPd+6ZmOH+mFcN7EkF/dfAM/GqHvOKVSSMvSn76Mt2/iLPV+XWfinSCWJSxd/vyy
+fhG/ekzwBnf/9z+zN+8fmzj79e+nBPXE7+O3b+X3qoKMn74f33skWFwCj/9GRUGV2T+VZ2cTC+r2
+lB5eKAZS+B9QlX1OKv8z5nN7t/RMrzAfqr/TqeREwiyemw033hFDSIqLP82K/CL602xug+zNpnxM
+v31/8y17c9fA9f69m522nhNvMTOiidP/D4zodn9OOJMRvUJhhLyT+uTrBvnToY8Vx+g7QwqTSvJT
+bzr9RfxfioPS9o/p96D8Gz4/ae35/XOVgdf/hSp7brtHj/8Uml6hHkN/R5++dDjMkUPRdz81YoqT
+DvUrgf37JzntRb/uO3rqf+XD/55g++8D8V+5ynmsH1dPifdUmj959ZcfzC4eBZYjNn9Z9u7b728p
+5P2XJ03v8OdtP63+l5R+SvfX678/VvWUQq13FjMFswTRhc6ZkG/fdN+fLpn0nbSoThiXpiFMpNm3
+b9KsrP3f3/J3REhuIu/C2XSDCvPtmyprpksape9MbhiGrptC6oxI86/i530WD16W/iWnP39/kzbJ
++yxI6wrv/PZN/vNV04NyYUgQIExQrhPCGQGn+dfHW9RXeLHxf6jmpSHxykEVvI6pPaJAKzdNk7Js
+7408rNfPJPNfIseoJYUFngk1QPeYnJuHvRmXtFd6VBbuQx9Hxhir1A00dqeJWhS+Ok+QveCPcZ2Z
+FkTMQZVM/D/jTw/SqBzioleFpqe3tUnFfRGIEJXdXwo/wZbBoZDncjQJ9GtSzsCULjgh+jGdpLZo
+mPjGzfp6d3+9tn9sd4Fab9bO1tke1rtrx7k7HNb4dbWy8Zfabw/29Ktzvb537ne3B+dTpnZqoz5d
+fFnjDdY7db1Rm/v3rcINK7W+3W1W9t1qb9urXK2uHkO1v9vae8chyrlx1ocHqT6srhwQcdTWWd3Y
+Su0PjuOgBjnHKEeEP8snKsLn8owyradGYNw4h+1BfVo761bhuT9v1upWrZWannZrO86F7Vys8RCr
+C8dZeIKZxb6Q9MxiRxhryiHpi/XDtbdSu43ara8hr/X6sL7FF6SIn9RqtfKUvd/uf2xzu1M/nO12
++6NTN3cX55/HmEz2mQe9eJ5JYs8sjOlt64Z4HueTc7/eQACr7QLLiyQmI39Goq7KmNSTcTk3n75c
+e+parT5f2bpaoEMNRJyzvMy8ZTSHbugmQp/Wu/UBBnbYre/xg3Pt2Be73QHKfVC7ww5/HOgeNrkq
+FH5cw5y3B2e7flBr5xPsfv3g7K6vYQ/Qy/Wtp9RHaGkNc1fr3Wqv1PqTurX36omZ3WZ3vbv9vvPU
+99vpTb/cXz8E6n5UXzy1A7e729vrW/z6/Tu0vVb21r6629t3+H6zvVvdbX/Y27vt9k7d3+52vVKe
+2lytth8vr64+Xu23qw+7/fbb3Y292tg3tnOwV6s7Rz1eruzt9ubCudtvt2q131/ad85+C6t2YLBP
+FgzOf8CSD44Nilsb7O2u14cLe7u6srfO0wv/uMM/wwlx78XNp0/wcfvbgnFN7nTOuObx0qiLcIRC
+Ds7D/Q6mZd+dJ0CXrHeKa89My/LcTDPDyZ/XF/gDP9ocnN0UiVbKdvaObeN/e8HQkMAW+EKH8Jxs
+RXLTbRFGDnDjC8SNyXmn//D9+mF9gKEcYGMPh/XD4bpQiG+HhwdYorrc7NTt7naz22w2q83mUkHV
+UMAF4urq8+UlbEKpS2Vfbbd72CoUuXXsmwuoUG1X+xv74gLcQOXnhWjIJb+Zrj+TYtSaZptBihAh
+zOdwjXiEqD8J0UbsLhQCuvqCkKTACEL0TuGFiFbrW0gZnjYFTvx0ixt26krhEn6a7t3tNlf4vr0D
+j87evoGXOQh2h7U98efYV0giO6QUvGS/R26You568tnr9cSor7aQJO6BHNcOJHUxmb2z/XS4noRz
+7eCe86KgU547Y7BP159Joiqq3DenCAKVfoLnglf7EkkLnnIB57LthfBLpth3juAsISVhWTEdoj+s
+rx+mYIXIbz9O4rlbMFqmL5GaZR4hDEMzwNsFIsE1FDHZ7cWU1WGfk2IQKxAZEDAQChE5LsA74hXU
+iV+RqXFtiyBzcFZ7/IhXr3coDLa4CnvHzwhtNmzBQRLBW+Ltp5esM9y/u0dZAadEMH0ylInibm0/
+4CV4BDXZ2PRy/LJSU3zcgi5ei3d8v7nG2yOm4a0Qm3e71WSFh8MnB/61u1eIKbgHzjNpCBaFh8P9
+eL/pzezLyWDBCZ4IsRWpFr72x2o/vXS130HQV0/RAVxvNxmYh/Op9WoLfU/2P9k2nm2DO2/tR7wr
+oqi9v7pDrJ7EBEFNd8MREqQQRDYb/3zeGo8VJqhlMWkRwxSCCNNEgXvslu04Sk9v0kpZRGudoc5b
+26SsXp2nchzL/qRCUf4xw5IANmYhNHOr3LVoUik3DeXKbTSuyrSPH7x+LJwgktrVeXovueI6qn/d
+Av5pMYvOLD42RpPL3ipVU0q2DqyuX/txa7yqcJ644jrlpmlaBnoXxqaneObIRmMFYam7pQqZTz7q
+QZHs6rwfFzT0UnagIjk30RWgPNen68+olEWs+7UpS9VHzDdtX/ZZo6KS80ZlcsgqZRSdf39efscF
+5BNnhs45sXRraqTYTH4ypUWetEOpsiIle10ruNNWUXjQG0sssHeCFFo/ZhiSU5Nwc9YVkDzRs6SJ
+QCpuc9WIPttUjcVVFSYxwI5zlfkJSQomGSMm45YJcz+WJM9FamlpUqo2qMJdE4RiK9C/XbKMyuuu
+zMyFpDfp/19x90mKR/RmGXyoszETLeiVqTHm28Rwc20VtiJYoHOKL24KC8AU1WGTMwuRRSmsKhwK
+5Q0kcpq2JFe+EK7NmTU4orfYQgY7xRe3qCkITJ9TMkvlbewNvMlIoWTWJA6XIVnVzI0WYsYpw3hG
+ZZ4m3cQahyDjoBIXfmu7XA8GJyLa8EC9tlgQ4SliQmfUhCMbk+Efm4ahcR5pvV6oodRjpyaxuKrC
+kSiZeOWCbx23wT+t4jmpufRGMy8rA9LjY3bt+6a3saKh+GOwjOiyj1PjobSaT+cN/5TCnpGci7Jl
+gdZ3kVEow9cTm5UuX2OE4zl/g4rBhCXQ4wPHmWT8LFBVMvfLUfNLlQeyeR9leWhrVkqv/wYVwiT8
+WDAuzJmxu9xlhS/NQmVVEijaZ2IdtJnYnKdyyqWERRkAKUOa0phFpVKaQRkUolBaKamwLRlH+1gk
+7o8kr/x7iVBV/x0LxJyIoXSmGBnNglOo+XEZCFqoGljZJm6bz5yxL6Qg5oJfnTIGU9e5xa0pYlgz
+U5dBgna8RcA10joWN1abm3Qd9n1dHc7L8DQhppMpO1oGnXEkuO57HYcD+65m2l1SWQ6LjXohCRvH
+/d/kTygqJZK8FMLkYOjY7HzNCpqYp6UqaElVldLO5qMfrvI89zZpl1GVC75x3SjaUF53miratFGj
+zvyFsGjQF/FeoI1DmUOoxbkxDyJ95Vm+0Wel8gM/2usxaddFkdP7rC0PntD6fVnl2aqMMkNR2iR2
+P0S+DdHURi13zaAVC1XQy0gjkVcnKwa0BxBmet5nDplmxI0qsy5U5Elxm1lDsRJeGTstYcTRmzj8
+UgfluH6t1kGUWMjplqSE6TPPGQjtk8ZAMuppZtllFkb2SJt0QdYnWXtGZVagDG0uR69AvAYU0zqN
+FxO7K1xtkzBPDfJzFnbFq6Mb+IJuUU4KE4XlLGwDN2XM0/pCJVqTKW7yxNZkv5RaJ2M9LhlAhUki
+GGBWAjj2WGXdAPJaCyq5bnVUdZ5MhCJ151Gn0z2Sq6T0g4cud8ObqqmTfsGZTokVxjuNSDgi3zwI
+icbriyJjhYqTtLwIuyzb5X4zHsJGKy9QlTFbj0JjISAtEZ05cFqO/ThIJETU2qJz2sLSLoire7Zl
+JdWBtIOsnWzs3WCB2ZcxXiLhE6FjysqFNcej+9xKirhM4R6BwT/VWtM3KyLbcNOlUs+Vn2r1x/O+
+8bLKkNNYglL0QToK+lmGbKjXpbzyCtW6VeqIoigdmoSt0tL+9bUn6mnUMtPUQkcVOgn9me9HbByj
+TrBcDV0Tr/RobNZ9zV9fUUvODNPAgATyo9MU+zmVdKiyjJEhV5qZdxsasURFoXmjFxFXcakvhJYT
+zmGa6BAmpTGMK2Y8sToNYt8fcxW3erX3LS3ZZGmi77OEW6vcFO1932lapBIAtN2CsZwwUkziMUqC
+DZqCm7OAY0a9NUY10vOo1fIuLji5NnTS2DnhxS4rxRiq3Hf5gmucMJhpkIyiipjQJJ3JF/2CqKnR
+oVY03EblVMYqN0JfBXqrvT6iyqc+1uBCoOSZCdfKq6FiXo6Kx8/aC9EUzS6hNd8HiFbb2jVrX8VF
+1SyI9YRKAT8AE0ACn5CIGdXSL8iIfSf4fiOIp+IgsJwuyKo9z2hz1bMsVKklK7sI2iX3f1GePA31
+GCUGIwY1xCzUcrdL86KAo3uhlSuip3QNnKR9bRE0UQFnTzZLKZtpsPOIqHqBwI2+r65t4bVa4rik
+HIfXmgoIofqRU02HeojMDDQZK6PsazhHkKL1M4wmupWVUTkk9KOb82HslOQQXFCHWqaB8msWxiIW
+sIDnda4imfa5KhptfGg1EpsLJvnC+ieW2CQ0C+gAqrzj6BKMYW51epPD+qPBqfKBXehxk+yKvqkW
+QsspUib8TKfCwAx63tLWnZtmWZKAVOFVCtCH5uTj8NnP9GH7euGhMoKrGVyXP2H/Z4G5SCw/6Eme
+q5LpwarUUIv6nV8sWMMJFU1ZBhkZwtOFOTPuyjN9WQQBQiUfMUkWla+KLLEWFHSKCrowYHqWblpk
+XvDCWw3Li91MddEgbczrtS9tI1NvIUicJCPBC5LNNI0nx3aQZkPhjkOYKynaPywzpauUuPnrLYAi
+AP1FhB4TMUlS+JoX5YoVjbuuo7qyI9qGNjHkAh7/ou6QqDfQVqJHQGwn1owdo+6LJDO0TBki0y+L
+sC/uEtplO+lxNqqs6/vNeZMzpnc8qionigYhkjJmcHRkx7yNRRzGXQGKzJPgrTB8p0/TyHZlS2Ll
+c9ffpn3rrYaAy02qF+SHNmj7iqf52qdddHv+cU6pE4oUnBom2vinp33mAV4aJ43lwmpM2Y6Olmvh
+CjjB99cTMTlQWRMYkoS4j1kWRTcGVc4z1QclCeyhC0XtVLrMxYIPnNKmKTEJAQ4mkDtnGcxlUarT
+AXaThmlvhz4VSu+0tcHbbVprwwK1U7KzMEVBpmTCJHLWXTV9JfqkzXJl1ty9iNqh2OWIoM7rhWdN
+ukGdRXQ53wgxY7Okg4doGFZJeZk1frLqOQ0W4NgTvEBsaKcQDaGoefSI0kyLZOBPJarpX8WdZLYR
+cP+1eBEWgHSgAzoyFvaBrFnfZo2tVmuT7UcBTQ7J0BMnd1NrId6+RCEmMiZBi4JZCgCcmb0lYsy4
+npiZChs3uNQGi66NIt5nHZdK6O2V1fHbXNPdVeGb7gXw7r2Qeb6QWyZbm/k5/NugGBMAtreeBoHP
+PGss9EbWXpyrUbTEWNW9X6XvWc/19pI3XUftvpNxsCtbSZYa1xNugEYAy1iECoDr1ox/LfO53iQy
+U0MS0sj2dTE4XR5cUuYxu6lc/P1qG0XiIQC8sX49dSDHDt4Qs09GHVGE+X6guoqWazMZlzzhZV1g
+QKWI0bAg9IhztowYHXFpQq3CDzw7tsxsN6SjuWOu9BdM6KUEQQqjKkrQ4wAEnFWKBtK4XnJIMIt4
+oDlDFheW0rHZ8EFWlH/zu6RzF/x8ktGxvaD+IAylHEP4erHZ5kcF772CZipPE81hsuB/FE03fika
+M3YMIyVfAIj0F7lPs21SkurhvApfmitAQXRJArC7NPic4yQtdK/tgKbocek5sTC/xaX5wFNAHoVM
+E9WwpYryZciZKMJa0HwD3uUzK626IAyIUWQq1Qj61aJptnCVdEGTk6ZmYmWo+JHhYJ/IPbNSgoQ1
+tuCyOlNlqJWjbaVB8KkYh4Q5Ze6y90XUjoGKLL9OlRnH1VKOOGGzmAGhlEX9h3HQPEeUY25GKZYt
+lBa7xZp70VDb0jX8+6wqabjghicCHzb9JoBBGAwuYs6YpUSLWFfrcHxRvQe2Fd0broyclpWx4bDK
+53cRTdCO925X1Wviuq6ptKoqPvglS3N13qJOSB7zWAMgGUprgI8zHyIxDqaMRYdgX/hw17apv3QC
+tXyq91LFgxsdKusPo/D8V6cyCAFj9Ak0g/sak0qeBV49kTEv8gkXHFic2bXn0nEjWyOoFsR9Srdo
+uhgaB4p2b96lJ2kaulg9zZRXNe6HdgipuRoM6V7UAWvMhbrxFDEJxMoSwHcmIOmYqxoBw9fqKFMj
+E/o+N7LmqktNzWlF1t2fV9yJ4CdAQmIsARMScrr+TICGy/hgpuDLDE33W1gbwwerNttNlMbxNsR+
+18fz9E6wBqAea8cYg2DKPW8pYqYFSTNkiOuZaTmaj5a5LD1M1HHP61VmYeSMav8JODZnxXcgktyr
+6jBTcmClp1jfNC5mfyndGSQFDHiesRMx1UJNxaYohxWIOU4V9qmIvUZLlZEkoe1mfhUqrcD0z3at
+inyrh7LVNwVyzUJTc4oukEYd6CYKoBdBp6k7IybUBN0uBUrUNwG7IgOmjWUa+B+6jGWXVutrC8Xd
+CTViQQElgIniC1P9WRHQmi1Las1DqKuBELgpvDyPisw2zUoshJYTFoqdASwOGICLdeA5xxY60q4x
+2y7JlFuNox03I9kMorW2TemGTpd62uV5RZ5izcK5ICCdOp9K8WN6RWd6RW/JFHNOJnZEG4mTeDy7
+Ha0gXrDQE1nRQhVFUR5jn57OoxcTBam9wU2V7gXxFSvD0QkZ99fnGTpJZQK9CcekDk3MMUN6kkeJ
+4IgmRRgXq8LVrQtf87sFvO2k2ATqfAtAMccC/TGVysf8TQw5qMS8N21sosfDloUYrjkDt/Ric56p
+U1aBqnDqY1BUYJxwTE7XR1E2AeKWVtd3bT3eJFnRKYF6SplFWCwo6hS1aWQrsTzPpiHjMbU8rUJB
+czh3ORTePg1Kuq4iz9zpfZ9fjN3YLHB3QmWIyGKKy+ZEc6ayyCR51+NQgOraPMfM1NdJ63iZ4S5V
+ESe0BhITKAYcGMKcibHPmeHXAfy4b1szcRIsEDhmlFmBCgK3vHu1ziBE4A4wQom6c2Yibm/0ae1Z
+qRLS56mD6WnxNS0Zd5WrASzGdIH5r4+OyNhYI8BJFgTIOcw9ZlbS+z1JgQIHrh1pnsMI5llVw7UV
+c8te9b3RLWSCUzI1UINOADTaCXMWG/061PJEY6gxq3hPMApexQn1VMTIEoi/QMma1Qkix1oYVpBS
+lTd10O4SPQqE0+OI3LAaSSqWUMfJGGbltTQRrKypNiGAh4+9IKlLK/YrI1V1P9abceDa+1G40il4
+Vay0Xg57swjcj+eN5iRRMYUVuAODKo+JlonsjMCiqao6CDHAPsiHZBAffJGWa10UdN1VPlugeaI9
+QxuIqhrHuFFTzjVYWWNWhbRMFTolQ3l+upd5H38cXD/EWXCaPPBELx2u6eWOdH2yEGxe1tLT5IlP
+3eh08Gru/DrLzJ7GQaoaszduGpIOKvZL71Fzi+YwWpq7qtyiOmh5tZD5XkYdEEY7yvm0RACQ61jU
+A5FR5gKfVKbWxg61mva9jFh6f16hL2Mpuk4TOCR22CaofJZfWzNtgoD4AGzcxn/wRr/1nRoH7dN1
+aLLiYYg5+Xae4kuBTn3uNNrH6Sfsc87s1q8TzddLVBBJHSSdak2juR/MIY9ViZEKNrKkZzNPn7Yg
+Oxo0zuupT1U8Ah4zAVbNDLjVMj0wGMpQPc/92DG1XDaq45nf2bKLAwNzI3fsnLzX82gLsNj4fp7+
+yyBBkUNwUA8jCbQujB5rVWAagTIZQYL0Ed3hz2OUs25DfMtav5oSqgsgQ/CYyYRnlNA7EDnGyJKp
+K83U6QdUcyhLq5qvRMsHf0GwL72Uwo4sxHXUaWBtihzPWpcq1KIQy1NIJyQuviGBOFEXRo4RuUDg
+6jTbeMlQfM47M9+EA2V/nGd2MprjYAjqgNKx9oli35iD6XUjRNRUoI71sfDCyIWueJiSV7vkRMXC
+jB+THtSiM2eBh1jY0u5QIXaa3IcDu2qtXtv9DVYsMnk9VksBQc4EiYU/DRtjEGQ35u+xlO4OGHTr
+7dKe1gnPB7iNDTuCKTdOcs8UJlE3Jl3apMrTGXdkgaOO0ki8HZb++r1l1dqrS1LsqOnI+lCQpOjJ
+Znx5ZMiKSUWaFtJV3FrxFQfutUq8nr0/L8JTtoh57DRUAmD5YsEkCQMd/daA0Gl21U4PC2YDTEgc
+MnTxLq9KfV9gpn/DyzD/jDMo+YIrnIhwKOPQrwDPx/bS3Md5HLXY+kDx7faeRlQBRPE9s2ITOGZv
+lveEaLxVnAXFPQu8oVxgfpLjzBWkgSOs08jYAiIxs59MG3M8U4y52pjpn6GMQKiUwBntxvfiCmuI
+UXSLFS7+NwIOCGOHAUrGkG0+AqqDoCq8Fk3AYBSVreEJd601+p8Ms4kWateZu4MrKbBaaKIYRwyX
+8xxieHnujnQIHFn63jpOfbJGXSBW581oDur9SQbYIVBEyzDnS7Y4V57oAaWBE2JGUcu4ccZKJyur
+Ydju1Vl9a1lRvRFD98HXh2FdYNp54zb1kjnP7OnFY8w8h+V6VwO2DpygLBPVcxPnruui3wg+cid0
+B88WFXZ0OVbjFiRwSs4C7opVChPpcr6pJUZqDjxpA6eRMljVNLYc0lfZ6zLVE3/PqUyR6lnqKLMg
+C0KzCRzL85o9L8Sw0r2mXWdBuzTImAW9J1JyAoUtANLoRab0/IzUYFQES+DeNPjNmnEdB5H+R+qG
+cXldUpLBWbFqMSwRPSFFEwlvikhYeMMi8DFROrCi5Jn0nM71vUPda7WTSraEd59gbWoHAM5gjoiM
+P7OSnCfUZR1B+VZ3JvsC2NVPNzVNTLI1siodL/KhMpdc5AVr8HSYHjYGsPBO+NN55GfyLNvaZJqb
+MpsXtbfVS3ewBTZQF2rwF6xNIDZSIQaYAmOueSncxAHOj2TEsL1g8Fp7oHF2HRa9XBmDj/kFGb2F
+GDqr0rBeAZZQSgDnAk8YmR5rzB9ZTFwtJ/YQsVbF3Wg5QBBD2zC7V/anEykOIBs4Nlo4tMQz48hx
+rKmMiDRsF6X3yi3SET1jzZ0I51kWxHiCK85BBCMKLCliwnbMlQwz3Y3ChNqGnvnG+1KLm+baAExq
+JQqrMlW9MNiapeEn1pABsamCTToOBOWYXhiJwuibDlKs9OzCd9N8o7ljYhPN9G7rFoN1t2tCO0x6
+etlR3i0o8YTVcKwoolXF3iA6qRm7RJMShadPbJimtdHGmigmSqDBukaRlDP95ny6eOkLFKAv1Ajj
+wQhojt7kXh+5octcm8QR20Zx2q6KwK8XlPiSq2MqU7J45nERPqVDKyLq2hijm7ZnicyOewPZ3pc3
+bUu5Os/UKXKARKdlaJwseHGsgKcALANLeE5g5noarnNWDoFv+zymcaNqC1NNCjfkxtIi5ilpYjKJ
+xgX1toAKj/nsWmzsZwJvO5DevbMMzM5IQ9jrJlYwUURLBGUETjSF+FCcYypxNsQ+PrSM2QP4+Sz1
+LHUwO8gXcK+XvAA40AVwL/QPMJEZlXCMG9frZegkaZ86g69xu8vjYXNeVSepTMgMBpGAsOf1V5XR
+zs8tLXSsER1sJLi/CfRqySBeBhEkF6wtERyMxCoAn2VQAOTuQAsrdGg4hMrIfGsddEa47V2MyM8z
+NKtkoZzpo20m49OxlAjM4Fg5ZTadbQ2CyClwSuvrGDXJPedesS5C3juVlWl7D9DlgsGfkiL2Dyim
+KNLAZufM7soRAvYKSNFzh+ESS1py7QVsaYf7lBQFNTAfnxoEHJU5Zg2D0oK1DUYmcizKj6Nr8F1m
+cW0Xd6n7aoYw6EfhM51lkBLIxzEpfSyCIW+syMm7MdvIKv5RUrE0638pNXwwEdLK9Ik2+Lye+Rlg
+VwwZThK5gUONdtxqYjSdpnCzhQj70iCOqcxsr6JGVDMcWHVyZg4fmmwcnTpP+8sOgNJB9/P4kI5a
+uTTyeqkr+CwgK6RoE9XH00c6PIu4maknqVH7Ic4KjW6zybq8IusxLKNkWySkrhf6/1NM/kUOEp0F
+C94PQVRoaDqEHvm3WUm4SlhOLgw/dBMVdC7dMr92H8/72ikFIlWiaSUEvfn8bGQ/Vrmm9T1aHSF6
+RzQkuoxqfQkkOkkFeDUG99g0J/NTzjxsUAK5PHBM0rZrmmcR1sOMJcj2lARBBKrCbqAJZo4tfuQD
+oqDHQ6cvytSh+GvlRcV4k/IgdsJyAodqDn2el+AJqoDZ5LT+gUIV0/tjqn7NmNaaHcKviUqjrg0M
+iUwts7ZYX6jXLZa4L1uzqpLVebInrBOhGFsuoDo1GJPIn1lnrXGqG0WLeIXics3TcNy5QZNylaF7
+Xjql/rIawE2opnBAfcJP2cw2ZaoPpvSK0Knq2svsFosF1J7OiQk7ELLytxHLgmQhgJ0SLFBwoG4T
+uoA+45jDzDVdPxhY4CS9HrpYMM2bYLTNseqMUkW92Uu7tvy223hNgW3eV4tXYOceG0QToIIjEsfE
+GQr+qmpwvjvF6NMGkuTei66m25Fm7dfzpE44B8ZUiDEE9LA6ODMg9NnM18h0lBzHE1UYaoajVX20
+Pk/lhL2AClIrYA2MoF+kAyP3sL5XJw72nbuVhsi21nJsApUGEKJXkoLGkEQx6wNOAwBlluR6dIwY
+KIaZg0PlxU0MqN3Rq7Lb+IMhPp4n9cJG4HKoUTEuwT75tHl5rCZ8PsPQGHlY4EyJFrm7YByapHIy
+t9Slg5Khs3ybdXkRPaBGi8iCgWJiOoWUZ6DbdAZ72oxEaT4tfmC4cUwfY+oIpz2jYjVwRO1SaSON
+Sfy+jcfKi2yRsCoZlQiSMZZqsMoqjJVuJbqIbAOTOrdYyUA3EuNuTOjgPwYRVi/YroutXPvDN1Mz
+rz+6QxSm4RbDoEr7liah5lq2FuiuFqogatMoXOmdp7vU9oe0LXSnbjHdDTe1DEt63/a51DJb+H43
+vd4fC/q5MP2k/mHUet59HMko6FWZmGXyrYhY3dikGQJjFWpZUIQqNOow2Td5GOx1MxQhZmFhO3zq
+/bTGPBwdrB6Za6YNbmMPRtR2UmGgZiElx9MnMYTUj60/AB4RdoGDP5X+TVY4TvUhwo00VBlOWhmp
+HVgt8VZVCiXHTi7dRF74OF4W2zyMtO5OHyIOjCurQ9d1EszEIzscall+6Bktw+sy4xrdxlK6FXfA
+S8Y/F/HQ0NHhXGKYvs2DDofIV5hd0AQYBT6IpdC3pV9p3aZOsFmlRIwHMB0cRAkC005kIRM1DLmr
+O5nv0uEWcJHx/zi6ku5KVTX6i1jLBrupes5JW2kqlUpqwkrqpkRBRAUEfv3bebM7uKlExa/Zneo/
+qVWZjReDYMDf647F3fVyWzT5AXnswn6YsYnQNtt0H7EiuR1/agkhyVtqhwQG5DwqFX/qUkPC2gyI
+pTj5PVlNZ6tCTk/7d+zM3JOc2OZ3wUK1/9F2k9x2KPvK/tyXCRhr6xTgKo4lmjXpFc8z45/L0RuB
+9WWIdgU9OSWETq3MNht/l0hRHH6NRe1WckZqwOHktbTO8qeKW+1cC4dMTZ+Oo1rk0Ro5HAEwB5bb
+sLRjQAzJ762iNMHGp3RjXmPID+bb0RWRPNV7Psi/FF08G7qZkHrY+3hsU1aD4E8K+3MpeVJ8ZTHS
+QQCD3leedHxw1cS/H/eW7l2wK3Iu+6FZjgG/HqaI5gWI5gyJutVlHS9hKJR6N9mcCtFOOLcHOpu0
+1fFHGeoydHJLRXxcbQ3V44XsTdjzNpvUVgzdOPGM69uJlTuMCSSENHmraYg7rOnUx811w0TW8K55
+E9ObI9M0/qJqs8PPvGFGvSCN08u+aBg5OpSfWLV1Ypjq3TKG5H5GIhrs9oDb46sk0IfAnmtLi5iT
+Y63uFr6s2ytmuTE7LzUHJN9BWLfzpN/Zkg7kag3SFkOrVhrCu6Iz3s3znASUnrYSSYQIRE1Ebclt
+vmWzbrrIELt5XBSWx0p2Ca8ZqduYCaD9t5bAD9p0qZtt/K/gBDxVz/gOnQ8WtJAs9AwRkKqXdk9J
+DGk7JVEd79BQYkxq4SBn6i7LBgIdKpJ8IDxuw1IP4qNYN6/HrhqSmDyXXCO6AL6cwJqpjQYiGNui
+phb274xNkPOWZEOz2U4F4fb9pkqx4pgfYkkKuV1vRnJtL5uH73fvHLaQqux1XrLiTuVTOVukE41c
+8WszARKCCjptYKzLkVJTdBklRItutEets+uYz6hYv5gsgrXPSuSraFA2mupIf21swdSCqRxxLdM3
+60iqe5gBvb+tIQvas5MeIj3ao0GzOO17gCSyb8gxbY/ztIb1akVsx4ildjaLmFrkVR/Nf/WcgdU4
+mymU/wyqSHWbJmJP/lRjti8vcwX3PXR9kCNBWgg76vJflqMMt5nDhNAdfnTuNimRYfcSsIzb18Qs
+m7xIOZTZ7V4jcapDxUo+KzMjwmi0QV9vLMrLUbAUEQ3HOqRtORzDfcky/tDAW3DOZCMewJxp9Ou5
+avbipR6LWZyAbW0eALbmC38otTtgAdb5Sslblu9B/8U1jfmbKacd+lxLSHPBnwVSIeXChs54JfML
+BNWJvN2DYkVfHpjWOzHBkv6W26wmSUvmedV3pBCNfM7EKNe7dFoK9rjS0Yc7lDj9Fikw2ddBNSv7
+W8Wxnp9QvuvqyaxJbN6g9lmX876Qsep5ql24YDgOpnVeQRZ6WsnMvhb4NbdHCFPH+eyH0TefOLIL
+zhxLIWh52spMqf8aRqcStsEN9+G0RLflXyN1mA9bgo0JpxpnJPFPRT6DgCIqmPKnCnGNN5xMdBeQ
+nzIpXtlQm0Rd0WMv9+qcFNvg0yuPBY/5Lh71tP1zdTiSLyfoqo6Wm5Ra0u2G0Owz27y3Oezxypex
+hwfD7bJD1tEw+LZp+FjAjbHwb93pxvPV710Z1Kq+KjsniWyXet2/zfVDZpqPlU6Jfq1GOo/oQwsO
+Om+h/Ypl1okl5AW0J6mdjULtrP12qWsnYTBv0ma9H0mBfARIYSxt68WjhENcsNv3GcrPrYVLarSo
+hqlIOwGlB1SU6UJMW/hlhHAIAiVav/oB1OgrO8j836D0VAMalU50hdXpa0qAy3Q5zmLeVeuwzX93
+G+tnSLis6ps54f6pVIe/GvB+sTvBc646VJ/1rU5B7bZ77sT7DtnOswzL9F85Fma+0ovPn/RxlE+w
+lQ7m/53gfahh24XJcC9v1LFy+xPDQY3ez4tmvqwRQRYX5LQwc0oqRn2XL81WXIGMg3AFgt75dUkr
+PKwQyfW2hSTtAcTypOUacQYdpHbIGihWKafzVBbsDutUmFs9y/gxErTsa22ylZ403w+IrI2ZT9ua
+inNZh5SeaaKGC7YdhExo+NsSyNbYyns9qyXpHGTh/QaCxF4OdLT3HGpL2a0MPaYrhMNDGYNEAJCD
+btV0YTusuN5HV4WWutrIE8aQZkBQkD9cPwZM+zdIoZMBw7+qrsS8GY/AmKNO+4SgDbXp96/qkDkl
+oOpILaPdli4l6XOf+RQyuoE/o9xlv/d8Ua7NQrP/olM1/CoGz/5x+M+f0g1pGbgjhCRnPi4Q+yTV
+luB9WKbmaJt6x3yKPBxd3mk2e/G0LFHtl4zuk772C1w4Z5ubzP8S8KuvPV0rMrZTsR9YxBYczXJv
+ZnpioU6WbsLPPHw/B8DuQSyuM4xlWYexZKl6GjF+QHkYZjSRqZpdWyqbfTRHMd8OOWIuemiXR1xD
+4k1+GUlc4U2P4/RnwaMZu/GQ5JyPuyzw16rxDKhSKwj7ZpF12G/m80Ql/hOQL8buQdSKt/mUDq+b
+mCZ2RQd2ZG2F4QQii6lulq5JpX4Qsqz5ucomRNc0uy3NOV/2BKR9E0XTLnFfQscdtLstKVJO8erP
+SXGKdtbPR7XPxc9ZDFPaHSWZTDv7Su+t4Kv390U1aBiphxzKJjUcVdoveJ76xxqT7GoZphngXy49
+ww8RioGysmlsc3h/XGsqg2K2x5HKs5odecggnlo+00WEltSome1aejv0fFjxz+aiasTJYeCV12U1
+FgO04Kq6bSS0XJdaooZjWm+U+BIx98dXiVyct1lq9JOJj2Peq71ptrOJQ4JrSXfVYVqiCN0+IOi4
+YX4rXrMi7PWNYsB2Op674TlWg0paDW39rXcM86Q7Dsx1Luom68uFDr5DMk+DYEXux8ewZtmfnTb8
+bpTLTFuT5INBMWymsVPMoTAeMaW/tiwJf8giWNMSpHalz5k1CD4oIGKY38S2OqBjYjdW/cBrGSLi
+FD06X8nGhDxyjLIv0RKq+2TJxtslLWzTLcj2ju0uFjH0w8Dr/AqPqnDnaPmx46iq5tnBUDKdmB8N
+awcs4/xqPMhangXEOKJ1MCpVZ2YYoOdI2Mxbvvj0jR7kW/IEv+Z0Bh65n5rcOd0xz9klZi5Bdk0x
+DPOFYITWv/mUH2CYKzF2+2BRu0CjVGJuD5gg56sNjtZHQHCZ7EFWufR6rUwKDxjBmoL3qxyJuyAY
+0U9XitabvsWsgkVN4LFMV1j58e8kky32fvcUZndYVPhv0OrzV5bG4T+ul+M/ZLvwj2MQ8k4VUN+d
+c+zkj3Gy4kUxIn2f4EC92Vwl+yURuXrZBElQM+c05ufKlxJDQcIa0hcYKPJLmfpUXOdy3l/YiHk7
+dtjuZ9NFo/LnDS66cILHSPecTSV6AVSMcwehLtKpmKT1iGFQYSd1Mi8f8zAh4iLCrtScocJPtjOp
+tsr/mlRTi2tDBcZh45LqFKVDH2r3UeXmpBFLN7YlIfx9GmBbb2HxS+aXyYZj7928svyCUrzcV2DG
+YeLNYwljjW3KlsYJSQCQSzT/ki3z/xJDmn87LbDMuomtobOJLcDI1jv6GSR0cmxpOmcnVmAjh7Ll
+OxLSp/P6cRwHvCwDz2fR7k3M/4JjwtpjmlRgRCbbr5pVy+esAslvcvjPL2lS1mMHjGtbkegB2PkM
+b4rQ3VQwqEs4X9NXtzCH12WJw59S6eNHGSn7aEwgTzbP7FNDmkNcNCYe1zLAmPBAzyC4TuM0reeD
+zvt4alJfs5bbMdwfq/TJWdLDf1YIHRVtQYL5O+VIQUBejMrLnvmsushkcwlgmiF+7Al1MMPrWvkr
+J/b88zhgqYJrJywfGsUjnipbT/fZlCX/AFYdPxxxGkdp3csPN8jphRfIwIBpUe43thwwIhUgblwb
+oM92VxIy29Cvxzj/82tCPtXupwz1LYSf42IQ7rIvUfKHaVwpONrZqa9U7lvojtAIcQqESoADXtpb
+Mnu9YUEI67+hpOxPyPXwZNHCH0vJzTs3BUhth7v2t1rNduvnNcWsr/DMWyS5+LSTgmAOlJJ/G3Pp
+DuAwoUF68Kjc/mg2bN7t5IXBVhX495pQF+Njms1enXUyFhEiJ8QVnd0enG2ndSyqC2jS9L00wCla
+mO7JA90KvO4ZjJVVPy1Y23sP4/rW0spXwFQgW6jBbJHQnI7cw6QhvF9uIghmej4y7PKnbDXfHCs1
+5lJNuNdtY2ZTdovN7NDavcIhY47SB7bW/BXYp3w5MgvoB4uf3dtcN2vSMmQslO1c1v5ZyKH4cksj
+74993Icbz0lOT02NIea8+bk2nbDf5ErC0uE6XStpzt43zQt6+jL2rhjV7QQPt7neFln+WVxO7v1E
+YnFOa85/DxhY7U01bM0zb1jwcDcKuAj23BesC3xdT3XqK3G1plRN3UA1/a9ecw9VkWLylsYtvtLD
+atNtxV6qjmWBHG3Ak7nMIFePs3M8voFFDf4O1aKYzw2AvNNMa3N0a6Edxlk9YLljuHjcndCENwtK
+56UQ+fBTbLDytqMBoNQOBDNAn4mQ/JPjNN/C0PddwgFYlefNjbrq4JMxj5UJDvG8SG/ADYhH2UVI
+HB6Q4Zb7jutYqtbVpFxPIAfnoiOSJteFO3CZDWwOiHycj6pq8T7Tv2AT2a9E0/03hWD+j6JruB2k
+nXxnuGx+14db/gP4Jx83q+fPqYj59YLL3DpQ8lh/PWgp5GFA1V/06dGw61ztssbvtQEnijBznFiS
+u6xNKVtxZ1Ezhk5kxf4sERSCZT+DBAPVs1ofHbbUo0VU75RCDUSKPy7sxX1VTtsHlFD0d14Rytud
+SvMp9rESrZeAPLt9XkrEvBWTzNrN7vUHGw4MyZY3w10sVr+1ATfxnlmRjDBPeXun7YAhJUlt2gdW
+yQXGrZWUbcDe8U4KPr7XY0nxd2capg+oRJYL1RMTbXCbxwoE4yiW/zgu64XN5Lhn9fe3P0rQvqZd
+eVYN3c6X2p4wNQXV0T1ObxDis8fMlodrZ+xHsZuH76kNLOtypUpED7ZOl9XSDTks+Tf1FraPzAX6
+UsaGonaTqJ4WZerfxZCn4boRg3jRcCv+NRBR3yMgYgnnsRwb3y7IuXhLPLDTNkMHhr1/XNNn6RRa
+AONIyESJLasnr5Lqt801VjnohOkrdw6t41gCfD3lJry8McmU38odSzJm33yxfa5S8jbW34my2BkY
+FtKaIhJqx9RyN0d8s6XVVK6uxStefhJyyOHE10Ne5RM24k4OQjyoHPsEcCDw1xe5sului4hCuDDS
+pNf1LqqvYabqBgp1TDHSYcRITe1fACZXaw+hMTs6X5Oa93WhIZGXAMQQVgln/P0IduvvIU1Tno1Z
+snNROkz0ykxx7LJt29+T9WgeS6gFoaZXCB1pRTHLrWsQ83gLMnMpWhCm489hFkZ32qhMQunvMHvV
+iJ/KW5MP80/bkOro5kPnsTM09Xe0HkKDVmjG5xrBvlU7azNWZ3gh0jOesY6Y3GBmnrOdvEM5BUM7
+bO3Z3hey2O8k/G/HlQAt9VKRY+M3+OIOmiPHWM1b1CJy1fDEu0sy6Krqt6KGD70YUGQowLIblsr4
+sBu5NqfoubgNKmwFFrAi5G1Dwv4wHiW6mqoGsJnSbupqrEAOnaIo+FvBdPxYG5+sPZ6huLPeZGnf
+HDsOtxRs/m2I0J/NLCmkm5hQ/oJXCPdTdRjeY2dWP4wPRD4mCFsww3Ojgfv2fsnxIcKW2XF7T/Mw
+Y+wYLbU/KMuGsq9VvYZPEUmyt0oYvAWkNngKCUZ1bIZ7LvKLG5sKJuZxa/6WxQhSdN32eLwfzKY/
+azCVV8ElHC9OdPZtmY/m72wXyc91qtQr4tHpb7uQaeuOnMzvyYiu2ybYuH9FMjWIVSqb5ZxuJU5p
+U9pDnshum/rkLdPj1QZ4e28zRdN4N8gGM0vEWvyzpDvgxdRn8P7nwKxlP2pR+5bndvGnup4WAZgj
+n38Kj2gEBKRHRVq/cf9u6IQxNKtSVZ1miT+mX9yKX+3rtdr7JAZ/j+F5xS4bZFi7GYjeeIL/fp6B
+qen1gwRX1sNfGb8hhZCs61M9kbo+ZQjkwbBxrOHo4lgoIFOVNUlHgo8LmoredLeA2v6XhSqBBhjP
+YcyuiubQf1ZmEWjKKrvmHTBmrDWhyi2QHlIu+manGZGI5MzxQSNkCKAcbZvmc6diLB7tdIg7l5AD
+Lg1zYBUaYlliv/IbouL5ZvRxzjLMGC3nQ47VUs8bsHDY956nzWYJ/ne3/EjzCXNbmGIynyNQX9qV
+aiyfZgnxQOuD1UDcxFz9QLhdXrVGl/Y/WN69bQGGJLov8Zh1P2+EA7DSzfDoAqJvWgAlIrk4yICP
+vvAIUO2Kuak3HJ2M3kvG9ueGYnvvTFhU+l2+5cfoqUWZRkAbfnzENN0SlrqXLNLmQc/e+AsE+dPj
+roY06wukQDyZBumMyLc2yHVX5ZGBoUq5xSSQ7FlKzrYBZPQ682mIfZwGl3bLosZ4L6jAqlagDc5t
+bWzhTzoShGQSGQ95O251erVpbVyrodt44ThVpvVE1hxYBV0GFOMRL9QId8TQ+mUXWETLYrjYIa9j
+jwxiDeKSTWZoa4Rws660zH9QJU1y4dhSr4Gp5g9LdZT/eN5Qi7o1mNDtOEBVW0gZk7OIg4j9xjL3
+chRkJm2ajmFH+gWVFXiXsZo7PWtIugPSr3wN7UUeIeB9gORW/DiQkFZ06miOFdP+Ud+DF9p+Mejx
+EigMAIW043ZEoH6pAREwHmuEVI7t6WOWjuhNMqXyk/AxApSkjXhhkATo01yRJnQE+8Fj4ydMTvAP
+bbxNkj0CZw5SXLM8g3PXeDAxLTLPYQytMLlunQWtN+NJxgULgKfFBl5O05/NlmKvTmGrfAbLkwLC
+WFOLQcha0RpRg4YKldGPdsTI2yN6W1zPgmPGcANxa+8O7j4zFhKJee/Qd5OYZXqdGUZetkjzJ8iL
+49wWhjVAWBO1bacZBN99XAoAYHwozK//kwxt4xr9ldnNPxDFzCthyypPzbZOX0Uu0E618/HzCGR7
+yIPiX+uCkA4sBzl70EGVKEFsyV6dpMjndUCfrqpsyf4yi5KHS8UZAxUabW+92v5UigCYj9EhU8vW
+XMJ0jLAWhKVNxQl9jj6ANNufsapG3eVDEd4gUyB/FJgJNLKG+72VNiXTPeJIwScNZnU/dah5uFR5
+xMcNdFZtX1uCVBZM6+UXQRxk0mEZrX9k2TEB6d38/ov4GZM1Nza5l9N3pfGcsyeF9mm6w6TuFuQI
+/LXQSlekZeOelve+iLQENTPLJ58GzLv4leoh86REcKFDv6srh2K1QVn4vNZqWm93VmUeBNPsin6o
+JGBKhFjX2ZVdKcKwCmSoFL1JVfiHO/RdrDBqik4DTn1NDw6wVCAB72gLCthjQPhIcYUmmALXnqG2
+B5Q3L0/iO0vg3Kgs3KHs5QrrB8b7tqzJ8o+RmdJOeb5iFXb58jz5Zj86UOTjfm6oQqxL5sf0acMI
+knQl1FmPO8b/DeWg5iCfHEeg4Pfuu2HIHjyC3tmsXStQ62BAcmMVrik8f191MU20nVNL5w6HJLw5
+O5GXIZ22Eezvhk+PCga01iHxRbTWO/1YIuT074bO8wCkOX1EEPCSPa5QozBAdrPABza+SWE/qXT7
+zYD8JZcpD/ZxTtJ9vmWlibFd8XqVZ9gNwf9N5DuT2oMWP837jlk+r8dmhHxoJ2MHPS//VALYbLui
+nuH924QATaQFf8zgd7WnzbjtNLAdrL6nIsf9DRmGik0m5ZMAZbriVg+YFZYsWz4TAS76pHaU4i5M
+Hie2XpLqn8mT8EyDdfutrku0nJAce9pVrvAfwMEr2u1QPF9K5Nry65FCgf/d5pB4qfWSY/xbBuB2
+CJrJWAdYN75N3qXvQcg6bV0myC1s7ctXWR0AnpHDjdjWCazvbysrV0E7MIO2L4ZqvZ53gn953tyK
+kZZWsuhWURf/wHsUYDsgHPjmh2e4qhTdsWYhHz75C+wEsLhCUXOdAH2Y3YVtTn5JQsH1E3yWcOyO
+EcQ+cGQG/r3iwH97pMUtz+LIw6dHmMY7LgjfYcGyIdWpClNTdnR1u7kciIW/AeCTHO2CI/QT05KS
+/ZAzknRLHUl+CanJ35NCja9QxPI/FtjsO8I6U34BNT2/rtNYfG1x4b7F0JMA8wc396mXld77pl6P
+7VS4Jv0LlbqObcYm2PzxcQsqrhMhj98Kn68rbjKu2NYbCEBwkJHE/A/vo1+BHq7giUcnA0Y86GyQ
+aC4I16d9G+ntjjwJ0E1e0S+Wz0AC0qVmPd+O8jhXY7QRPGOREGwMC9mHewjlZlwzmAHSeZzXcF6s
+zWU349ndqHRJwCXDcvkl9GGetIoYagnbWdEFwNX5qVCFnzqdyDy5jUxurEX0UPFOMg9GSA11Zs4T
+FtjnSpBUd01BSLgeN5694Fsv8P4nKcdsUC1IaVlMCnRm+J4D2oEx/SBVriWK+6F+kg30GLr0hIDh
+mOrqKdlLN5wPYuY/lcZ01I0KYHUryVCgn2VSv5jVF/8hyRj4jBJ2qdrNwHVD3yiyCtP7PIQs3okN
+34Roc8GANrmhqB6gC9air9GHY89NvaIokcLCQOeQ/3Ae8IkWeWFyrabbDOUDyDNfTXqizTa+TGII
+gHuKg4ynZYEPA3BeBlhZmzJ2WbBQKqciitc8webQzkisGPDjW+xLlUXTokWC47DoNF87onhpD8Yn
+vSmPmQmYlZryphQ18QD0D/+T41a+6hhhI/ZTMy4dEah9nYPcAcHFaln1GZDQ8Ljz7wQOeZTpK0m4
+/Q0zC14/ZRk0J2HWfu85rXfaDVCAgTlkdXa9T3j/PqATQIGklQLRleUotgJjFl5OlW26TUdADIgv
+gT4KyYg7ltixXA2+/jOn+UUa+E7QDSp2oh5LREuRiXpWzpDprggHK9vaJ35sB4fsoU4qAKpXdSiL
+L12s/LdCSeG4CZW9XlKMRH0N2RN9jkLau0CTZbzDdFbeHTqp1KVwyo1dUczQ0WByAFqTpi7d+tll
+BABMHHB4eFEs7y5YXMiaj8PTjKXrt8dOABcRWRBhEGvNfol60AF+yVhB+YPWMZ1A9W63WmNMOc/A
+1EUnddgsDLL59iO1x/KXSFKMtz4riyv4q+3f0snilGTcrj8A3YPzMrA9BhSltfzXuHn8L4Bb/ZJA
+X1+pLiGdYBqZPV0uBkxvZsVo3o9O0wcDuQdEYeBgkZTkggfl4KiACQIZ44jVPLaPalpQBC0HWo5O
+Yqqtm8S441EcFY6+qbWireI7fW2gNvrgMvWvyVrVtp0z5T8UoqbTfuKOPGGeiK9mWvHHV/X8i1K7
+vQq/JE2LWp1OsFlBdwKxGN0wtIRBj3CPlypid4u7aUdEvABqQDw8YC5dbXWbWk8/itTQX3lS2SdK
+sKC2e+32v1kyKMwjWIJ0z0BrXs+4QIx0zOa3I0bSspOj2xdoVpB+jTjPHCG3TkNkgVd/1hf0Qv5Z
+0aMwCKkOMUeS04poDQolzNgz3MC0gxi4wrvKcA66MctHqJeRCgb+XEOj1X7XZDhk8IBpu+HDUXeq
+BtwJRk7oV0RIyf+Ed9vST5iWH5TE5HkKbtCgtUDvzn0zOerPfgKtvfpyXrtQCYorY0synSJDgwE3
+Xvs/WiTiAwsBnNrjTOJLlobEtjVZjxc6hOk5Cw6f/cjSAywc2seiO+g1wEzL2iwPzrD1x0yz/Nem
+sOk/AXbKabdCbPUnQNv6Pixh/rmXAiM2hOATZGAjy195ERZ47MOY/yCgufnVoob1g7vlW3SIHUS0
+B4LazMUmSpDW2Qb9ggQ7gU4CmfhSlhC1TBxfSGmPVZkvB3PHnxIr6IB5I8f7mWNIGIBApjG0vPYU
+cqtG2LLL+F48jRWU1jgH8G601mbpk88P/zTjk2MacCWdPiCcw+IRjPvPQ748t3z/Prn7TsflKmqh
+3haQwDjEjfRjRwAGJC34At60AJoAP8VS8HsOgX/VbTTDBzuGAz90Xjm1HJ+B4ADEZUKCvKIzg1ho
+H7x5GnYGWcX0reZvKT14gOzMkjfs4/IhLwBv425P5EFvZniEFBSRuCxV9DpLDXDf7VuWhJesKBD7
+KBZb9xWAtFcAifo9GY6sOFWJBBbrtjH9AWmkKjt8Sg5gFXa0Ekz0lFahQ22FYAPjlnoKcNaNPVlz
+PGRuQB/3OPbp0Q0Q5r0Rnmvf5zwkVwcB5Y66PfiPWhfspcDkgvtUEvuZ5hHMPmzuIz7skhYByzk5
++GvKxoLdIGj1eFArcmDOOP4oZlDgoT8uBcTbYF3dOmBazzdgTLMu0R7Cst0RinrSVmYwojeSrrEl
+ZWAPMHW4Z5fV5tNRQ7erFEkgt0qCfse0tjBQkbT4AHZ3oORV23C15PDNA38dl0tyrFDzeEr0LS51
+h5yhyjjv8CEnaHLKA5IWwjwSmpK5/Kcpl+WJbE59fJcEbGbgOZDOjenhumJ+RlghONL3tT5SWB14
+Pih0JVIDkgEu8UNu8BVAElOyH7GS+E5fBPgG/QGPi+sbtgwaYxAdb2KhgFprBjE8QAsoPs4rCeKH
+aBY0zHmdjwzHZ8tvRAGeCUk2ySKxN5XiOTF++nsssfrDofuG7pL/j7QzW45bu9L0qzjOPVyYh4qy
+LwBkJklxFkWRvEGQEoV5nvE6/Sj9Yv2B5e5iIjMSzSo7whHHPNLi3tjD2mv9gyL+rKeSh5CWoKWj
+DgEIG18WITH6reiRiuud8pNVGF2C9/81eHVSOkpWkOEZITm5MZkyOo9ZIp5FcgGGaZhobHJIR2Ww
+iUzSdLsTeH3aES06AEZWL58DxAnMDfp1wF31TFBeMwBwnFAKV2+UdeJZUJdsCYr91m0tF8ptQdU5
+c71e6Z9LmZuSxaf2b3JW0hOJ4kj/1tXgvezMysPHfqRFRh2q164gcvescDCUwaYFzFeh+FSovOCN
+mM6FXkniBR+uAp8RD8JDbA0+4LUZdJhrmCfturILOWS97LnSWM69UufXmRgOylmUFOI2E4ZG3XGg
+lrFjNHkTqCAlKAPi9EMNIeku4oyepzR3D8HRmbYBRbY7GywtpceQhnrtVIJMgRfHFdgUqN/T0u6U
+mP3ER/AqsEuNptPs6MyruA8xK6sVSuJXkNaoGGRDrBvY/VTAcClFUKHgrgiaTVcYibLFUYYydtQq
+1VMeyf07lKtAR2eLLrMbNWP5HSMsIbkEzxt+izgtUsfo55cUfWV+CSAyoW8b5FtPqIsK36BF0ro2
+pj56VQO1f6evR9QqrmPLpVaVmDeVmlIExrdw4g2Aqi2d1szUqp/w7ArtW6Dl4Q+ABk1DktUVLTCZ
+UAAnMkA7ip2qAHV15lNGqy/hB9dXHXjy1jEpcU1n+B4WYXBDf3WQH0BVTG8kWx2w98FQvfqx8WP4
+JpsKYS3jXKB9/4p2d/80+MrQoh1Qmblr8RIGV9EKaD7ypqag7RuT8GwhdIYYl6lb10EbWwEIsMAk
+oc7z7zWte8BUYii+CUAiMncKY83bAAixgEPxHE1dtQYXRHd73gBqOyJBKGdmVzpmJdQ6WbUBuozu
+nvXQ5KV5N7VKL9KgnBgmlOtyB7q2v5q6eqLkNnEyuDRD2nsfbHRLT0iKS+qYZvwY5rSm3DbPK7R8
+QP6RWMbpSH241jhyKinmoW8CBpGAiTVNAxZFCGLaCgLLhp4t4oxxMRneWUk9OUR6iKTWyUWZNiFt
+t0zfQtor/E2EQJq5pVofczcpMu04FbQ4SnAVRhNOVnUyjSpF8L+TMPbdJkAX9QKJGImqipgJAg/i
+muXbDyJKBmWUjp4djxzv9A4p8pyj9c0DGpCJAZ5riqRXLZZjCMoZ4phoqHbx4KZKp/4OpowzUAix
+l7EFJaUua0Xgfu2Ww/q+SsrkB2BEpUCgQRweOz9Ig3OBZJt+Rlgod4Yvo5s1SAUrstGzRqJTKElX
+PQnNaxl15ndEgC0AR9geeZvEmqCMTorcXFdmKL8EuWwgMhEN4vmk+XlxU1l5dddjrC6C1zABqudz
+Op96Slw5qtiCBCMLF6B2Z3r9MwsS3rYRYp8c8gA3PZdquHrHcUDfCHoZMFwlSwRhZru0txxTU+co
+UQyusYiEZtuXH/eA2lidnYt5c8XRSG8Y7JD3BOEiORvRSx1cQA60BIH2lM8j1LjaLQG5lRc4roh/
+/CEzlZ0oUNdzKA1IXCWiHo0uh4tgbqRe4cmJxEjzO/XluieJjv1HlHO7uzGoOm6YQvdfgzKc/kge
+3ZJtXFnxm8UlXW10NhbdhzIyS4RlIgMs6Eia6bDiaXBD5WHfQFYg2eO5Hf+iLp+95oUR9raE4Psj
+nVvqMn3djFd53luvKLqA4KFLrJVU/qcImLIimL+TKJ3eQt5TjEpC6MRuU6NTnSiMtGZu4WmdI4ZG
+8hKi2IrljzShH6BSnaPTGc7UjbqzAIhm+ZQCOBFFPr5Pq+6i7ke5sUVDBk4fF6oQgCyK/GpjFhZQ
+a+4WPJJMX50A0edleY2zmDi6hqiLl5qfYSEQSn2S78gZ459lzqlMEgfcqJULjn5AjukvIKbRrZwZ
+DdjCUE6FDShw77bhfAocUnuJp1mYt99l8OE/Cvo1D5pO70DldrxM80S5jxJFze7KqG8R0LHCbjyT
+zW74Xgd1jbjpVCmI+xRJ4+3GXInu20KpqTb1I9yUUZyoMJK7IIU6yWZsbngZCfomVHOeiENd6pUr
+N+yajd+EA+ej1VfZeaYOcosuc4/jEvVUjfNBUxp+HMDa+VWEUyE4KKjlSDRE0hi9mTlgiR3EtM67
+6njXAOLCp/x+ACv3rvIc4FNLYo8xk0993VMDIGQjqBcgDY2YvPXV4D14ZPe/kXqaS6vj0KscBOSA
+Gxg3yjO0D9AdKSyg5zIcuMirRrJ2ZdLHdFYhAqVnA5jOe94nBXbFkVwDmdfgAPXSVEpOnUB3tGNZ
+ThJQJRRGXM+DDUMeaRi31KPJNjWYAN+iCsidG+IeadIwaLmeANQoj/JYhm+DCZrXSRKDLBeKYVU6
+pWh6t1mkgi3K+5gkl1ZrEG9zJdW/C6kMeKeFqndbC1IzOaXptb2Naw4IpsIQ8wc5NKoXoGaTsB2M
+sdoFEHUn1/RL74IlpSabuIIARwFHye4kszHvsUvMn02l1IRtB5DgvZXC4a0LaDdRZInU63oS4vt6
+7JmnnvXwWtBcH3hv9uV5Bc+q20ioujcOv5f4oE5WcTYIkQcghuLp7zoO/eex8KOXtBmVHymP3t9t
+OaQh7VjWnC0rqTDaPrhsikkaAh348FryzyShOyPFqUcNN+0mGvKGWezA2peywxvJz7kN6cORMgPO
+t1sFTbSNXzXGdRNpwsABnkgaVcAoeqqKOHywvNi6pYFI7aX3vEmYS11Dbpu6AK9lCFUeASPn3Sup
+BA8QGbyl3eTQHmxYVd6bHlC02NZWGanuCCrCAvHVjBfqpKdIbIjzvROJZRJu1C6gQJuA7UCpITWN
+m/kFqnHUtNN5ndd+5XhtR5UPrSb5su4m9Ycfc7bZiFmGOA3xWNmaVUGSg1Bz9aeHhneJx3Mju10l
+0jkPTfgFNvJEQ+doTekndjeNwhPsQ778MCJ/boaT9KAMBrowJQhMme9H4oZbTi5DwYkz666JvUmz
+ebYHpBKeJLFNRFn40YfK9MMLu1YCGj5XnHFCaF/VqFZKZ+qpyDgTbhMej9VspPVG9eg25asKAGl5
+YNujYkhXcMWqa9PygR4bUkq+76tGM7l0jPqB859GvVyPNH2nIe69LZBR1T9LpNq6E7IA8Q7Lonf/
+Tel6+ho0xmvXa8axhmxBBnAuR6ol2HWDb3KTIafi+g0N+A1P2CyCgxjl+Z08SgAEQI/V0Gk8lhNt
+kq7dlEMwFm4lDpLqmBOcaGcQ2/a1U3qh3/RtJUVbK7Bidlpg6eRfQFEngHS+H7kSxcHw9+BTotm0
+kyB1TprDiiddG2PAF1YphxdojVnpVd+F5q0WxknpKt2UwNHKQdvdQP6hvd3CWGAySiX9LcWZVG/H
+YPIGdxwoXiGmRbrsSsxi5U4c7WQcEf0qJjYpBIn6kOzdh6VBhlFicyEA+exITUa28HuSDZinhzBA
+7vNmRMimRPL/CpmQ5gn0rEo7Mq/1q1KjA+0o01gAMjaLCN1F1ZPA4HKe8WSXo/tGinSSZmqqYPJ6
+ANpuApPod+4V4488kaIbFXy6OEMHqSJTlzV4nubFH9PreBJS4aVqSB2RPCzSaN00RiK+kAf2jcPD
+JSMx7SrzRiqUUtp5qjm9+EIvXqFw0InfYJIpv3tNUuYyTQJQE98g/5wScTDRKRWzG2gGigSaX2kD
+Gu6YGTjAgdhRxhCJdwEGB7GTqyIfrBNF7aGtKxrMZavT6I3F2jofBb/pdz3f+/vEvT6cqdQ4zqMq
+oBOudFSTJJNyJ9AI7s4cHMo1OQOXSCLWeWdPNaWNnRmWFfALK8j9h7S1aDsBsJdBTmWxeaenObBY
+LiH/pkzAFNsds/wTrHp3Mz//AOWICcwwQcjrW0iS3q+4oJbsdMrAu0MdzATACPYpz1Ywspn9IhgN
+kFoJRYw0QkR3g/Kd+iuh7IYKrFwED4GaNbyHRat8Rk5JTyi3ZckvXyor8BBeTHHJsijIg07Pigcp
+BwvASQsSQ9XQN7bDGgNyl108vlijPnVk9wqokJ6irQYeh2QSxLSa3KshrAaHfpT+ppmVccfNVCvb
+3PPpeLN0q43Y+BWJf1UohTOfzuNWjij5bKKhoaCtmRMQycBMb2Y06ugGQzlckc9ktX7m09seNwHS
+BOVOykvhqu64S8/iPFfOTSolsm0iJs/DPh8K6aaGFvi78sTpRg/NpLF7IBbtmZpPZvjNLMJMojzv
+N8bl1OhJ8cgLQXgULMqiNIEKEXS+HpHvNn0hPSfZREVNIq+Pfll+1Ak2DzEQip4EZWpXlGDGfxoY
+kVo0XKxM42BQKJKBsvUpwQP/CccfYEs7/DQsiEtbpYDJY+ftiOvsaXb1UsgJcwCkPdFsgI0lMw0L
+dnOCvo9VAvuhHazKLxi/enYbl+3OiPvhVhASxFwFz+dzNa2bxK20Ox1+qX83h9cRc8SoHZlafSms
+BGm1agCtpDbEKx5GCUDm9kwEI6igWlvc0KGw7ElT/W/VkAAKPh1cWtLyP6LLokjPEUcGCsn71G7A
+xV5ZpQzez1VOOtqFbuRbskOO8liSgrK16TtXML82SdNrbhaZ4y7LeHnLvQ8Me+SpD3bDWvu95AXl
+fPF7qQstBvzJdI2GYmbHHtf/ppI8NnWKFeEm5t0TFozIbpAIlOjqh7z5YK5u4gwMDHkWZfhSb55O
+z9RSWeDjF8KgEPmC2QBaXugXlAOncqvyOM5Sn8IrzDkfWEdCXTKucz13T0dbSlHM0VAmZEGgXooj
+5WL4Ra9meLmDAwEMbL6poaEAjoMsZdjhoA1vHsnFipzBsWWICqKka2jAImK+WAjAI+s8runCQwaU
+b3VAJiS8EkjcRhzOwc5ZuyKDrJ0r+oq9w2FgVQdnrM8rEJCitdh+oy5AEykKaICZ2M8ipuPVSPfs
+G+gIBeR22bilWZb3lpb4XxSLYMvtRZ4/+SdxEaVWY6zKkd7m1RX48VyCDosfqVrJ3bkpSLRpTn/U
+w71GPBRoNESL56+7kHGoRy2XQpW9hgOSeOGDbOWyLfIVhZ3DpUMUTABNmbQDwsG8sz6NitChYpXs
+HKWXmgttBr6ZqXRBS77/boC2Xlk3h/tCRQJFmR08aQciZrUfDldUz0oFVmrVcIM1FIkdao8/odZI
+Z1+fPg5qVURtDGnf5UHZY4eg0tTkSKhaEnguTDCVYgHAcmVdHJtBHosYnNNVwlZzoYoCY6yqhpBL
+yCvl8pz0CMoXLOXQAUcK+bmigrxi4n40IhbuIkR7JPaMxR6QeNSXacvhUgRC/8sbqa1ZTTQXL6sg
+vkV30lwRHzsaUAUAMmtZw7qfFT8+LZLeAD8bBwyxoXMPdD2opwuULFpI/r12Dcaivf36x5vV4dBm
+UVWNTt9+wBDsOmkLAafSKIFWNxYQp6Fc+XLHFqMlWmAHSMUM9eA2yyvNH835y0mddddnKCo4g+8b
+wqZNSGRW9vNSlmU+P/CIYTFyaxNssU5yq03Ie+EdV5Kfvoa09kCHxgBXpuLSrLPZ1lhousfTE3nk
+uOToQPNMApYC42uxvXVdGKShzNneVlFusgKqWT1SeVXSaFsmnokmQahdzspyb6cDHxktgbmM8P5D
+BHl5I3tg1IcGbyqK/J34BDMopvEQe+ENi0d6I8UBl9nDOvRWtv2xuJhuKejzykRfzjL6MX6Uzdte
+9gFDO1BfaQr7UhJZG6mZ83uphrAUSC3/x+kRH9kkKNv+V+TFVHdyiP5fydFWe635LMMzj0iHpO4M
+97V260MHXwl45IIgA5XxmlEk7uCl0UzdWw2QwoQ2HmhYV0M1dNsKylfV+Vi2Bn+/inoYpzbas/tb
+sYLubsAuJUpcDBdl0xoOYD0NJL7arhwzR74dMoMK62W2y2RI+6HKRJSnXktZM/D+XKECVjZoFaTb
+kEbSXQFE+SmWrDVviSOngDUrv+MOpOHALC0GCFkaQeeOLRKyNFyxAooErcXb+SIMhdNL5MgXs8B7
+WHhoYGqDNur+ACMI51SQGKCH/o9rNWCY+lJbk3w7jDL7KeBgYM5GL6Tp+1HEzsSjo8TlRUA84Cbu
+Y7B8QdStJGJHoszyePyXs3OWkd6P0sJVSTPNoiltgA8tpEwDqRN8VVPZRFeTRAHbQm4CBfGs/SiD
+GHQDzwnsKAGMpDcVWjq5m1dCE6ycG4erQENXVRMVpLBxNVgOJ+1j2DnQ8YFSN4CSnXAayuQJzLhR
+DjDLxl5euw+OTCAXgYQ6vsgdB7h8f2j0slQ/0/CkmHo0V8NUrhzgkSuyw4eH0ix0yemPWglZpLX4
+SjJ5Sz9kFFJlUYsvuibCi8JP6K9GBfrHM5+7GJ+/usjRGUaHHkA82oYHL1S85nH1SMiTFaXgKRaY
+xbYYh8E9HeXIwAwTIU9V5DLV5eU7oEeZ1q/ikqe/VdKsTAJkhoyh3ppGGzjF4K+Z/Rz5WsTTZwtJ
+GR+R5ULMddnr4tl4RwB+ZoPfkLY1CcyXj3QMSvjLuUh0Udf1xQk4cGf0ecrrJigNamZU3HzYETLC
+SbvT03d41KLRhoq9ik+JBVF+Hu6njC7o5czq8Y22PSWbdhqIpZdEoFt3Kcg8WG89GK2SnZcBVc3T
+gY/MI4JD1Po0hSMXRNB+YKvWIfDDqLDbRPRuzQE2Vx3F44qU8WHaQ3VNhbuHt44pMcj9KJ4eIJ81
+S4QqOPMBQ0dyBkpQ/53kvLyETts5ahXObKGo81d8UY4sTLJJBBA1rFd4ii9mtgvFsCzxW7FzXfWf
+4DdpT1NrqfU2ydEksfUY7NT263PK4YVOIpeKzOG/P1rcMxH3QsbQ7oJGuI40FQnzouhvT0c5ckIC
+ckBTUIbUZbET9qPkxYBegAnQzErMbAd30mtmPQCDnmKSpNrKTjj2BXXU1lCbtEQTKbr9aK2CsRZY
+WF6/5hDuIl0Fv5eEAuL6nhFdZZU/XmmUBncKKfzD6YEeW6IGcpB4lpgSxinzF/60N4yQqrivazAM
+AE/dSuhKbXJUGp3TUY6tE4ysyMy54xSy5P0o6EoViizwqVI9NuwagMSLMiBVCsa3pD2n11+/4Mz5
+wY6cLgr6hrYY1YRkSw4NEQpRGmjgL1WfHqhOOxhsGWpcK9v86OgoKMyZDv+7fBQjgQX+FCkIpGI8
+yAqYDNOPqXNrSM7iVBPr+wmK0VoZ8EjQ2W+FJxYzKqFzsz+lkwweupgg9IyYv9ECgys2ArjPEdDx
+09Q9/f0ODFH4bHih6DK5oyjxERcrdEipAun0IWyLnZBuwq4Rr/oB4TArbLIzz6RPJIVlTXOXxjcA
+XXpRtj8adP9SpPFWVtORNTsf4yaa1jq6GUuZ36AHnIntUw68pvI3OOSC4vPltRfH8TF/CjP/Gp+2
+RqQ3SSd62Np40zTodtXOmlp4QKqakypWc8PaEs7FnmaamaCMWyRIDgndaGK3E4lfP2gtFccIkScQ
+GrzaIjXM0ZDzDJUhQxxD0RTA6rtSlTGoMNG/6GppWFnSx6aYqrfI+YdhysHLUtUnnCIQYLQNTSmR
+W4M4ZIxpvzKqI6csqRN/P5q3yqyiuj/DgIPVZGh5IqCcVz57SDe7ZSn7rzhqr12SRwfEc4sEkYsY
+wfL9UKgwgw2QuIor3MFdrwIUSIcmWLmKj0aBS8IxAEmCD7YfBTqTV8j4oeL/64fmFnUitXV5ZEF8
+Pr0hj80czzfWPhV3fFEW66EiyzbhshJIaMStACDdNfLOuCsgCn//74TCkMFCXddAp2d/TGk91I0l
+8JGKoSluTK8JaGeaIHkBFPXRj/9GMMpFPIBEXij64jOhYhOQAJMTdnQ4ti1uRxv0iRAhaZJ0ezrU
+sW9F8sKdhPKyifzO/riAMal6nVLCYGWmdyhYmNe62a2ZdR47plFCZsdyE4nK0o83Szp9DCfWXVYD
+nbRb4KLnHI79Y0Bpalu0kHxOD+vYyqDKB0oR80iW4jzsT6eW0sAVT3V6ZshoZU40wYqrIty/MLQK
+Vj7W4dh4ZpFvUjIxKGJoyxnEdjWpgVXPJGpwPV55l5vVBUJ0+plYhd3KwI5EMzGjoiD74StjLaO1
+ioCNOL10rRf0Cz+1hIfIgohBeWu6RZnPW0kBD9cHMtUSZkDc6hy5y+p9KOpg9oUcLjsN9ediZkKk
+itzfn/5cR6PQG2Abz9LO5uJiFYROHyZEmQC1Ibyqdn51DYpzTcz8yNzNmQkdFor35HqLPUz5HFKU
+CbQ+68buVpK8GR8B2fdCTXv9p1x6yZ8vD2u2SRTpRSgaEtmLgIqeVKEfkKUjLEb+nMq/w8z4ovm0
+yu6dz1q8C+jnkAItDgtZQGMimzoePrmCeG6NZAxlZTVzwF3ASxP5Zl/OPDjXNZ6tCGuR8EnzPH/a
+XGVXQLzpLCB9SdleGlPkXYltr/RfPt1hVYh4ThCC032ZlJsp4B7QHjGCGE2+SeP0fZpxZZUerRls
+HSw/vEh4mxq0jSQZS5LFPYLAbyW0IvxDqRzD5zQXik3cBGuF+WNR2LR08LmWyCrmn3+atoTUf2bZ
+AhSqEmApYaUEl2qopSu373wCfNZiRyGcvrAoU6pTWOTLzg2QU3DlBmGquFdKO85MhHb6sY+Vq64t
+AAZGtQUwDxY+Zww6muXX+3BcJ/iG0QfnUGSBLM4otMrBBMwVPNhgpmsp/XsGzvjsi3trDgIugT44
+OQaUnv3ZjKiuD3pAEPSdvG+QYADKCL634to5Hzx7k0lJdXYjoWhHzgQCYz9KFWZ11dT6SwsBuciF
+Oz08S0Vjm0uyjXUPaRSMMtwnVlb+QalmjgqriboxFQ1sQ/ejAk9ECnjQX4b2wgrMy7TbyLnnJHrk
+TtPT6WlchqI4zXOXx/YM7cAIapGrhYhWTJY1QjnWB/8aKRXPafu0+yag374xUw98Gne2ezro/G0+
+z+pHUMsk55XZD9xk++Oj++yjAkzQAKZTD2pDmGuiiCc50MnXkBLLbbcMtth2/igZJlp1cEMx0boM
+MtisU6ckmy8Paa5WQ3ijAkrmuzhCqjzHcE2bAY6BB44ezuCdKYGuC4bGW9ngRwa0F2oxe5ruecZU
+EgriYw9bIvV2KLd8NTFk2gAgYDjOS34uVS/qaW0rBUD8kX6kxKztesrntLYmY3t62g7HwpUF3YJ2
+zFxm0hbLjwcJUgADj0d0QD0buaxnMZae/2cxFp8G+sQUaTpMSy8sCt7jdbABT7l2hxyuaUoQ6L6a
+zBWHn7w4j4ZEaGR/Qqctrzv9tzQgFpHA/p1FK4w1S6aPBtX+BpqDcVHNyQVn02IJ9AgwqGNHmyxG
+Rfy5FSvg/zVUni3a7umtZeL3QU5XfENZVnaGMJLPkeBNvngCcxxyLc/PcdFEzE5c/BJpiXx7GhhP
+VgjVoETD0Rn0eC1nO1ggcxAwFrQIZVoLxiIzTNGUQaPYf47HMrU2SqloF1mmjtbu9Br5KOZ/mlEQ
+N/xnrt6C5sDQ01wsRNRlOjpNAujbFjgjeD/pEq219lprfY1NLDRwoQYN6iKMpz7GXQQ6ceufa6ib
+OPxua6tpMewZAMS2g6HDo4yM1VqkWFVmZn1RDL09AUK+rIYYLaRaaVYqD0ejkNbjPkuPw1pW5hXP
+COOMbN7WU0juNXPttokgfe28+hgLTae56TD3UZYnyZRjBSFnAadigMNIBfP7UhGntebkYv99ROGp
+DHAEcAe2O4vVGJqZjDQfEhTQIBJ7Rm59G5BJ2Ibw51aSgo/cYn+x8AJjMHwjLN8UfXE2qmqKpPTI
+vAVR9dBCIEKSS9lNXnyGFPKZllcvbdi/tBJOPKr3PdPap4Hu9khaWTbxOXr3a4WQOQ1Z/EJkfIYC
+aIzHDSfp/oUKawPmr4n0vihVlvKeoisbX2Q1HdTbvsQVahuHUyrfozUX/ppCVK5X4ElHFhKtK76t
+TIcb76bF4VdKoxyM8+4JGl04j/lKlyTB7ffTm/TIJ96LstgUXjXJLeKlnQ20DQViPc9dMM+FWwZR
+4p4OdXxAlkWlkQuKDHB/Qiuos16WsGbbyQ+2sjUI20JGw+rrUTjIsYXXRRofS9c5C/eGBEk31lEe
+RS8wr+troRP0+9NR5mlZLg6DvsPc/eOGWsLiAHP4RZfC3I5DKdoVCCijNyYmNB7ktigulC7qfpyO
+eGw5UjUQwXNxLfAW2J89WNuZ1KewFhWKfleDpPWv2CwI57DItdsUkTqU2HT9Voc/45yOfPjdQN/z
+jmP/YzZK02M/stDTxRGqCDkQUy2vojjLzwKrXmusHI6P9pRCq4g2lchTbv4tPr3kArHsdLFIRxvG
+372oa6+daj54k37RIQiDBGxzZqjV15AynG/E1OYGO/AOkx7ufkxITD3P+Wy0y8pI/V8hqpOdU0hK
+qDso1haBK7e0gM7qDLGclc95uIBoqPKUZKnynCRb2w8NHiewrJjQpg6SWhm8aJMXQbnBLQnGRFOt
+VTTmj7S/YOd4Ki0WHnfgkBZ3/ihNnurLyOvUPUoK8pBGPxPf97ZAySN4k0ZxhrSxdXZ65RweLhxb
+tB4pwWPopMiLN1cwwauaZrlG9JEEJxZzwY3V2toWyHV9+XAhFAAr+KW8fUCe7M8nqkS9kQpI7tCz
+QoqbSw0ydNbM8iGnx3SwG2ZYizS7s1Ha5Y5frBlhgJBtahA4tAFBEKFCKKuIMV07HeVg5mbQOyHm
+pgKdaHNxLCsJZD4TnwIHMmfhSmr8HhlS46Zl0q1EOliIH5F4D5MQgUvVlP2JszzAzBOyWVDZ0Kvd
+kMihPZ3ogfYbEpuJfFsRqdvTgzuYwg9Ev8bITKBC1LD3QwbTGIhoKyFKOpbtOQIoqQO1KHO/GoVK
+Ca12GpksvYNeHvKkXWSUUJ+tuNY2ZdBBDfX0aSXJXe4rkhVgJgb6F1i8oF65WOIQuyTMo4CXtJ4n
+4mCEDKdO3oJfHie1ZSn3gmys5H4HISnp8kiZEeBACUkQ9qcvkQxlUGpYImFdSe6AELrmWHkj3EpI
+NN1YZjML343N5vR0Ls9niUeYSJLxsZs5nhfrfkgyJAsyHKXUO29Xwvx+BGl74a1EkRbFIU6L/TCL
+hd+YSmEFEWE6lwzQBt27+TnZv35cB/Zt7b6SPNio/a3sgYPkcxl1nvJPl88oZ3FSh0Sl4rsNzyT3
+IXUm+92zC1u0861sByvjXJvN+eefAsKMjxJh9ueatlhzOOj2OZlTrOyAgwfYcliLQ9/CTZHlSZTe
+eWNG7V+ZffHH+f54emUs29nLb7aslpPRt3qZEKZwXx4zF98V+/fF7evpKCsLY5n/JEPfdmJMkGYb
+2q3Tb/KdciW7ax9mXsaf78nFlC3b4aqAe0xA18mWMtSYOw/8el61F11stCuJ6kfedCrUYh+ndVYb
+SH3WdrlB7cqhluLgCeSYru6+7p5r9we6QP/DFaEtjl4lrCQ1mj/VVbl5i52Hd233+vhdWRnakRPq
+81mxbAqZRlSb2RzF1J5a7yxEubeYbTezGJGMtT7oxyv01DwujgwFuQ85mTfv6LxNW3GHn9am3gbX
+4blnJ7vVz7a2EBdnRWQKsoby1nxCIWZwg0mBa2wxQHN+hG7o/oFnbqMlZP9ZDTyP49Q4F2dG76cI
+6ZcEVr7LF/Vjfl1eKG/eLeWwarSL1/EhuwhvlFvt4fTGWxbGDrb34hSJVUin8DH/c8Cpw2VtI5Dq
+oGW3tjrny/LECJc9ekqViVrNkYQz1ekdCED2L+PKuFh7a6xtvSWawm+GUM/nQApfEf0EVkx3hgeY
+49mGU2ww93ZNx3TWYNhrS1WX9499KAjJKM1LtdyAkXcQTbEfUQW+wXv6B0LD56e/3EfycWo+FyfM
+oNcB9HjCyTuwcVymwka6RiHNxS7M0TZAVuxvlX2B24w9/jwd++jdQ4sRRsBMvAPktT9UhGLGROuJ
+3bj9Rn9MthRSt6Mbb+tz+WyttHc0bfgUbbly6thMM3E+trFL3khsTMW1uCdUx/qWOjgP3tW3CHHv
+qp16aa3M8rHDjt6BwrsVtBwV1f2BRiheR2NV1HaFjLwoQZhF80od39uscqNp5fWxvJ5IxiksAjMC
+70E3UlycdXoTyl6QqJMjKI2yRXQJeWapCjFrG6eV3Tj/3p8XD6GAbwIdAH8N5HFZ/EtMWR/kDgsu
+D5L7t9zKMrC3SvLFq2KOooKa4jVAJZrO3P7sqThcYyyJhlIDwfcG9UrjouqS2hFHOb2JijT9AeVS
+uj29OI/MIojhGbdNyk4tfP75p+wrR2ehqgtMH3GuLDYIvHLTq016h+59srI6Phr3i2nkDSfRDySY
+xBNrPxa2PtVkGcLoGFmXWQ7SGfUPFOUQZqq0XIkfEqlrUI5NDQRwKR3Xgo3gYnqbRKP3qDVZk6M/
+0HXdeZnq8h34lBKzoiosTLsQMWA6PS/LrJT2KmsYpqAFKx6WyGJ1CagshaJUDA6+CDHqwIps4yCR
+PlPFRkOgLzrzYixkDv+wGzanQx9+EoUJAlxmsbbBgi4uN+RXhX6EZOFUjflSAr340aAedINk5hrG
+80gkmY6irgMY4NW7rLz49exTZ8kTenizHEgAScnNxwi5T/o/76dHdbiHqA/KFuA2SoSsgMUh6Bvi
+kOZoUTkGqjWbphpwZSr9lffgwQXNZ/t4u0umOUMdD24zeiVKNLWd4wmBZw/YgNpR6it24o/pRdhO
++cZIvGQji5F6Re0kedfSUVo5LZbJycfvAGpG59CglqYuls44db2fl6xkEwFmfePnnvBdjUUQfVaD
+bM05msOornx5dmeyPggqOjszSnp/aw2jFehRjEO8iPynUwp1eGbVorwysiPf0AKaPFfiQb2BVNyP
+4vcdjZYx6lBkwYQT0SKqSzhgr0Q5nD8KZAxEon5FGWHZbYhHJTYaYB1O2BfZVaLWkhsKCMX0yH+6
+aTt429Nzd/BoY8oYkDn3h0FeQkbYH5aK8U7WGAbGt1LX4VMksFpIItG5Dtyhxhsa6XitG6Itrsjd
+a4Wy4S+/tnzTlYAWTNuoUPQ1XYzDmZ7xGUAmZjo2acP880/HsjyKdYKpLULzU+hfRLkwnXuYu6w8
+9g8POcaM5AgTDegPL5n9KBCI6ZmNZu1gNJu5ooh8ToI60JloagLoDK1Hbnaou3NPqP8F8vq3X8O/
+++/57X8e+/U//4N//pWjFTUD0Rb/+M+b4j373lTv783Va/Ef8x/9f//q/h/851X4q8rr/E+z/Lf2
+/hB//7/iu6/N694/bLImbMa79r0a79/rNmk+AvCbzv/m/+8P//b+8bc8jMX7P/56/Z0yJ2HdVOGv
+5q9//ej89z/+YsHKrKB/+xzhXz++fk35k9//9//K/3b72ib5kT/2/lo3//hLUNW/f8h8gPRQuIko
+yv/1t/7940ea8ncJ5A66HID/aIHMShlZXjUBf0yy/g6wB2AVlMOZ8qqwt+q8/fiZrP2dzAXqElea
+BoZA0//6v7/i3uf6r8/3N5rRt3mI99k//iLVYnF8us1VekpADkVk+WZYwgFIoFOVWG9DK3AzbmnT
+qXQkozY9mu3v8diaP5peiV9Qd8FXRItyWC81OvOofEr14Bhm1P8yo6FVv1mdH+PSjsT+VWbUwUtc
+oD9md7LlXZk+DexdJRd1jmij2pXfQZC2pj14Y/8UItRxF6aThcZp2KT91ixTiNpIBhu+cBunsYdS
+EljhFw1L4Rv6cGqxRVVP7J8q+vuS7KBQJrVvfZKI38S+mS0v2wL3g8zXf0ZWO1x3qaZsRcyVRpdh
+IiIsoy4PNaHFlQqV/bx9CSs5EJ1GtrpnMRJDTOKQPTRtvy+HW51jCj3UfpaDz8II/BGOseOurJr2
+yaoaq7ju0cJFoVqU+pcoK2HFxaNfqZepVcKomfyhw7TANMYnvRt6DIeswDNsPDw7ynBQmks4nsiz
+OH5AeQFd3VR594tqvDT/D3dn1ly3ka3ZXwQH5uGxD3BGDqJIShT1ghA1JOYpAWQCv74XZHeVRN9r
+h6vL1Tf60WFJZwISmXt/e60W11FsBUXq7WhogsWbWaDHfbNujnct8XDBPcg2vUhLETMm0iZXupD2
+dJ2XgnETKAUQIHuNhidlSJLpVXOjv5mQDz83ZTQ9jLLIv43TpC5j7hdIDxwTc0zn47cQpeneMm8w
+3NDUkm8lYmyImjS6r8apz2WypjmI+DQcywh++txep9vuD4pN4d+Kxhmq3Zaf/ErBdSx2Ks/9cBcG
+5DGTBWFfHeuojh6Vs4joyIBGdLfIqhOoHjbnVG5HUFFzNEYbBGE1usOKX/yz2RXBPZdLO4GNC8Qt
+khG+xq5c1gHqHsjVHTg1q7rhWud5U5czJDC2sHDMBC6jbh/mXf2xBDKU7kZ4UoeBXVQPGDtqPlvT
+0KbHqMzaz9xr9cuMPpTl0rBRYvW4Tt/nPQj7XdTacDgtC2ToPIKXKse1usFJxF1Q+3n6Pq27AjBo
+o7l2tTHUdysD/z6OvUCyAvdZddChAvvdtiEmij7H2cusqCYuVYarfgws4ee7nCEeKgWFaX4Y1nxG
+ggTMOM7dkdhWAYZlN+G75mAr/TVkG2uhQ/aMFRccZXn2sKIvgf8XqRz72BXm8CjtCVBbD346FkHe
+UPsNtAk5a/QcdhhFV7mwtEIcCmJ16SW0viAPjD8jfLuAAqwwXqTGNV6MTOzgh5SP+WQUE8VDw6j3
+QngSIDXbNDPBiKvvYe+Fjwbsj28McnRs2qbSuy5tR+VJM+QaStuoAiSYfet/ni1dYsMTKvgYDo3k
+tN44CDJZDrsHEbTFe7SxJRxHbY4WcS8EaUkxrc0T6GyZHWoL8n0CGU5liS9gnbFCGDLaG1G7XItx
+MyqJSOp3rmqQnvXrQL+pKgZnPGqlZtQMdbTAD4bThkjFLEZukRAZNIU8s4riDr7aha/WTFpXiRsT
+AvSbiXbVfWodQ+/WbSe0kK1MnfvRD7IqWRkADtANeFD72Z8Xh0YxsTCXEwNQIRssrDVG6rr70fLk
+xwDSanAJoLa9hZWWf/FVBZQ0K/LFZHoIIOKhEQK0nI337VsH7WBMyMga+8Zl7g9OMr1N2Oxjfzfn
+Pm4tcOpowtiCdGdjaKHUmqUu5UHMlX6UCmc62MA0+GDmygyuZIdBLh4cET03SJ7xirewAvfSVCX5
+X6nmR8GiCBE1gsqLW2YBjuNmISYJswCViiG+r+5VKYkUciWjBTdCJ3uLYme5KJIlDLox/tLs0WGC
+jq9qv75G57XKc1pRTt+pYsQbTF8pQgrQYI9east6zCDXgeCpmhJOvjU6DzDERcdPvgTwnFGy7+y2
+WO5F5Ndftd+xjlnZYBzHMV33uNLHS6k2VHULgBn4sQyraK+9GvJkjg1v1wiw4TtlzJPaozBzXzCp
+GchLbKMcwKtozIk8obwAoYIJmMwtJdpPI8ihP+YV1zWgqny4gqJLVtMZhhaU+lyLIAn0CkuePD/v
+j42d28bWOoqz326HWCD84iuCa+FfCYn+JUkrCX11lCKzOURgYbimhw+LrCSu/AyPdtX7WS9BhzB3
+sB1wwfjwWCdc4+Oqc/jcyozUSjsRsyy3+KIe8tqfs2OjGvOxZ6gYPL1jLhHW6MpsQQLCKdgHeQe6
+V1lZhe1wnQoCa0XWQBf33PxKegWI9taI4OgKWSJ+d53UfjbD1uhPnjvAanCa3hVnM6gXJ1Z+qh5D
+seEwXQEzmbFG7bu72ZltoGUh1q8Y7RA4dzHV+mUtV3gFIpy4TMx6ct+Bgpvqo2gn/SJk49cnmXt6
+PZnTyGLlhgVXWSvmtHt004VBM4elEYQ5kuxd6IjJT3zdRx9VgHPlMOHoU0loB6l5BKiLc44kRXTt
+MPTL+C9Pw3LfmGknD5ocjY7XdC3MDaAIB4AHw5KfIPJmLFfmkmscVVbXxaHkLYZeI76IKVLtQbkL
+10NrLLz9cC2X/FjaCw8tOcnF4lcZuB1KNfDWW8D7SNrDaPWhijoekxtkLZC9VJ5ersugBBo8T4Z8
+IKtD6w1SSh8XHBkxR9kIbWJZzswvI4RQX0svaG7RBfTr3pGNvrdZKdGajEVqH6PMCeVpLRAix6Jt
+nP6kelWEb8TazP5eLeH2T43IGw/lkvHNZ30VGqdZzQP1bIvzzSUv2OCcLWW0tA9UavrMDYY8QMjw
+QaHCsGV6Me6dRp6nweCLhBHSxr4Sqt4jPbW+pTBg+82OQbqpWOdGnIo8t7zEEwhC93IRZrvvsQc/
+yUxbzJkajXFtSlSlsXRWdgCBEktLaSIHyV+Ch31qhyFNz7g1uJYWinVwP2fHCYnLj4FzcnsIxiHs
+zf4oCiY2zwqYqWBH07jZrekAhb5izZ/dCz4JLmPSGOH6ViKtrc4tx7Dhg9duGg9kAY8q800oo1JN
+6bHkqHt2yu9vouVWOrcYUblRIjbYXB15B6lX6sBJFuSN0anrMbFfOblhvWsibZcXrkCfdBeeBIhT
+HRKoPZAm/yMRg+JLOY1NnShVl/2xmDY+QwPT2TkIo3KeQ402J3FAlN8a2mm2p5dZH5vR4CM0SC/u
+qbSlEQKCkU/D8QAhaDqN3VMKWH7crQHXIpsvtAD7lldwY1IgaH0wuPQg6Q37Waxo6wsm1rik3YX1
+e6AGJJKVmJAPLNvlIh2anjuuADM/cPFbXMiNNrnABS4/xnC1x5UUtGTtk3VS/UO5hvUQN4VvsD1t
+LPcd3ysCiLJy1j2M7ubSqjoYd76liw+VXNk/5F5v0sCEbDjCNQydpyI3C38H25OlLJU5krs8b2Ff
+gktxzyGlIysW9boigPLsiGfxHLCjnBmiuCe96LCITmnEFtVpv0Q9euO9MY7ufQhfG2FFM7FFtMWi
+v7VBuQRJCtagj9OIakm8BKL6yvQ808WcQgbzUPQq+9wN81iDnBz7fI9Yck6qClTxHgpzTe99lfIb
+Yz8Gzjyjqp4iXxfMUOJvvendTf83rf56Jwrlv19XWL27nhKuZK5DWe/6zLT7E7+4a++Wxh0PiyJX
+tjeMYcqToXS85zRcUDQEvVXH5jjxkPL5bqd9bgH3Z/DFGK5Y7bs6TjMpHo088Me3uufIvkeH2MDB
+IzfhIJMePH83z0Xz4oSbdEPM8iPXMyI9ORtejB7RFLGIVM5MMMyMia/ScOGDNHmmE7i5CM96NYXM
+Ylsd72S12Bn06cawJUk2rjQ1Q/cTpGBG67g10y/graMyVsGm5wlb51r0Hs5juwqrGbtX2TtkkkRZ
+HMasNd2TwsRzM8zZ1Bzm0hy/BE7VRnslStcFs2GbBhsIKt7xXCiUO2sqpo9GbruAotRiJ3XQrxl7
+LQD5x7LdrglII16zx7+BcVBPjobfPTBfuJ8Kt7gK+hCJpOvP6nOhETTIysiMwxggguKkpAYw8R3P
+y91gqsHfl6EpP4LyZDF0lTvdDwol+vGHU/9vR+ofj9Dfwz2vTtBUCbfaE6MblHpeFXkWS9q5oUWW
+WMhjADfNYXnjVGXxMZvW/okES/XF8VI8HMxQYNBc8YVrvAVmpeJxrANULimrQ5IPg/vCKR6v1B+/
+wVdFqO2EDzaGxNU2pEG451VR0VncnsJ8JBKVZuJmJKWe4Phb/qQI9boT+P1lGBOiC7FllH7XyNFl
+k2rDdDLW0SrwXkIqmDzOsbWQdezL0oyJeIP25+Q9v6yj9t612s7IYFd989h6o/oEun38oPPaG/7k
+F3pVifz1nQFAgXGxga9eJ+lA79LsTUWeBOFL143ohjtGsk6jmwNjXOuXv/h1f48yMYZAyXirRW7V
++h9qfnzqwDXShh1JPwqGe8GmAy38s/7g7z4TW3uTMD6Ty2QRGYz5+VUmdIJz3XJXCQy2dFu4594U
+vQZmt2Tq6CA0/Wsdpg2owPgo/QyqRdBdnVcfi+RjZadGZ8dwSDiaKqT3mSwKihRKJX/8Db7qZ2wv
+5RHtpGK65Ujpt/782brKRCYAq4RVcUYl0WPr0A6Q9DLqhz+5ar9f/D/dvLwWHbPvQ/RbnfZVMysq
+WnBXRe0gAtbNh7pPHSQvnGNwc0uMBp3IQfE71CjCGOz4vMRdJxprrxCPoX30kF+xzV1TH06XEjjT
+kF5f996yfuY6878YDlxkTCEe5zZLremT9Kfiz8r5W8vl9UeAhfZ90hucl/eq/FuUfm/pSfHLSLO9
+ytKmO6KPQm9gBOIe1xCaGTUVcVFr5xoW4J/hf/6LK5HiG4V+SEM2ucRXZXcG2qJxxCrLhlWER2Ml
+SOr6Aw9103AoobTm2z++On7/enSKKXXTLmaU7nexPVz3kdGXTopH2Qw4afhtXG0bTyuL3s6z4/3V
+1XNrTP/wctvb+eF27oQGWJO6KY+/0j2VVTPv+xznwR9/qO/Dwz//iAQft4YM4iSKvq9n2ylp1l0e
++iIZFye/9Srtve2Wli0vLm1QVvhnLFu/WH5apqestKzjVKDpTMqeoiFF21U+8cDkpMCppGL6VDd5
+lQRT51kJQa8VvFSu3HdRJHBncevhJaGGaT12nh7YhKEa+asQu21Gn+q0SXSYtvrvYG9qDjBh+fDy
+FlunDyFDlcwR2O6fNAp/92gjpkB22eS5Y9Iuex3JqNqlynyy/vFSObD4zZYiqm66X0P1/74mx//A
+9gVBCdaJ/7578b/qT2uLFeXH3sWvf+e31oXn/8K+ge+VxxkkQu62f7QuAueXYCNw8RvDsiCjzv/6
+rXVh/2LTHKZ3ApuLW5S9wD87F9EvIWl2+lMES6htABH5C40LHuI/L3tOaPNI53EUONQ+oNW8WvZc
+lUf9ElLHHf16fp9NsjRWQLaraz+z87ZrXOpmHhEnZmOlO5STRZduqjyUDh8xfSoyPLTod5MEGgnv
+sBB9Ug6uqr8ZC6GUT3S1vUsfdbNzkzVOCtqiGvvujZ8paV0BkKA7YKDUEWc9bPKSbqWQVVa6M3Zs
+FVVSzLN/P+I/xnLRqfLY4i1PqgF1DVoAL1yCGInCkH1sQtMw7sPMi3auFsZWIpo6+wAMPgiuUJGa
+H412avlHsszaGVY9ngTtvqTERtJ9QRmkOPcba/6Ym1mjqPGBBHz0ioXuLyq+mnN3VRO8xmgp9OPM
+MkG9cC6HOT06KN0eVxk1IyM/zCsuR6MbLfcWbUBzKdC6Zy8zDIF5Z079eJ4pedRHw980gW06cHgs
+Uj4xauBoHT6I1cmeHLizJZWbNXtC7MeRloKT4VyaKZxY1XDSnpwmn0AzrOQ11hy8huza7UCbqWmc
+7mtTi+oTG8i0udKM+aY3RiexjmZmaq/3FB6KPcKyQBx4vvn9pR6CoYspWK843EOnzL722sfa7QdU
+k6gaYjSy2Hd2FsDObihetD1k0YETmFO916GAxnKq/Dyoz7LuvPHFUmJqOSlXMwsx5j3HN5TP+dlD
+MPTZ9o2uWL8sJOCxB7R55M4HhZUVK1peat9+Tz0uyHZuY+DmlMUksxfXHhCnTaKPlSusqxSP2q4q
+kXv2nPxOYGeCq0AE+lT4HcZa5Jk7jU74c8SVOvENVZ4z39fUXikWGtKtj4umhXimYpn2N5nhDim5
+gGXS/S4q51K+pcti+G8NbshU8CDEIobLgPnveNByKa7aomec2ZwJcFlbxUc/SW30F7yXpvHcyz4f
+3kT+OnvPzNn4SzwUeOqvqaM4OplKI8dWMkhlUyCiCJJ9DrLBtqeYfpStclb1ooq5n3znDYOVToBq
+LTRK+ltePntN99wqvaRnjtNZc6OydHRjewJbEOui06CeMjQuezfAkGJ0RsbpPs85rc6U4uVD0Xte
+cVyDdeqfALVZ5mFxGJ0exrLLE7+2lvZA4WamvtEWgi6GTRn4YjKQV8WyjyJGmpuglRRnt8qKyK0s
+HhEeuwWwgtUrk44aa39n0wl7U1C7RTTNxE3qfJqb0Mhp43CWUbdOpNP8WKVOgJcJ9x9e2nWIpQU7
+rnDxdnmUnQdPX0v8MEPiRhXFRkXOzLxTeNnvW8h21NHCUsPzCJsGKb2Ux1CWuLmYpLJQDgZ6vC2U
+iSkRc6dXGbE1GYtHtwyb+nVdU/IQMjMPDjQEqOdumWy85e5GRubHefQ/RaKf5jf24Jv5gQGecE5U
+mOb0EbpxGnZKmU6iKl07B7eqLA718HmH6yLLcgqvltOP+k5IrYYbs2kjxmIBfkbvqX2xw5FmDXtc
+qSq0rgW65PkkrTlw3rf+vK0CYYssSbSZL65bK6KEZPKTVEnYw1JgGTAM/TGSWa+fJSGoXV4JBgvh
+36fF/ElOTGsdhtEMmzu2O11xJxgfOziY5pw3dVM14uCbBQmVncWbZrHhiLPc+lSfn9eGXtmlr6Tj
+P4nQ7forcw4W50SSK9sLv16yT05bGsPNMk9mfm1SqefyLanyTXUiGddVCc1WI3yEMcm1hxTeX4Mp
+NpRdzFc1bZYAhWozVNOFcTlH3aErdqZzJoa2uXcWo6lv1ZKu9kcLnw69wFzl5CO/23LORc4I0Bu7
+R4ma+ECJcay6rJ2x7EYWB17v66Lm6hnAYZBUq/GpTIfyCrWvPAWZbjhNNcGdj0Eq/1wGYsqeMhqb
+45mqNDyCCoUZTHgzy8UoqJwU4FE1Cmxy0jkKwwcjpYrygUpnWR3HuWBgmy6x52uOMb1hxZWH2eqy
+5kP0uaTWVSAsphigky7yFko1VZG2mAKWnEGRYck4K5hUn3DeZetLvSyc4HUVte+UF4nqRpbrEmLZ
+VQSkznao7f5Zaw906s5ru6Z7ay56uUmNRT4PVtvR5symaPjKo/ohzNgpJn4ftPdB6+ujaxtXiyUe
+qV0M6jwt3sof9ObMseN55VcnuFPteIoDrqJ/P51r7iauR5eCbakuRdG/ILc3jcSnTr8++Hlv5vuO
+vn5un/yaZ+w7euNI3ZwQBCE2IXeg9NeH3aKQ49Gn3ruIXlaxG2tSmbui79oRs13UBQ8s6jL9MIR6
+a34N3RQcMsYo2my3tsriEbBok1H/COzA8L4YCVNxDFm97Z/1xWox8kBIM8RtF9GFeg/FLMBz005G
+sFl3LbOQZ8m5iLZLMBXqtuRw4UXJWmfjoVOqpDrY63A4Tn4xfSgyxF8xcbzaumXa37kPA06Qt+6K
+RXAIDoNpo/ahOzh9pq+HjgnHfV7GkatldlUF/oLuZ2ES9GHug3FJmkmI8Z3hUm99nwkW2lO3SIkp
+Nx2Zi6MtIs4C9aJ3LuyqPZWkB9tz4M6pPDhBNXJSsFSRtwfCdsN8yCJ+xISiYHcblfX4hY23uXft
+vnlSvtaPDjX6m6J3mpNH2/gSMenYx5bZvOSRRyfW7RznpDuSWF/6ZSQCAZvPn27m3rHY3TQhl0ZL
+BJgxoqju1Tc6A317XLXwmvwo5mE8NLnKsCynjQwTLDODf+ykOS2H3HDWtNu5sBmICPTWTAut6lMf
+J6RY+xSZVlRNwY1ri8EgWs3JXF8mCsIkQ5Uzh1xhhppnL4mCVV7xuM3vSY2iTd7zdma6xyryPPEm
+8CWGq2Vnu8q3R3PP488RuZGwV0F4SltvjKS7jyZrLD7aeA3L+l84k/y3caqfIlh/GM/6H3hy8bdM
+6R8cXD4PRFZ/jXBtOa3vf/y3M4vv/+JDdSAJZzHVSU2CWsRvcSvOLIy28+DiZ4E4BafpH2cWI/gF
+BcYGN4JkQ3WLwOg/Dy2W9QtEQqZWOWcGkCOYjv0LpxZIC69OLRQgSUOGMGI9RAagA34uJwgNeStS
+wgRuPffVJ3PhkamGvvGSznbgfZXexEpaTgGQ1M7l2EKz7YbnaHlpiabclVHZf0j7OnjTbVXkDsPD
+A5sO5sfaSlU7jSEtT1Y9ScqtpdIH0VWbvZlNUuMY41sv0j4d+qh0j1YwJ1gjzzLb1EWtYfRPxHq7
+D1EbiCapnN706WXWZDwqCtgQl72vOnPH25FyP/sKDIiXAE7FcSUcdlcFy1rEqkNa6FpQi7tsG9pv
+vRVoiO+Wh61cGJMaL/Z2NS3HbsRnzzGrvrTuNI/XZjnb16qYBjayS8aZpSgvIwKRbx4LfB73bhq9
+KUqvPMrKItpj93Z1XSyGe66MHrqKpd4RvzMZ5HTq9MnuwvR6mHxxCYoguoYG/5iPRc72t8dmT8+f
+Ivx4MtY1v1uhEV86hMT3fVndsS8oeX4M4rabc/vGzWf5xGO1OekwDxASIg3aNoXivfQapos5ezoJ
+DRviCDgWH6n3ES8qo/A9kJguWbEI7l26GicEs/1etwbxZTlhASc1L0JmresFikwrCPzo0Y7zKVtu
+Or9Z9wHhr7hf5vU8NSLa11j2zn1m3c9LdQEf/jRGFq3x4q4IJ5a0QFGZKruJ6b7RorewaYcXL4yZ
+UCiOGwkXy2QF+1ToTh/4Ke3dajrVRVCxu4J3uQnHQbBGdt4f7H41E5dqIqZUX9J12uQhIUMZviaA
+NgStfc4wgL+soT3tcdZ7Zuxs+RafyinzIdqpYr930jdN595bTe7sQrfdaWavByHdGKhif78Mpjis
+panvjTUNToqHUoxYt4hLvypQOIbznqF9/y2v0N4bk62TUlri4NBZ39cjeadiLl32NHObzFxc49ta
+eyo8oPBAt57LLQpEJmf2DgjAYcdzBmT9rX9djGeloty7FdJmZnonhsarT+yuM7lwBI1Kxz2UPSBa
+ADS2RU4kcdc+a62bzsLdh+d92zH4447501KN9wul4DW/8rHKl9Zd4efNWfm9SBxZtnQXerwUYFW+
+hkD0EpdO2GGoZX4llrn94mdr/y6tfZ2Y5bKch2jJP9QFYZ2dor10N3tb3GDgy8qgjZNfyjK5n8Kw
+va9k0R0wAzmk8ZbUYaum/GseXWWxc6zeeF7DbroSlc0uRjvMW2i7umVaoHyu0iA6YmbrXhq7i464
+OIObtZerGXt2Wh6z1snuebQy3+3h/QVV19OMnJVbX/nrENmHmY0y7e0NwBWOk0+hOXVa8iuTfxt2
+afbAIGt/kv4Q8fE7qPokmJKgihojqdiz7NfC9S7FvPgnklDjnUoD8N8ienTCob+2MybxYP7AoKJ/
+N2HHNKvyHmbHSNfUw20ajvYXL8iX90vJQWRnZLK/duGmrY2T7euJG8YPCvsBLFx9H8g1uA4I8+xz
+zDB3pjM5T0G7wjCh5+6ccBt46mLpYSK44nR8jw0I3W8ZKpPHoQvEG2VXq8MJvsmftGHIu0wRId25
+oxU8mG5OZ6vOBxYu0Xnvm6w9tkPfgRC3s/rIlhrprOEQAM2MIjp2QbiSvKkdQmGeN08cTumn71vT
+kLfUCjJWzKp8q0cGq8wVfS0ZmIVyAsYucjQkHcAuY/t908+T3SZuHy0xVgJL7LJA5R8FTQXQscRw
+0C3m5imjkQ/VvPL572J0H+1URp9qRlrSA+NQ442ZLt4D2iV296tp3nFGrR7WLHIu+Zy7n9QQWW9r
+6vs3WlZ2bGEyXTk8jE6igyb41pu8HQC53XxHbM3e+xwubkpLGh9yxkb7Y66N4Ja2wnJwHT2fWYuY
+qJLTMh2ChfSotnpiX6H2rnKulc9t7w9HxhzMPuGt+rstYlUXCcZO52zO3ZS4FWMrbKbmnbSDF9Mf
+wyMHX80JhKI7f2TOp4QCmZMYFmcL22+zxA3c7lQYnkpgqo2ffTWJa4un5U73TnjbIMLEJk+I+Bav
+83qZmeF7G0QltAHs8kzVpsUYt6lj7Vwx1vdGZMk9uSsx7YY8n86jXRp3oxUyLUE6q/uKlKA9sbte
+nlNzqG96h6d03CkR3pSN19yMS6MOW32iiKM65PxVpeP4buZQl+1osodnlcnqKZ14OnqjVXYEMAPv
+uIRNfk/wxLyb/aA7AtUr96HhD7csPd2V2VWEE0tZ7UwSgtJIyNKuwedoGS3/TFor/JQFEw/4LDVv
+lR/wrdblZqJn89EkI+WjT5S2piM0qi6JUuKzusiMGw5+Q2zSDs2Snkm4L/VU6fcuN/Uxy3ioMTAV
+pM/E/VKItOvN1JHc0nUTE0ONa3bF5J9qSb6QFAtRmTdRyRGGoNAz85nyUlK2fx9EMwz2SYbWE1y4
+LFY8hT+YujNfGu3a+9Uqp3esev1tmafhuQvFemf3sHYzpM90Fet3ll/c9lYnEqkj76rzzPKmHrrx
+IHPnBLvhISeqSvEX0vyhyprLxi5Kc9+6mRZ7TLQ9jQdXuBlvge8zKfxUXpmZTxQtIFoUeE1FIUWb
+N1J5OVS8uk16+i9n7mH0546dnQpz8C+5i4y5BNf/RFfUislKufvGt5ZrsKntBSE4/hCkoUctDQ5f
+5MwPqWV6D9h6oz2PqShefGe9w8G5vOlg8TzV8NpuMZg3D1axNkcPKPTRovh8qBsS6kTtysNUpP5l
+Kdr5jR8FtIJCqiCWPx24z4YpLjLM6ZbzmDsWAZZoTwAsowCW3bRjcwnrbJ+X68FL+2RW4alBj5eZ
+824ePnbOV6sc/TfUSSKS4naj0WBXraK85k9b5NpJ31pmKZ5kYx6XYJGJsuyvZEbs5xaJ6G3qa7Y7
+1jpn7bQjlGQq49oFgmPd1Fx4OhkAda9xXX2Ngj766jBhSZ9p7NekIfeyC8Rg3o7EI6i32B5lvmC8
+ZiCA+3Lqh8eKyUWqViIjJLxmPtLzNM0+zXO3nmuv9Ug9cicm08IpHX/rEym8NHHbHL88VNcDEV7y
+/IXODLaq0Na61bL2dqmNFxMTaQxysN+nslJo3XPzwBKAe11q+45INFE8vNip5tnLxGv5gYrXuDco
+VO06N80vbFDVRzWZ82GgLhZ7MJz2Ip+aL6MZwACox/W2EbMfdym6W4z3/t5Q0kkyUG6JQdmEbVwu
+o5uhXMVhpJj2NjTJuNtzUVJQjPKLawhJLdiO7qN5WY4Dl+sZwjXbQkj4ufD1xR8qJyZq49MAn/yj
+vzjGxcShxB8hvDMXrkombdlJXueC8gvh836OrKu+tT4Ay36sAvFkbHO0XbTtM7vSjunhXzmT8neW
+v7xNHdXHPavKTg/UJtJsWBPKRcu97IVgzI3BKfyVxl7NbXmARUQto0mTSvCLNk3Ab0aqGvnK/NWh
+m7CXfQ8vwFU3BtXtbpbFnrFIRUAhFCyG8s02acJAaFrsvNW/5V65NQN5dnJqqCHxp3j0VkSSLk+1
+wctfmN5gSVbSZjCLP02eFbF9Zz6PEJ67vH5HGvjNYvXtiRjXElsUSncFoqekM4m1pw1hQ6tmEr4i
+4cEB/pKKhbNK0U7Ppkzbr5M16WIXScM6EZXyY8qMjDQWVJqQdshDPbgfR+LGV7IS9cFBZkMFpA+P
+xVhU90S09dZrpzZRjI+TK/Jbp8ZB2bfuMTDCdlcv9cT/U1Ms3eA6XxnimEfrg+0ItYO6WbAoN+/W
+YT4PxOp3hW8D/VvkrqoA3BPuzmKZklWNJmYq6FOgC+V7IyR4NVZeeF/hsDpghm+ImRXDGeZjc1nG
+LDrnEactehnWcXTsZTcyVH1Zs4oM3EjPWuH6YnQBL31KS2BnB+X44PvtcDYqoqBZoY7dELIPz6a7
+sA7eMxPIjPm0ltRU010oK1SJ3xZ5RgjBczOo5sdpPYZmYyWdqOarLijI+mzy686/K2Q379110Ccx
+rvE45WffvVYoJfi3QnUw6bCFgrbSLdFnqOpinE8NUuoHAKzZ2aUReFbRShOn1pbkMc/GjgRFaJ+/
+Vw3+UlP3/88CCoYiuq7/fQVl9ynLP/1YQvn1L/xWQ3GCX5ytb7+JFhlgZ87sHzUU1//FI94F0n0D
+BTLX/M++rxH+greLhBmwu008a26U0P8zsmaFvxBtgLNEvoHqGLNmf6WG8jsOA8nVHyGsr+NB/68h
+rK/60H8ThJWv/scYyt8EYX0VdvmbIKyvPsvfCmF99Yn+fgjr72bbCWj9RGF9db381xTWIusnJsWK
+TLLxes1iHcRktPtmxs6y/+HG/y+yq6+SdltY7CdWKjftj1fVv5+VygrAkPI2aLpFeX7IUf2L8NdX
+gaDfPhAnm9+IrK++3L+HyGpTS/7xs/xNRNZXl+5/gMj6qjjd/OeIrK8/699DZN1uhx+uwX8LkXW7
+Fn4I9nFFMkz6A5H11Sf7J5E1SnVO5daaRnlT+FaKV/hvpLO+WnP/djrrq3zyf4TO+p2p9OPv+39B
+Z90Wklc/60901teX0j/orA1l2ZJjvtt8zgyLbSsnu6Y+cLy3/JMeyIjt/njN/t0Sx76MQQH2Yb/i
+Wl9dUP8irvX159sGBQAZkQ0zuYR/l+r9d1BAf9Vf/Pilbi8KwWgzlQIoJ1H88/1pzUu9uE5FXY9Z
+oupCO2CwZDzMTF18ramEqtsRPgSzi3bYoajtRxq7Z4SuVfRYpEtd38hCFtY9HqXSTATll/ZUhCob
+H6ps5Hyrl5q6/kIPuXke7doqyx3nHSc9aWpC6qolqYpqme6w+tiMLhmk3Ti55XpHOcTfioT/m71z
+260bSbP0qzTmnongmbwccu8tWeeTJVk3hGzZZPDM4CEYfPr+6JqcynRP16CmO/ti0CggUUhbSomb
+ZESsf61vKbkN30kaG9AGg0Oe9hpIKWczRUePfVHlk4vjJliE697W9Rr/sOMWBXjXFwbncvHidrh2
+Qs7e1xTSNP1xbjzuHKxw/I7S3ar+PJxxcp9V6N4D86/Jj4+4CywHBWDgorQlsb6EMbyeyCNZg/nS
+F/HGfziWHm4Ev87Mldcibj+6y5hL5tyGk70z48LDZlVIcySyV/QkD3P97seZpVPhuRuRKuICXxq5
+Igm1uvDMMeIHaY9Dva3iyHEzDA5NlGetovi0355nB8h0guTI4TWWZJgS08vBPd8qtT37qt70maNH
+Al3kNeXX2AqI9xswCbcd9ZYqUXoIr6ZNAi9QxDfzdB0xy13Ws4WrZlqa8JgJnzJ5029F9uCQI5q+
+sgPCA0UIfC30g91VJAGOg6lnkv8kVY350npNUBTYwaqsR7Kei08QZdf5RuvFn8lmmeHLonph7wH8
+5k0zUfyoipgQdLE2jX3Y7xKZMFCZv+lt4hxsMferktzecu9yQ+FXSVl7/s3qRyOTJreI7i1KH3FB
+5Qxpr4ssa7jesbFObeky3fMi3VqMgGzEJrwcYZ42rRX82A2NDAhAcA/p1Fjzu1hV/AgxzK6RFpGc
+DoXf+Jz/tQfDumO2QzuSrjfmYaIpz8K2gEARY0f/hlOK4RplZOF8aHqVvZXD5G4X9ZhNn7etcNGF
+lKzsA6AJ61lD4XqsibvweTWe+9JzF+bMkCQDBcnc43nIsqlLVzFXzzlSW3HatpbadqpKpL5iSKVv
+RLNHz6NiCc98M2mRYMerP8NUXup0Cq3iJvNV7CXg1xwQGGUYiiNhX4W1tLKK7jiN1lafuSRBH/2g
+tvPU6fPpKQp3vLWMujVDgFTbyyDD7nu3jEtzYFkNuuOKMwghAA/ys+6rSSQu9sxPzJ594t420bG0
+jLf4uh+U26RBz02d1Pbawi4WMrzYlt5UiYfvsUsgsFXzgbBJLBPLF7kiyLZyN+6zcnXe2RHvk77v
+fBRuT9om8eoq/ogsl6nPXBAVJoIvekyVe01zWmUGb0tY9UAHJKHStFqHbku8xp+XQ2hxs7nWEL8S
+gapJAzZK6gRh0FbHzOvDNp1bgahS4lT6PILSALQw+gLeJi8IxUTZN8UhDnIUu9lzkNCnCO8+iIRI
+65MMNDAOUWDFSqS1mTr1Rrfprm1rXp8Lq2hvea3hSyHkhdWzx7tG1czWTG6yFlkBVDNqkf0N1Yof
++WDPKQNpF48fP1Zx0Zf9+Nxw89hn1mi4z6W9bPo4O2Vzbjo9t0C3Kv8HwwW6nqeIZCMTXgyEaRPT
+/Qf2ndT4IZc9t3jQmsxObUPTbMo7qmjuTScJTds4CEtyaE6/njF6DRhotQExMaPnoGG4Ndkuwx+l
+7SN6p//e+Ux9Pgm6yda0gm73PCyd4MN1FhT+AsrTdR1rNPe87KBi9/irnpEHrRdnwt+dQDCo88O6
+zRLSlcAvm5qSAUI6LgWZ7TDq+zu627384M+i+mixub5ZU9NemYy5EPCtBcMlL5UuwsjQrU96NKRg
+lzG61mMzdwfDNTk00JU81qPcRVeUZHcXFMf12DYts9E52uAnli7ZeLi4pMDHZVKvXI3cRwcNuBNq
+LaL+0JWYBxDKXbJCEHRmnzs+E3HaertQW2ywUY6RMQsGVQdmdWJMWYvEsjI/P4+zCJmRJ3A8a/0x
+z29iAiE33oB5LMUGg6e5t5T/wEjHbhlFtli0sxnGzNmwWaY4F5mY+qvBwcQd+INbn+ZGGuhxdUM4
+e1yH/GMm/gyEMm8dfLPjz8j1tDdv26HCvdoy2SuT0RbZwkAv0k/M2KQ++XSFQXOpF2xhrg8st1ux
+RlbWjhLpeEnUh1nUliTLj1rP627BoduJqXjRdgePwMlnSjkJ1eNrCJhDBGk1ueWj7ZTVd1LHkZN2
+826mmycNL5z+TPMA8QEvuXZD4x2wrc31OaGY9k52k0+CW3X4zIGPVQnp3Sk78tipFwc2IIMiPHHs
+39CWMYAFEX+YC10QrzUYXkLb6ulTnXA5zIAR7EOzVb65XLqx8o9TryAgTJnj1Rc49V06L8EkvGLF
+JX5c1rkTnW9xoOy0a8dpezKjFT/xLiJrtgaSHE5mbfFHPgn3G81rFmhhOhMqErmR2OsLY/fG8UsZ
+MnYcBfb1qLrntg/9Y+brcTgPYJlwD7ST6c4VU2VsbUvJveE0c/GAmA/daPQHJROHUpcnFYvwO9VF
+2w9oFTxBG5Zi+0w5htbJgmFVfuAHGu89lj4rJezlGJy9QeCcT3XgfGe+EXsnJ2ClTLMtb/DTekX+
+QeCUiHlez9mtMzdZfVrcNixJ/YN6S0J7DT5PTU/13ryPYGgzXzUGVjF6n3OV7bl8fHPny9rnHcHY
+LLrB+pPbn3I+k/LkExs+C7K5PfMKROuT4/jrN1cOgXtfUQDPs95FnnWAbB0ijfser3PPKpjNLzj3
+MVF54cp6gMOVxai2oht0eAIJnW8ACpPyzlk5tVZphHg/MONr3JUVQ7UOUIQW+1IgwUUkos0YZVcb
+6ZN0jHdag89MSqcbzHgafpdW5sdBMMfgLQC141hUUIBum5VCB4ZSU67BQo3V8B6wOK3HWHmBPPhi
+XYC4itxuTkrZhHI97M5fV8thVBWOrs98p5u1zfNBL3iUNPRVTy+bMlyZrG3HMx0U8/ugQ/NEHQAO
+BqUZB6Xs+uL8Ggtwq89IOIT55eCvmYe9ERDWhaDQ52PqMXWnytvElxgXQbK5eWfSBTaNSEufDHOy
+8QmDkIlsfRzXJsewVYX95dy1wY+4Y9R3bo+63Y33JXPgsRrp2sCctL12WDmv1sDv77qe+leW0VVV
+56L0a/+AkSbu8I5U/VE0+BAOrdsU/XHkx34rujGGKVVM8rISlbqUa8NbO6wjRuAsxTZbRXypt4Hg
+mjvx6JzrFp8Ok7DW+SxVzvC8VKF8LcnX3HcB7y1oEov4Rp6f8tbcWqL3jTAsW4mxcp8jQ4LpME7r
+og/Icz1rEZO3e3fOwAWNoQ4vgyUvnsaWjTKQok1d0p3HrNXqt/GI07mKMFr7DW6Q1lJOmrF4fWKQ
+lz9KRvbfs8maHgqM3ffbltmPikY3qGHaq9JArgufD2DC1wyC5UW72NN3eOUNsTtdeuxXYA/eWFRu
+eomj/AIrntcWT0MRk2nKyvZNOps9nbKgmEyCA5Wk6RrkAagrR77NZvVewtVa/GQQenPOAme0zJmJ
+o+7RDBo0TNn3w13WAT5JAu5IbvkKdM249ZHFKBO/EM4L/01XMv7O/Lx7d4Ih8m9tfn5ekpkFvgaD
+wfgJhAqO67VZp/uF91tLMrcv3nxGSX1SNY582NhXMNNpJCu9b5knLxJwfKqSUTxbzD33PekJZ4dk
+p5HfaEcsO+gKCGVSDMJnSrT0/CldL8DlhOYscrAaSz/Fnlox3NvEExvP4QTjtTHHEDZh4f0oDb5H
+8lSCHFA1kziZMxt2RBngKju6VRaESZYtxOm7SjW85+IhI2YD5OarrDVU2om/+V6azb0cYyW/k9gy
+8YHjdTkko95icfDbIgrTQXc4rEi8q8eOla/mfeOOHw3RwxfwLhwpAj+CrhRPg3fGqcciTEDL2MPk
+RwyuGnK5VdpWJEtSfEEw4eZciAcpF4jHblj2t/m4CO8QEaSoqZNdyu6YQ86FTJMRik/kOHrMiBmm
+PYbSrh48+ky/D6MTXbsNAKsjKcvlmeTonKUEwJqHuVJcq7mOc86rlRMWqbSiCCdkzJ0lLPp4Eg6a
+e6dmy8vVmj3TpPMi2ePYbDC/WZZTDFd0l9YvEyZThwV1bL7aNW6hpFEqfHcpOinOPDfnE+1U537Z
+hD2WZwW7m/AAIsRmTzj7nOEs4RNqwh/ljxAoBpeWJb98HnOXl6DMTB+eW4XU04m7u71ZfBxkn/BT
+MlNuZGzO1igD/NeXlnqEntRcsEGL3SNBWH5cxdIPy8A39aMJaq5rP87LQx5FkzytFc0oaQ9z7prj
+avFNBWp8Wca9JL0CgyYOjTf0Q2JlzsLqatXc5LYEzxKDankzcUVQVsqwjJINV9IHYbCAyIof1iVb
+dIUlt1B1LI+NV+frhSrdsjrKvOu+wVfwGD/TY5KfN4HLrz/k2XJfDaYtj5W9b0CFKpe3isdRHmUb
+mK985+3dLWsVJ2GxgSbVgnRgWvbWWJ+BQKv2QAZz0lsQNJxEWSyHKVmaWUEsgTj31EccPQ9r3ig8
+VZ7kaD4Ztmylz7mXLUIj3ZMPNhdEeZUvYbqJKbygkkYvVwCV0B6LRrVsSEHh23inwKYkuReX79a0
+hh+41SmyXWpR3QfYgDnsrS0gm9GxovPBG4h4jVuxVImPX+WCxsUgTtyqIQ3U/swEWTUknIu8sPwQ
+D/McBUf8o/nnfOzXSxIwBKSioppt0H1u6RV+4hN2aWhqkzuWaSrHZUVnKPscm1UZfcEwEL1gq1Wv
+rurqBwwjsAYJtXM8grE2ybRumkKnBWnQD+3shByp6qlOi60NorQ17PgTV2QURBsoc6C4oxXRhdCm
+SbpYBOy+V2UuESz0eKy2eHkwpWM9gPj1CI2NI6etYoz718CAUvYt9p6crbTz4uK7ojTTC+u7eZa+
+OgLIwsNAtHDxj7Vnd99byGA/cOohEE3LFhdJHZjlluj2DvLjMLYd/G2zbqYet1/SuBivHI5Wa+Lj
+wy35NFrVnnh8SlatYbQINrNPKdNuJcp5FsSbwCiITwCcn94xGpjx8hf44DjLN7oPicggWZlTW7Nb
+SRZjx9spmAvyrmXuSD8N7CDv+ACcDALhGGHakHItvuspdL4YNTrlsZdL+dXvfdJALW+d7oANUI5J
+EWTvlltVn3XGp6FWzkKJsbscvMsCIMzfTvhINdSzTGs0GpHH6lOQq2Hj0LkW83k3F8ul3XbkQDk5
+qW9YibJ3FyLZPY+yU++nv+BtsyKMJeGi4i9ux+YHsckZ8aVaJvshKEx8cfN9aztJN8MiB/o0qZvC
+Yt1uIvsQo2Ox258061pGFdmB6BVxMMUDtgs6nPPBobbPTVzrLyu+Rih344T3MtMt8Y6inbZPfdE1
+7zU7k7vKW5E1CgRLDyuf496QravIJ9qrm52Wvp3608RRy/CyLfP6YFiFr7xpmfM2dQp6LsuTbnDO
+/1SA/9u68D8YDBKw+AfehQfZ/cuZem8/vv/LR/cvj3P9Jx/D3776fxkZvPg3qrI8ALso2S4cfr7x
+7+zd8DeMDTFsP/7nUUCA0Pw7e9cJfxNRwNc5tk8mj8bTvxsZXILv2PyQqcm9M2KMw3/GyECTwp+H
+CGj4fBM3piQAfruNQ+LPejd/yHvQVMNxcoM77OP9LdYs7MC8/1waYO7wjY4cToPGGzlSBnBykYFN
+pMaSXVLUCEraJlsa9ejEbdQgPbuYp7bOz9U7qpal7rZsFNUIbZv+suKIGE08UlauiL1PxDqRBiPw
+j8gTPiuwvBZw/Pwak/BQI2rYtVpKhAoLmNRH25RWFuEXH4oZPyH2yexNty3icT6vk7oUOrPB+fUu
+aayhFbtlhx06/2wxil371LzceDRXIm+1uXW5Zhj1TsjiqAajivmOMp7UVVTyQk+J3Zq7unH1D4SP
+2Epd9K+XqutCVuXIbrCAw5WMUsEQ+EIJd8rICODdNhAJSnaccfBNsIkbTk1ZVH7CHjF+lG0XPGdw
+554lQuejaTj68EvU4hPOV74qR99/ZCY33IaYzq+56uBUS7HYn1imquzk9qp9K+HVfc6Ar1pp40v1
+1d0c1KqObcaPaZpUlYZbveBoBn9ETEACDuVlkk2cINd1vdwoyX4nUAk7xwpF9kEwTt0TxeiDYx0Z
+az5OrOV9Mqyyv4tyxaZxWDW8sJp04FUV6djBaNeZ59Lf0al1jCyfWrx5woTjZlVcWrJHW6lKXlGk
+ZZZntYTkg1rOdc4h41d7LCd2ryd/Fc5Lb1cx9CXYBKuqA+BBeAWvSP/5nDB4eV6awEwecxLQiWmo
+JvUYrLXbwiCwyls5eTl4P5Td1svm4ywG9WLiWV5lFfGYvAjqF7/zpmtZVix8rlkgJxS1701sUGZ2
+GT0etobNZl1fVdrFS9ogwzDVCJq8TmXhWt9y1UTkptn+JmouxF0rzXbfxrTBHwe9YhZjtyI+qkjZ
+nxsxg/kscdjtZzjuvZT6FpVxjmj8a5PXwYXvdHaWktzXz3VdjF8gx/g2+xnffqUjtsEvyXfQSU2M
+I4Q/6/efZs7PgAA64z0GHLNvQ68xVyMN2Wyx8Hg+yilG9cG5L8PE60IOC6KxiZ80lOAgmQbV9r0r
+VrYbeSWstzmclpe8QvVJwnGunnYw4GPnrSjSuPqya6+vuoATj4VQum/gWWUw26EzyzX/bm/d/JBL
+vIyMJpr6ISAN9dXBmc8xuhbWh525+5Hel/PrAI7lQS0BcnWla+fGL0NB/UPWrlUCZY0MqXSc/Cvb
+L/EupVM+2EuBDDKHa/wwFmBA0mkQXZ00RUs0y/R5Q1jDMZ8bTPtPiLYNU651bl6H0pIWU589N6vq
+unUTqF/mfQRrCm/UFd63JZrZbbcV/zqJssG/QM/SiEC2y3WOy0B8aQYnf42jTG9HuG32zbz53d04
+YD7aDyscX1wWWbjX0YCtNleLc2F5K2OAiV7Fb8TnnTkZi5nycoWOxgHStjaNi1Xqr4EucKYT9hZB
+4kzbBOu173syvKHur7iQ0ZuVy/i1sd0pZPfHR3gpmQbqkwWN4KapW7bE1tBKbtYZmNZRVVyTtJ4A
+PiQ9f+XBDYA2H/pmLO6aUtXzIa5VgCG/UfTSO2tbUUnEOedtrVVHvtlm2nCo7V4vKdE5WSdDs2yU
+yqE9nwX9MjiYxzf0L0aAqPCl6dkVzS4y3jFXU3gzERxdU0vWNoVOfVm+Kjo0n+Ksiu/IOGMmxSe9
+8WksUEWQ3+EXs4n2NqiaRQD6pYr7L8KBqgbp1wcKaJwq+xrQvglQLx5KnvAB7zHjqMlceBvqXuqI
+EXpTKYZaHj2cC3VSwzZ0cU5H4S0EUZTp3pu3T2M35ooWHfzvh2grnKsRYuDnvFIwBSIVyEvOMhBJ
+I0W3BM7VVv3QbhRcyaGZwGwqsoEHCT6GwJ6DPEISAg9vsmzGemUN1Tc91SL2IZKb/eSuIei0gdie
+gzKakzPTVecsHPjb+H4iIuMnrqyK7JhlbKwRgBzrs2aY+plo42ynDjbfHt+wM79T3IpuuGlKDtLN
+F3xeg9yR6GPLHMBtKdtGhUdvbtaNealLDuC8FeNTU3WKp8llz9daZBFDXOSwkL1w2oBEkng42rrf
+3oeS1E7aLlhvT6JzvPy8tsf43moLQApxvE7OpQtz8hkD/TwesskYIMWBVtsnp/QIp/NQx7dTqyyM
+tpMlxqNbkPX4RM9I193DofX7lPxfgH3YH9/9ISMdv0BBnY89MyM/ZREPOj4KO8r2Md78vrja0kc9
+K7s8scQzcPBXFrEUtzV4Ur/Kc/Kl8LzZVPdR+baNuqlvWYHsEt6lZS9p003ezOzS8PLRMeb+i5om
+g+ZaLzK682VFhweoF858TbeWAJO3nQ88b4KMWD64zQdUe3s8mWIjG2AY2CGJFn4xHWwuL5yM2XgF
+fKrR008QD0Iraeoeb3KonexBDiExqqF0adjdpoVIiEHA+V63a7+QZmzjhw4OJ6jLzTTXTuBOr9lE
+KVhqOuKnOKP7IHVJsoIyj/oS8qiXEZ6cCTAlLa0YD5O9l+SsuYFKYeuY/G0NB/ujAzP7WXHCu+39
+qBSAZQ3ZgK6Zw3fugf5HlC0S5ZZoywMTJX6oofRDuM7sIt7GCXUrBQ/Tlom3qOjW7t3BPsu8aHvL
+LS2u2W8uoNid2v3Qvu2SV7BqBZSzLvNPGaerDWFctLeGW89O6XKaQV6U5PRoaGl46MK1FPeFadAT
+O0/wAS5C+E9s8XZ27hzwyqz20g/LFuPnwalgQ2hugkemUivVlS7zW3t2SQ2UqljuJzh2dWrDXbka
+ezmhLWR2TfZSk6ytxdgtyJ+UNx/g3RYvkRwUgctxDvN7vUzDB9to/ei049KnVbc47ErbKroPmg7D
+AfpCfjvUDTHmhev/0gh/uSUHW6g0FhB9GVl1491Qm+wbtJRtS9mvWnRDrzuJdJxyCF4Fq3aS92TQ
+jplT5yyrwBNqMrGsLHWOsEYsDFZM4bVgz3IRkxfERkJHRN+yNtgDQ88sqyLaJQLNu6H0PZ9PubOX
+p4FBP0AOX0IAyFdXzQeaIMYfMbh3ag+JA8pULyTckCOAkjMo9WqGSiBo0wHE/FcIvOF9346MlEwb
+3WViLDOuXG7fAQLZ1BG9X0EdVb3bp/tb3pycffJ1LNepfg/rQWzHrW8b62RlposPFDlEl03jTb08
+aZOvLzHUgua0Oi4ZgMKzo+EMPpR1rZ3NG4/5KJDDoinn7RzVOdkat1t7+3ZnEHwwoOgqxsA2fxvQ
+5XyuHBRbXdiQ94dOu69BzqaV12QIFMQMMZueMSy9M7P5QPsaZlbjyechVqk3VPrOGM/Tp3LZthnn
+jWM9W7HP1j6ve0GlYFBaCKe6h1zebp5IbLYD5TdS5wskLSunUyuzKys66wdPFC8krfhdAyopdMSn
+MLXlo2Y61L8veW5zaieZkX+eGdl5BxXnq81GO7c9WiA2kix17F/997l5Mj/LajDUcnj89z3/+7mZ
+M/PFe/tdqj8X1vztS38/NIvfoA86DoAE6qFgIfzB/e/9RiCAkyoEZp+IgP/HQ7P4LQzw9pNe4VDr
+4s//+6HZcX9zASe4UejC7BT71/0TBIV/434je8BeIf69A/sXH+P/Ywc2P+6f3H1MOIOQAzm7Zvig
+jtj//A9Gwr+ylHD/hf/wn/qLSgl/URqwGP0XlBL+Yuf7j5QS/qSM/tE6yCdGowtWAIFh0Q68Xy7j
+PyglZOsbRVdZuIQ/CNyOryglzE3ZR+nrf9RR2MUw/JON+o/xgMTt3BtG5u1xHsOePaf6T+or/OXG
++6/sK/zF1P4X9hX+8gzjdvrr+gp/ufH/or7CX3+jygz/6X2F/6YC+NfCwl+yD38vLJxQ9nTSbCK7
+9K1hxs0XEt/MaGCiWys4zrZ2WWOt9gKbbAF2wlvdNyyNzAzUSJ4yapvLosuh/0+Z8q8wDoH7+sPi
+c/e35/KPzPRf3+I/f1Ro3FAFfvYc7pScP7z0/qKew1/eP7n+S3oOf3lu/uM9h/uP/edX3c6a/989
+h+KXW/rvPYc4gGY6UOzNBK+FCw3uM5pr/sD0nqapAvvPQ0VK3buyG7eUZ4G//B+6DxlR1tfbRDYB
+r4Ab/N8KEF13v/V/+WmJbO7sJBGS/tl3DX/8qMUahwxRFBXmA6oSAl3F/MQLhvGZaq5OHkskStSa
+rlYhKJhpeCrmGhIJ7nd+t2qOI0ZtxcpGeg6Kr8FYFvGBYbH4sll0vYDYWFdNQL+cn6lZtR6mNcbY
+RQUcX8Cp5ZyqM++7mReOzg2SQXPK0NARaRiIqZRbEx0TdvHYHTJOKHfQXBCehnbsv1idQWEyyzI+
+QYdbi1T0nXgZlhonRR0t8tESdfSArgzVLCwm4HSZhpMxd5l5UJMXF4dp7qaXdRQQAGVdoL8UdWk5
+STNP3lmDrxgcEDWV/dnSYI8BmrmjyUa7Xb44rcAnQNl0e0lJF6uNrELfHAb8QNARQO3FqetH/aua
+xvG5pXVJph7QVnMYg8krz7Rut2vOfCP0cpe/hlkI1FBkNWj6TrbmlzP1J8wBKb6YX2JjxABBxSq/
+BG232Jwj4vl5rkPc1q2MvAdFDvsHNPEiP8TNLMaDmuLtOWdWzSQ+E1F+qHvYWee9ypFFsark5rBZ
+BaJNT+cDos2sF2yCGpZNImQT3VeY2DcuYT5/qMrdFphVjR0e5m2BcFeUIGXjop++QILAo1NF1kwD
+U7BY42k/FXdXOUw4hJZ1EiV9L33Qzeme8ZOfu2wQFuNJ1y1T+lgGqIyRG8MjB6wC/MpnplriD+mY
+L7T2xdRuAkBLH66fprbWSLC2Mtexp4V3yqYwy1M5+EaQ4qbh4rgo13wrwtCIFCAHQkfZLFV5GCtt
+OOqutFiluivae0pXQ3Vjo4dDFEC+WN3DEhgzvXuI4e0dtp/Iw/DszUg2fu0NmvnDsAaX1YQ15SpQ
+NCEjquHLRwjMOVpzCBuSjGtfHyUOweVgJCJMGgYMLXDiyRYS6ZaVn32xjcAJZRfGBzlP3chzUVJO
+FZd+8ZXF1oblIhbYTyMmiP4EHqafjzqbgxdcMjxszOTVO1Bg9RWIlTaJQhgMEl3o8HkeiRhczVAh
+v46rjxmS2dNjQPD7sdsGMKwFrOcPouYUbWVq6sQReFJ0E+Gf4ZrWy4atvMg3xeQ1WsPE3WZxBcHN
+4V8zqr4RlJP0KOO5iE6WQIlLwkxxc6ISBfEh93gyQGoRREha48d3Pe766bj724OzNh+j4zapLc2i
+SOLwK7vXaOvNh4M/jTtHGfPeDB4CUIQH3UqBesY1E6SoYxIg7ZfBGajJcYNQNsdFAlxPcwdLzWFd
+fXWxCi3FDRN9F+yaWPBTU6KBaYJZXXmYAVXce2VsqhMv3fJ+7JwB33ixDsPV/ol1J0CKwroxfl3J
+iyjEzpRasUtiP9cGX6bvVhPSRBY3t30XAEbjVUdEom0FOhiB/TVHtxCM2Y3rMuKgUm9XjIMpdQa7
+EOxceb2kFDZ1tyvPBEZ4d5qPHY5IeZPzNq9TQhk9SlHgUaACW7g682hS/Qb1ZUCBByCFmZVn/w4D
+CMJ8CBLmdqh2ekdeh404j1ovRMrLs3i9gwwsn4MyAk25hv5WXDRL3p/TNxrRQ7fSvHkoC7Xelm7E
++y2YiCCcVpN3K0T+NXyMFIzOS4SR3QLheLOLAEVk4cCnhKgRb3Nw6Q0zpeV2K5YnlDYs2jqiXC4J
+f1Yment7ovlZpKgtOhWptEMXiH9WLTZSZ8+8oylgHNe+vp4nZAXHncYujTpnfsSu0QvUahocsYxw
+leZ4L3b09o7Hgt/7m/hZ/OgWI/YdEnzDoacZ/oQlDYobA+L6zTMrIZ2iAPeV1j8rJU1bUS8Zz0CI
+r2MFnZUxDa6b0/izjrIMdX4zh3M7H+29r9JyS/ubtOesPwVFRh2nUcrCpIYVl+7DAc8EIyIrusud
+DsFE762YA44HioIgMYNEYpsMJs7bSzQpzIi/W81ercm3D24I2WOC8ffuzfhnDec/uztj7E1U3yar
+y3l/P8z/ccl2zF/SWvzLNuavbi3+/5P9gDWB6/jv60D/s37Pu1+o/z+/5Hf6g/+b7dOTEwG69Nhi
+/oGg6Ua/QVEkuSN4HKA2CnZyv5smItD+NBVTwhBgarGJ7/1d/7HFb14c7+rQ7pxgzf3n6A/RLxtK
+emFoW8KagT6FUsX//fPdqXLsR1kO7zvU1K/cIeIYfQwZRr+v3kah5YTDy7lBeq/sRFFag/3LzE4G
+PHajY3UxAGPhJCoJPTFkHeWFirnuu4Gv9RiwAakfiyWSb0XfCsRaOQePa+ut+AtzslxTB5cpYahY
+XVpx4bHI13RPMgqQXnjk8FSXZ2IAP1ks2Kue3GbyHiChheVRCzbf52JYRvnCfqcPT20hhD7ZhIX8
+1PHg3h+8Pt/kMajAUZPI4z9WhfGzWcqpB5zSq+qJsSuMuzITONOKUL5YetbvnR6X54gBe512Zg2d
+T3U1q/bGr/ocD4cXQHArhtU6+HbcXAVugDe/Khz9pUfcxqXd7+2GsuqY1joKUjeWATu6Jo+hv1uw
+NnPMAYYsoKPKTlFCW8WPhUfdW1JMLkKy28lJpJne/V39HHjy0PZL9bL2VHGeb7OnnZPOdHWweqxt
+SSh2eBS5u/F6mRcyBl6s6y/Mwib7JB0zW0c7t4VJ3Ll14WH32FBI5sXVzYKt7k3Om7sw3V49C0dv
+V1wxvSLMtfcoBunAOOGRhbGRx9afMO1107K06eL0w48Zx59OQz7FNdUNGN8Tg6h8/LzZXh0cNaTx
+a6W8smSqks0z3VhBaMCYD/VXSEH1F8I9tNL6goa0ftexl7JXt4NPzuDY0AWAc5OVez13Q+3eD8Yp
+rMPKd/COIUWG8TUTONpPDc1KP9y+Cn4UMezoJBpUeY9TZPZPBIcjmVIG21dM1Iv+uQc5H6aaWY5/
+8vGHwnb9mV3TAgZ7YpY90zbt8bYmLIvm2LU+oYseZv1jSwPcih9A69eIDjTzaWKPtu3ZTUZdecX8
+N8HYDbyoCaxpwXcKB/9iheM9nNdw27Z0zT3rpQ7pRAb+PvRDKsUGHHbQSt5vodJHdHlsOC2FQx//
+yt6ZLNeNXVH2Vyo8RwZ6XAxqAuD1bMVO1ARBkRT6vsffVNS4vsI/VgtPmTb1kklWuqYe2BHOtHQf
+utucs/faVtxjYsuBQKsHtVZGMpLZshM0oxrGbWvlXE4RsZwh40v0Zw18M31HUI3dSua7qOFaGlq6
+BVCBnxcvasppRSqqzsUHmrCdbpY262iw/dxGiB+MDfIolDo53tiHFlUfEnSAghhbqXAomzdT4jvV
+iWUGeXNkZYaBA6yjRTNV6tymelJLHFMJ5+PM514AFHxRRj3cpQ13zpFqy/ykEnKKA/l9MKZNYlZA
+Ey8F97eL7VCIWZ96fWHUl/0jLhQ+0KaqEe7aU3ZFwT10FdsoDwAy0ZtGsboLSindHq/4v4rCfywl
+B6pLf70i3rwS/VC+vtUR/v5n/lgSzd80m64Gn6hhsjgu+X6/6wiXJVFncaMtQswRNY43S6L925Jh
+ZnP2PUKUjvLDfwGRlN8M5MGqjB/BICiO/sJ/3hJZFkQsTopik2y3CBZPClA6B/KYeANOihEHKJp9
+4Yqu9meBcyclu9NRjBM2CLOeLaoFAWsRzkJCc/IoJ8rjmzv/zod37CGdfHooj+FzCz4/pJHLvX77
+NZhMQ9Y8xYuMJgUuRrUHj3Zg5igQF+N2d/RwR1lQP+o4KCmYoHyoN6BuodsrAQV6nClZJ23xkeOK
+xX4SSvuGXJivqqgxm+BOT34gJQNxh7SimlZZmBR34MwSVNJJlVr5I7kGAgw+kocZW0BVVGfYGtDG
+5EQlYHvnHM58Ix3nnlIAR3WLZUqi883sFB9nKlC0zFoDRgna18fZrDrObP5xllOOM159nP2U40xo
+HmdF/ThD5sqsP5fHebM7zqERZ8Vb/zizasdZtjjOuL2qc04plolYPs7J8jI918tEHR/n7PY4f2fH
+uRwln/SAZokZfjrO9iRfMPPnx1XAPq4I4XF1wM+C+L47rhr2cQXpo3j4SjAI60q1LDFyHsQ7zHjI
+GuHN2efoI0wybo6G7LgW2a4/2rQzrdHulbJEtTUfjdysdZi6JyoZT2ZjrtgtTg/h0fhd2hH26LF4
+gvTZ3iqTwB1uVfJ40xw94/HRP14fveRiotK4YoHBY571fA00srGeG0cXOozC9E4/etPh0lkbLJA4
+1gkyGi7Cjqj5M3KUYVHjOsHfTuE0uY9Ehus9XAzwRF/ghVemhQwsFos8dF3c8uNinFdz4d/jko4V
+T8MbMFCEMYqzPojJe6oW0z0SVOmhRE/O+3q05Ye6bD9r1FNQK2Qte8J88fDrw4yZG+Mb1v7gaPOv
+jpZ/7Wj/R75o3zQZTIDgiAdQRkXDR931+g9KIdSjiiNMQDuCBWJKQkgcgkZaKw2OXYcc0TY8M2RB
+FebIJVCohl4PR1pBr0TmxXRkGEjywjNYmOYknx85B4Ssds9ArzG9/XdF+dlrX47Fb6Y176l9+j2O
+4OIpe/2f/1i/vrzWT+n/8KKmraPn9u3K8vPP/tFrh7THeUjQBzG1pUDO6vH7wqKzsIiFlLfowkHw
+LYkEf5y1FOM3YjhVxdZ0eOCc1d6S9szfFlzLv6MM9L+1sBx3Om93QjI5b2QfkvepAxdTT9MK9Kme
+l6+mQiisUJlNFHNQn8dejcPDgN+jekHSYluAla1NFVdnvjA2c6GuFa05ZAE6TajABIBPJYnLj7UF
++1GXd3KA8qUa13lRfJnj9qzOoxVs4Ic5qZ7rsSD/V0gUXMrXRsT7zIe6LWXXQ2mTQY6rwlBqDx/Y
+utXq2vObYV1qxlq2h0dE/pvJD+9htGyGXlwl6XzWBn3iUq7xMJVfdaVxHRLGVJMD1g9EcPuQfu1a
+whBVbzDFrLPUpNQSya9G4t9wytzmYlIhrcqbVrUfB6b9KVb26lS+ap1+Q7zIRWvEqyrE9mdFWz2Z
+tqpPISodd4rarOPcJyABvX5jWptcKx/RLGUsH/6eO7OHKLCeXofyvDVv1cRaKRI+tu4+RbIK640I
+0rne5FXMh125hFy7SO+2KE43BPde1EE94pNJ1nS273I5PPj1UHgdRysdayedv7jrQdp/0/CRm/oe
+L5mni0V81ayTSF5VEt0GmMm5hKpn+DFNd3OMkBXks9QYu6BCi4MZuLCnvaUD8W1hcgpACJi5ivkJ
+wjAKH83p+mKnV8Z1EH9t6DxooHox23JqQACn7PO0c+TgSykPbj08BNG4Zsrc1DxO6wKflNMEFhFD
+aEUnFG79uQXk1NRWSY0/j2tFa7ZCqUZgg7Yp1Xqr9ZKbV4/1sMdutAIk200vKI0QPX7pwnvoPlPy
+Q2radWHVa0v7FjYjOvi9lH5RQ7dq7e0sNRu01nsT/fsoxSusHah/J9vlXHyjWtkKw/1jJfdo8BTs
+e9bZSMhaH8ARiP3RtYxw3fjiEtPdlhS8nWVRNQ/Lq2A2SAEYttEwuEoUe5HNE2xZKQLDS9v8ovHD
+cz9oN4pmbEYA5l5fGszWYscXtYOZu45wEIu03jRTfWHq/aaz03WZ+BtOwgTa0EBg7eDByZjrw3PM
+WVxVwksqi8NgE3VlqHel2hJoAah1NhcTgwaVFp5vrqaradJeIhGvQyNQmenrlWKPZ5k+bytb3pDW
+g/TQrygm2hp7J/8y1bQ90PiNbvouVUeAPvTe2kzdsjB8rcjCwBu49RW01WlRbkPMVhvsLAjm09CT
+A40mVPc1GLoHrBqq16bAQJgJvtQh6SEBjJRAVIdJLjdG7PMVRg9TpVq70e52Smc8V6QIOy17AmjL
+T2o1EPNXY36MGxm0sCgKEL7GjWin58KQXJFGN0w+litLw/2cVSlBP1ZMpgeojM5wq0D3rQcbj+G8
+GoxEKFgNK7UlblwXPU23YStIzdugfn62+7ZZSclQolK2011eIirOIvO59PHIYU+OL7JKvORzcosN
+I3WzamG1NzK0+Y7Gk1RF6yQFdKJKcfZdrfto7Q9t/yUu59us4IK6pDqMGOkoqoCpHsJ7ZqA1LTI4
+vNo2MBPPsL9qxnVxn9ToT/EetAKHnzm7lhrB+56WwzKZbUVbrKWkZTJtVhQLsO+nV+rQr5vM7ClU
+KD+Svo2p+Gi7PppXpeU3npZUxCL62wAYvz8sCkJjFUlB7mhUagpgzvps39SScpBoETpkqh+MQXNr
+ZUg5P4yqp+CSsNTiPDHxBLbGFuD8ZiLtrsjnHza0e2zMPZHllelphrWmj/aSN6RdGPbOtg3cE/mV
+Cboa9kd+M8jR1hy0ncjqW0n4GzP3HxDTr4cAH32gUCCQtwre2tZMLhqrOw/6unYzaUTkCNUi7PQN
+4t/tPM3CsRXxHE/tmRJkh1EV3+ngXBPNfA58+HqM7Z1eZIWTz49IFdOVnWpsMYPwksgWDvEUVFZZ
+QpnB6EF4rOxEts/z2pg1j1bTjWVl58YMgPy/+5+f+x9F1hdP3F+fqFdN+c//U0ct/rynvP1FbPj7
+n/19A6RSNmbfo1NnoZRr4MP89wZI+U1wnMawuhjxhEWJ5l/7H+s34j9s/hSna2rKFj/mj4O1qvyG
+YI+9kamQ5UQ95W8Z9CjB/FoJYsOMrtI0ha5rC9L4+O/f6FRSyB29b9PqRoYvFpzAZD5FEr2mjTzH
+Q72OaEahBI90yOozLduzRNEqw2Gnn5VuGBeLHtwMOpJ4WlsLEF2bAdZUEl9ubVUOL4vWwmUsU/4h
+3qgnZk4lT+i1rJIs2Blx2B7a2aYbyA+YWrIfU5WSo17k00ZP6Yd9FXFePrUhWSeOamvasIqIO9hN
+vhyFqwnjxnWD7DygldcE3+FuEIOSl00UuBxNJEq6NI0fkK+L8WDN1XBHj5vzLQG6uHz90dKmdQdi
+4UmyQoy85GbhU8pSG7K4Dls/JRGEXM0tk3MfXzIKNnIKuBma3qGOAZeMGbbmc+Je62BDd1FWb9R5
+JgnHgfCgxLdAvsjSDNvausjtObEJZPDt9tu4mGX5lONsLaFzmanGQvNQlixzjHbeII3AAWJZnmpP
+DEn4iPNNv8kG/kYnmmi4ucOkpdmqVcb6MGeJcTPnNq1yRSHlnbmOzj9VRoNUnajVAHKkUtw6PiWf
+TaJXxY1MNsBXslzlmb8ntR9NNUq/z5OVT5idUEqtjKme6CQS4OTSX2DOWB5g5BiQDABUxMA5YIt1
++pXeNP6XtvXn16lPiOg0E/WpDn3a2MpI4M2aDj2ihHDsSYVtKxvvQmha/TdZEYGGXFpvQlfIjWhv
+o9IIduw8i/gyINzgJSVBB86CrnX1KmoJ8/Gq1hwM14a/n3oE04j2gvgjIoCUatDZ7oRN/xiqJXY0
+hBjwDjM1j64jBVCM00xShc1AaqX7dp6iGvZAD39lIMvkwsL/RnYkqwK5pbmVH9S0tyDqVH7WUINt
+hy8xdm0aGpmmfCOijCg+vWy5CQHEM6ApBS8H7qSyoC3QqnjyQz+i11wSRnvNSRqVPvwCwd5Yjskr
+ExykaseGt48/0EhsLCt5JMukerSUhe2k5Z9oEHYwVFAAcoMgh7kTWEpcuZMFuQF33EJoqhCDmM5Y
+dbLtpDNoKXT+id56eDhF4UkiMh4ptsvxhkM8GiQ27ulI+aYPy2BHpukMxaBqO6rg8zBEK+he/Y+h
+6wq8KXOtPOCo42/hPGf8KBvkyauYCBHgAGiLnkpolgixypz3SwF5clVYsCGcsgvVc0lehA/DUQSB
+QRRBhHUUR3AnxYVvY5ZdBUf5BBoI/SWYumKhBKGvsCotucGfW3rtor5oj0IMYiOt++oozwBBhVRD
+Ktrme7foN4gNQcoR9MJ8sI8Cj6UAwbs2JajyiTxDBGKYefS9amSkIRX4CGQiR8mIzWcASWhRkihV
+2e5nQU3LebMEvFPa+xNPlEle0cHAQ4FXcHGdkKZjlZ33VDNkjchIVqiM4foEqUAksYf5/+PBTgr4
+TPwGVXtaMJRmObmK5d+/mba1FJ8cyTTILnC7eYqevMaW0nrsF3v345GU5Xe/OSH/PpSghEuZV6P0
+9OtQto8weTaIg1MUcmfcDP37JpkCZv9Uy1aVL2GGTM3QeFnyW9ctHowdrla8JoFV+oj0LHEf01td
+ffyzToq1P3+ViRyf4hr/488gXDAtWY99N5iqbodvEie2VeU/9zikRwavxf/bM2WxVekhwgnl0Z5c
+O7gTYCOL2zlqwLCNU0grEyKqdMUeUr9EmVDtsmZqP7m2RRfw9o6zSLJd0IkTQMulmeqJoFA3YuRr
+bLKdec2U55LC4eZu+cmlnbZljNNRTsS0cFFSgskYBXOQC8fHJVTEwaPrfDrSe1/G2+tZrvfNy5o1
+OXDAmJGqFWAQlzK+SxyYKzzTe9o8Nt7d4AT/v1d30jKgep/q9XJ10hZontu4gfNsnVv75mdf6S/f
+EHXpCnzwsLSTrgE5uiHWPAZSN5ZDVd+hx3tRcRMVr3CNVe7UzqF29p0TO9PDx9+AsoiIPxr7RGRs
+6Qq16WXs0vt2n3s44ZyX/dXTx6Msd+qjQU6/AbLvejlhkHZNo9YdVsVGO1e98JOX/vjFfjTOyfzZ
+Cq202VAu76PuFtzIaPUwO893F6Fz1XhPg4O+1Ik/m92WX//RqMs88+bdJN9Y0VEtNs55tfqeuLev
+xubp/kZzPr6HymfDnMzX9kiqorK8joP7nSt0nnNn/8O9uf9kmGVm+OhqTmYOjp1wKCqG0W7UfXNf
+XFR77bt/RWMXxEz5NN1CB7zUrozbj8f95APXTqYSYcWNyJebKIyvHblR4DBLSgpGji5CFZ89stMF
+6WTiWirHbx+ZULR0UmARMJ0YnuwO+8a5h4xzSWnhrnaM3cfX9qf173S4k5lE03JAJctwk/t9Xssb
+dN4rQvUuoh1ou033yZuyvAgfPEH9ZDohhDtow5HRUAzWTu8THVnU3b5HM/PJSMpnQ53MHpOaJ2mz
+XBgin3W0VbzbzJ2dV98BU+cUa9X59BP/5D1ZDtlvn1zQjpHJ2YfXk48cxz93st9GbuT6DqXFFfJR
+T7jC/Wyv8NnUop9MLbEgxxHd5M+lLr0szn2Pwo5juHeg2rwfuOqZpWXnx2e3+JOF/NSyNZLhl5Sw
+NB392t9UlZPfo+/Y+5/NnO9NLgqqM3opBq0W4+TziyqU9MbAMK03rMz7dE37bz15ybrZqdvPuuTv
+3sy3o518fk0iMtRAjEa2+Eph76B5NiuD7tqHzEWzed1cIUvawCs9s39+i/8VcfyDXeayh//rktOm
+iP75v5q3nbbf/8gfrTbjN4r6tNaF/bOixDT1BwtKQ8NBJDiFJt1UBci3N6UmFemHzXbzD+UH698f
+pSbFRtYotEVwaSNsJMru77TajhWtt1MbLWE2JBquWxqBWBnVZT56s9QqeijIcgxMN7SKAYjJCMl+
+N7QjqY6WOfgXY96N9gZGOL0VcyHgr3wg+z8is48X+I0Svsh+UlNkN+IuOIw25V2PMrYU7xNSBFsK
+4QqIWSj0c3YdpdQ/roNR9PMWjn1v731CEpWRVr5BZPQG/0yVblOJCGu1g6wupwgBBYQnwM5lA2Fi
+fIm7Ell02pV3UyMWfkjcvM6tLj/jcYlc8g3ylRg1mgWVDHJSMWhfqKPZbgiUbg9yLxc3tq733mig
+6AbnQFPInlVT2reaNHynqgIXcBB0hFY9xEuK4GMJW0SbMmRlicldcVMcbCvTjEPVKVGhfTW7VtjP
+vunDUNGHcqhXZi1FzZo8RNh7EpjGBkl2ONTncTYYLaxnEkgBIPoq+D2OaVG61gzUGvg2ovG2aArK
+7xo/USfNtAqv9UmhjGGlpNE95FIhQHwvEHA5MkBXzxz/k3WCZi1Y0F1TttIlEqw9qZVnEFG4629j
+c4ifkkkvOe7Wpcr0PuO3AAs/SYcAUjmRjhQ3YG5nlWFe4ZHi/yJBPclvekMbNggU8AbIfXENqnat
+pMbOLCPzgaBBFtyWtk0vJfJ5aIyo9UbVagCS4AZrMCd1k1ynmF4qcFR+KLnFYIXgg0aFOgToGYk0
+ZKeVymczm3jr1Kk5i9L4RziHO+gE15PFSwnmHckiVqlWbi/Kil/1QtoC0cbDWN7Zcf1iZXGbHAZ/
+JIdYy5DnusDg7Y1tFiY5n35a0SGMCz9flZmPKhegavolRLiqcZ+S4baXQ662bIJmXyX2s8SdDdY2
+LBefvlVu36RdG3wftSGI3FarYn8Hiea5SDQEr/m67o1tPpsvITCXlchjujEo9wJzBmZFqHlnhIe6
+tc5gFdE+gk2/I+j2tknlEnxgSHSv+QOc2pdUKuPDoIgfhHx40IdgXqgpixJps1CIXH+ScZ3Jt3Oh
+HGAxPI1CrFLJ2KQpOC+pKrxw8ejIIIucLrJpbIZV4PZNeCby8lrC/bNGsRjkm5kSs7HOoS4dqlaV
+zwVkqsyzFHExdv1BM7V7AkcuU2k45xW3YvaJg+jXZNBGe/ifNOak3I6vzHT+asfaU9aUSen6WRJ/
+kQLzYTQBEG30QKtuETZrP1J6IfkhpQbCS6OZa3XSHrNw8R1IftnvaZgXLwTw9skO210UrjPwP8RL
+YBC5EG2u9DcC5WYFG8uiljWJjBjRrJJ2pF+a9JkHo+x2Y6ZEK/jwvU0vtp19cNHUFr9T/jLkNfh/
+3SBkl4NfkGy0CsvELiisCRBtjALazQSs14UUJYf7gd7z3J5JoU6fDUbnFF9M+pDom4jkIhvJSk3h
+JKP5j0m1pC1IhTpTUSHD82mRGCtq6RIXEmiuXWcJQPSAPVs1JcGuseGIQQbX91o8WKWHTy7LEzcB
+WAcQPM/HW+puSfk0jD5Jt4hjb6dK9OOqm8jm5PFVpukOpSqRBMoU4FB6HG6xgPNP9cRINaQHE5NJ
+MLD2OEHbMKUUkQ9kPzCGpX8nRG+uCtAWwc6yW11HkRRhoVqFkx1VG8OHCOvpeilvITsrPXAP1Nu7
+Io6Z8hJJKyqAgFODr1Abev+yJo3ZXslEGS8NCZjrD0NQqj16aa1UN5oUtu0GnN455CfXKkW2lqUg
+WMqS55jWIHxJubmJ6jpYmVXXPQIAu1Tk7MEP06tyKM7SoIa4lgyXodq263wmFpkGHsUPc3w2/dm8
+riADbYJer7zarHCCycordrZ+M0sFSuXCx/tjJvE3udLMpbAYkGnsE4Bdq1elP9yOISTgKMUWZrdt
+tEvQJl8VVLDQ0qkEQMim8MpivIjCutuIOFNdKq/0JXWeGVO/cdnPfK0hNLpLam6CzF10J0aSCbeH
+2X7OC+xv0iiMV36ik6ZMdM2ZEhm5h43pWgmBMo862RwRP2LX+NnXvIy1VWNq0R5P4rBSq7LbwGgd
+zuZhGjdCy9RNZ0xP8VDdVzmKNEiiF42C+rfCL7kfgkG+SajMQpsPPSwGd3mRyns7LOYtsZragfBX
+Zl4/iNamAZLRlDHxFBbK65D3fFEB/FA6cZC1eMJtSk6wEmvatznoAo+pjiIJCCbPLMPsDtOS5Iw+
+l+6bNV1Vtc43adjJ12UpxWsxz9NqRnwwh3DzWBno4Zowski/uAh19VvT5fSRUS9goRQWHQfNuEDh
+NxwiyHlOWvqSM0RmjKGQiA9KfIukLYqam5S0mSukZ+pzF+XxfWD1RU12B2X61TwJ/Yul58Y2zNQR
+NQffA8o9c1hhlY0f9UQCT2gpcr1WkAbO7ix6bVvT0PkqIstsHHkkfWmRoLXrbmhhfvtIox+xprWH
+9EgLH4I8LBHIp9MNjNr8XhuT7GsNNMz1yzp7BClEu0uMoyC5WtKuWT8ImIeyVb3yDqXDXgPftusK
+ubsH6jW8wCya4Djg8SyeSAWweWWV4DpUZuWKum3egbMvfHrCUNGXAPbGneb5FWa9fCVmM4UfWEmb
+epykc5ONlgCKWJY3CYXJZKWH0EP2eaCQXyzTZ1hBKtYw3DFjQTNm8SK2OIEWea/V44uJ+P4qNEe/
+u5OqulCxwsHfk1Z9GJkeYRSDtZpadYl/iINCfU40Sq4ecZDRDTZPXl5cna7M6r6DM1A1ruFn8hdA
+X8p3xKbpmiVPZWZDPO4aQ5fdtTnoOa/RpvYmC+3sqe3NUvPKuQ6qbdUhmojqZOqQWQrlsUlIxHAC
+vH+7CWXsyvKz+gIjpxqTjVMm16CSqu8ycx0NomJqY35nP7XrXgdJ1WMcObAnkpF2WqNx2RbRoNKe
+moElWmUjf08sWFM7lLO+3zm9GtbsPySbrATQUUyYTQLW16XbGbwMQmbbNBh2S1xAWuj9OrUMZQ8Q
+TaKK3TMto1KM6PJZiFhB6xKzk2ozfQ0ri65TdX42mvDrzAHQ7fVun/bpFsIy92wO5HGH4bLyIGz5
+TzoeU08y7IMpz1dayKZKFhU/fvjeyLnZOhX7X76rKQadlKxYxS46Axqxo2sZUzu2ZyZaRCMQA/uY
++V3nwME3g8E0WReytiTiSO2whhnChqaol22dMBdlrg7rMt1zuhfInJAi6Kz1bhPkcA+7EbkDiq6h
+wS5cAP5HxoVcA3i35rTs5sVKqYyKTxtDtGTmNJcxam87qKmza49RDiFQ1YuB6lJGxAwuAvssRIwX
+39dJYFXX+QyZ/iYWcTStzcKuvVFDTeNoHIk52UPMphkEH9a38o2fFzreEn26Sww6NUjssuKFSFKI
+ViJe5RWRXhnBKw9dkFmYnqyqba8koS1nAw1zyxZbL3hWDhjVA+LArlxXGehYSJDcjCnPZmRsfigX
+6yqUoChW2FVe+LIOVRNWB+Ze/bKyZ/NqBohnfI+STlcPo152DzrZLpumL9onYVRmtcbXrflkaFj+
+Zcha86g2vnHRQhkEIFD4F50PSouPuSykPbTCJFzpAsOYO9Ob8pcwNtGdR0rWpE6Iw4J6hxC1uokn
+DRkLx4nYuJfhxc/kFvWpfTZE/Thv2pBoiRWapGpb5JbBXFXkPSHvtlrSCa3LaVOSyoKWywRg5uhx
+XkhrWIfanSR3rMx03Z2YLb10sUAjV3lTobcdVfKWzpUcOsE2GYGiWkVr1t+DoSmADZZh48UakBoX
+OYBWrVRpbGq2aHNxmduStWEu1BpXThJ52tlAgGl/FmSX0FFV5MIlE0RntVXzrl2FszbYnm9oZX9B
+RFJJoFUzsZAFOTkfC9g7q6BQuilHXFZ8tubKJiVgb0ZxLMqtGLNIEPxUo3T3pWTGGeSTMuJoI8ZT
+uvx+hbe8BBbIC6iE2VYJuy+xpSqpM3HUwwul9354RhVR7PjC8+hH0YPcPEe6XPDe+maxjiO6p7R5
+TbOy1rBw8y86zf4vjaXiu26C8YlY8IeGd+06jgKlWEU+J81BLzTOPGRBb4Yy2fkRO+uD4nc2zm9N
+ag9AJ7uY869SXURSXz8aQwhTUA7L9BLLOS85c71rjhYiRauhSWrnW7TXM3Hj46Oo8m9hF/SopXrp
+kVO29tph7o4uC76n8JqvffIGC8EmZ96MbIbgAD0RSx44AhcO5BUO8Ecscrcp/u1NXlp7IbcU85KK
+DWcoxV6syi6PEL15OA5retBrQtUrh+gj25GZYMgq677kVKu9GdirG0STgT+sMR0IFNDisuC6tCWg
+5CVHKQl6Mvs9AleuJzs7iMzfq1WmkvPRjmweAzOkd1Xnh6bUXxE+2OKSF7SfNk1sB2TPaDJHfDQc
+KGErO5acVAWj6eJDLLpr1gXFNTqZ5HU/6Sxpp8fo4THxtZVxGwZKfltOuMuJR7MgyWKnb4od0F9m
+wglNiOrpNcbxNctCLraAHoKXyTKaxI3QJ+JRAEC2lhSdgII4t+D+F1XNrnmQTfVR2OFyPoeK933g
+H4M2BdwffMFeGWpe4+diY40+f7wyG4zlvVDIerJ7do1CZMpKZjUJr0iGJMAGOEYXHvTBMsOHqEXh
+H0nRFqM1cOckTO55WEK97S0QAB6IY8VyojALbxTkxInXNBmQgLBkeE4QESKTTRTrs9eG+Pm6yC9B
+MyvxHfr+2fbsgZyjireAeRua/r6iUwOcgTkiA8vZlab+RIwh2p9oFuHNqDApBRzHRrfM+jb1+D/r
+z4hoJFKczDYfb2Q7bMdzyK/xbhjMepfEUQTKohXWDrqBpf23cojx/gjGk48A97+uHJ4/QZMP//m/
+f5GpIUdaqu9/FA+V3yxsXDJOMp3/OlYI/63Tp6IsdFmjr0/1btGi/UunhhR/AelRWMQchnjsbfFQ
+/k3FL63bpuBtUjTZ/lvFw1+7IjjMcFzjAiNoRsVmfdqHV+OWX45UlDxNCR6GyKPoazWDC/VAiOpX
+VdLPlHaAOOSkK6VAFt6UWq9+tl/ewpxOG63L+AYyPtsCYwrgZ7kJb0uXmiol+tDKmFPN5oro2uRW
+4Qjs9XqNJQYxk3GTkPqEyYe5tF2rvu9bjtQ01V1Ysx9zPv41J12Fnz+GignKaFsBY3BS7ldTTinI
+2RY7FxuTtO/a74M5ScTrjciCJj85b8S9UgXh/uNxl1bom9bUz3GFiqVNVlS2psu/f1O/lfH/GJwi
+C8eYaHi7bcA2ZGNjvmk+ud0njanjQMLCW8jxQkXccdJhyPI8xqaMXy1oOv+un2KNs4Ni+wciSzpr
+8/FVvTfYorJc6nXoLRYr5duranUVB12Lb2nGerUvSee7GHJLAmtTDLcfD3XSnV2ui0+CYdCsWEh3
+Tgvgvm4gteO6rNjyX+JWme5Ea/WbBKTJNo7n8OHj8d65NJOqvW5BiEVMop1cWqpLrA4T87ZJtIAn
+EWziUhvpiNoR+t9/ZIuhEUcPlybz8H69i5G5xNW0MW37iVgERx879PXGnGs79inN35TlLDcSwSoX
+pnDORoZ/8jnGY27CiCUpVoFn4/rFIrCXSBNIIOU06gvEkl7ewDwxDx/f0OXLOvkCSE7BJKFoVEIM
+cdIKJoxRSSFIMO6QN7Cju0i/gCUCJyqPwjtAZMWZ6EPp8uNR33mMNFPQ3Vl865ZunHwOvdWjbaO8
+T74A+zKA97ZTJhUqO4sd08dDvfOG0mthCCZspuzT1jr76M7COUTxsQFenHYErk1mL7ZdDS55INji
+J6/2L9Uz712aUG2BQhp5mX3amK0GK6hGQYZz0ejmTpU45BMdimtKAHD++NLemb0ExyZN5h4uXa0T
+aQQ8NhVyF4ZFOYjSCyyKsxfrOF/+g1Fg/xkqajkTadqv34FM9waBL7NJFaeEA4EPO5BZO5x/PMq7
+t82ULQLELZbgU81RQ7+oNic2blVqQFJATJZOWz1G7upxJpGrT6bI994KZOJEudC/Mzi4n1yUPJs1
+ZbLlBWxv+na+zooKqhzOOMfiHP7Jg3pvNJJMCK9Rl+wYcbLMQKCOTa3k466nKtjnUa2tyfO2dvI4
+lod5mLtPru6dF4MZmbYk/dNlzOWjf7OsJZYK4x40lzP0ZHk5cyirJL0SqvGZ1uidp8YQGnp7pP3c
+zJPbOJa6QhIk3/HYIzX2aA10npUAtSKRza9vPn5F3rmL3EQsjbyENruXkynSHwmJbgNo4iZnjdyj
+OVs95/ViqfYlZKxO2uvh358dWbEBICNMZYIUJ/MUvG8ogiPO5biPfDeROH2pAOZx9WDJ8an/jKMy
+eB9f5nv3VGFbaDMoVDVxsu6EbQx4RcKmBEN9r1JeXKUZKS2Jrn6m5Xhn7mf5/vdIJzfULOVOUGOm
+fUQriPo79ex75mvMOJSZTDLTNJwDq1ldMtk+vsb3RgYsSReebQrEgJM5BZSIINiFcON2nNvNTPrk
+1Wz6COONplotfgFcmJH/8B8MCqUAtjzWXX77r19FndmDEgkM2s3A/YzsNLnLJvOO2I16LZuVth6a
+UP9kzGX5PFleeYRssMFGGGy4T16gRswYyzRwLFle0YgK8z0hQOkDntf4mWZ19s3I5NozJLneqQPx
+tx9f8fK3/zo6KogFDUUJ1V4ckr9esUzUzailMNs7a1SuO5WGfRrWwZPkV935LKQlLrRqzqWy+WQR
+/PMExMAcngyDZVDwpH8deFLtpPDHnHdY6lNPE11/ZSd6fvvx5f15QtAsthFImS2WQet0qe2tvCMW
+B5QTe+vwW0C8IQBPRAD5OsYF+w0Fkfry8Yh/vqGMaKtYnNB7oErSfr2ukMZOKFNgdWAhE6bZQ2q4
+pdtepvTg9GgdNTYmk0DusR0OWtR9MjO8N/qyoWfuw2PFSvLr6L1EKQlpZ+HIZYlzxJJK6KODUZCk
+CJMpIjUj9+fBK0eZuu5QScrrx1f/55lJYzmBf4I8n1PMqfbLrCLgoirzhTpiXuQ/T0mpDxs1FGL9
+t0fCwcUuwFgG5Gz265VyjFDtOWXBzOkY5qjU2dixQ21aY2X2xhR+cmP//JVi6OdEwRYReL6mnixj
+DeE9RD7QRzfVtHphLYFYhQFbSXxl1bZ5sQmyqXosaUUvJWf9/uOL1bmY/8vemfVGrqNb9q80+l0F
+zcNrzGE7PWU6pxchR80SKVGipF/fSz51b6fD0Y7Oer4o4KCQhq1QiCI/ftx77ZdvKVf3PagyFHKo
+kk4mfNX7ftGDIwQj2ebXliC708tr+69fyeUq9DTYfBIV98xi/6Mm4A0JsyJa+qnaiK7yyb0FuWb8
+05P6fxa/Z28ltJe3PvDtV3qoznXJH0m4CEEe4t7s6xhyqmkO6YWJ7cybHzIykAcGS1TgKU05ooSs
+NGG4q8RErRBJP99HFv67NgrGq5AW9l9Xp7Cb2W2GPCCwQafX6+j7NXJ5RIbBEXQ5hOWtlwz42pPR
+vX97NJwbi4v/wwYKxP7otDKt8sxk64XeIgh0dzRziYDJcquNPenyKLrWvJKO8h68NodOEKSXnA1n
+5hjWCbYuGDaAspzOMdBPB44NqMOBDhtkAbuRvHdDYoQ4BA7aD7ZteAOAy0x+cDOovhdu/nVdwORm
+8SZybk0oBYilF4Ur5kFUVnRiVqSomV94GBnZfDYv47pHq0OQaVwUj4kxev/BhMOFCZfkIYPMWJhQ
+f1bMigN0mQzsByaLk1qDT3gcCMn6bAV98f7tB8yO/uSFZxPqgktiW7203ygNXl4sYW7pQ3vi2Blg
+UbHKA+l9U7M7KtZpVS0RvaOpttlkyyUc3AqvG7Pu5buM9bzd0boOkr3huu5vUk6dL4EKm3qNgKCZ
+4fHJ8Fc9iakmHV6PHPyj3TqSyMOOZqjS9pgMpnDXvtUpKnTWtwUakEGdCkyNamceh2ltAzPGodZy
+BrKtqG0InhlS73c3w9IhEE5UAX58Pg1QERLBMIZ5RIYjZ/qJKKlBaC3UGILx1vAfkGTxZzk2GL9J
+Pyt/AHEmehySoLmcrI3QUKuuAzFo9eyZMMG5BgrfJNQ3aTWS8mYFJllCrU1806KmmvcgpUtvXRou
+sesFNXuyRVkiHq2cUxQYkW3yfuIUG+Ujt/ldKUpA5qES0s7cQ9LZTJEvrwwOZnpwCxas2CSH9FFQ
+X1QwYaf8yiwndB9upOqb2a/9W+yA7bjNfYFFymAtgDLuz/a7FLHhtKpa5UV0DMEgpuCy480owV6v
+yASX5aZze3VlKk9mG9jII5SOKdEPio2Ygp1BGjIhXWVtr6J+5ACDLMjmuxmKuVqZlqpAz1L8qnVq
+CxVeY4N1zZVd1eNDGZDhuXX6iMQ6C7mD2OgMhPBac8YJsjIK2ORFvXpIy9gw1/Zkq+tMUP5T34Nt
+J8fO6m9l6dhi02EAgKvIQdGHihN00AAwy+9Jf+4+t02gPrnI1pA19lk+bsJ4UUg6aWz9yIdUe5th
+4AR6G5JpKVfINZTe9qNsx13uNyidCo437wefKDYynVNsE24nYA5y+lOAGq/I+t6kAbbRzWjV47RJ
+0okw4tlbDvtrWlCwIWTrJevcno0vaVNg3cU6alUr+EfE5rUq8YkvrNAorqEvzv2W4hV6SpMN2SdZ
+WkW4HqdqNjZhUPY9skqBRtYtZfgAVjrt1qo35NdY0HhfpUk33xYu6NS1TZ5gv7J14BFMGcXRhyrq
+8NY6g+ciiALG7CDtNeR1SO78tEnnSJtrMCJSolzLiE3t2qn70EX1gNvcH/sfqNpkuHHqsfk6V0H6
+gdHA14DUAH1Ebo4E5uUIhpKwi+x1JEfXPhaVEyN5SAfb2iBUartvGtINaapTSjaV53uac762Matt
+HDhabOJSiXI/1J1lfq7cmDBHguKSFf7QVNySZGwUj8IGobmvvbmD9eV27Htg2RcpZ8aEqu51gHDy
+IymMjrFpSj8ur2Q1TuNh8ETmXA92lqSIFhZsO2q9bvqcANe+T+sAWS5CAnSpg1WRMte3ZvhJI5O2
+tu5QGchPfLNEn0zHzVzBNAvunGDy/DuV19YHKVL0I14KfvUQe9puN20/2u27EElU+TnBj15s7Rw2
+672Cpm9ueh3Ln2pUlbMx87lkG2OEvfNLMoqg1pRePH1VCANiupbpVCOzRq+7ytEyR9eZa3XfJv5d
+35FbX1d3sSg5dAVR6ihoGF48C5CYnl/l73sfBTcKIu2Wx5wZMFiRm9rBRqrL7N2oyCq4DoghAMpB
+ZpnaZ6PrwpLvpfnJIGkAqh68Jw7OGeDyKkHFoPYcxXKyXtZkp26MQhp3ylNDtMUkTBYhifcjThud
+IXjtc4Oggdkk33HTzhMgGnzUQQx9qLHupRAS9VE36H0OuEGtHbhpN0PVOOkO2CoajDKtZPYFKEye
+3kZs2Gd+MQ/F1mp14BxYKzkz1Sqy9F0fj2X0Tfae42xDM/OxslZu3ay7Me+NG5VPPqHnVKHIazvR
+78yir7sdp1Zj8FBXTtZd+6ooUbn7PPtdH9n6t4souD3U1VAFm2KKVccDiYP8mJhW/gMYtoDERuHW
+f6SYEuG6jGoOpoPA0uaC1xMBOroYfrcSYjIOWUWiqe0k+P3tYV7S21r2BCSwm2O68cRAbLpLVinU
+39IeymsOgysO6Dn/iI7eXFZfAjAJzA257ClTVNOW+3GyB7VRnNgj/KbTt+lCbmkdd575nTUWq0fW
+T+LYxnO5115sGQjUo/zX1AXTJz/RyTsfifldZPbVzi6j4s4qAdIf/aqXel13Ds8oKCd73nVNhm+/
+6vNB3QYVapJj7cKbQ79Xjx6dDJIayIfTZCD6fdXDlPVqHL3C9hERWGafl5t5YnZek9rsNkeqgXla
+8n2jbG1Dm5u2pQNI4bYyISMerJ4FlBTVLAy2vqvmKyDCRXEIRqUN5Gi4ulZdbCyJvHOG2FYBQGSB
+Ngon3jaVgcO/LcesBBXbOOG+D31R8vzDlA9SGBb1DuTeEkH78jY0LEbEs4qUpBmO+4U80uNw30Oc
+U8HWzXzo6o47zxzJR6YkocDjYmsVYatGRpjhxgMdUl53Ux17GzT0PfwMD/nOquUE8RbNG3WGIGMj
+3xa+ZLdgEYD6K84N650fiDJgd82nQz2D1MrivWhvOFgv77ouSVAoNEB3NyKRLGPDaJZiyzrsTKtp
+iqmlkLuKT01u2g9VOFFmEDDfPRJfl5GrG3kY5h0nI3I5SxKnX/fQ7X9z/hHg3kIMnAEdEMkIBskp
+0/dV29X7XPmjuc6BPZggsuT44BIUXewGg1y91ZDaWbA2hn4mXaQexhvcAaZFS0snv1M3SL/lo8mS
+4/JiQVqoSo42yiRs6y1Tl5fvXKZ25EwccfZ71uCcYOmKtFlf+f5d4AmCf8SwkA0qT0RfC15PDkoQ
+IH8M067FVZEMBKD4Sup7AW6R6JhQjTcJ4wqkDgmRFChh7N0TRejdZMIuPuteB99RN3nkJ0BT/MLo
+RSKbeWF9NaIhY630elmsqUoII8hmY6rWIWJwZ2/4srnVVhvd+mOCAp/9evm1FRVJhb1qux9oEUkj
+oaANaBUOfr0eg7lnmTH5MKuxKIffhKC2T7Xoa9TtrXuVkZfYgREqVbXAQQZ3DRw3+ZE2EyJHLXhp
+0EbGnbXO4XuB+UEHYnigRlBpxkuCcaK0v6koIqYbx3KyIyxFUjbElGq9gpQBhCsaasaWKH35oZtD
+ZzgItK1ELHTM96tesNu+HecgpfJCxtitdR8FDorGoh2OXpXUkjIslRRjtUBnZ8w5OCgbae5Yw54T
+eZ2x7RxifCgdX/oKrRljyRmGam83InK2sUh7ijKO8QlwJsUBwzZiuXxr6JbSc3Zn5Fv0d8vHuZ1R
+lRvmYM/bASyOc+DIqP3c4UshbDJG4rIxDOJHdyFS4xnARGtGm3KgYGDNGPJvBsmg8d6BMEa+Rtgu
+knZyeB7nhmD5Q9DkRgRippzmtWvN7u+EiGkIW0RKWbe2g9WFGjwzLWgDKZnIteUuYRJDimLSmEaS
+ZIy55q8PNeE/KyaIMdsHLH1PyOWjeStbio51EqeNc4DAmbt4JRRVTiMzJIR+PIwRmBmpCBFt2vhj
+6oaGhMflVk/NNBDbwQI1G9dVnfreBg+VfIy7gEBVZYCWIH9+EVSxVpDtoDq7FpuRg6kbkOauAP+V
+CvR1fhuY69AF+7yS1gzZVHihDK/CKAt/Ud/xxg2xTT2uzEh8MNhxqVXLseu9dpCTEWrTZ++dOfPl
+IvXsfpNmHrkrIwvQAuWqIyG37YgSQiKczr/zKY+u6hE+4hb4qfNYEJz8bu5L/XESnpiYvYzqEM7w
+bde1wrC19qsoR/0T2+EOEpFvHwcria6JbudD+KiXfsOJEekaoGc6rj0pDfwgrcGxL6smGwQURUlK
++AhNSOp+D4pQQgn606vsYWDKKzIUa0E8pWvlLgGgLGdIrOqgRGBqWDYhw3nY8S8NBsoPLnhhRPKD
+xvBU1BLhLv1UhljMJ99CF0/9TaNGjBLCm7JDM/uwwgptkpajtWEyFObc+fJPJLTLpMffNpCQr2wS
+sBetbI8quB17FJc6R0cbJB4DWts5quDcWJRfdd+P382u5cJJBF1j1+YZw5JsF3ZTSeXqD3qumube
+CaGrHpooBSCXqwntq98jQK1rnHObgHgXxYyX+qS3y07/ahdJny4jPiBARHYqQ7w4zWr7WY5cdfEd
+SerukznW7FyaiSJ3ReWa4/QnFweGejkSce0kEyO+BhlPR0HqX7m5fI+NN6ZqS7YNWjWd+qW7zt2W
+jQ51VfqAeni2qPYFH6fOBv3LTFz+kkEU7nRsKm0mxzqPuIIzEyTF2ttFN22lq+AGAw23Q50b3YCg
+4te7WOMqy0qUOdslt4b3UGlv2DnVHO6GZMR9ZXdTdEHvctLdAaoCjIrWkgeIC+ahu/z8jyagB/Rf
+CSeoeNFg7yGGq/P+YCax4FuPxZ1AqcRezE2u27EUl2LFTokB/1x9ORhwn6Ui7kmjszal79G5rukX
+kGK+ba0Ym2EV1eMW1tTvTPCbK+V7MxEQAd1sS2E+K1DDrtpqYMsjffX57VbMs77nj9brq0900mf2
+3TiWLQrsVdK45Fa7ZNezM7Mp0sOPUgBJkT3un1Y1ybbk8WzqPJz2NXirra0TSDCT134yHAb025/r
+pNH+z8dacDgLVxtaysm5jUTWSM2U0/6u2B+jNNe42VgIOAXsGjLD377aSTP1+Wq0NRkQ9FJtTLUv
+B4XQbq0Lor9Jr/bC724GRWwV60qjrBy98XtMdvuF9u25YRggdYE/6iN8OW2n1nHcNUUXUlvK2r73
+Y7TTfWyF20Sh+58GM9qLOu3XjeNf0J2cNFe5VZdGu8XxX+BArotO2nxO56KUVhzHmXRPsDXY+RDd
+8iaOd5GsYDjqeGa1k5aXiafKbe3hGBpW/pdqt1ef4uTxTr7hlYGAMdTXpl4au9O7CWHT9YgyfteO
+Um0kSRaPkVcmu7cf9Ul//p8rI3AEN0wojHUqQ+smr6HWZrwT3GeyWyUEftHcXzgFeD2g+JYhHQPL
+xxn96pSMS2dOJHnPHW2pK89iAUfkexVKrd+TNxxcGE2vHyoHnAwjRJkBR+an4CjmXi+SDjc1IxD9
+apDmt5A8+31Q6PHeMAAC4Z1kufJUD7Wz/9vgiWVMBcxpcO/t5RTnZFYD708omMHr0yp2rmqMO+jF
+TAv4JQ9///S4U5fex6LrOFVbaMQjKOgT5s+2Z7nrnMYtN6bAynlhmJx7gNTrFqI5uvAw/U9mhKho
+2zHj3DhGIX4k794CNrQ4ecPAYI/eFkFw+/atnb0iuEYTKBV6gNODVQsyo2QXXa9Eaugf8UT2W6Ry
+lOsejs77Np7CC8qOsxd00Z5xPSah08wCHYRqLlJuUfWph/Ux7earnNQ2qNMavx3mwwtHG+dePUSE
+nMOj++Vc5eQ7JZNIEzHPBWc8OBSKiuJ8HOWFJ/d65WBaMyMPNSGVg3uqdvMbeqdTuDw5a4geCJWU
+DgExSWBs+5Kc+Qvr1MlBxvN0Qu4Kg5ET8deKCtLAyh4dFUMfxOu3DBcU3bGCHdEsbsKupjSiPBs+
+vj1UXi8erByocnDDIVr0Tefl4PR9AyGQbJhdIiG3tQgzaMxTvCLaaCfLOLwtmsy7Mc0s+/72hc/c
+7TJlki++SGYc52SdjMN8oheJqKEpBvNzByUSK1sRZ3cMHus7dReWPCzFQ3zhtT8zVPHeeE6EioSr
+Ryc3TC+2SUMC9agZ+/CLbRGcSl1iDYd2pleXOGm9/fsb/fOCy1D+o0qMpjhZzBuc8ydVaeJLKppi
+kwD9jbaWmuIfhYXve5VaPf/w9pXPvCRM4TbKPM5aecbLV/HHlTsdKc9N6fRWjoEsRoOJ7w3H/PuX
+JODvu4HNoGW6OXmQLWcTgep5kFUhxivwkSQ30ZJ5jHCeXZhmzowZJFYO48VH64905OUNydK0Z+1B
+WG04HNsYreHsRw8g9CrLHftBNFn7ubCiS/KbM7PA8+E4WkpU4KyLL6/qibqPooFXJONJbcwWQ3lN
+v3WPrXK+MAWceWKRwwSAzAgJIN3Il5fKW1W1/cwNxqXtLkD6caOld0nI9Poqi+RkUe8usjiwLy+v
+Yg605DKJJg76aX9X6KLeBmk+XKgOz1yF2sjif8ydS/jdy6v0cB9oJEf1yg3abCWs2oPIml5CN525
+CoU9Edrhs/Pi9BujJziM7CgAq06cody1OVyVTdMaKr0wb5yeMzM9I8RASoDjFc9KeHo/lS6Astts
+j3MrTmC5VFWc02PCiQ/pEvUw/DSMlSC/hIfbjAw8+cmSTPWrYrDxgbPOe/WPsLCBCHsjuJNVORpe
+SmeaIuWotMruCiRW/uZv5wA+NROtyRbdZQ908qydwXUT2vkLlNjEe7X44pp0/Pr2RV7PqYQRRiwh
+dKKphE9l71iAoORyPkc30yuu4LGj+UlKpVa5gMizK0CQTl/evuSZ505CEp1EhGN4iE6rt6z2UU+V
+7D0cR7D5TUOxE9M4Xvj2ztwYEWiUUaR3g0Y6XSw0RgKiW4m9JQxJrJsyDW4QAXa7MKAnK8bkkqjy
+7F35/uLaIUQSG8HLd6bx7XgoFoGjMUGZNivf2sE1Cv56XUAItlh02J4SV+mfKCZGljzdVOyYUhkY
+88oo22Q5Nkf9t3/7Ib2erz1qQXBT6MEiolpO1tpU2xic/bFaxU49773etr6WBjSPG8NmK34fN4Nj
+0eRcfKlvX/jM9xji2CQGxgkwtpyWh7SmaeuPrLl9acb34ag4ssqL6a/7PyhXXFR8aBhRv5/qmWOf
+DEWcSNDxMEPs0nLs1k4+6PdU+ATB2BMRJG2G0zXJh+SC/uzMwKQkRW4P/R3++6m0Z8jMTEp0beRf
+ucnnRRfzee4jt9uVDe3OlV+QeXBhnT/3nfKehbx2IW/dkm/6ZzWBYQnQVKPQhqQKF7dH9GcnhL5Q
+2L9ebNFK4RekNKN3QvX98iqNGIM+CntOHcqw3nOsinQD6WKACqYsK+/Cm/C6+l2uhn4IEd+S6br8
+/I8KqXcQMIcTihUQ8Nk+993l8CkzXOgSQU5CQjK98zjP23POM334+yEaYALhoqGFQG15d/64dJAN
+5MH7HomKMDjuiQ/CGj1Z/oXd/LlxEjBvLRt5jqNPlVicGQq8iTyqyl8gRLVhfHVGKPhT4crDaPiX
+aLfnHt/SdGARsCGAeyeDZJ47IGM9AiKvSr1He3Jxk4U+2CF8xZnZXXjNTxHFy5qMNJI9E/US/3VP
+Rks2TkWcpw4IzDke9KpFY0QgXhON5cGzprLe9kVAusDgtCHtoUb8aMlcIfS+Qph34bOc+aYXuRvb
+N75oi0Xp5fOc7cTxxYyocUJ7v+a0UwzTLreJDQmSqtq8PXieF4KXrVYmVJzgiDZZJah9Xl5trKI0
+8U1wDREvSLXNBmW+02Pp7KNM1Yc4TBYRluz2KRwBbBaGBGyQTIFFIG/v9xcG2flPgwGNKs+3KAFO
+Pk3uq5LgWPR+8Tyj+UKHkj37ZFxvXTmRumMwGEdTD5wPlaTHQ5Vm1RmmEB1ibl6YGc9MU8tS89+f
+xX75zaQotXMkwAuZDcwTxskS0Lh9aVN37mm7ZI4jG0egy77g5VWaCUZg4HKVRMmUaT7qfgGJKd4N
+nZlcDZ01Xhhd5+6KNj+kAXZyHuXcy+u5/kymHdigVeBBwmiNGR3rVOkL392Zt5eKavG6ssvCxnwy
+hkckluXYs/1APCK/xDk5TlLayTe8zZfWzrM3xFaOupH1GVfQyxtaEoQrjsxpdoig2MQtx0QtdJwL
+K/TZq0BRZHJwnyu4l1fxkiAWNs40NE1JFu7qcXT7DRs48Epvv5DnvrmQFYtnxL0w9b28UEvxHeLu
+5EIAD3dYC/JN0AzBgwDI9v4/uZTHPpS5j4CYZWj+sXBU3dihxOEhiVGJuzBWqEqKsB0W+bbOn/6D
+i6EiZnOFH43w15cXc4nMpC6mVMT6lu76XmEoQveyAdlQ7d6+1LlnRU3DUmXjgWMWeXmphXjkd0jD
+qOi96qEws/DWD4dLXqlzLy6sgGBp/ixtp5PpoS4Hn4NKxl2NbtZc9bPOEQpl+mNK22sn+rjYvH1b
+50YGHUSXqQLL4nMs/J+Py1FwEUlUY51vCoTEc2U+tTkqhgqw3IWH9fre2H1Ra9OOCWiQnGJ+NQa4
+EnhmRZQoIJ40lg9N2F4huvMPZpsNF27szNVCi8vRusPjEUWnz6t3SJzLW5Z6bfhXSRUZH9AvwfWz
++vk+lml8oTJ8PT7ICybneVnrmXKDkxkjw1TmWkaDkISk2S9EgSLKcWz9+PbjOnsVzh14jemQuKcT
+rWEM/gi9BuOqSIpvAEnaW4AoxYUV88x3t9Qr3jIK2Yp5y8//eIdpzc+JCJFw1cM03FsW6bZQ8HJ5
+5Vba/2TLuPz917fFEMStYuOew7693PYfF3T8skWDSvGO/Z6yurJ/ZnXwlzZgqjEqd8hUy4bLx1V1
+8oRso4+hRg3shxrHwXAZA+6r0easW1zcamXyzC58j6+fFvM6ynp6Dzi5oBu/vC0JI8qbBg4Zp1L2
+N8Gcx+/MXjv6r2d3XPU4czlKWWb3UzBxWBnWQAB2AT1QkT9VVL9mAWMXus8leParG/IRWdFJXbxL
+GCdOfUWJObdGb0qxsuSUfakaQ2wLlV5q+p+7Ci8tkgWWJaqKk6+NCCU3A5UlVlNbDg0oPCe9cTOv
+urD6vi7PuZsIhQR9wAVqcTrZBlAzZEiGM70v7UgkM2HuXOtJF867oRflghOLjGJrSk+M+xzJXXQf
+xzSaV7Ul//68j6WFKPslWptV2glO5itz4hTTXTqFTaDDTeToX7VjJhe6hGe+WRcLCp57TuSXM/mX
+AzLn/GD0Uy5iI7e+ztN5IG0rif8xUP0P5vx/0yBcFpK3YEWE6u3bpuua//WTeL2+/BN5/u9f/ze1
+yDP/RcoSp6BLLUv6m8eE9F/I8/BfS3uBUxHaGaSLLxf9b2pRwM8YLEwqz/CQ5cD2v5Dntvsv0+cg
+YEHp/zt5+C9i6ykPGQ9/7uNoIEWUVbQgKOwX0MXL8RIDnIOSYw3kMOIxWpJ2nacO+ku/s9C7ElZR
+tv2vQcvpc95jrTDD2lb4XKR1FLYe101ASpbrTOPGTtrpUOucTEtXfLLwa/xI2rAgA7hXt6q3IbuM
+yXBEokxQmWzS4SF1ndKGwcmmYo4yDD1kJCFhjQfr6+T6A+c3tLLGvKo/jVGd7oTKMQMCfluhCENL
+lrJwYSt3zb3DXPLk2kWnV5iHup3uu9bfmUFSWOuo74JPdq3afF0H0I37Piu+cFIVWauhyudDlsrm
+Z0hM77UhRfAlM1SwYc18bKIIeZw7AydeipCnbsiiW3cGBd/4eGFo/qH60toyrl0ZMP9nCLkbwpCB
+x2uMF9+LpA/3rO7GtV9MUBUBRL9rcP5/MW0n74/JbNHId5U0/M/P+EkA8M7aRLW11vUYZhukNM4X
+l+N5gv2K8UPVDfZTb/ho7Qh3whMVj6jbdK75xkIN2A1dauKsMndsblB4O/PWLHtEdTkK+1UROYte
+0OjQCDbV+ME0dPKzKZYbZKj0FdQ2W77XKkQ8744Q37KJfHZcCoTNppE7X2sdottLlAdCmbtDrEBX
+AAFcwVZtA08PjKbJ/8ssu3hfOUTFbUOy3H/GDt6u9QQeadp2JMuDGZ1ikPWm4eorLQhDI/jN+QJc
+L74LdTLBTKT7d8+yzfRIuDsegKDsIEP0OEB4kAnt/ZIcFXpKnybPYuwgtkEJDtPqXkWIeLclYIer
+yfVEsmaC7DZFbTUPcZ/4PzROENRnpCnjN7TWqqt+ZEZ5p5tkmjZh2FgHNtJIgxLXrI6W5UZ3Yemk
+H3s7UPtmDJOniRx6dh1JAft0bq1g7UHw7tl+9/ERuaJz21pE0vuZCB5SkpOPtT3+Mtw45yRN55/G
+sCf0OOOkxnSq6IuQrv8UawtfCRGz8qlDmLoElZWfMu066TF0Jp5QLLW/HV2rvvFB4H6NxikyDmbp
+c4TSqbreaLOeK8jWbvjumaINIXaycBS4+TeNcji8azzN0xxmTPvEFfafHaT6d2lGNDL3Webzuqe6
+SbcF6Mo1ohwfCbB04ztOHJBmlohHyy0ayTC5Mj14PivVuXkOKDHMSalyh3Af+oujDARuN16bojIR
+3pkKPp5G9belEmt3fmjANx6jcU8CADi9+Bmtp3MFi5YhkQJhTPU9SgoIfG7u4WIbq7q/mrPG3uY1
+MWMrILfJdi7tnFdZwPBr57FEi5k/w/2k5Y4PonII7WtQ9tXPIEB2rtYTm/pwT8pAuZ9nD3sdTjLD
+VwQnKi/ztvnCGAyecYP6GT3YPmMITZwMDxwQwGP049/eM7OweeYXinQANsnoi5P76JlxKAfX+dqo
+enkZnlGI7IDDPasG7yUaei951PXiuguDrNOIaBvnS6NDZorimbWY2LymO7S1sIfjMcQCiJsINKM5
+FMnP8BnY6D3DG+dnkOM/eNuMX2qOiw2hPPjQXNWdnzUPpppDOMLpZ6OMrhpHTo/FHAw7yKZf6ySW
+32TrR1dJg2x/7Yz+oS89hO+DJ+Pi0Y5k8L5Nc2TuxdLMC8PafWztaBf4E1Y/kf2WCL5XpjEVPzjm
+IO8NNNM+iVG/vkuFI+JtW5lon4tATvOhybtwq1uUajeFkS5wbyaLbF8pEh6GTRlGsyarsZ/9dW02
+ZbKJ6XdjAPCzKN1ExHo2h3j0Vnj2k+Bd5gtFjrWYx2DbNVMQrpHPfrXDzPb3ajSH+gc/N/FQFK77
+0XRwoCTYmw66LXcWKZJE0QjS25i0wQDJoknWaeoVOGbLSRb4Zxx14yWMGD9MB/MgpoDE6WSwhNgZ
+ZING0kD2lcHxmI8cvPdf9SxFdCjI4AhWhZTBeAt5amc6/SEdIPKqOhrXg7Z+TQAvfX/c1ciDxn3n
+ucLb95h7gv2cf2ub+SMS4jHncxnOdIxtt7wLyESor4gBkUS0CvvJ0lZRrWs+gb+Xo4rEatBgMI+2
+MGKC4D2O/ovGv9G+ypqVM9jl0zQJKOiT0qTZJ5o3yunuonksijWqXMKKZN7217Ehk2SPg79bz2UO
+FqmOHdlz5ob06K58Dg8FBGjad2GUF+Z+8U9flZU7WhDCCZPYlr6C19y79n3iTuV176EJ2sqsrZzt
+VAZ+sbaEovPt0mpet2k6PTbSmH+1GJX26OTTJ4NYpflq6PvO3wMhL298U8tf0uSKsu+1/70r+tQ5
+xilezHfNwMJdOiJI72XYhdltEzSkWoClF+a6bqqs2WVVOzxKVY7OMfFbjEBZLmtsZU3HG18JvpdN
+XQnrQ1Fmi6GwmE1YKcnA/KvL1NzNhUgeO7jO84PGswew1htEvyYygtDuKo++t/UY8/K2os1NCI4y
+aQ9JBlzlRqC0XzmGMW1dM3bWQQRIetZyUYOXoJ8ORS38ztjSjXA6HNIYua9DgjmI26sD4uy70BjI
+qOM+OAhPiF3CEdttmjFw4+4ji0uAFrnxrfHWymifb6XFzLtJjIrSTOhgtDFx4pPlK+5i9dQ7UWdv
+/HzY47olw8JpCRdd0dJW6UY7babvk6rNAO1C4roeWjVULKsTdjPEAiJeA7h3B1BPVbRrGtBBgNV7
+7LzFKHwDIrBqoxsx19A5egDm7QYn0UjEAJ6mHlsj9GrVFCxMsQdWvxiUuGlyP3uIBm5sO3YeNOSi
+cbCNm7JIvsghl8DABof09pG/2mJgjyaYHDIpMSEoKW/j3i7UPpo6s7kZMWPlTw458PIqUjo7QLcM
+32FEsmLiH0RfblSI/fUYlTFlUzOa+QfTHwiyV9bYrwuXkmJbY5HHhi6zyN0CLRJbv7aQok8D2SVW
+Mn2qLHZrFKUTdQnC1wH2CtqrYK+dKkStbja8YClAXlrevXID7EO1uDPrqfww+HaS7z3aac0hYs1C
+TRliuj1SWWSbPNcbTHfWHmNK7F8VAycjtCK8wt8OZDG0G7SreEVbUQpzy2YNoDoPZdvIAeM0KsZr
+cmyYQ7oDNKeroOnNQzsy21l+MyU3TFDT1zyhHt63qTlddRnuvQ0jut/jl/kRevlR4MMfcxaVxp8Y
++N4udvy9qar3NvOMMdBDzb2HRNkf0zT72eqUoA5jUwX2jTmFV3kmslXbBXj46nIf5MNXUoSOstKb
+fiy/+U33KaxJvHG7944H/9uYG2vteCCbS7NcdXk1rRH+rI2Y7eeASWNovlJ3PRIXcINKaxf2P1Sb
+fU2n4EdnTVctDsOj14ZMwMboEH4hrFYex5QXjECIDRYNCURYt5F5rSVpuh88jjYa1FBrs+keOaa1
+vY0ays9FlTEqoC2iMGN0FniWVnMQDf5mtqbMwxCmUs9/SOeYJI259wnf1mhld5kzT/WHNo6rB2kw
+wDY133F6BOTP71RaaWdtsAHIn2DVf6/yZHqfB6n6PfRAbK48kdtEUnQG4qg2lZ/8KdI/hNt5cp2O
+5JLTbOLdW2nuOz3ooSCmGPx8YR4iC+f7Ws9tVm+UcsZPLtnbwTYd4L5vSmucbxT3nEFYL0b7aoom
+Iz9IpGwahz2HFEj5ASPtA8LDfSu/6mZPkijtzjRQaAv1CkMZNfRuYv0ga63Mkm92k8YhT8lhnyVl
+UiXvjNQyMR35Uzpx5hGRee7GpvkzLxzUEC306fRJ5WVx7GvRGjdWZXF2J8c6KPbPG+f/6SLQRUCz
+8//ZRXjZPnj+vf/bPgD2x+YchomzyIzZvP+7feBb//o/7J3HduzIlmT/peZ4C1pMIUKSDGo1weIl
+eaGlA3AAX98bkVXd1dWrBzWvl5PMfHmDwQjA4W7HbBs5EkZXmEhVlMHNpv4f8oHzr82rD4ttgxFj
+lPhP6oHm/kvFsoFfBAWKGRuZnf+WevBf1aYNgoiEwV+orpr9/6i6c8JNnDduMExioO6BDUECg0TX
+Zh5LuniAug6o3LpCy5UrwNweN5i5SxNaoLlrNz6kmzIR9FfyuTHAxsBWAxBd2CYp+hKZc9mvVFe4
+F72vOPon+jzgJQesXm2j6UArzNsCqEDxMEK2bzlUjMBcUxY6nlO45dbPKhtEdhnJp/5U2G6bsIg9
+nsEcuLs784qkZ7bQf8RayzF7nYYJfb8ZzyM5PHJiVGA1d/lMZcEetIgLu32M9b/bBptydUOtH7W+
+0Kq9lsW1pHBDobXm2oU+1iWprCLJbjzJYDoqRFLWrl9q2BCOaiZ0xSf+C8pfAcRSB7pU7fxGOnSw
+kuAcKm1fXbsAMEAv7q40py4N9Rlq7F3ZGrMXLh1p4iiu7LULiCZUS4g4QFOWNtA1EQiargDPdNfW
+ApeQcrfHgKITniMgYOSEWS2jQCfg4XdWaAswv/ss3zJ0GRJlMHtx5QSzUS/6RZ+oDma77q5lmC+D
+EPcJifh1T7eboX6Slyqt1xEAAY3wXpp6jDZrYd7TCDLo95CHIBaoKU3RAfsy6pRwI4rh5MRT/lIO
+vfY16mX9FhfOsEZbvLL0V/Z5fucm5r6ocvoL8PsaUepI6LmJJ82QsrPqyTAQnrqyipzV41eGV1aY
+PjaotA3GfrG+6LPIuvt0rOS9UzGbrCo5Pc8xDRB3KYazxTfTGh+9YvQNydPBq7JLNwjackRRp5lv
+oBHDXhvdQgY9WFk1WjKR2XdyWYat/M+W447dUuUxYC3X8X5dFVr50ELKeevXmxY9TEiw8hCvbEPs
+7DGrInoNyq/eUruPrF7ga3aL2lP0ZDSuEi0j+JHW0wQJgjJOGgjPuBZhzqtqRI1A80xkDl9zVlC1
+sONjIeHMzTKbX17RebuYtHJKaxP7+F+lWhe495k7qIfRnWSrhhMVWNiFTSOT+RQ1HKAH8EK94bRW
+zL54jbtqoeeMagBskzThxk6IKLm+LZJjHz7SqYFF1xt7c1jeHUvMwYqK/UhAPT82gnoun8v00CTN
+EmXstwagKxk3YSMo2QlGulKofKGSBwCR6sA/17uGjTLm0/xOH+b0lW30/IGOVx4Mb553AqT27cYE
+OdBm23xL4FD11FId5trUAzXucu9ZNZ0hYy7KjIf4OhUHBj5N5sMNaVXONMg9gRG3Yaao1d4oy62/
+Ly5OSEHyfhL2/OCY7a2iJgQ2JQFQdyyWJzbX/eNE1JIpNhlUxCDqC/w2zpc7BsLujYPXJZqzNd5U
+yZndKk1BA7fEorytHkM6PzfdsYwcVMl7+EnrjVIWxTM7UPHhomxBSCm5DH29xcwgWrKrPOrVm1nr
+bCpttJliJNZLYsacd2jcmj2rv0vAED1UVgPAoeU8/1u7ZkPjdM6hDk+2jUgIJ6jpdhDHkyaqM0Xj
+dFNqCW0bTUK2kkyBrfgVvTTmvW2XlMH3oj85aqEeO+HigllXV0CLbKSeRY5SLM9TYwCvwEpMbVJH
+t0+/Y5ZvHNphAEAixpVcsFJTdqLb3To+cxomN9saRXtZsr6ebrtJozchayq8TZaMzTWyJgIGN1Wp
+mcFsdV7GyaHHeWPNBl1CxNX67WY1TU6Zg0WL1jJD2EmG/sVLejE+xC1tDEdPkp2/ZekQoEKqBj5H
+7Cl28pBPlMtkBDSCeeyqOyk3rhUn8ZY1PHBIWvfFMTMaweFDMgNVyve88H5mtrOQJkRrg48p9E1H
+9mYNOGpWLPSaKFMhdk08jB52Sa0Z97C1sNwqNE8cV8XGrA7rQdkjje4mpzmugMfoSlo5QuDca++s
+xWs4yMm8W3a9Hpuf4DSBEFmkdzBlErBGBZuao2IKeUhG+ltw/PUZa87sSCVqzFlfAqV2typJKbsL
+oLgzs3OZnktrKanwUBc6StwNs3VohW1TSASG5A6sWi6OvVqU7u2a9G20KpJ1XMLhcd+MZWs6QqJy
+D2scg8kQ00ie23SpM0oK0j14DylRMvmvMMM4VOUyAH7I86IOOZzzp4yNapO9j2nzLOt0e64Vq/UN
+F2A5z/qUaPueirIY/MtHQ6MBLISVawSb29pVH2uzNdSwZqsWUjRqHKfkARG5ox/qlqB7vvUYLYgc
+KosAoiJTkhoijZ4+rq2JSpYTIPNzji51WchTWUqYDa7zmU5IgtUqv+q1eZyS9BEJdT2po3gHvhxg
+/rvLJ+OnVNU5WITn+otlHQQrtu+O1k1H04fFia+LKns8KxUUPCjwRXOo23m2Wf9crnu8n/7MxQpG
+SjM665jOpjNGi53Yd23vppuT0bEH8C2rMokoER1lQsXQiz+2hBB20CB+/WnKSWdBLJvnRXNTVOF4
+ye3jLGqeq5t/gmRFr7diN6eACJmm9BCpetOoH/VknJUTA8sxjTiToqtMRS5eOPN3ZOW51bpnvSvm
+F2LDnHOpjPS6/az0y95gC2CDIaNl5S5fmnrZ9wuHezJxvDTLZXkQ1DtONLNIfmI9qM53Oc7ipTWH
+DVEgNfUXjoX9qIMCzIOe+UyQ5dN9nOnwR9c50DN7QiJcEBAYFfCppifW+DyaDEmUSKeiUp+zdxaf
+ehd3mhfS6ud8tKl6cOBCQaujJ2L2LQI1HD3TeA5pOSvIqqYvK13pdaSi0S4IZyj8lZXfO1muW8dx
+dZE5OZ8ElQIFq56R/hv5SrccO4OkTDmqWnFv5S+F3dCx6ZD2RulQ3ddmahcv4toFgALyraggoMAl
+AMkyWmUOiyFe+YZO6RzbFeQv0DJILZMy6aJhh1Yl7OdkA0mL2sUi146j0oNU0woUFrvSGneHXV+m
+n3bjTrdVmffuZ6MO6ZuWTKPLW1VzhQ+woI8qmW35bGQal7Pa6NlZATVL7Vquy19Zx7AalG5CZEo8
+5dVRuHmNRq5AlB0efJ2v2ExFlIHRnE8y1N0b/cq85op72DxlNMEZW3FbrayI966qufK5NyuXvJ6Q
+JppXPNCFsecr0/4I4bQLhLO1ymBlbWpZe1XOwMFMj9VVT0v/0dauOpsNDCq7g6PspfftJsUR5l7U
+WyG8zDh2Trbaf/qrcEc04Rf+iRkN9NX5eWMO9p65Vree2k3zm4xB2bebDmi4AhVg0waB6dCdvKj0
+AUK9GGoD3M8mJWKeK8/Wpi+2peGdh6voaLXxoqFEoUWCe0CW3LI++oUiHkaISmIo2oXfIJn8ad3E
+GmH3nNurJU32QN8RPedN/+Qr1o0Aleqpkxa33FUtZeGqXqarhsoowroBzgkTTzXQuq5qK842lNfq
+qsJa1AtVAS2v+ku6ybT2VbGtsrG8WP/ouFdNd23zr+Eq9fZX2RebKxKwPiy7FVF4RBxuzRSVetOL
+RS4PBQJyfpWS1X5j10xXiRl43PiZXoXnlHYMlKWs3ZkNet0OpmGv+HSySfWg8yd920jGm8azk5sk
+1reGvqvCjR6A2o3kgvINy3lTwS3rmDdjfRJVvwEhO/O1uWrn6YaW/NaumnrfeyaroWmwFyX64XD7
+NKMeokJQRYuFe20OYNYQ6its/4nv9KB2Qg1B1g6Kq7DPgFPxphAJFSO7CljZiJCybY28SulGVDEi
+jnbXYYEew1QK2OS39fuyzRP02hSU9qXld7tNG+A4/sUHA5FpcnfCXs1H18IkApYjNigjZmIx/jO8
+WKlI9E1GGgoupjIYjDi75VW7M/Dk+SDqTO5oIxM/DunHwITDxyNnGI1/ss7/o2L8G4YFA2fO/98L
+8dx8f9VDVov/rGH8+5/6dw3DtP7F8ZmiJdK95IrwLv1vDQN3BHXrW3IF/xRr/6Ye/IeGYW3uCKxc
+2DB5zG6U7v9jgdCMf20R/e1/zhaJoqXmvyFi6LAi/osHAkMFg44t7QSef4vS/N8eiGQ2KqfEbRc0
+1sJ833DBJRWzlDsr27qSkmQ9ztc+zWpyC+ZEs5K82IZrXeQ0DqCOejNyLKXbtzyrw3brmE6z9NdN
+qvWikg46cRr2Et9WOpspqUXNXEGMGhrrWO/UTE7vamrFl6avuhAwVHObs6x8Z54mvyyz3DWtdb84
+k3qkoqQ5d4nmvcxV8o5jb/60CFE8z04dP5ra0NyxbdA+zEQfP4ql7e9LF2E3iX9GT6lvaKTrUfVS
+lxMjjZLQlCaSJk6u70gpdRdPMC0fWss4k1/Ut4GfpG3Cwh0NIi7c/CCJb3kjsyLHqw5ytIt7SmGf
+dB6IfTCYa8OdNgL0zenoZRq++km70LrGKf8hrT8dbZDhYEyfHX5EtgpN44RtAb7KHfGRM0Nmo6xm
+bzxVCMLQMf6ycMf7qa16dMhU1alzqiMFIhfytUnI/HfZS9ViVpAuxW6eOQuiBHmoA07u+c2MxTVq
+ChBg7GCmIzD5JioptCD4PNpO0NoxWaxG64JmjB2qVjMonIbBqSpy7Hosv4vOZQudqLV6sGqj944Q
+zPLLOipsJo2UcgpkcmErrwMb9bNIi+oyxTkAIaPwDgnwqNDq+HhCbA/1rmWgumtqs9ipWtE6zMIq
+GkslQ/e3ZhzKR9NRE86tph31KEwHok8AseaoV+V4U+TfWv8nBSuru8wamRQdrCT5MKV4W7UVql78
+aq7ZvojrfRfbUZf8Nmb618s4yDNTcArtV02qlzEnXJSAVStt45h59THpJbsz5bYqaAcf5rulSR6H
+gtrCOD53VXpY1lncwYw3Qr0Rh5m2elyhGbGJXUdhZ2iZfVgtTxup3wqgVj6M5VbTOfstTL1FZPVz
+ng7sonrNjKbcvdUVB0KehmDj1geH9oss945Dr8KtZFSlk5/Wpw/HyPayc3f69GeMzQfFYkdtP/Ih
+gQTVcHf4bgyZk/01A+zB2NnZkNytpBK5DvdqXYQwp3ayXEw/M/oinKcHTkipz1B2Z40MYI0+TEZk
+jyV7Y9N7sAogg253h7P91elt4bfba4BS8cshCVSdCczfFZRwSu116jCnbad9NzbankKiKaSj8aVr
+jXxnxMkzA7ubsVz6QDW79m+JDqW6yr0JL6u0vJchc19SNeWdx40aZUp70EjJmO1vllrb855idlCh
+flc42HpqNlpXzaeYKYx2JnDSsmEYVf5ta1X9rBuvvLU5x4YmG13fEW+al0WGrIOyUujNpIPbY2xf
+2j1RJP3vQj50n5okQ6yHQU1+uGvfUusAsynoEu9SmbdrYfyalnhM1ORlbjQv8GqKTs1auYhiZZ46
+1l9aqRTBmBCrkXP+yJZOC5a4vMSqfkuLFSOOjnC1krj3sZZ9zzk6DEete0wmD7NlfUARfttUAIJ0
+ys2al09Zx1XGzjPSa/GgDuWHlppcn8Vtg1QS6/UR42k0EpUJkob54jRoWxHrN4yr1zFeczwvhR1U
+pfKH58mXMqdnbdQPUH5fu7R7cbNm9fEMfaIBUZQz4x2wOOkswn0Y3RmcvLKT2XiZRg6ZQ9LdQ34r
+/S7Nd7Kn4bT5hrp9cAru71Wo4FHvsVCFdfM519OO9PhNzrsqlHdjZivXo+Ek7vqFUzSUG6qe9mAD
+GjEX6AiLWcsgbd6lnnZYRwa+9vgJPXf5gh670ymZ0IuXNj7TeOyDU/272MNfNk70iege0Fn2soD4
+/s5d/0BG6cHOuAzWfjjH5Q8Fo3DM0s+4y/7MhodYoNzzPOKaTc9KXRAYFD4NHsz7vSKQSqLgFuiq
+wGqNhy4W3x3ht51n12+Edu5hdAGaaF5cew7iSfzhOBQ1nlaAkuyO2JDAMy9yZwg5BeUwBVhQ/o66
+e8lX9XXRkrtOJTrrpEfkw9onyBY6NLn7dCHjS5NpccxFZzNogzo3e1RRK0jhWI1VulqZjmUl/RYc
+41/gQN9Xc3LAC05HoDb82HX8PKts1xqIZVUOSVx6SCpTx8mojo8cLpQYBLYEIGYx3MInoe8W4KW7
+WAwJxNSjVd/mvRFYcrxN8vaHwLjkX+c3c2fyIXPUq1oPSHcGERJlkt4NOdxlS/OaVe1xMONI4+gG
+J0BVuPYyBg4VV4LaPIoRSrLa6W9zJYY3lVPD37ldFvhE7ChLTxykisq8IBns1TbxApiBTNeK+Y5F
+5lvLygusceVh0vJIpFrHrWueHSi0ga3DhxPWhUf5dvwnz21yXhXlR7f+0F8eYcv0p/HJVNMzkOCb
+uO+e3MyIsKl856laYzLRRs7XbaAl33nb9VyIzJIt+JCKEfZx4xyMrj/BgTYvJDOSgxSfaf/a0WQb
+8137FSzunlJcW3L26VFPLIhopdfdC5PmBQpd9TXZpSk9STbNBPURrPHOMrZqS8CnE+q+6+dsl6Se
+XDzGwLBrga1Nfqm8C7HQBn/h2EGqNRCk120cCfgiTnqcEBhk7F/y/QFmY94DMhyA4n2Gn22wy33q
+xcA30zu1/sas9wFxzG8R6+Wc3Ix2GUoqfRpED9C5uCaYORfy017LYGZn4XMCR7tr7kBE71LhHDSs
+qlibmK+bR3iUEV3AZ1KZRAJIJFrZDnfRLgX22YzVe1Eax1Es+EOM25aybtWdPinoPWvAeEFsYyA3
+wrTRd7UWB6aR3FjWn7wx7tUeqJzUDnPDw73RHlIuFcP4S5c3C0tyakFIQcqeRrjraKiVk3xu7Ltc
+fRMrt45Y7/WhvDBLgMRYKhGl1EHbTGwI5EkYyOl5nYeuRqqrd+cwF1TQOIV4VhEvCqZoM/zpBFas
+h997x4Thivg+CNcMy9Ecoyxdm1v2lmXAU2aT49PtS3/miRRa7GbS0tPOXu3E+7nFCVCJ5WK2DrBP
+j+mxsE767Lk7EnnfsP5v6wzcu61nnZ+M9jFl6jQ5xaVc0h3Ha1qmtAgn1W0sYNgja3f0Od/iTd9l
+fEWjZoEXh1V459JvQ6cX7o+/vcJmJ7BGO4WCW3V3neD6d9ZJC/s+e+40G12WgykOA+GFk1txYyzC
+LgOzM8MJRHNa85+3SdgVXe9LUKtato+zeV9byB20xk96dsTZh7AZ804TfHLKFx1mEbOUJMDSdWaO
+Awoyv0s7QK+cwJmxQaTtjedm6md0+iXqFuO2aeRJm9VI9GjPBnjqboxMPQs9u48c9zYrldBgV1LO
+aYSple5k6LeGFn/EbGu1pn0StJBqlN74abHsB/M31t51g10S5cUzMNgx0CF0455LoU7CpnQ34Hli
+Rpn52I537GaDySo32xXGkINmTwfDAfO6MJ4wxn5XWMJiZ5tEC+eVytYPSu+GVfE6YL8w++bGWF24
+/uUSGnRAZ3wgxeJOocaD8oAuVQ3vW2W6+uAur9MSH4iF+N3a7Ric4lJzo2FcAkNpZ8jwxluuG+i3
+99ro0ZWk/hLQp4OdID5THgBG+9TmPCQ/SB7sV899FSzMiftX1yC9lt1RqywlTFwnTDMg4PzLjC29
+KUtYy9Nz56YRGWtEUI7oK/7bcj4JTKVJkWHks1mEuye8FlSo4zlMYLrCGVVvtRKm/3veHRl8HdFJ
+71zMLkriRZ4d4cihFmvy2eejlsQzhjmY+zpiNvI8L9orUZxvz0ptByGGKYPndtsXurc9PduP/IOC
+zaJez1NphRhPq1NbuCIU5ZdaOR+CG96hIAM+fv9Us+7LfvSZnIW6lt5XJD2fta5ZnlKodbZzsbz0
+VuA6onNuZw/LnrvgmLbVQVi9PNqJxZsuk/oXg5lzSMomskFmVl1+XFoAWAYG6yV+FMMrHaK57xmv
+A4HBQsNwquGbNIb8OTaySJV8+7Cyi8wIO540+16TXISj9E1TFzeFB6bcGPaiTMFrMdVkLp28sLA8
+4L7bezZoZ0oUsBmbfhzrka6ynsw0NgitFSFQ9JnNt+dFsaW1dJgsz66G41qu57io9pPB6HpsTC0o
+iLSe8Ez5K86SwqjmPfFk5Nm62q1DHxqJF2ay9oI1db3D0L/1HbuZWj/lUxlNqerDXgYLcwd5BMiy
+I9lMJFTQOw29POxrkNx4QrFs6W9rlvqjqdwxfeQe9qj8xObCyNGjWyQtrIhhUkKzfAIkgimx3rCH
+x+YXeEUeDKwnY37eTFKLGuVUa5Wdk6Dy3XVJceOkv5ONomz+GZUPCVl9r+Y1Cj0O0NZ6HIz+TEGh
+L5YmwhPw1KE3quujC4YnLr469dlJSL3zbWWch9euvpOFMj01HvUloyUP62Lt+hRaNQ/vkKlh1Dfz
+EQjK6tfJOv4q88Dy0ozR1OjEk5zu1CgaxISpuMRuFlhL/FE4MHrY/asYETy60gdSXD6o4fLszMbZ
+cditto0SpYvSnBhjkAoYxeCXLNSLJVxf5xCLGx5vRGDj3853PVNYM+J44SRnO8mxfjdg2P6UKyb8
+yewxNVkgbkI55TGOpimvXpdYUCiw5hwhs+E3lu5NUhQ7L8mKQ9Wh1OexyRWYKupwwzTPOQ5pRrSq
+mlWlPhDJHJPLXI2teHA9MWshzHVHObVSPZkFzkVn3sXZwLXEl80mmp04pREjh1o36tyFzWShfNtO
+Es1pz689lIEFQJyZ2e2q0cxhl7uSR3e8HAwupKjtlygnXLmvypHLOY05COS5N5FmwTfDII+k2CnG
+TnIwJtKOlL/1f2xkglDvAHgaKOfvKynC296Iq+6LWqRUUrEC931nzzjSVrtpLxQAouV3Uk2UsJsA
+E0dqjSXdX1lrCYp6NzUHq/upzXFbCgjGQjWys4Qu8sMpuv5ibgRb2LDyyKr7jujlWvzWWuv9he3k
+hcJILAaZueqyAqgvCjTv1yRTWyzx0jyZeSuCvmESVWYUOs51X+3KwdVuMNz/QW8fd6tiPDugvA5N
+AaCdpOT0UpoSV7s6M+XrWRtVJ75RJvdFrsKET1xxgoEmxJZhKP80bq34blqRHCvV5uzITVVyKudT
+xRTW+ewu5TMzceczIyiDIzXhn4VaIZq4MEWetpPVnomDd0MSkn9UpXJ2Z5vTAFZJNhAOJSsPAiP0
+TTEmCD4upruH5spZFk03kH1QgP7x8LsrBPi/Ycj0m7Xg0SCggZ8lZvlbmBPTqV46vHr2M1G75pS2
+o82gTzNfXJ3jWMG8t6DHmlHonKkHU+bqAW9Dy4hSfiNz9Y94AOTOTJTtrdfkJdYakZpIYigpEd+7
+CsxqCcHfDIpse09DPxwFdRxfsu94PTSiSNbQZnGl86qNN8UXCNuvG4L7TcCi2pAfbNe3Hynazt3L
+Sbi3aSmynTOu4tCYCykBqxiweQzsobefeY3mwB0fLw2FFrcF8G52Bhkuha5OH1pzEocOy20wl2Bs
+e+dH1VteV6rEgOiEuJj66t7iXSUQlHjb3wLoPzUtP1a6kuvP83gr5SR3/+SXDKzQiI+zL0gOPKgx
+2YV/flMs9ue472MkDRMLe+f9CCvNzzTRkNQpY524TqUeyJfwwttn20wlH0gPCQjvQIuPtXcjMeOK
+hqt9LyVj5qS1TjJjb29mc3wpOt52YwsO0dJYDTYnisZ+dX2zMOzs21Z5wu7OL2ZwFXVLhVO0TAPZ
+8QGrmfKjJoYZ8qkyL9C9H5VICJEmp9w3uksIKfG4XjhXfuS1+ni9mK5vAPP3l7Imn02eoQ/Cwn5M
+qIDYb3M3GfPGr2+uUbZpeUVG6voBmSmvam4TdMHuyvWwwBqOxWkc4bBQOZKaphZfcPhmh6EQDN1w
+Jh2EYbMRdGbvBnt2G7mbObxcs2TH92G3fNgNxL5AVCPRsImvBwTjpwE1O7q+TRTyH/Leb82c8Da3
+PBjTlxpulATI3iZv1zc3xLnElmpbj9xynIE2rDRrS/9uLjGrxcQPYd5yYu2tdwkp6DCR2yezxYW2
+z0+65sk12vuttqQr4p+i4G4xGRZhLIfw607TjJUWXoVq8GYK3kiy8BNw87/2Wvqt2LkTAP9nPTQd
+GfXbxb9xgHc5NzzXk/JjePGrINQQOmovd7ImGyZRBX1TV14bbdNnXX6YWpv3NLj8wIkhQsX+L0yp
+bjn0gpT29ccTBj4xVcd7sv2WBJJ4BezTB92bvsyBF1VyrixR2tzi+Cpo3Zmo3pFQ8wJ3K2pQzXI4
+1lgfIjfhVyeCjCnQW0+Fvv2C15djybm+q34D3mPXu1PSpdvXHTfU9QNpRKseBMVM0fU3bFayeIC8
+2kg6U30yxVQ+SrovwnoD7pNoc29da3D3ytzXp0I2rBedTB+uV6fs1vkPJK/+vdEM6Pzg6G+SiZ8v
+JVdGAj/3n6/aTAua08dhjLAXLZTYOKw91zsq6Vlx/hlPVFQFiVSAwk8KrmJvVJ44LqFC5AJmf+91
+7rPmUgBC5RV5pO2rkF3P/5MU/GYuHsL3UlGchzH7tHsdJd2q4102Jsbz6CXWgVqv9nnA/xF4maad
+6EpRQvo025tZH9V3z8xZ2sbDJrEPHZvQhBIrjAlKvk8Gz37o10oJBvwrJCg98Pd0/+1o4nucio4T
+vQKIHGcKbq2p3EFZRaKiio7gRrBifjouq/FrV8a5deZHOYhfj2FHhP8mcoXjhVq60UNbygTbaTzG
+K3+YoXRvyv7AJXIexlZ5pcqLQMO8nIYi7w423lCOoj3Zp7K8Bx0CEZ+/8Xr567nTx1in9d7uxBes
++Jtx6yjjFGSO7ac9JvfM0amVqQrOzz9l/OAhsuVS2YlpfhsN85fpQg+8/YsV7N7A+v8Bb/S71vJz
+kSjH2sCrosvLbA6c2+Z6ixAZ2OwnaMT28DG3JRptZ1HXVHaXrvHYJtYPYzI8dG327cSUsSmtygiX
+0Ooey9mRjC6sHQtdVnubx+apN2vSdeZx9dRd6jYPtev4hjRoPraP1ui+mXZzg5vEe8CLuLD61v0U
+4Bcs6PegQYOD2k8n20PBTAw7LTaoUmlN3yuWV4Jg3I2Jt++trufj1V8p4GSWZd2yHfoyscHlqdBf
+vdr4HTPzIL0Y0pD+mElzpxhlFJNO9Vqb2TDxKBWzAqjJNLC1ttvVXZ4EuItelqZQOJxgxGTnU3ah
+O1D03ZtHNmafhAhgd5hRDCnt3FjaoyWplPFqjdK+3sFWby4YMtNX3B3vM3m/kArNlH0um2MQiWGG
+JubbLFaZlZ1qm1GGWrhWkKh8I7JsOaTXQ+RmnRaOHT581Sa+M6XNay/ad9kRoxjXiZYZxSt3ToUt
+A5Os6Y+sUqEn8UJpTY5UQRFJi4aN39lIQquYlycxfmqxG1otvw1l4g5GXAqNZqbVJ6+ci6OWAhJo
+uZn8WC3nl5LN9icRgvxIjcUYWhZvj+h1tb9GKCp30NlUuqj6kztdVKUs/bif1mjJSZRU2GOP87IW
+e68xWhZR5YFOCs7YZsasXBAwYaYUNkpnPlPD9MO0pzxpMRV3cAL1HUYaZQehMzvr6zj5bPLE26R1
+Y4iC3983WGnCKVfM7QcYe2mL4i/NIRqrputyhqLQZK+1VnHnGFPxng2Zc8oZIaWIT97OxivCPidX
+eWzVZA25sEveke0chaWlmNcc4zVxbRHKfiLhLV1aRQza3IJRHfWoJ5gz4JSzUKvi0jgBiSt2iaz4
+MqxE+5xBRbBTK0ziWGXXhXM6d98sq31AcqQ8lpSj5FzDufrZWF25+HZbJWcrwebnU2Zf7ZLeZhGN
++YJ8LF+Uqll2ezsQA8cLsjivuUewbk5d61QakxESiWpb38UX5UMKg+sxTjRO6trCmChhA+fjyYMl
+B0jSTj3Hr3n4sOmfMVYYcXMR1mgQCF89Px89FZ86XvTRbJObGV437p22+mrdtNA4k5BqUZVO40iu
+v7duN/8wobbQM+aCuoqKOjvm3nhlrdlE1hsdLsgmJzGt1uxE1cEjV0m6BaHBdPJQN4zpiAkqlVu0
+ix0gqR31kPEEvokTL34vGJ98FcBveRwpmPCKUvducNywj5tt99YkiLinq9V7QhGlRapZvfbH1WS9
+T7LM+LhueaU02QzXrUcm3CMN/CEGmw3utZXIcuTWn7XMaxL+s20lMXJ2V9e9MwvBs/KfSqPBRifF
+Cb1G21cQNAqPTERtRj0MP4ddP5XxbU6mzfLnfJx/Ek1nbS6EflckfNFhc21QMi1phIU9UNziElF7
+l/O2JaV+XkW02zbaHVt9HOWk86m9I/ae1OzxKYQsH/suS+6agu+gXI2Sq6e2Pw2rE5dFV4aXSTfz
+m6yL49vFLq1H2mOqA9V2dph1E7OdUrfWg9erKXNFPdf2dGNtSnWWMfLTpev3qVHvi4JnZ5rRUFpN
+zotQsvZ2tBpswWs2B+mKIJ60WXJZRoc99hboBLBKWf1g+WPiOY+6ItZbKnYEu6968MLUNkCXrEvl
+IXhl1p6hNSZlZ6Rokr6atEAcsca/uvG/2DuT5LiVNUtvJe3NcQ2dA44ye5PoIxhiK5EiJzBSlND3
+rWM3tYBaRW6sPvDmqyRDTLKU45zIrtkVBQJwePP/53ynj1ZhbcTYL6aBXCK8Y6GREWYHM3Jlj9Sq
+JgDgW0I2fcTqJufaXG+OBKchdnfbSFDaMxrjmfK1dbQzI72k+dtQzzc9jhcoylZVJvjErF7XzjVa
+4hcTTHp9U9Dku/Z49LNYnGBfMm6KZSqt5j5KjexnMwbZVjgF/jnuq71NOntgNoYQcZ2R9bjzHZFs
+I2MSd0JodGtLMpyeU1fHm95jd7mwSQ9e52RI/uyF1T6ToWjuhzGrExIau+bBcNvAna9Zn6OjNc+6
+oUzque0c7X1PdNEmT0UCg3GgcVTbPKA+oPo4+mlwDIMCq0FCWGK+tEuvOwq3JwEQa8mwqRO+CvyM
+wv1eanF5TMeq6tdeZMdPDWhcAnYxMm4VZLXzTPbmo5fD0FnUZpRcumFo4v4LAhvToTVXc/U6CVay
+zNkytgPpX7o2D/t5d186enJmVJLNUFe35Gw2lc3HIi0ikAIjSa/zIne+pHzBNma3Ap2fTkvUICnC
+kued37mXiYZX2cKY8o02HVV5tvlffOKsNwEhZ9qSOtBt6uBTfPI4aXOSajvDPBbzUWUZsq7Kc0kc
+GyZZlQLgZQzQrrSLJMVmaqF+JfXeJZByjCzKcmx/tbVRqYTSmUWGAwf0pD54xWDcu0ZIzbnsa6R9
+moNV/4zSW7dsCDFscN/FSXZE+x0+R6M3PBL5HH8dO4M8RW1wAwcR7CAQBvA+GV0sJsWKRUj7FlsJ
+0l9P9zlxdeThUr4dg4OmTcixx7KgYy5DUxyNhLswsmG6TCpUFYuUIEuFEGdyDqzVlJN7X9R3I3l9
+45LQYm48MdLgWWsN915T5UQET1SvI8OlP1W2tDI5KjXpfiQ6Z89U+zVsxitVFpW1aAobXbksn4Ua
+DuzubsgZKq6Slzq7HezgW6DRlAjmFjGxzbtIU851phs4W/NBPdlVd6kmUz+mgUal0OXv+hNhZAMq
+EYcjTJ+sGaD2KkLKeKWSTBzqwuy3Oi74dd9KceTg41wROjhtVTQiMOrC6qpOQ/usr1znwXUCMtPm
+yajy5o2lzOszUm+spxGWyWZkf3HIeNDRgvaqn676QTxGo+jPsgHbD5qBmg6NcCeC0rDlWqtWo7y1
+c4jwHPfeOHtLpsZpS3ArMRCHoUzzsyBWQb5ONde8KbsOGxLfXn90ygbPq4WYh1q7I4cVmj2d+yOF
+iUjRgJK+nTbxAXx+b60t3+poQ5rNcFNyJPghmlpd+P5kPPRG1+8UZnVCww2DDa7vmreWyCEaqSYp
+rJU7mt6TxeuMloBtaGsJV14zq/V8hrnb7qBxqR8CEVdHRRxb2WJkAdB2xA7GS72MnYWBv3sBlZou
+yhT5frwFRO3FS79Ucb3wYuFeULpl8z/2Zc/j5Le3U2Zy9hWhdfAqs/zW9mH4GDiRvg5iUAiLIaOY
+Zef2l7gV1g+mEeeJ/GXPJTEbPzGUyeyBaa27RKxaHRVG5e8NZiz2bIEhl9A7EM54TbYZmy5A3G7i
+7cJKwSaN3r7W3ZUFlaWFV8HoQaJhoQaqxb5VaXswc5nfGP7YfKU+keFZpuVGvFSaOA/jFA03lib0
+axcJxL2H127d63l/3uRDdp2JnkRBp1ZkZHfFuRGWwU+8r97ZEATJL0I7caY3ideepXBH6MJXwSUK
+do4LLyYrwef14BK0th2Hzj83UXrNuu1erKKySo+jIG8V9cK6zvELhZqZbapgCo6UvBGZGAWyizSn
+UE+qEB3bAGtXacbWsvOmezdxwOcox/+u8sLeVlKcaQ0IIUnZyyutbEdfNVg3JvS8BX72YhfZFfas
+ks1wFk5YyfA3rVqT9GNdRT3uee3aqozyqkXGfB2Ygb8ht5NTaeGfB4Pi4y+19hbXsbGwYRlQPPbF
+edqm7r2gPnoxIiX8FUyWOg/TJIYtFLacCgpJzSr1tux/ztnxxFemO3a7wki8S4pT7aPoRLxN9bZ5
+FFpXHXxCU7cjUqpt0AW4oVLb+CJNFLruVPr0BCb+CHpFfdnutxQxwfobjbb365bE0Lok7lMj+GiH
+/YP2rpB1vVPGSC2KxEjCRQvd+EIKBWCdUvRfHQMvglUOck2Ewz7EwTHmza72+lszpnbcVu2xqCnZ
+DaYdnZc0cQ5pY9WX3hhaSyz+zVc4BerAtsXhkEyJ5u9CycScf8ZGhaKKNMg0BxRC5RSu7XWtY21D
+fxzslUrk2qazv26UxirJjG5f1GkRrSn5VZsWON6iDcmDHwas/87UorPQhbhwkOAdEXU3h7K1wgua
+0cm6LUL1JdTSZk8vadrZbrEkwjVEI8IE2q/aEfESxQj6xUHRRuduSqVnzlNnUqcHkHO2XRo1aJ+4
+zsUmSHLvvM4c76xPvAgHiMb6r4/ZvktLuQFJjafUVyrYh37JDw/mrgOr8qUymm5rQVEd9VVbARU5
+NvQGiL01+i67oRtRDjTVJLGsM7UFvDEunYVVQxBaYIcfvpZt0R0juNOMHQfMkUDHY3nMHwFHRlSS
+NB8XyiDbNdUBHSwCzTSOA+foRcje8BLOOOUavy8Zx1QG0UqRM+gKgu2YMu1iWAQRS0XWdeU+dLwG
+Lo82rgnFrPairPwniDPe+ZSNEEfqrN33RPvS2u2MkvZWFqB3cwyPAl6op9du2AXPNoe2gwrJ9krU
+yExO6cy/sKg/ndnKoBaucuOuk61FU5nTdV5ReBtcCl9NTC2triggSr+4fKnKkR9CvzWjaoqmcQ5O
+TPThp8WR6e7Fw4Blv/4eyHmsuJQ3acl4R8pi0dlLuyCvaqpkiPv2rkZxvuBkQD0r4tTSFHBgCIRu
++GWnHuKOXejhHcFntEuHqEmvdbSYGxxHbP2DBJ4D48/DBzObnl5KoujXkSKaHiVSp9Z/mO60TJ2B
+Fn2rHnWwNFeOYGJJ05AzpgNiKhrYbUpoLhzGQWJoja19bThkbTBD3uruTdSgRxP6dIn0f26DEWeI
+r3PGtriLAaLY5QjGaFFZw1USj/UGH2y0cdiPLCjoVQfUUu5FEOpyZXRsBAxEowQeNygUG1duJ809
+KPCjSzSWyBHLjP2AX6ymRBsbErwIL2Ru1s0VDSXtEdxSswFrOJ1r+khieOdVZ2Nkm2wAuccCFOcO
+1EzMbsMVl5Z3mAS7oaaEfqSEHH8EHq+1yxpqqFm44pw2xzCxP2V94gCF5SF+fCFLJdlU3bADoa0V
+18hWdY6XLxLbvOLB6m0fPNfJbEeRMfagRlDf7KFVJYj2GS26Qw2XAmZ0ZsuBU2TUoU2Ca113q3gM
+bf/+f7ACrdo///Mf5t/g7f9akH/5WP/7/34txv+Pn/iXGN8BHojxEDwkunsPTPx/ivHlXxJlBEJ7
+i73PTHb/f2J88y8xMzpxNdmmmCHC6Ocb5MnhP/+heX9JwJoGacYcEfihP5Lin9AELEmeCoRdl3OJ
+4wKQm3X6rxixPXGqwYwoorfDRK9YtZfkPrbrVxaFy7/Zhv+Wd9llEeVt889/nKBv/76KZep4D/Cb
+AS14e5UCkRLrCWOetFR0DZ2GETsf04cA7O4qSjztkyy83+9K6AZPDw8W7nqOcG+vl6LVFt4oa056
+HrnKchhJ6uiNxcd39d5VAC7jkwTGb9r2ybNjIoniWmdqjO3QvCOcI9vjGp9WH1/l92dHhgp1J/jY
+2DWInXx7LzUBWGFLAxewDA2yWfdNoyGphegWhado3hv0PL5+fM3533xFqOR9AWybQcU6IS4GGPC3
+16TaXOHbVHPNHMEINTOx6htoinonnU9u751LObwjA8gzDFzAG28vZYKww8JMHQF7YLlgM1Zsm06i
+xI6z9BM07TtP0gHwaYNpnRMkTmHSonRyqeXY5tg/xPsuip2dI+L2aBeWdzHUTJAfP8V3xsfr68mT
+p6jaYiqcnuvVuTGVu8yg/rSOUbx8cp337gtRpqRGb+nytxHiVbUjm1hRkVBmsur62mQHRB6FsCV1
+6FHay4/v671XxvSEEYihL6x5Rns9Z4CKnFRE4ReVeRX2+Pz0CKGLqakHK+irT27uvYf4+mLMka8v
+1qeBEkBFuBiS0ZXwYnONbjhZf3xL713F0W2L4CfTEC+T9Jur0E4bB6q1HDiwuNu1Lzb4kIL/xlh/
+fZWTezE0IdhR6BUIZupArZk65008IY8m+Pzrxzc0g41PvmAynv7zhk7mpn5yy7oxeGxiKi7C0A22
+MlHVrZJGchzT3HioZff940u++wwN25EO+Ug6ka5v3xS0qLCetBCGBeDQy6QoY5z8lC7/G1cxbYTk
+tkPnxJ1v/NWC5QvfZjfsVgAvaBJYlF43UV84f2OSfoz/C0vO/9eCJTD0W6zJ80Lrncb/0YOL2AU7
+WIJrQgmX0kuTQ+pk/q+sbMKvHlNV+8k4f++j4tExE3r8i6Y8eXoxVsw6cgBmwz1ztmnf3QvbfjIr
+8w+DwOa5fXbyASEGJDTDhN4+QIRset/3TLgG6E7nSvala23ikerh38Dq//IZvjceXOJ5zHl1JI7y
+5I5I1QuDQTBNhD4cTwo2kqoOXaePx8NpDg3347B4sMjDXiKLTp4MiFCT2IJRdLH1r6kb5haip4lW
+Z1mWwTYfCovKr9j6fpJs4QdT1kE6BqxM5zD7yW8yf1NvvzmHu2SbQzFEsNs7ebJjE8jQGHHTYkVM
+KPPgNaiwLc3y5i8BmasH2p7FmkBBA6FphzGb1uaSR9MarbfvlFZ9sgv6fQ6YadbzKPZcwzXn7eXr
+TyUvTD9p3Nn7GHjONWW1au0ENfVI0+Yo06XxEyq8afPxU3j3ogxf9qzQ5q1TuLXqS28KKua4IaR6
+1gWpiZLI17YZygXl3RfxUH0yq/4+zrjNV1c8eezKtBA5Gix/AO0kIr04QdvQ5Z+83XevwrtlO8nn
+QyLo24dpCzaAwAarBd20YiEoDSw1b/xsaZW/DSHuxcYPi2OWnb2cZ4lXs9uguLzWc5VSlwMH7cDL
+nIXZovdbIXs0qbnVYfQwQMq5aroWCeGfv7y5ksfWWTDznV4eFQa9l8KuIDJQ0iYwsNiXYTfRItTq
+M3ZldEagM3yy9r43Yl5f9GSeyOtpnJTHUsVe2xlWfSW1M9NHjQHzt/li9sprVwXA6eiTm53/3bef
+q8f6iE3a0kHFcwh6+6zHUmYVYZJ8HpEhvlP2Hbs1Wqd4i2haLxchwct3Hz/e3+d4iG0kLlucg4iP
+P03M7qxgyEWDarr3aVI7VYVKO6ORoeVgdD++1DvDVTCCiHQSus4u9OShJvY0JYNjk/YwAErSk6nb
+jK348x21J+YQac6h0uSUcvLp5RRQCttU5UJzy2FrJehjk9i9Aj8q6At+Fjr8zsfBmdfV55dmS/IN
+374wu80xsoWoUgkeaw6hRB6BI0I/FJmQ69J1II4NQCUx3ICY+2SwvDNIiYy3TY8x6BI9ezKXusko
+p6RleZ601rtJsT5dGLrZLUtTVPuidiZK6qH/WVThOwPGM3UOsWy1eZOngVmcFxxoJPQahQG8u7Q8
+4FQGlaVIh7P08YB57wZfzrEGOx+2PCcPV5aNwoRWsuMJix7/S9XtM6sVh4jZatf6LgSTtEKN/vFV
+33mllB+oCbCAz5WI+f+/mu+geJpT23JVq6Nxirg6klgLiuZAN6k7H22khjni9WVFzfeTS//2hXi6
+yRbSMg1ghxYfyttLYwvJy6riQw8AmUG5z60NdZL+TzdB81W4s5cxa1n2/Nhf3SApdE4zOkzcnPva
+dukEvZatfBiJ6pNZ9LehwoXY/YCGZHHCx3eyPmVTY9SkPtHGyjn6GUaXXHuN0azMOEyuPn5p7z05
+Jhf2odIlwOI0MS6hcxqJkgZlgqmVDKNOmx6w46TuJ0Py3VsCN8jQoDrgnC652EhLOft7Gf0J3ZpS
+2Wf0zmDjjl2z+fiW3rsUoYq2bhEVgxXh5Om1My+yyDIuVdGHo/ShrcpJ3YeFrv50YuY9sTPiUyMA
+lHz2+Td5NSCqTIbRaKJ3qm09mglv3SKkfL3++H7eeUXzKsOKzMPT2Re/vUoTuCGqITqoqaCKrzvN
+nP+RfZar9t5V+ISo6UlwqOZpnClfqyHRp9OhS5QHp87TnvrOy4M//1IJZuFeWGzok5y+nLxQlT+p
+GMOR098SLWStc9Mv/3wEvLnIyW7AxfQWakFS0pbs/E2btHgErT7Ga+d9Emg/z6Rv9h1E0FGe5IYE
+czsno7fvBgBElRWEmi3gS+vHKh4rAjyGYo8U2J4WxTCO248HgzEvTr9dEUwTkbCQaHGGvr3iVKVx
+SkQmFkWUaZu2MgCC5/jXgbJCmIOEEu4Q1WFqjIS3hVdg/tKUdmhEjqfXGpLrj3+d90YNL9KhygJN
+lxPK298myFPE+Kg5cKX0YKzR/KA4zn/++UXA+NIupnjkEbX79iJONUxRU4piMUYohZZqIK901eho
+ZT+ZpN57m0SRUWrBTz+vnW8v5NtJrluKcZPHOaKX0HLwuGsb/D+7vNXUJ1d779lJ4qzIUoDHw0Ty
+9mrg40jW7osSEZnwz5IeP07JDLr684cn53fDPuslPu7tVdzUrS0VMBvG4KuORRdm61FY0Sfl2Hfu
+hcfGcYrZkBd1OnuABdboD4fzFtUNz9PBw78bifBP60UeJYi5BcCKBbzodIchp14DPMDYx6uZfckU
+lIrSx6Pw8RP7vQoxX4YOrOCkzQ2dxqsDBS4EXlXkSJ0fHTUlrY1RpYdiEB7Or/5cDuK6JFpoXYWu
+f0a9++B4ZfnJ2vLbHo5fwhCGRZuAsr08beZMld55bZCiX3R601iDe23ySxs9Un8U3QBbfRy8NNrX
+PYmBnwzMdz4DDgISAbsFAds9rXVrBNXqXYZVWWVoyZah7iA8KKOjZQf2EvYmf378xN8bPfMtUvO2
+KG+ctig6JCAZ9hDmtFlTOSCqQEKOt+njq8zr5NuZkxWa74w93HxGPL0txB3BWLu8ViekMZxKKKQq
+n9y9DZbtkyH0+xPkUhLLt8kZhyLgyU4RWLSj14IniBISopEq0kridw2Nb15jiedwyAb/k7ubZ4vT
+u+PLYytH84ov8GQmDpNKjOgmsXfkmbayvUrcVt0wPVWdm64MIzefKIiMZ4iwil1Wm83Dxw/39+GK
+YZZTkkPZ3TNwDr+dZrBz6kE/UE3RUxhTqeM+A6l9EDklDyg3GZ7jz3aUvw+a+YqcVzl8U94VJ9u8
+ZohiZORgSHLN5LxadR0itf6znOh3Bo3gzM05FR0ZZdaT+6on0Ku5O+PzUoQ4Ar8H+HTfCL+S0AoJ
+/OOH+PdX/fotUmaTtJZpE7MXoSp+8haN3vCaxlJwhzJUc7uO6foncQMaNnEVNzejDnpkARUGPqca
+pSqPpjJLa8vWHl05nbKiWk2aV8Mw4ftBwK/F5pHen9YvDY7jhN/kTdHvyTNLk+3g0+88DLIB5YHs
+mPigIW/KiBiixLcOui1UcPCHWdMJBtUoVm5rBCHw3QQQEk/K7WZ3Y5dfhggTy72VACLfGAnRUEv5
+ImsdcdPflyw+ybJOsRYuATJhIS/cHnJZ4uRWe00GCJJZVzZBc9XoaKdXsghQ9aHQQZp7hvES5w/0
+ilHNcSDoclkBkucs94cA5LvLXkcn6GWChtCSuGVXPRzoircJPJypDbBOM1tER8SlpGOZUbsOJPKn
+pdMEgCYIaeVooKg5R2scX3VNwkkf17u0MZJxG2TQwsi3nFXOtWliSRi6jj0A65JOEIiTgqgwB9K3
+MPi0I2LcAYbsspgF17gFrPsRJyqErpKd3MoOMwOPvsxaqHD+NGRbenEmr3AqqLeMf8u/IbDhMwrJ
+vNv0FHSJGOu9KDh07ugKdssDoBV9mPxhwxvAW0zSqIZePKgDuZF1mcEQGCbHWTtp1WYLug9I302+
+/WLd9UWEgz2DXklw1SQhoS6mnMeJbj2EEmxnEOwWZJ81PREsFhZASJVQ0tN6jNyF70A4IkK3znGJ
+5E2D8L9Bj7WrUgd2npeTy2blUUxcfWEM4JnCoO1XHNKjfTeMmjrmFWdm5Hmzk7zO0SaSLZVHd1Gl
+Q38d7BZef5xOahMVisUuSnP/EaS8C667iGgSQs4AYBAOun2IEYv+clGsf1NJ2v8KJx21HzIdfDBw
+FNx8mSWQAZKuMqp129bND6uOCJQhXzJ9cISiOlBAiTqfEqM4B/gcWltVWzCXQruFcFsLbE3AwMgu
+YBct88Nkzl6OCVDTPZw1Eaz6bnCflIzT7wPJK8dc+uIyKyNEbKHDO1zAjR85AiQQZSrEaZd20Dcw
+/AzcwAtEqfFtUniuWqWi9B7SKu+nZR5luE/c1nEu8DCSvYK/Lb7yXKnIo1EhhK0WY1y8KT3Z5Oti
+6msHJgRS5gWseMAnke2GjyO+ml9i6nVjIRx7PPp9NyX4KUaspnUMtByf8JAlG2FU4xVhTRkMjNYZ
+oTm1U77tXDcPb3qjDDC+xg1sFpjebrPo7c76FXkZZTHg9+jAtKLqCHSEDFvS1uqa61Qqna/Z0EzU
+X0F1h/6agN1OeBZoJ8PISugDqH0Bw0UYukBDBeaKLyW9GMtSr4+WBr8qb6UDFgOflrvQYs34QmqC
+/jOZ5ID6a6rr+judPW98ZCcusrMQTmCwGTMzGg5allXlUROJl16bSZRWRyPGg3VZYZJWx0Bvy++T
+bajwNkBU5v/oWzbHN2aVZwS7JZp0ryqXqXNn+8BJNrmeD86hjTSs/fASazhO2Nums7w3zXH2+YoO
+EZknhhXdGUWGTG5yf6C7nMDYs+iM9bbWp8DZJJUb+ttKy/yfseUDFkkGcM1IzWr0yW7qdc2yQeZF
+uyhA0v/UGbmh0Q1nxQ52Pkr66ErarmkfCLXgBzzfjgkwHCGC7z0fXvll6NJD+D4PBOtnZPfkNvFe
+ahNkhw4KYrxK2CDmd0CVk/gmVxMkYVYAG3s1NpY0ufUD2eo5KuCmQ0ZfxSxu2HxEHYwzgYlOBAhw
+zGX1L7+jFnA9wc+0zmAQEWcJnC1i5qxEEieXSpKqgbGhT4YLyFgWsCaTrI6l3jsFrMDe4qYKTFFU
+D+ygHs0vjV+X+dlQZdDhSTsonashdGaLh+0yEbNZgd5WmUUJsKcLc/a2cVvc2Yk3QiizEjXhfgmC
+6hCUGUuHTv2QgmYYJN0Xx0ATeTNy+jBf5LamPNYJ7IBNyi6Q/Anby+oLYP10f/skQ+ZZysh3luhS
+42rZcWT6int4vNDBgN1YvoHnrbTsQS2KrHF+OAbEcSZsQalWSzNYRAo1wf1kTcD7AiflU21d8Hds
+5EvE8IA/8yPeehAlWujIbJkJQ7uMqQVrcIA7gAEqwimFDicc7kLNaL11Ox/91gmumvNUq6ApUcbU
+kSUX8XeQqj6Z8+lY/xz56WlpAN/FtOggg13iyggSziIV4it7GuJHBEBp/WVqXKKxesV5eWm55Zyq
+EaKnXvba6F0oglK8fa4Z8rpIzUA/kMnYqUWnewoQs2sDmRtDJmm3THp58GVFuqRq4vzZzhMfFXue
+V884F+wLiDLUInGbdc6q6CdwQWIoslsAQw74Pr8qvqd13FUbbJnFTaEJdOpapxc0orwgvTRcNbqs
+TIS5okMCnzG3bPxpCUo1g1badslPVC6QnuOUCA62dEXrLKOGqNsHkZYNbFUVVOeen6M1hdoMGSy2
+XRdvAhvCbxx2x2xRqMy8ccd8SDZJmAG8cb0gSdd2ZzZP0ko6YNEulM6FVVTBw0jqZ7ZgUpnOnEmV
+99h0cSQmmYJEZ6m0vp+kgXl/JL904UyWOSx8MbXPvdFa15aJ7xDjVPiDEoh3Q0SUdW9VQWQvhzDQ
+flnt0F1S1Eif2p5pfEFyWWkuSjIGfiir9354GvlSW15ZdG+TbPFUD0VyIFcUQlBvy+aZFMLiB30f
+gH+2MnNBdlVg5csYrG5Nhp6sIG1iDNrqyF1vowAJ8jrtDJIuxqbQtHUSFZL8T2sgxoN+y2SuQykB
+l5m+5WrbPO7ir+h0MeliBhZPTSsgLMJUCeplQeGPGDJivgiO6IC6bGFHJe6K1lZ0TvCJM+xsLzJD
+3AnuDEzXg8Q5Ep5Co5YqP+Bs1isAoB2ApmxNDzLtHwZdpUTtREr4hP0qZzAuQxolvEQfM1yxjJu4
+vPDxR5gLWyVFv2yhKZnL1ETKtbInhNYLx1MZALTYZffjYPt89AYWBTiM07hy3SYC12/qkb9Nk5kz
+a05R/FAJdxb7I3Em8JiW00YI8s/WaZYl5rIMZLaJ7ZT/tCpgb3gCnf7Bio3gtk7YbOzsADM5H4g/
+nME9He6cWALU9Yy0vEhSeG0b14xRCDCbOu2GvAxwM4ihQRAUBCkoqD9Y9BYaDl506fS2xHrqsvJa
+xJ1OCIoTyqsMXw/UUkeDf5uNM5UDfL9z2Wk8mD2895LKdYCgGN187N6PQTjXFHVNlOfVpJvkxsSZ
+2BdWOuK+GzWbjFC3IynD4sTVL5hbWBeaKQKCzLKnXZiO7wPAC4fmQNxSYG/jwWFHID3Ar5Y5Fnwn
+gxHch0HlGisLqCpBn2nmtIiiWXdXjhuxCfLz3D3z0ti1t6iuCS1p9HBMlzGixsfW7uMBn3SNkDps
+QiioKZaGn0pUPUy+Lg6urFF3H23NSCtAWVj1Vw6qhu9TC3V8qedCbzcx9k8wC0XSnlt+HHwfzNBj
+wzEF+k2WMB+zZCimKr3tiKKophw1P4kvFbz+sRa34Ri62MitWBxrmSdXuU+pahniDLueIEzpi1Kr
+xrOx9/mFUKPhTzbbNrzr8e4SBAk3c1wiwcASAJgqulSVaT6M0UgLH0lNf9PqVsD0TcQnuQE+nlqg
+HxBzalNXD1pBLNYicXtYadTOnXzpSSfFtN7Nc+oIXyBZYnkluEY6VRj9wItc2suezSmGWEJOOLHZ
+Davj1OG0XhOIEzznOW7ujQylWW4KXpC3sZ0c/2bSp0O64klm1xyOqx94BObSCcGFOIXMMB53HtQK
+bCISsfmy7GKLHUtdp2pD8jMtCqdR5jX+l4Djgxo7wlEIA95zW+2v1LSqOwPD1YUq4tZdTK1b/ITk
+PD3BkCixW3RAbVZW6OJFL+OSMAYK0HyNJtIUlvHRxl2EaezKULb11WwnJgd2GpjzkE6Kr7WS7EHa
+2KhXaOH9Kx2SH7OwX2Q7r62z9Asxw34NaLHXzsuEU+xCkOK5V6kng12iHM6dsSpnOkDow823ZGIc
+fAt5JIkm9jw0ZOtcDuHofiP60HKBA5b5z16Ph5uuaL07gD64j2vII2dxmGJndyDiX3ZjXD1StDDh
+z8pmuhUuhmMc3MQCYgRQNwZedjJLfCfmgFWVV+C/+2IdpJX/PIXNdN2T0tgQB+2rO5S2rbX0zKS/
+ScdueDAzbwBcyX5lLye/lgfWPiXxfyL1h5MZZ8hjtYIFaypjJqEJdyn2s9xvSBnIveJrPM0YDnK8
+qUi3JQJUAq682F+YUdTjGjU6/7sPKuw6sANCJPyuz9VKIR1SrDGm74NDrEEh272pk1xMFR/HPx8J
+/EYZj5u0DskD9gg/wvsF4A5UdYSbhP14+JSmJQHwk13O5QGZ5tdIlFGtJE0Ev4o6Hc6ousUdD9mF
+yvManQuWYeQC9Dw8tZToCPoJF2va5zrkySlhIw4W1/Wf2QjHwxdt6rp6NyY4UTAJOaK6YSft6TuL
+iHpn0/nSNtepryNkn6Dz7oDcauquG7qEugDuCmepcP3MqxwIv4XRGnq/5yBekoCt4eIilYxUJoaZ
+5S9TXzi8EQZDvEqjOc5JT+Zop+kl5il5iXyi4C+CI/Q3AqFwSefOGZ5tFlEEuKI7muWcKtUVPs5i
+2yMkntxSrbrrNLju7BJQNtBkn/nLc2iVGgLbJESez3edE9FEvcXSs1tn7N1wVcGXIXeFmZsV20/Y
+GyvyUcjcRff4MFhmnSzdkLgfxn8ubzm6d9WyecnlavDrWuctMTQRnh87BS8sVWqSROr21VJ4mf+c
+DWkbL4GUuVDFY2i/00tsmOeJuIbBOncPfaOPxZJztyWWo9aG3xuzm5PlSBN2WVVYxEmQytPYxL8T
+NsZkyQpewd+BZ1ox4eP5RhIM+LqXmtf/xD/gNkFh9qoAuHpsH//tJ3kPrTp/zH7+8x+4TR7//f88
+Pb41nLz80H8YTiz7L/pRNDws06QqOPtD/pVgacm/3FkLNJfpKTlZc6PwX+kP2FRMjk46Kh4LhQtt
+s/90nMi/LB3lyyydp7ngUJ3+k/QH66Vq/qpiiWIErxnNAqTWSE1wuLwt/ILGcElqgleCfrzGDJrG
+D7XRBV/tboBg6SWt1u4N1vrbgqyT5wAJ+NfMjNlMk37egkUbi18umQ+HqWzDZqPHrqFYCkmFXOA5
+57PxsTXbC/zmLhoFRDPpsh9NSWGkSy6lRuIKWGGP5EA00oC984Jq49Dlo1joTV2EROuAcljpyq/u
+kcEF90BwZyysC5f0BWEAfNbyO0A6o03wMNmUoCcLE+NcTu4g590aoDRLHYZ3QHsN34sehxQce1Ij
+vmEaBQRDq6HymM4n8U02ROuBN9WFDu6h06+tCZH2IrXL/AgAeArPleF4ycodI/NBDwhY2tHlZVsS
+4oC8VGk0EGjm+7mznszR3FVQaKC86hGFsTqvu5zO04xW9nEjrzQiz354MvPu2A9WN5pfWuPKz6aE
+eKDWaM5bW9b2DS0Xe9qSG5NQfxwkNFdQ99Ym0JLE2TtGN12aejHcZ2ZV1hQFK+cLsdTRIwdyhEqW
+7qt+BdClDQ8lJv5vBdqAaFW5JAbjA2ybgTirpPO3lpuBJeoaOVKXtHKeW+yV2TmmbZfCaIBtHia/
+vsY6BIMB6Jh9H4ku1Fa+5WXUVanhTEsUxlq4cgxsREt/qkZOnEHESUizAUAXNgKShcvZBBoXLNGr
+zsqkDhtuNCvSt4JO3pYUjqEdBWYB8L+uwl1cawZp7rnufKfR1nZ7cOPZfZK2HayDOvIA9RgjlINJ
++XeOVpozhhYmwtqio82mvlehu3U1TsArGZgxwy71SbT0c8F2HtgdcQMREV53KgCOsujxVkJOT0vt
+m0tc6hX1DrtbqjrS5EXQjHgO60ZwKm/arHGXOglc1Volmr3FkV2e5QrYwLrWEyzxnB1GMiNcN7lG
+QFpx7g+Uo50poi5JVTRmon1rxVG9rwyroAVZSw7SbWgPZ66dk5XQlaP7BBJ/Cv8ve+e1Gze2butX
+Wdj3bDAHYOMAh6mCVCqVsnVDyJbEnDOf/nwsu/ex1L3s3ferG7AlS5XIyck5xz/+b2xUZTEUV69o
+hAVIkdWTI2YisAyCEPNHKSvHxynUlGvc6nB49U4j4Hho244AlTh4Msxifq8iwdKcpMlzw7OCgDsH
+ljWWXuD8Rxo44fPcc5LyzJ6qMe7spZ4HHS29zio/7OIQJBXZXzaidXqfLWvKxWKk2S0rn6EGRhtY
+b8jNMmilpiUrrQs6vg/jzLXivtV8nTVAYouCJF8TrBl1foW9/1rJ4+mpQCAC+gL5gvg3rOLKjjXH
+2K1AZVPzCCiYSUTpLXpIBdUIO7fOxnlPKzwriFEk383uUChkyiOFCWMsNqTrMZ5I1S6i6ZuSN0Hn
+hnonfKvzNnrMy/hBnBC2sF7HJHYKrDVv5LYZTxKiH6YEcDbaJs3QIx0EH3p6RctaFKex2Ni7SyNr
+pSdnI0zkuLDmzm2UaT5N1mC8t4rIDi2KCuNrAeGtdBboOrHbs++MyXEBgeHQl2YuBKd04A5YYoHp
+6Aaxu5jHnFS4oABtZiejBuePJJnsYLGIrgHZjvGzEC7p7ORJUe7rhE2QGyOtq85MyljpSgMFHkQh
+xJMJdee6UVTsjoqWDfehOhH711H2YaMxBeTu1Eiw6ZbtPnSpOPuSLRb4sXmEVcyUw849KzmFDiBE
+etRxQTfXBfyHltPCmsEWS64IKB5ov6BgAFzNUZ1kF60sSyddUJV3ta9XQUBYCOWIh1w/hXFAPD2d
+40TeAOdM32T0gFdiK6kMl5nSMaAlGViiRkj7gzGHseGzS68id7YG2E+gdhV1w910oUNBoSDqTlRL
+d+0kTgCah7wi/WBuIQQLRh1cKFmLLUhN4MKQ7ZvB3qBdl8TUJhpIiJtSpX6a1PoimABGHvqQ5hLi
+AwQgGKNSpzEpFoBIaQc2ijWhNZjvxko26p0aSv1VE1FeYohKyuMAACi3FXqVin0kGrqfoKhpfham
+2n0JYKHZhWKPxGYpwbQV6rDr6Qys5Leapf8V9xWdkyDMYb+N6mrcaiLa3wa2K4oS3CACQpRMy2+1
+VjTemlkIYPe2Y3Bv0ZFECGEfm5XPoe8bD4RG2PoaHOstw8ds/KESEw0euoj81iC9XM1RosjekCVU
+hSxO62lcOgSLiW5spIV6vOuYQh/kRam5dhKp+9LoYbyv+6ljtzmZEbr5PJT31gDjzW6kIMepkTZs
+ELtKlw6wBKIIIGUfvxjqEtxXlN+wNzR9/E3BvI0OnkTqbQCUESxAOwwvcjgLr7Ux4vz552vOY/VW
+3HbN21t3eKn+e12ufisrJuQw6v7Px2/b79/TbLSu4D58451Xc6eeA3vz1vYZD/3eUrP+5v/2hz/W
+hHdzxZrw5ZVYWZd+tCb+1n1cGOLQ/OVq8q0pXvKv/bfybx72Yz0pW2Sbs3qyWLMpeCQlnvFHIroq
+/aEoRKUbpsGaEFc2noYf60nxD/gmyB6keymiQWY6pfj2fxqYyUrXZRqY10YDfNz6P1pOrkX7/7+a
+xJ2hs5hlL8pyVtQ1uGsfV5Nt3VaREUkn3/b9p93Njb+znUvH8Rxne3FwLxznN/49VfxoI/jrK64/
+/8nDiT9LYp0gnS52R/+4dX3ftv2Lg++7rn9w+P7g8qfrOvaWr9zDBe9ox+8cDny7d11+tnX3/Mzb
+8yW/7e92R3fLTw88eMevOs6OZ/M3Nk/J06+/4pc8fnfnH3c7ns3m6Wxv/bG/851nfoW3YDvrv/A1
+33i27WydLa/L7/KM15sjT3/hujzVM/+y82zP4xmf3IO9293ZO8/hMZ7nrcfNWX/N4/E83/pkziVf
+HPgkvKOb9eU3W2f/4O3XX/X2O9tzrhyXr/nU203Jh3d4d7635Sz4u4O/vlHe24ZH3jgvPOuWX91f
+3W63t+th4kCtj3YPh9xeX/bW4Z9/GtXX3wfDz/3n35vNfjVIPm05WvbkwRBLp8Ppwr9YD5Z/OP/P
+38dnn+N+5Dgcng/+8+FY25yUw/Ozf+fblxve9O5ms9tsNt5mc2lf8e73zsWWQ/Xl8vL8US9t52q7
+3TucVQ6565wuHJtz7+1PzsUFn2y//Y3PS/roFfrrAFx//tMA7Nomk7t1yLunp6/H0D7a3pcrR7R/
+d9jOFpxfHbZPpqR0MPCxJIx0BgSD4nhcz+fO3nDKOam1fWR4fF1HEgfssP6EXzz4N/7Nes4Zw4wD
+vrrhATv7iuHm89X62N1uc8Xf21uOpbt3TufL5sgZcdbj6DKefH93Hozb/X7PcHEvOFM7/+7orwc0
+srecMY4158t3OSMXPBdH/+nAdeRujy6P+fUIOncr/upIsD3++ZCbYVAKBkeCl+Qz8u7szcFlRHMo
+bD7C9zHs/O4ErN6dX73qJysRIfdUXDnRB/f5jkuUi+PXH0v76FX6y0j6bKMjwHpmd8IJ9p+PoceV
+zYzBST5fHzf8xwfkrKwTQ2gzkPfvW+J67Hd3u92+j/bp9jdzq4KU8MtPrH5yMy3GPNK+w9B+Yvwc
+brfOetb5wj26zsVuxyy0feZKZRJiJmP223hezbTh+1vG0MHdrrOb++RvfP/Z3R2PjD8+zPEmtO1H
+PprPsGFgentmgCdmo719vnx2m91xd/O2C+23m/VJv94dn2P7brG/hvaO64u7yvGGb9/eOETMZVvn
+6nbPRLV1Tttb73b7zkhmNrPvmB0n2w7tDdPE4+XV1ePVfuvd7/bb19sTM6BzYppzPO/WtV8u1yHL
+hXXL9GB7+/2lc8tNgfHlMkszkXC57fx3/uamwSsyZ24P3G8OF87Wu2Lon3/x4ZZ/XiekW/fi9PTk
+urfO629GyHr7/MUQVD85qdNSmBQMU7yx7cF+4ugM6yH9svG5rNfr2+OM8GYv1kv0xE2Ed//rd/C7
+2e4zZ0OlXzlAQTm5T+4ddyAug9/eH7SPXsS/Xgfqx8s770x2mOuwO+6YY5z37S62GUTrbMK0duTA
+MnnxLXMSf9jcvZmh+OnRv3PvdjcH96nkqGzsp4uv6yTFFXTc2Ju762E9PsyFNwxU59ZjKvMq27t6
+Sew9Y5vFgGy7J243z5Z9712tk6drb12PA2nv1yn3N9OYvH6OX53NT/fBPGlaVWQaO/jH5/XC4tJ2
+XtZJ9/Y3Z+3jAUVlpAwl00qDXAzIkn7Sjwc0BtW/WNYcYXqYwqsQhBSBzPlwIUTa4Jl5QOmlaMXf
+vOjH2ezHi7LYhKqDjZYe2o8vqkDNw7nFi0bmKBE9bAmgUAmCwQYHzvA3L/bxUP71xdaf/3QTDmfW
+xXRuRnYnReNlVEC7XAaY3L8e/X/zKpKKX5XuLtglCLsfX0WjAGtg7AZZNcerlJQHJDlouf/rV/mb
+A/fhVT7dZ5qylFFteJUhIvoz4Yo/mVINXHLqgn9m+18HBnsFje4nJDSdxt+PH6jvpUhvAgoGBgnF
+G8IRRLvuF+N3H2iVzX8a6efTgxNdpytJwRnLnx9fhzRRUVLI6LXlGu6kK0cw/cAeLsJjRj7Bg7AS
+TJyIOpjgW6I2HDp5kFF96kA07LbL5geTmK3JIVQoiXaz0msvM7tWXPVBLCsYMPs15LXQYXFWRsR2
+OzSpE2+mZRoTPGuoh3bGXjk/wVAnyJLtfiAR46CrJD4IOFuI/Vt7gMSKNAinxRwFSEySqYjBktTe
+lxJB2surJl/ZgyKxD3pKI38f1Kq0sTK5fRiJd472sgwAlkoiI9xI5uYRFoO0OkmCiMi9Je/QfmiO
+p+gsdI1k410yZrsT2wLMeT89KATelXD/FpK8l2htVYj0kQGtaIg1Pg7YUcW3J6elbUIcBGKHJRJk
+mQU1zhUaSu+g4hY1c2Jlzu/J1FiJvmoESb2kr6TxFuLAcOoKTdZ4slBbT+Sc1V/KxsDtSdcT4aFB
+rFDNio20sjwxsoAMpsIoO0lX1RLwQoX8K/S3KIL+SLrMIvYiNivyxwqnkHDl2pSi22arizkGxU6D
+euoI5B090F5ZIRCBnouJ9JkHzTfqJjllA85Dm/QE/V3XK+k9T2qNuEfDmK3D2uOmenMvY70nZkM5
+jTBEpy04RSu2K3pL8MQmVXMksxryNPlJ6kshh6TNESv5xQDM+bUpNHA7RmOSOVA3Kulhgy4mh1lS
+M91T0Rfb+yGHpOvrhUryY2dOSMPJpNXvRTcMWHQ6a+Qql9Ui9qpqWW6bdJh0pxPWd1CkZXSZjJMq
+2PTjK4PbyHX0TAp8eiUVJUEpyIAqcSOhxBGKGcoCVEg0fV+xxuxL3w8y5ihwk4cB4wyBA3VOJlmI
+du0OwExl38ook2xzmJ2PGOi02M05aSg8JeY/J8tLjLxr02dtc8Ks27wtq8afzaUpPAjfdEaMDPs3
+Gg3MQ54AY7XngtQLhBxsjU42dl26JbV5+lJ3Qwf4U7LyS3QcnNSaVhvvalqFOIrqsiuuVC205F3a
+0rUOGrIdHgiRGl8yCU+k3QNYXaXXLr+hftGkd9PASMHUPgn304wAT2EIkbhZTCD9OiPTRdHTrlI6
+CgrfFEwAkpbWdeCPuZbm1QqXPJRxbZFmhb2BK5KwpTUhTw8OCqYasp5yklicKpAzoPTAkDWKLiqg
+xaYBCLMNzb49SWVDwiJg/eIkIgrja5CKISJVxWiby54G6txLhLwU3WCSlMhvOoWU76GrLBEXpgGs
+dZGt6jZYazKJGMvfpHOhphUpcLfn8k0zjpTym3NZR1wrPJicKPbUqUUcYbzWgJaaFjQbfHlab821
+SlSXgUkYNimk0RVFlOKyoRrH1b9Wl4pFYMLFfkTRSdVz7b6j+dTi9phRlhrXClULRZm6fa3O8bY+
+F7Fi+MbIq+fi1sjMQujvWvPCukH5q5oiSmEtiQFkwXwvkU11bDm4ScIv2EzqL/33clrRFJEXhvOo
+4QtcS240SUVfrbqiEFepTZ+7ZRQHd5j8VLvNc87Eci7gBVJFMa81R3IrQ4XYCfK+1oIfFxPSpL7W
+AaO1IiivtcEADjRNDeIy3eEY1l/h+wYPNM9b3Y6SCIV3XFvhnTUo8TO9vfVDc1YKlbNoSG/2i3BW
+EiNTVG7Vs75YNFb8jYgDVMdCCYV7kavxJTqrkhr4xUN21irbs24JPRQNk7SH8t44K5u1qbaN066C
+Zxcn/ZeA2Qpz2CqIRg0JXl3ez7k7rYIpaa/MOWcVVVczzAz1Kq4OA73VznjWXOGwo7/qqxQ71dhI
+wDQ3A/0HVWFVlDlMlNuhtoJ7aLDouXDAzTd1FXmrs96bnbVf/awDx6sk3JzVYa4fbl1xrwZX8Sof
+L1XR9viZEJXLULUoqPVc5TsIn9q9INLS6ne0vuC4qtRiT5EZm8uwytVFuMZAqGLdX5EGq9c7+kTI
+LSwKVG7yUlC81VxPUL+tFQcdYFUUPbkSVO2Ab+RiXkXz9qyflwDgNOb4Fnq/dtbY6RRBbw/NVXqX
+DA0V/qzId2d1XlrTM7SzZk85HP1e0jVJJRFz1fVzUS8jVzC10PD1s/R/rgKME+Xbq7QnwaZiuhTt
+GKU7cOU+7l8wXapPrTQC5UgqfBC2JuspAWRrOIkSSTBVRd6aQ359tFmGUgMovdTtqxBTl6W8SW46
+gR4FOZBWWnWjM1QY5h0LJyal6R4SK8FMIddPTWdo7taCEX5j4tHkHbXW2ePWhaFOLCL89wEZGV/D
+AQOGLU4VVR0aA4CAangs7FRnuDnxTHyqO1MbbB2RgvpEMFVBoN4IZCl1RDkJUj8w4v5GiCzu1JAx
+SMMo4kW3NpJUx6Q06JWWeViim9An8yEr9iGhQq0NVD4p3KWVozujnckGqMrWehcsdeovearoLqEm
+TDxOJ5T9IaGD89iAhcXvZDVUNYtZLrtNSJt7Rka81kwemOOSc77kIeUKjGjUgWWa5HEONnTSzUNO
+uHGLd1retprcko5eNOZR6ma9JaA3BG4NwJo4EEEabmdqeIGP6Vu6DxhIkj+OCXGplFQtwEJ4hguF
+D9nIRfqN3A8KmVO5RPcUfPJ7XMfpcVYr5RQrS7VhwA4bC2S/6WZlxP0hJQkJmAenvKMB+mQKCM52
+RnTU5IRkzNwWLWVrh/YaQrWDgqFSBbGZubMUBc9J1Q6LrzdCssetNRBVU8LW8nL8DPjMqGNYToLP
+S7OB5xLtWCRVl2LzFwl5KeKZ9dIc5aFmm6nRPDVGyj2TbiCGmcHFJzk0amlXvZbFk7e0jDybhYfy
+hcDl+krvNZjZc8moI+GMc4/H4zC08/hWVuZ4N+PDMp0KtDpFtBSTmBMy6i8Ts8me1V5MX/sUe6Ir
+6LCERb2ZdVuvqUI7o2jhJxuXPh5+s//8y26GowbdCKV+RShJZ2X9pz1TXoMazSPjyYohOtQK66BJ
+T9PfvMhfNjPri9AerWgYTSzd+LTDyJVYxXbL3YdboOUptaLtFTyuWGKbGET9eef0Hy/SfwGmXeWD
+f0++vYnLf22al+L17V+v5b+uyqZ7+1BG+v74P21Jyh8rA45SEYArIpbWs/KjjIQtiawpKtzWj5+g
++f1pS+JR4BhZfIMBgYMqGbyjP+tI+h+Yh+jlIcd+9ROBXvsndaSPwqOO31ChjIX5TrJ0RAv18xY4
+LlrsKfpzT2GSWNcTmM5cNPxSoldhDYuv5hh0XPJ9+PxbSN5nmeT8qhxnamQrrPEzDELoNZbIk/48
+9XsrMi/zwZNLPIiA6Jfl6aeTc/1d5Pm5CEJd7POWmBI5bkwgJwQbwYr5JOXJg6il7JW5DZflLDj1
+2TxikKEmeIRZVBc6gJ5NkCwFVvi0WY0UfdQZTnu2oZDNgSWlTsPIOlpnq4q+ulY6wJ/35OBhZVnO
+thbaH4PH6mx2Ec7GF/zN2eiQT5mSin42x0wNS+WNfDbNGLOSdZ52NtP0q6+mw+MdOunqtknOxhtp
+9eCQz0kEnbk6c5RSlolIORt2sNmU7+XZxjM2zWg+TFGt1A7VHqw+qhG3J/1sACrOZqBg9QXBMcci
+ZJ3tQtrZOqSebUTA6rEUwTYt6CuSevaBzeo6Wq21xDzUmuhNtCy6pprDwCU5LL8S5NW2JJvDPHBj
+C9fQL/LQcQLk0kxYJR1jCA5hXYcX8zCwABcV0s+dXlBnbU9+qHYhJpNBskprYgC3hlC+ijVUHrw2
+yhXYG5wv+NBuiLJ6akMhqm2jBQTu5FqhtK6iYyTFmi6QPjE3KXvSlgBRmgaCjs2AQD98xpZjYUon
+fEWbPEkKwsbNzXme/UqcmnYjqViHMIsMOHRKSeq7m8XMhQ1kqVI4qlFmvE7xmIJQFOeu93uYaKrf
+JGYWXiirT2+n1EZJjuVilk9lbyZvNWgKkpm1pNI9GQgtaMOCvhivGQojWhtZh4Nl4a8jeFSwACVr
+ceNaUxyNvkwEdXrsTNxuDnw0ERswOle/ulxwf0j1kpQbem2q2jVqrUj2Aq0EobcsbDkI0caDXJzq
+YUx6qEdD9A16GwCkpBPJeqBgjH0n0vOEQwgbfVs2fc3ijCH2pR5UnlGO9RTf/dzlL13YrRDBLjGu
+SvZ9d0VWjdYmVkZ5b1XmwjFn8zw6kRQn77T60BtqynOh79cIkQUvYQg/rjcCZafWZrLucsWWRWKa
+d3dRqaarBjH0F/iLOjIw6aglJpAQrMtOl4XEHdSpyjZduJDS0FdRe11LY/WCiWpoXEwZZGsvkSG8
+DMrc3Ux9GD6U0xx9s7S8v+zO1h+BgYZzqIMw6YSrO6iFLB+SI4JnSMBDdIrORiLpbCqazwYj2hFy
+HnI2HknzQoppcjYkWV0na5upBcxsS6tnCZN5d5OdjUxY4TD9yVP6UA9ahI0QxxN4BKFzSSyavg1n
+RxQdd9cZ4dkdXAEaqGzs9NinjHo9F83qqkJ3iTpXwutNx/LZeNVEs6V5YQPCytYiQ1V2uYVn3mZ5
+z7IJUMxEjCdOrp4uxY6sZfxdIMGkNf64x/YVKKsFTNb77q1ffWHLKEuyD9LPejPgBhMvr6npLT1Y
+5mQPZZreY9HEZDbSGPNlIlOPWCeIq+TYV1bUge9c7WkkE7T38dm0RogqBrYp45qlv6sqDK88m9wG
+TZnfiT4MnhYcvAftbIczliWkA3B1yYmrX65YnXPL2UQXEsyB+mDAHXTA5pFqAjNDijbd6r9DGcSK
+166uvDpQ89yNS6MKvPZs3CvPJr6Z3QPatmCqwgUNbxj94tXz958FzQ+Uv8XC86d75l/M1bcvBXZr
+Bx9OExcfLdbfH/on0x9D9Opc/uGH4Z76P2sZjQULqxwRWgdAO0iBlOb/XMvI2h8rx10HdIDN+/sS
+6M+1zOqykQEWsZiB0LS28v+TtcznFbAOhAZgGvQJqFkK6vdH7RsBc2zbHkmlwNjjJLUa3Oljp2wX
+pRy+/XSE/mZV8XlFf34pC3mdVb0JCX99Kz+t6LV8UMkb4qWwnEHCpyGb6I4p/Z2c/2nl8v1VYLOZ
+rOkxon8Cd3DHDmGvEE0KrGr0CGfvfGa8aN+wVf/d7kH960eyyFWAgKrR6UHh5VMJWrBS2L2VOLtm
+EeKipfmUwE8hm6/KJayMgxoh/zpVwbXrKJUC1ngZKdRzo8XTdiF2VkoBoQnG5VUcQ5HE01ZoeqJX
+OjbddFLmipEBEAgoN17LtNlbdOYSX2SEqhn78RxMhZs0cUcXIF1705bmKYFuRnpkMe3pA/GC7Nql
+NzlkD1jE4/CahUq4uHinZRGORUCs0wAZx7KFMKcDT56QwreaQEqw3cmq8N7QKXwoe0lH26Bvjn5/
+Oenf8CrSCzmWQ8sCJdPG20k3Ovp6R02+L0yym+AJAn/IA9b8zkRjUuwsRi6NLMN6REBa/mu0Yayp
+j0z4Y4+iNMLPkFPugbbeFyACJF3XkfRm9HKHfWH3XqcqpkWUT/ygC0zmB01ONGAQ0BK/dXCj9gqh
+rhYpKQSi8PyAygapLxPc2fnK+FSTCD+wJkfyBY05xZVoJDp278rQXsRENwQ7kSU6mebB7AenpF1N
+t5n0B4pbckHiYziYhqNz778055R1S613xEqqxsLmOyYlxSRSTp/SyxleCYG6RtPSume12nwSJJr0
+najQteeIDkr6L6epORWdTMpTrQGHsFlCtRi7cYkfxDpvHgK5R7cOTdYUUz6WX2lDDle4xiQuKyxE
+JxgxzSoJM7w20XmjFxCMO5qX1YtUmlSLeBwtflO13LoP0nK8U7CldnQfD3G3LjvAIjotSXkzDdJh
+c4OMXj7LYpJcazAhJ7sjBf4hSs36WQYIITry1GTHIpLnwA0rSX9ISXI+oKh2F0Uem5S3lKKfvSA0
++mOgzda8raLOfFJiS//aNDHNpMj0QgyhQS0vtYRkLanUWcn1VdreWWGR3g6tZezgssItiSqteaKB
+e0zdyADAAe9DmLdCCluM9xE1z1oLYdLui7kgYrJTWmCcDN0XFnMQMjq5aqJNFgRh58wsCUJbE5b4
+pQwhI2CTHzSkVRrsJVqsEyoiokgYhqM11PLsRFvCXWIKCHFz0+FUl7QmymwT9/IJM+cwO5KcQVGr
+iRStnUVjDeUI2Zi/tPJUnYbS0F/R74LtxOJ1YM2iC08sM59Lycy4yBpRfQxgCMR2n+rLhByk14BT
+Ylkmq7If2xOg1IU7/KLSgGAGi9x5c6ACcMVJ1aXsgULpgrWyeJy0Xp0ZkEtH2xbt7Xi3c7rHW1No
+A6fMkvmbTgAREbCFWEkYntdiDGHO4a6N6mDyelVsgWwkAsuEERpBYKd1TFtnkwvI1cpk1LKjs6x+
+Gbt+ooJR499HBwTaaWsQLncLLDHctlKRk9ZWrme9pDuZVpB8psOYPpJ4L9MWrFByErN7lh2z7ud9
+G7KTkRPCXMRhWhaWmH3ROQwjEuc7rMmjW4MWD9bdStdvUn1Mb2u84y71JACUYSARctbKdUn8nDlD
+WZwMMPFOFVc5uyWSEBcQwjMhnmo6RY/wxSXaIWG3xRs4PJXEsl/S5U1JvxrTkzrXJLRFc/lFjNbL
+P0XpalwuRfM+zPpO9GKS5gV7njHPeiUdDgKjqhEIw6SlH+CJMBmvWoD+d6lhdL7No2B4qkhKOhp5
+q+heswRl5+VWEW1Ik6xWrEcHpU5p2YA4Brm0iUM0ZR5vJmNuNiTgSpVP4U+O/JSVOynbglKcJLMz
+b0Dgl6SQqzq572SDkf8oxdPXIVINWDrJ2LoQWAa3XYT0BvVOgr+yNMpLNZbztJY+6l2TL9ngsZPj
+YpCDXryjbbLaTkISiHjq0+iVcMbwy1yRdJ13s3JPycl67espjx09qEnSk5WcxKtQTSjyi1pEGaVN
+LPkxy+ToqCULO5g6kuQrWBfTABvHsGJaKsRqIjdCS56lqUhbojWjIrDJUjcEN2Mv2rtdpkTXKgXY
+yZXoGblZjw8510R7XYJskp4SaAiTF9QFnR5ZVhSkqU1JdTUTljf642IkxgUaK22RizFYT2Mvmc8L
+I/kyq6pKsfOh7w0nw0qg2zEBJ4SEDdP4tSvzZXTqSY8542HG/Cw0XD52RC7dt0DlorVDSij7Xs5J
+R6YPJNZsfehbautNw/6oW7TyWmsr6co0uU17WS2HT2aii19yMjFHm+IEaB4jqLU9ZXvy3Ekkr+hz
+wWfwrR1IGPTyYJpfaj6QYmsFvPsV3pMIlELC/AnvOgCzzKyCO0WQ5/vaLPJtFhULSPFlbSFuIrrw
+HGip1o1MRZyeTjVKb1QrFF8o5WRfR1KX4X4EBdcs5AL2mTRHyFcFN+qIDl5FuSmYR540s9ciJ2dj
+8Sq1lBXdmIA+n/6deMfxSpH9C/q6tE7sb8R4Ct9y+AoS20g0C3sZ0S6cEEo+km9KvZNxwW4rRzy6
+FcI4vRMSQvcojXfD4zjF4QtUekoYei8ubxl4ZnJSckmraQElvtAmMj42bH3umKITdcxvGythKtTV
+fL5Egl2OdTmrt9yvMsU2Ra3aVXlB/6iuiMCf4iTIE3usCvkJWAD1+JR915dpqMcHVS6lwIkzcsJb
+bdQOC31Ogd0YLLnoxsuFkSi/Hg0CPZt6gBGKr9VIz/02t/ABeXk8LydSl8Xrgiw3zRZA797oWiF8
+a/GDZGAiViSWSdJRb6+F38sy0wCwBB2ZBYwfjXusPA/wVOKpp2ZFe293ECC4PFopn3Oy+viyD9Xm
+cVHSAWG+4XbHbeRybOv0qFFiKhyFW9TthDkjRuWeO9UN4fJckJ1DcOFEmfmSkEN9cAowCigwqXWf
+RbHyGHdlZ/p5A4+EWEpZdmuymScy95qRYjhNvU2iwVZaDDmNLgxRA02SWqT1QoYCjw4ZpZwfEnO0
+oIaQVnfZTKM8MDFSuHfmQSmvW0KiAYjJsPc8QdVr3auUojkFhhi8ziVZ7PaMO+clVfTpwhoHzCNW
+HIAiBKOWddxrswGglJbidiqKJnqXF3pG7YCk4K/W3OqCE6dNec+tu3juIbsFPmgdaQcrRQrsQg21
+A7i0+ihMenKr0fmS0OyfiTuKQ+VsQ0Iqby2oag8E8WoPLEdM0Lh8XnsREPZ84lH1bxMA7AQyqREe
+UYTbYFUwRMhbncmoYCpnBOWzzvqqM+PHYhxNkpnrYnwXZ3m6tpKeOnUEOuDSNKq15J3UweCOQUYQ
+9a83Rn/Zg8n4nFZFW5JlEd6z8nFjRMi7XGADIWA5FepTJlSWKzJKNhH9nI+/finlb15LpTGXriRK
+sLiePlU8SOmae6lKkLO0sFxzPoXguTYBHNmtMaNo6OPMPSdTiVz1rUqb0a9qS/FSTa4eSPVey4Nt
+WkkXSkP11g7TiA5/ekyliwlI2R19jqbockrlt7FAFCScfFbIL6Qu+y4ZYnuicXh+1rQRswQwKTIV
+qzK1XqZemZ6leISjRJHOPHU5FUW9UZevxZjlt7Svtwu3pUV9hiKgX58PyX/KMv9F7pbF9vffl2X+
+b/5SfUwk/PGQP9ULAgTh+4NUp6rCjG6gDvyoxGgqP1qhyWvwkYhMQRHkh3qh/qGy79Zo25Z0amuy
+yRj8U7yQ/gBmhxzCaMcCRqPcPxIv1sH6k0WVN0acBGh+RRNlTI+ft98r5C2R8aXbXdh3XC/gC1Km
+DtCoJNtmFkmZQjCxyyVv4RGVjb3ET0frbxSNs2Tx8Q1wMdElz1PKNBV9ZvZTWZ6MrFHIWCWePXZI
+nw8nf04b4VnBuPoUaZTG3VjNpSctKeMEHkWL4oeHIcZ0pYyBrYCBEDdNLxBrniRsqp2hgU9o//p9
+fpQpkHc4HRS+1oqVxnuVUZp+Vl7EuEgbAEnsXQWxuOmoj93VsZ5sfv0qTCMfzofOP6xHAkstwFRW
+FyhTH14njMOWdTV8nhBVI7ONM+GsbA39W0LDOGv5CQuJegahmYFZ3aoQTI4dXsM702zTGubbik9L
+akR1T2gFpgMBEaI5VkDjqQud0WvhRPzhJa21o3Qd4BpWD7EZTvKtWkoz+xKwQYByZmbvXSiVCjy3
+kvvBXk8GcXkgIneRfanXy0cDMqHiQA/F0qSmkcJYYcFnh5qEJWJcRMo1pVg1oOSkaLBIThXq4mKy
+OmHwmzhdBlttMVX4JoKZ7otTmlkuYKiqccdGzqgfKwU/LfU2H0GjIeKT55Bk6fVw5ty1ZmHA2e+W
+SYwqW8qkvN2D4QBjUBTZxDpWJ0HEmeUo2OoqCObHqFXrblfISTe5Ou2d8XZlexbsQIRq2YUp8j+E
+BBWAaNzimIAiBDTTqbIqKjcCNsbGIbI8iHet2gumM7K3PGigFqFtVuYwec1oGLCWOnGk0BK28hPW
+PFhiAoUc1mmwI6ERsrsSXQ1+35O15FHnJZmV03Q8zrN8CLVyIFy6zRfZaYxFv6oBlD3GUyrnDqCn
+rnCjJTRND7xtW3pq0sHVDTRWYPbUWOKAhXCQWl9uRrF5KFiSWTvykmUKm+xSG6dmJ1I9hEip3RU8
+HXbKSdeod3rXZKqX5LFgbY1lEPVdJmDi241BPmEJ7fVqfs6XosvvGP3V6Bamad5XjSKXuzaYx8wB
+vauQyC2b9avWKdUeAhRxuBGbx2ZjmgMglNSSrPoQCxqGEeKKexVKwwRSlqh2Gt1TSVXj69xoEcio
+aMU0KCcSjfupUcBmLVEwOjsZmlFj9CTKHalQWuSBVxAJGk/BuDxMoaTmD8Eo5K9hUSWmXcMyAwQz
+tOq9Hrdz4AANFNj9Akb4f+ydR3bsSJqlt1IbQBxoMXV3uCKdWr4JDp8yaGmAGbCnXkVvrD94RHRl
+Zp0c1DynGUk+kg6Y/eLe79q3Fm022RbjEj4lVpN+5ERk/jCrzuxPOm1R4/i10kfTWVLjTmGrHuHi
+pd1HaEFO3gzOVHwOcJSfSthLP/3Mk9WxbbTz2CrlP6Jwo1vMwqn/FKHVa7IMBv9siijQz5x7M6/E
+UCQtPIEiMg+InJouhrrh6q3ToOU5LnC6+EjDoXprrKD/Pc2Lcer72bR2K3UNBEXLigVRsyu6zQCW
+CFaaaxt3FrlmBSMXjWTaEgbveM6FtGml3bkxyy11zHMpCavvrGLvh7NF22LW4iClINGqBaZvbls9
+q2wHsydatpMsGgSvrj0eFL/NJ95l8GFdMi/Me4qJDxAtFGmDk0EVyGQI6s8JtBtSZ3cK0eEQPhvB
+Qci0mnbZzHT6jHcauVqe18GxqMjP3gLXDq0dA9co2VjrPwW+xyaZuQaY5G57ZlzGztE2jyDbvvSJ
+oBX7nXhthkNglYdX2jTx6rHe+Z3C7MfkLyuUnVmPKihypPMaNN5H6dvZ98LsxXuTlX7NrNGbm524
+0vBQMsKdcK+UvKDV2R1JwHmwg/69qEPyF1NvIAxdWV3fbfsrd0+tCL4MjJW7qVYwn3Vl9JWSQn3j
+XNl945XjNwiPglnCIRL74sr6S6/cP3wRwRsyamiAQVb1NyyyBiAWauUFcoPBDvSuHEGPsM8fBIHL
+n2K0WJ0bqS7OzOqW78a0ZJ/hlUior3DCSakfzBsfAY92w2b4k2BYVvZtHxF7s+hgfJijtntvTPO7
+fYUeRlw5n3b5o02EeppWLGLQdwFspiY9jCsvMVrJiXOPXHLTXYGKtdkYb/ZKWSwmmQJcvMIXMwiP
+n2olMkaAraqNvXIax2BFNhbJyIDBWUmO9ZyWSN5yMX+l1XDrX3mPovetZ6hZ6XcZ9YSXs3B7hZIL
+H5LlYpJuwsVuPtrMFg1WEjiSkpcTL/sVLzn/iZq8YiexMoCg9FcapX8FU6Ln4ukN4JOBEQj6otq1
+aaTWdk2g2s0y8Jb1FXXpZE79XPwJwFxZmOKKxSyR076B/PWQjF7BmcY10Iff1L1XkdP+RPELAUCv
+vM3oit70rxhO64rkLGF0wwJeSZ3NFdpZXwGe1cry1Fes52hA+CxQzXpb+wr+DCY+avidKxB0ucJB
+nZUTmlVC+IAGJl5q1IOgRFthM6pVxYoY7Ze0/zVWZlRtvJVBKl2zhRa8kknrPMsfRjOn00BqDrpU
+RMv07ofZeoRe4aaG77jGrspT8ZikK/40ClpQqPO0YlGLoOxQR1xxqU2p88f5ClGdERKBzlrRqtdK
+5z8tw7VloGr79y3DhXXn8F+HX/1XNvyjhGttHPjCvyVcNA5r4ioKKYshq2XSHfzdOFh/0OMSWuB7
+Jk0AR/7/bxwMy6U9IBRzbQ8Qc0UeGqi/Owfb/iPCm/MXB+AKq/obh/BXpQ5J4d+KqSwYAv9crLpY
+7x0aEcbCEXT6/xEoNuk6wtHK+T1nkf0QehOJbeucx4NVf2cDhGX9ej8jWo0ttmNMpE3GudLe2mN5
+rIPR+uoWhfAozMS+DXoecjHhhzEyAd6XfV/Yd0XsqDyJq8J9QZTEIYk74g5EQXZLLehw8pbFse9A
+BWPvyWNTBGiftU2egj8c81E8dNQpcTPn91M+kq8j56duVochBM47kWmHoL5/p9fQ8UzRvWE0Y7Nx
+YEuRdd7w2s5Rj2SkTmIDYsuJYXPI/KhnyJgON4bZuz88LxmYHtUB1EttHwoDrM1s1OnXGNTuc1hE
+7Jx6j9Dc1vvppTUDX1ccTE/6qGd9FCyWbOytBfbiyAsJGV+pz9Yo25M2wLTkmQi2GqEv/h07PDQM
+R++odu+5xarY14Z1KNcdg4t859uUuPzSBToergY4RKzz3rpWPcN1VntJLX8/uIONIrWBUYgxhyWW
+McbFkhG2MbqPGvEY5FBUUF0KJs/DhfqUD40VD369n9mkb5gfqFgEaIO7vnZ2Rt3FuVsFBAP2d1O4
+5LEcMOQMy/JqrvtAYw2BGXXf7/Q81KcMRv3GhLeHHDf3nholy/3cIQ+NIkaaaFermATFp0UCR3UZ
+0MYImuszy4ITWh1Xbfx2iWIyOc9FFaz8yz7bAUpvNzygXb8hTGrZWR3i9JHZNNry5DvHuxm3cuye
+QsN4o7OLle9rOOL6qWrnB9wkIRcOq02XgfVmTO13W0J9bcui3QJ3/wx1/W6U/qF29Lub5DzXiH02
+kUjN7TIBXdTddOo8Fi/p4EFKjMrk1NFVIPxVxolBHNUM2p3+RQBS2YejdQgj+e7wb7ykhouJqvKG
+L8aYkGQ1K0cGri9B2vYUqPJbVcyvOJXe2mj4XSwLuc79dGib6M5H9FQ8etoYfzP1ntLzUmnsJVZr
+yXoL8r/Vp2FmHR2PWQMDNid+5xs87NC+N6OkuXNxgNZxwLq7uJ+WpLofQ5KqwLq6RfgmDYTT+daf
+29lH0tS77Y7u37hvvaFcNriz+nqzZj8tW4b9QbipKQjbOE0YxZEJMwr/tS4crGt5b3cBnwXJ3lCe
+Ob/2i4elZgcNoiALQBDseoHDWt3XTSvaO8aNWebFaMDb0EbUEBbd3skyIpAqbCs8Hnz/7GffkEGO
+twwMbVzUVfvmucJ/1KOPriklZAEBfmAYxhblGXYW2xfw0lQwiTMnVnYnyHgODuSLL+cEhyo3IJoA
+GFBLVo37rmw6Xreur3jdwXx3p3FSErskNVl4KhReP8LWdfJiGUuU7Py5K7oYzKT55IOozrc0PbXY
+Bm3X2ruU9sLZF4BGo2NWoD9peKFtdhBdqBcsDRFlcrVTHUBvTJjAuTcY/IoFYRtBQkcDo5q3CyrH
+7/d0rW63J9nA4uOt2dzHYN2jHLzslKb7EERYBlHMN6OtDGQYsHdABWpO82DsdAKHdLvAxOYbR2tT
+jBwM8CSB8fNOlLLrbuAqsU+0KNdIRGXre2rStGUHQr/0jpVAWL9zi83FZuzD9BHueEhmulXpfiNY
+JMlTGRRkRCaiDeUdfgg8YYOQi7zMClTpXQ+wlKW8MYr5ITKHUL4YOqmHnVF58JApZrt9Y3tTcSqS
+GsdL0GZmdCh7o9cb29Xqyx6S5VczuMlTEaX8QZooI0olS6N54a/fr+JP2Tvej0lN7kOEf/ZL07N/
+uUrBafczIg52Bckfcl9zt8KyZ8VmH1hBTc6NQgpm77PIbT3sZFwaVM5jUMQID8d562ivKNhQjJg1
+cuHp59HX8r7nyt5PtjEdyfa7MY00vykkNC8JrPqRUIW7LDf1oStCtUtVoPcsbJt74Zv4OCJT3aOQ
+SDYoPWlv4eK22ylVXxYCxkPqZ3e6943DHNH1Qdk1b3G8tXFd6ZMJFXYDWlhuB4kNVWuxM5Fi7kDv
+DBdiU9f0hpElWzAyX0ZbwpLG3iKmSw4QFqHuFlYWF3ps46mpnksxPQroYUyJobcvELThlPlRf1nX
+vkjzzLIwbpPBPVY2R7RqV68eKzkfuyNvyQF7Ghsdvz03RoTmJFrAWQvjzuv85aYwykO/ih4mrGZJ
+fUmxzlxGkInjlHyxqcUOWza/e+xi7LR1vYeo/5BFLNFhSLa0sGGwC0rf2Y0y4UxoHpL1Ca1sPORO
+OLCAR78zc1qRC9DYd03XKJwbyR7OKxKO1mH95H10QpFIO6iU29G/JHWAkwok6gUzwkTwJ4P1vLGP
+9tzEhlUd/cVyjr2Swy9/oQz3smLXEm9zTLNGAjjHYrPzR67mvA3e5Vi/9JYpTzMPxM418L+SCxGB
+9uu/E4ZTyJ2npyfFyjzbgUm351gaiA+4qWr0BW2Lx8mdRk4MdG1kO88EeYCkfZaM9sKTi1crOqVe
+pH/knjHmZ2sOgmxrAeYu31Nfr97gyrWXg+9ipLubhCVvsOQ45p4ex8y2yLIIEOxhpHvQGlvR7Mh0
+rpPHqITBjF8Q/QxjuFpxZU7mIYuaBQ2lH0w37oIFehPIJX/MzUY+50EiSbMB5oWjyLWaX4oSDBwZ
+9lrvQaYdMMkxm4toNwDPq2/I+p2PjV78kkYP/qBzhMpuWWfCupOeFsUmMSLLou5nVVUw8cNQGaDM
+2Hjwh51sT57GoUvnQzvyjU6+IDuJy9u21fRZG2nlYRGiZe73eY7HCZlTVyWnNDW8YLdkJG2cmVXM
+Fgqpkhu4ttnAHd2OqQlEZtdJb0aJXH6Tw/QW1CGQtd6XwOLlcnCdE8Vii8EfLqVByN6mcyCiPviz
+qcYHcxi1hUgCx2kSh0qNT2PYFcbGA2LwGJn9ssTKHazucabw+ZRuOrn3jR/MyzYP3akksEk2y471
+kwjY5nqePLCjy8L7vAuo6Pp0ZBWV4LOjRKSsao/8FDT+TarC9OSbGQB6RX3Q7GWgMmHGxWBV5xxN
+HKWDjEgPEZFMX6tqLpZdS2J5GRsIX40ne+k/vaoIjsgSj9nEgplzsttb5XJYrLk/GuNa2A7cREwP
+Ubmn7BdJ5XjJwM5uOtv6EaXG9yKTBIdg4bHBXyaMNQuce8/4E/kx2dbHedi8KumfmSDEFG+7yJB4
+NBw33SkTW1c1tEcyUXBhyki8MkYkV6q7WD7I/IYIKNqAajr0Fik5kCK3Pi/LHqRgdHLNMsI7Xp/H
+rnkhLZXdt+L5qZfoCGVvZzXj/dB76pE/8Huak8CsnfLeDIuz7EBkB4COufe686zr/JiM3om66F5g
+X//kLNN3ngxfkix9Ho16Pzpu7JVYHvqh/rByiwnt0KxDZXSAnXwru/ZhiMD22fX3MmyQVdbZs506
+j+mAE9RFP/wtE/Vn2Ivz1LbZeTZld7R4+rwCl7xuiR3MWyxwNS27USzfLZVcSKt+lgzoN04wXRSE
+2BW9391mIUbtxlnLIj96dzuSedym+b1MwC8Tz6JhwXOtA3UXcMVMVnSQU3XxB+OxrPK3JRjunBkZ
+Bcqcs58wwBllvq8wKmwy+OoHJ5XJRjHLyJaADAd0U4Q2lCD9UXZ8n8b+eTSDJ2uZ060Q0yV1oyMN
+1X4Q482okRegsW23aR/cLvVARTqi9ZnlHcLHx6Bl++6o9iGPvEf2InvDkW/sfSNESUPEK7r0W2ds
+2WKH8oP7mjpZ5bejYWXUeuGBevejEXLfzR03eYNirAMDMSsVO1N7tmsWTrkxlAdgtD8T2+sP2P2/
++sTD/YktdYjOi4AMQX/E1hwccCu8nzqiMm/xZTq9Yhq1fJ8ILZHburQOblZ+5HREa9bOFN640n83
+Sdj5ZfrGdJu42Wu05PJZDf52Mt1Nl+kTxwC9q9ax6JJzX83ws82belnmzVAnD8oPDl7t3w40cBSZ
+MeqQ6W0ex9ul1Q8F3dVdFwTPLlxvlL+2yXmPbDLvdXjKMHxv2eoF31QZ7mZcGk9uR/SI56q3rCab
+ZZhspEZORm8myn7rVclD2jVrMMFi7KKhsG8S26/imRyXbpWSFZjP7fkB68pDwdZnKwZT3RDb9GNB
+mIv+01e33DgEleoZ0ZbW8Aw8yzzxPWxo8g5i0tnlHa6y/FfU4cKE/96coY0Q+RJG434ZvV4eCJRq
+7YOaMHZsuHLH6r1INArNAZRlFLtqSu7dcR5cJE2SUuqeVk43e0QThP0Y+M5Z6DCnJrGpyNud7Iku
+OxTZNOQxvY/rcubZuSlO7BBA0ArVEZ3QhEOE9HYgz41fqSchDjw9LA+n8NZgBTQ3PueEoV7CMccX
+pKLBuBnaif/VrjBy3OpuXb3UldAvk07sTwSvSt1OWPHNnek72U1O8kJEPzSyvoMiqoJ2R9DC+kua
+7Y7xZC5o1urlGxZvLFWKMUfLwTDnsZ68hbq2b/jVDOWjEjYUwW6DJgNMZZ4DfNWmmbmkXkrXE6mK
+utzIKupapLfNzyRpp/NIdyU2du0Xp7aV4rGwZFnfGO3g/HaE073UYsnCPeDUkcpWRydC+ug+W21+
+eeXyIVwnfxg6CWmhaaL03NgqnPZ6sVHeTd1wlmHyYPvOm8z0DWLxuwECdrXrpW1eqkBHCEyV5e1Z
+aCXVGg6DmR08de/gZQgiup9cA6aYpnmTJDT2OUOZps+Ic+FcwJyxZnuN2NGtc62XB5c0C5Z3y5Yo
+h1ubyLSx48asnPEA3vzNoRW8SYPljpXEVhORQ5ggMqrZWE0+4XwcCk2SU5gjAB2qu6ZRFJgeviBt
+2W/MyXFiL/5P7iEC6PWt6Jxnjbs+OSHWFlQ6TmJ8mVEdPSezaSerJ5eEsXIYnxhvJbc5UYCcFkah
+XkSDDStWxlQ+NVVSWCwcWqOOLXo6tOU+wW23ge9Eh8UNcvSeSKf4fRrVFzfgRi5mOu+bnPQJm7eY
+VNCuKeyfA9sym4lQYjc7aSA1QpPXXGQ07dHqfc/tebhVDRZhZS+feWaKA2JHa1cTsMvJaO+5jH5U
+zAgoPSI8KGLJObFC+4keku4/ZeiBQz9yLk09fzBR+gURWK+7PvPL9ZpzZk7No9YVDBUOzAPX81I/
+50VHyYdE0fEfGnekqRTVWnrhQjZu1u01DOQeY/XGbAKCvtCD5l9Xc7JATOZs3MynFBMmBJmYsTrC
+JizMONeLElA3M7fV1Qw5O4zD0uP1d0VAQZdbXfoIs3Ryz02OqmyPlU2/9LTDvLpGm5X7IksWxtVq
+CMlgKCrFGyzcVPWXviur4akfUQ1ugt7IBgSbDRgFPGMqJ+YEncOPro6Cjzldx2+pC0kFK7MipWiu
+KFTF3K51pZNyzugQk2TsTTlXw+AY6nubFp5xruUM9QCTaYZIGz+5MBljW5PZPGO5kyQr+MWDOzjB
+b3IVOjaTTXCsGCRSoUuGeWArfjQOUzhUBOV0qMqxfQ3CVMVBOj+08zBtKmEOp2Acf1UNSYSKJ2af
+jDqwzmjosD6qNu4bW0bnVIfTcvSRUjiP+ezritc95BZgJMgempY0ys8qMmaFE0sP4mbww7Y9SCrU
+n0jlIPdUZjj/7lhxR3Fkm4gJZVHgiBtyjtY7RezFOdfsD0+ydicQNTmG+1PhmCjgl9Ea9A0WNBqV
+omNuHBs+t8RGN2aWM39pGbFllROKM9vshgKyKzhpxSCTexAP/syWnjQNBCr6A51S9JrOnYkpECaM
+zEmtzJhR3ZXo4N8yqolmcfoTG3jmSUx2frkJ+U8bU3j5lwr88tDwYYvtoHz3dSK9A0mU6RkbyD/W
+eVnG6NkhV+bIox9FzKD4t3eWZuBCtFAa6FvZsO2qN+SCiOoCpkhbz0MeFMOeQ6Xu7guVmdnR8SBq
+4LqgWzkVdjLkX0tvds80gcgVaVe75aEclNBfOm/EKmAUs/fiTSb0hb43xwXtgaeXY9HWRnkLJSUv
+uQIC91X1Zl0/UfW29aMTzln/ms+ESp5kQlTkujuKahG7Gc073hJ8brFcmqlG8FoT4cHaGpnsbegn
+/A1UPVIgJDAeSHpvGsT1VW8U+Qu/CroO5umjtbfMgg96jFyRPpZD0+MqKHTxmTi6NnDmwVT/7Vld
+9T3js/lNk21VHx2mk9Wy1uxYhkmezNTN6+/YIbvuYPgj+mAhWezGinAJRkKpI8z7pKzld9eQEhsP
+TwwjyEFWNyswK9x36FfYwwvFBSZFE+HuLIqWrg1sAtgD1oHPCVeORZggE5ct1tX+VhhYHPe8Jp2x
+G1U5rApjQgTiwINTFcO3h4aP0cKPk9BJH2l3Mp+BV2o6m6W3eDwBxpAPSD0sfg6JQx5TYFROdOYk
+M+C5sV7lhJAJp9gQ1aTXGHlJJKzrAmHatIk/6DvCVdLTiIwoxT8ZrF37mPEwyzAniBG6GUoIBoSY
+YpPA0cUh4M26w/NRinttYUMjonQMPngzjR2Oncn/sMc0+ETm7D5xRlD2Ba3B4d4F1PuSRBhJ5cSO
+Vm7ZaGTfp16kcSD78W5puuUiptl5Kr0Mj68I/b2qmOmEk3PqsHS+zX6Co90ejmiJ0GQz7XxFxOpD
+kwGwfliyNrnLHfyJyxCODDHbkKyErr401lQcw7b/Sq123JsmnO/GCxMEys58h4AVz2/ToauxEx/h
+xzy+BbTB/OLltMW4f/Iig4vZDE6lwgoqnPDEDWIig4naHZkGL5Oq+V4ym5lqSqTJRcJpWlXiufby
+c92FTzwv8kdWy9emT06z1KhWqEB2Tt/5z2OR3MKtuQwqT4HKz4cQuA6JR2GcYSbeg/MQb+hCf3IE
+Rntbuda5mCZ80KXUDkUTf4gNSlT2pD1rG2Y5nn/7n53in2bKdTWIpPXf7xQfsq/x//6ff90m8iV/
+yxDNPzDXMRFGV+aSULrCw//aJrprGA2T5AA6IP+M5/wDEML+I1jDyqPIjpCjMfbjy/7eJlpQx20U
+5Jwm4BQsEqT+NyZK312Nfv8tBAQhuP4IwMWtgNRwCsd/8TYObW9E0NpICUWZTWqrm4R3C/ySZtfa
+0jz+KSsrtOe+VhG6qE3itjjIvSJgpWXMif8qHeY0mzyFHAwnoDPKvUH2yT1bVBoG01DiZ0KMfYmv
+TtTWtiTYkx4Yocgvo/bh4WQwwxgDc5QYW05+aGNh4ovdhLCfbACCPaxDtqy8QoUE7ndtgnwarXF5
+6b2OIWW3VDMh6qGXPrW2yWIJA48cWe24S3Mk41CZ3BEh44NxRgkas10g/G4OzO+Wl+MLNNrGvats
+ickaaRpfjtYctxubS/cHk6nopwxQUDNRa5DcLYMRvcCOksuLGfk9cqlS2OFxXMih3dTwFj+wBzEm
+9mTtl+d0ChjvcFmVXlyxTp5vbLtEaSFkS1SquW4gJHiqbie91P9lLCr9NvmhTGJNsppNEyDAh7Fa
+zEjGyJb+fQ7bMYkdg+UsMvWKkLy0kd6rEyT1A0MKVrvK88HBIXlDATgoWz9x//QUxihEWA3ofHU1
+1kvxK5dO/uwpy/a3mLBIp0hMVptsgQvkgk3kp++9mihMhzA3rW3ipoJOO7C9Eu0QwZybli7tnoC9
+CfygSuRPRiUZDiUnLWjVlka/pJlrEntjCYRlHhEX1qb3DI7aqvOc+9wXBeNKgHM8Ln6BxrrX3Eug
+/ahoMFng2cvqiWxGMJb9x+B0U3vrU0Wmx9Fruv7gMsoqMEUYVr0peZyfEFdho3E6HziCNzjVXY/l
+X9wNCDWGA2LNkRFzG4ijECRL2m5b/jAj5fxUpknvqVe0UTQxu2G3CvAoN0LYR/3QlOMWE2T27DVa
+EN2WY4OnqAKaZDVD0WOy8X9xwdUw9658pUqAWkK61h588mce2xXE1Dlj9TqvcCb/ymmabLv4sega
+8kjbuwjzyuEDkCbb33FsA2vPXNl6nWd2VPukyNSzujKhpqUtb+0rKYrmKLwflDcOT+ikAvvIc4C5
+JbwypoIrbyq1+Yg2YxYxo6rMufU35pVPlV5ZVc2VW1W5EQwrqK6E+NYwB+9rDCLjpa68mXZUDyl5
+eLNNQzmnWWnclPakj1M218ElNKPbxnOYCI4+bZQ5hcZzMKYpidvNajDFnzJ8sSyT95nTF2PMbVw9
+NsAbwXdS39y7rtTqKDKpMjwctiqOE+QJ6pOe2fbWLVvsdabQLMGWkMXDvqwSC8dEXaudyFI5HApN
+QinGNp3CGZXhp5oL2FaDUp9mX/TLJUGqP23HpS8edW+5zbHjReF8qLwWg45hmjvJlLuF9uiab2A4
+sMj4QFemm170E5FOjet8+Yg9sDSGkTpFtW9Em2xonBdEu62/bZJUPMzaKsiqGkvgXaalkK7iMAHL
+RnqVc+vhg61ZHpF9BWgq6t5ZICwN1I5izPfwUUtYV50H+iZnWYGzCnjg7xCIKL5AAk6KTYqXhuFp
+MCTvXphOHuLYgHMux0E8sBoMhjEm1mWxNrrDMvbIBmydc0QkrlDyzN6FcLBuiRng8X9v/HB8w4lq
+DPEsC3FxiUXx4qavqwtDuzKPa/Cpr7LN0Bj2aJT1wUe9ehKtR+jrPMFJNAw52QhNGYzk5eR8K/uy
+mndJxiw0KnKt4l5flQTVUF88v/HsvTt01mdj+Va3saNieKOKDHh1qevwE9sOG6i80fbnXIqEmZLV
+v5jCyJ8pODM6J4gWq8IqGYdtbYzVDYH36bhdzNBhMcCWCV+rgQN8pDm7ACpp24/MKNNLEyqQEblZ
+d/lhcFGyEzuVRd/8nAshXqKe3FLEa2Q6u6kzHGXesiv3GqWfvYmXBgwPYdwAMQJFZ2nN5hO9HJH3
+OWIBRrjKdA+ezceMsbfPe+KuEITEUiXdzyYgSNpzWUKSsZ42yBsMt4gzLlmJSYVlwm6VypPWWI3Z
+JXfR6J3skZ3+jp9cfsgJMSLvRWB/m1EF46fPIfeYYVI+BP6cY/ZN1u4c1UVwb1r6bNTLzC+yzH26
+mQmqETtvqlYxb5CS/jw4pvUBrjd8V1ZFG0tiIX6mrA6YAeBBzB7EGGR9TIDceJ4qQhTZTazHtitc
+CttlnFGvsNjXYUxaM/mvSBWoMieP42NT1Y33yfMfledcJcMjibUQBaVFji4KgwSaz4Tc5JjmUtdb
+r8MSdLC6gWp1YgTAuzwgd9wS5aCKQ0QS+o6VRNXHpOfwArWp4/2KSuwGcetrOLtmHVQCG08yfxnj
+OH0WEdDplbnAH4v5UFnukTE15YFxQXphlo5cocPr8e40lUkKsu/xSc1zCm2IGUtHJipMK+A/CeHS
+dpiBOAnwU1ibdlRBgRdX5dYx6JVl7URSTUvcI1uW2xCMDVmbEXUGgzMuzsiXBvawDn0PH6M/EWYX
+We+50ctw1/cFG0pdmP4vNxhIrwyACuIx+sbR34W7ys3GH+znp4BDpRxewj5DZNXZTktE2xLhs2er
+hbWxGO3uBslH7kAxRWqxL1EuIH+PkujFUoGnNxbLxRH34WqtBFW83EWt20jUukb3jTtcDFuMWuFj
+xrCvQ2S0FkJqrhhtzwJWHN65KXtflMtZgwJ/HuOgnjxm+G3P3TanejY2jbQYrHGYs/B3dGl8NjNC
++m2jamQ4TMKGbtcogck0GtiK7dDfNNFu8qp82IU6YQ+I49RPmManOI+Vv0rACf3LH8yISagA+okk
+BdWH3vO+MP/kJ0fjk3sTh8zUZpO3c9PE+jEk64ws5M/KCnjsqAucQMp3dpIDeGVW1mXtS3uDs9x8
+Gaze0ls/86121/mgOZGhzTW/TsE2dxylvBn4o6Gi8YR5MsJRPlYW8MedzgfzSaSqabapIZp211sd
+7l/tDhyRqPnUYws3EB1IaPbhjd+3EbqAsCHAjfKMeiqEGP3dWwIK05VAaG/4mVrine1mkYRGWdNj
+jazM2LbUtWIXJIt/Rp1PFuvcsSOkflFsqUcBvdgmRSvCq6/AWff+Yl8Wq1mnq9nUeuDGsk7Hpl/7
+dyi+0YtqDnyulzY/F/yL6yhzACCB87D8thgctlRW84oPJbsHz0NJIGFbcSLBXRTm99kIrGo7zr14
+ZvKHmrVDVPE0IHZH4WOAZN04+ADg/7jsM2Fi5daevGeE79EUiuAmxLZ9a5YlcatD19gHc6S3gaIW
+5HArbA+tvWzCJUNIsD4uGVaQH6zI9Fc1TZN7cCxzNMjYbVUYIwhnUYkrtvhZV7nH2DoFOLPjdusu
+GMyr4Ngv6Hc3/ZR6vxmVo+1O+roNYmSWnOPposEbsBt0D3rMWHKmnhfA+sAjnOEdMCmOmVd2p0Ks
+GkUDF/IJNZeC1m1qjqjU7sJfkCVGc+94tVeta03nMyDnGkyzAc0WgWf6PTXdpt+74zR0Fy6A8CaD
+C2UfrGBaZJyQkYy7fHFxghRc6F/mYvL4F71mRALdDtnOnLADjj0ODlRzWRS5BHfiBNyyJqAsi0LZ
+/mIaVsOFqyxqDxMqG8Ng/DwEzC1rodVqCvmwd+bskC9MDJFbMYLaeFkEV4udBggWwoZ59FK3wsgV
+jFgUzhZPXQ+5w8Bz3VRdfQ4p9yI8L0Z455cAD9bzQ/MQ2MzfGeGn6D9NTpv+YAsZ+Cw9QkQAuUNJ
+uLWzznce8RzNfI6TNPZeMtYHBI3mgSqTVeh/5gj/PUdALPzv5whPDark6p9oTOvsga/5a5DghX+A
+OUJ7HNCsW6hX0AT/NUjw8TOidDHJLrP9q7r4bzuj9wcGe28VCAe4DS3eoH8YI/zhoeLjO6JwZgiA
+n/Z/M0ZAf/zPTj0YQnwb0+d+Wf8bAMx/ddBpALE+CGHEDJlXbgtpu68Y56uFQ41RFp4bplpDZOZf
+Ofm1v/02pU7T0y+/03u/wZgCV4PGfRTJFqoMszeSxMlszOyE+rrDpsseItyMbcuenAqyv9C1lw5w
++XUnRjbzI3juBHUiywzcDClZkOjEHkeumT29dYaWeXbZwnq0KURmZCeLvhibg/EeBWl2o+AvPrtD
+ZUFqQavwVQoUENTbfnthr9p9JikUeqz79TNLv5wro2DILVthcnyjC+H4DgHzN5Q4aEfaYDo7rLbO
+utLdp0PI7AV1Q37fC/zcloSaxUpIO1A3dAWxZeyG7FIldnGD+ppghRFh4qnt8+Gdd+z/sXcmyXEr
+25YdEZ4BcJTdqEuSwVrqwERRgqOu3QEfV84gJ5Yr7rOf//9spFn2s3ffE0WREQHAz9l7rx1crDGJ
+djU+RYWOopPfKWrIa2cIb/IcmMZy5fbzvMcji2mqD9D7YscQ7BvjvzKHd1c0gXcs04GvS7M6QnjM
+zGPhwdYWSJfwlpbChuqQ+cs7Tk8YxlSI7aOBEHUZc2bHLVRuM6ABB3yGeEKaAhoGLk5gd4PiuZWG
+RYgdYyr3NSijn1UguzVagXNA8P4BdnO4hlXdHis07osRYxqvvDYQxykprB8kSLuNAuKxj6EQrPNC
+5dsCpv5vzT7nPbB1ef9+H2Pj/6nygJVSIS3EequwXvLY5qmRZHggwjhlUrNcDoI5kS5n1Ux+em7r
+u7GZk+IuiYEe2SbZGUHmwy+tad+3lTjdy7+3VOJ6aF9gPxnFEm+j+jr6yCcxbVCrwhPHOPkqMrw4
+NeetHXyklO5m6Uc/TBgg3riJfemd0d+PtYxPKRfhdkZveU5yWg1YqnETtgAG8VAShne9KAu998My
+OzjSZHszycfGqrKbD490Q71j9ka6btyrOq6+HCn9HUWjAbF6eUd1zw1cTDIhvwdYBjcVIPiUcV/u
+uiZKEXAtHGipEx9rJq2DKJbPOATE6UxxpFdW5WpENOhaBicgOWNdXLsO9QnlOzg0jvR/tG6jvjKc
+ySgJtfdISortjurgOPolF27dq+KJmFhNqUMdWWerwcWamFHuq3Hu34Vsh2ef6H+/Hqm38Fb1bC1X
+zUkmJRYzjH/R8dvGfTaIjy7mVpm47XPgCfWkrbsHKSKr/0LGMr6kQzu/0u0xm1UxYSXQrZEfMLv0
+H3scvbeyX9LHumCIABkqftg2gUNbhNnZbtPxaFtx9JAOvmCKaJDf0tou93bhco7EPic2fsIanMNm
+jwyLgTaa3P4TzQ+OaTyDPffc6EGHaPUoQfrPjI5949Te7vXAXqJ1xHy2yfpt6N8p2Z9wLzk0kMu2
+2P+iX9PQyAcBFmwH/qm7Sa3DV/wCVreys0XehqZtt6xovm1vZhvSeHJ+HdpW3grpt+umG+vTUDQQ
+gfjbgK3B9XzgY6xPvRrnB2uuy1+NxQ/Bto5t0TwMm6nX9rs3sG0zzIXpKkFdeGuTBu9Hkv9eGg++
+TuEtzk1UgSaPIZIrbUXwemaGQYa/1E43jh+UL+zNgpVOZh+2B7Z3Doaes1ddbP+oWxM82Z0dfpR0
+Hz3zubLeyoVuXK93x6+yj9LdVCj5KolVf/REL25lJIpwWw9OfWSmwuRg47IhQswgMqWzv6NzO7zA
+HcZd47IJYFkKGyz7WFr/5DdDc6h9WmfQp4LjUJQdMVxTbMvgvg3OhFCrROT9IVQz0zrx+elBYuB+
+HMto+SnsaCTUUB8Hm5bbacqVS5Ux5HUGRLyINruu/qha8zRFtP8KhJuGKAZaS4w+9eZafbuZ8DOf
+u6CS86pMxpGgg9WIVdxWdwdB9RoxGmH6wOYNy2oxl3hhVvVpmri2nnE4ofdqR4KCutw699c9nmoe
+Yz2asMLxUbHG3wnig2evjUhfeoX+LDvtHJrA2Lt8Sc0lG+PxQc38YTZU2a6xlXgFJu+s47JlZukn
+d8/7161zXjgkrJI6dhazLHOy5FQC/j00mbNQwryk+TYXBXljbboLAKMXvpZba9ucObK2Haj2UW27
++1tSQJPBw5a73xjRiDWEk/UzxUf6d+gwFfIONf7ZUL6xzmgOu9AMQCdzyek0bspHpYPybz6N2bpl
+PnttlsT+MAn310Tlj0s6HH2nAnlTcWZ5ap2m+CWS/O62C+zt4DR3ocydDrFq4oMzKuY3OwrOxpLj
+esqoSXEBmX8Tw/SfSMe1V2cMym3buaQlsSDsTehdCrizjClKrltv+JXQd7zGOE0BgVU3D+R/+nXD
+7uqQhRbpGxvqR1/eWfNEg66JleVHZathU81txadiSb/KXBYPEejRFTaK5hiPfr8jJNHtiBZ6nwWv
+z3dLCdEVXTZ9be8xK44ByRFa0g2DDukdXpbEUtO2EjlQBK/kAlAi2Gf4xzYiNM0mcuDPiIonnKyd
+FLNzRcsBvuK+/fYrDkz3p4pnNqKKLJ7lQbMDnEvIXVpitziOwRnQlenODT3GdmfWR05arEki3F+R
+RNZzu1itVMtIvIa/FB4wlmQ3oVR3ZpsZ4N9wkGvIGJ+jeoh+dhiPDhme/5csw5NJgPLefW1B6HJc
+xX5FSHa/YfbgLro4pxKHZ0TyVNq9g0F10ttat/6thFqwgXGWP+l2AoJkl9Whtx255fczp9jHzYDd
+dz71NBffi0VsdUMpsQ12zIZMU28U5IKk1p/aRPVDxv185zVmOaWOXxxVUk8farDsJ4flxSMkaf1l
+mSrYJJ7wnlMVqK3uQlrqA8N2o672wp/SPfO5vIpCv7fJ0hGbnr2L5Zb0+hSkD454JLyds1SkMFDi
+idGLWKpX42Tideq7GRK4zNpzIz2WVcF4n9+s0zIhEkjPEk9l6I7BxWM9g92kV8cld8czUHP/nyFr
+ZmFSzyA117CCKsAdls/9igjGmUUWXVmtiwW1NXW3DwAAoxF5TnVrS8NDySKVVa6os+kvtetYRzXw
+0LQ4Kf1GH8dSCrQ837Izn6hx9xz3KPLZdKuw7DVL2rGTlzbuw19zNmdUiWO0iFgCfvlD7O0dGf1c
+mNkPBq/0zaii3XL6yx4wvX7ZwSQOAk8ET4Rgegu6tN7hTZr/2qPFHcDz24lYFojNvjPqRDygek8L
+b/7QLZGdWbLwXncDZTL8Hu6WxyruSEpJ5tdsEMMO30T3azJec84cUI1rGVbFHxZk4gYnA8ak5Ybl
+RwaucEORWv0xwk3aLoTT0XWIEKMIueEagz1yEruhfVXo4KrgVdyP/NjYpWLmTSGj/jBF7YKAsJhq
+J+3a7Tr3EwwZUnbOu4e36+gYJXakf+szvS7lRSVDcg7ogX9AKUt+xeNi3UYg09+l5brYRwvNpqa2
+QAd2bbKR1eRe4ioCQlBOCcygjEPXCXeBOHEAgdfiONa486d6eogMK7nJuPXvWo79JmztbtvZ3vBU
+kYveWbrEJwUJIL7MKm3oghPKXAq3nXDYR/pt7ip5MDoTvwMWujvfWsbfakSWxMumQKflpAkwUS+E
+j8bxqFmLHbyJa8rHhfF3SSz3VYj+M05KXI61eIj1q6KZBv0oc/kM5hib+jOfHGLjbm8fGRyICqG4
+uNtUCOAfNpbNdcxP91sVg/jSmpX9ak7b5udS99zN7jlNJ/Gpbk+NeCpMWeyAZlgHXybVi5u79l9M
+q/qBko/g1nLuPgYdgnBae3SRpM1HV0ZXDji7vMzzlGHHxI+Ti4nQ5EN1EKSj91wdNab3mPUZ+9QT
+pp7pq2y5qGdq3D4SXZHpjysyRAtPERIWsbVJ6JYhEuWHy+aOV18580IusZ6xG8XJtNxIqYv9yN2F
+tUjR71ordY+DWZaXhXjNQjO8MU/WqIe/DYuhs8A5fFBDoj+kL7bYt95diWutKLcYfNhc26f7s3Zq
+h7clTp6SqMYFOFRbGoSek6kyG9+tnhc4edUSX9wlfKFRbYN95LnMrD/EMl9cgk5kPh4wygfromM/
+qRrRQ1UNdbDDXQ5QrO4QFDVLWTsT/mPVjcqsBlTTYzuX07nK637Two5bY2MCUtKwu3EKkbxa0hnO
+QunmUaqqOLV+le7/Yatn6L17/P3xczMO1s4pIrFnRRu/FQHGvRFVtJs1kIjEjh6S3jXHKVwuedXO
+6J6VGB68sPdPCUrpGZPZFhGyPWaL33AUdNK/KeAErkjX50Qt5Hs6M4WSZ1y30GXaaOExzcM+4HGB
+CtvmN1l9V7xJF7uf/IcxI8m14mh8t26Hg//KsQXy1gjgQ9sFpqTUxvVMzcIznX4RSf2J0bBPhHcO
+QRndnCro9pJVmU0dzIJllvW+/ZblWrQbroD5PUyyjuV1WORQzyNAFORNnoRdFGIjwanLbafSAXtB
+ZvbWArQAmm36wkoMShv5y3xv3494JPVwTg+2ApBTVbdSun/z/F6MgVNC3uLMD37VZY9FuJqHs22U
+s8tk2N4MW+VwF/nGQ4ApS06a/hK/m06SP4xrkMH0g3UPrDbNGr2meY/HaoQaxNLxL9tiPBIuT9xd
+p22x15Mqn7A/mfdKC45ZgU9gk1OPd05VZ13CLnU3E4a7A9agmAzQSCCHPge5kUO47EOTAShj3D/U
+NvIhU3pOKiOxnEu25OZG5s662EVSbMHSOnv6GGhqilATeIilC3k8njHFBTyMt02U0dtgFMpee8BZ
+T2HhhJc8IX9q0WhwkdqqlzVomPS4kFJ6rUK8zQrHQLA2gRhvQ1xxLSSISfu5r3nYtJEVblkl6Edb
+aLB8vcwO4IWKasX4z7+hax6wvlTtlgIoXHXoTd6KsR5sS9BgcM+HO6RHw1GgRHLGeZmCZ6LIbz5M
+lFBAI61JMsXsCFZJp4J0neaQ8V067roVDnbzZ9Rc6n3nlk9yCEZ+cp+n/9w3l1zg8PawAL66XVbv
+8XcNX0GaiHPZstJtFcRBTlYRDrUJ5bIM06OieAkMpKkJq3nDXhJBwXhCX1QwGfmlcZTjihixzJMm
+6lgHgJOqiBowy4+VQOjCmI+uxXPhMCZj9JKwB1qBHNEvmVNWe0mC7WWq3JiKpYiarWgsqjMTfn3s
+FiveN/7IvZBBud6wm813DAjDEffE3842kGHMwGRFhSRzrX8AzC1e6xBJ0cV18ZEAr3jyrND+q8Pe
+PfX5PdeeCov9BJGeQy57/6mCMLwVY9XSXRa6x1hW1d9EjvGtTTQ3HC9yPq1EJmibtc85byI1t/Kt
+Jv6Ly62mRrIiHbxYxkLgTOF3NMCtn9hh24+uNbMn93gSXUwjqqfaG+bHAJYIR1orGH9YpWcf69Fw
+cbXMVMeqK8LnHPDWc9rN8wuFKNPBz33nygXRn/soKC/xlPsbLs979HlK11I76iN17w/OxDYXck7j
+t90o+bP2uuXcEDHf5bq1mcyEOoRQwo+2zZAdadV8Yw4vn/qprbA5T9WpmTN7V1QYEa1KJccw0yyo
+jL2cKk+I4xLkQE9Rsp9n4YZmlWNqPGBnmK5lxIFyRXSk++O2utsNvUIYxMotD40YEe+rrmPTYvhA
+xusgJBqFn7W9QLOrf1pBXb3Y5dC/EjMcnpOyibduJlApxyW/+rMnrrMVqhc/9PTnMtjuzZaePALz
+wvmJWnCe3AI8VtWQ4/S1iD+FZW06x4baMjklYlUaHScS29fIqaaDCJR9KrPC4xVr7phOO3lG3mes
+RhpYFwO1pfhzQqTkUY/ghXF1MFlhH8Fzzw9CF+U+xKdPW2JsW79946YAzkwnVqGp3zKJR9a41BM7
+Se98QxVSdDM25cHPWmfvFymDXxLkZBsMwLQAYgGag8Vm0tKGdJIovCf2nOEmWspmb6NT7qacbFDH
+9mN8yxIrfgl0Fzwj+SavDKb2bpmb7AcNqXDI6olAPgLGi7nDIjmp6q0kk7GrJ0c9kP34m7NteulC
+MrorZ7DktZTKbIySzmc/hi7Pv8pfV3UxbmeiftvUzYNNMKaEfbCWFWukeVhxUxjucs9KKQ5N+uos
+coY/stb5Z5LkNZYkXR1jZMQVeaB5Fc9RyIZKvyxjapNgHyXfBTlqVeITOjcMxE+UAsnrRDSbPjn2
+g1Mj3EeaFZ33SAzqUWpRQhqf3zwUR/cwD2P0yKYwE4coCBaSyXbUH9O0zwjj+iz8MDt7xQ4GAasu
+zkScj9JWCRKn9Z08w6F5PgBF8DhvOn14oH12AZ+Jy+xz8GxAHaMgMM59BX//rsXU9JS0Eq8LMVkn
+2HNa5ZSM7sAq0K7cH2GUQpPriQU4+HUmQneIZ4c8Zl1l89He6mpsgk+srE6+FRWkTuKyAEg2g3T4
+G3zO2NZhChc/coedHPJHduZJO79G48BSrGimRa97u5e30GFpRiMx3wEJfHav0eghx1qpatRhIGgt
+GAh6KTZ9W9Qb0NLzl8G2jCZrie6BIwOBDQ9D3ZpjLdu+noJJvHs8AFb1NM1fYYn9sU8C/rlIj92L
+kIzd7DSliQ5wFMHJDT2sIATnieAwz1LOoyVQfPKquNuFNiwCSLELNlaKrsGoiLZcU/pP6rO9ux8t
+uN8DwIhZUuv6pJKAAb5wAuRumAdibU1OdP1nlak4BGzw1mM6yJz4EBdujD+JE9GWOa7eeFEnP7iU
++BXHtj6NFmm6EJvJM0cQ9ifuqDdCDcS5iyl+SuHznbjvTs+DYQakcWENBaR9oNTG2Ta+Vb7Wk8iv
+6SQey2i+IZcCdikIBzB7st2wG78/QGzgbFbL4oJ9ML3gP6vPQWL9rIaYSZHk4cyt/g7uTgNfrpLB
+Tr/6EHad0wXWzR+ccZMFAXmbS+0Fb1EMqINDcv0no2l6b7k5rUJeHB7qBfxuEin/A1YMJc15ElY7
+mmSSXXgHPvhF66znKHmZBAM6Ya4BI+qEEpFE5hD1HKCgZ0FlGVR5qToVbihJ7taxjtNHaLHDDiZ/
+wTwDRjvq43iTpYk+tfmdAp2Z1Nv4HPpOYbnkv8KeVXTPQe0XUP35s3JE9m5mKAy1peQHxWJJsp2W
+nHvAhJOhBn0MoBc1S7qa0xS7NQAVzUPKZ+5K62R2S4K4unL7KR7iief+yiR+JnegVJIXS5bzU58O
+w77KRUtPgA3tn6uFC2de0u8eYCXJSdGWz4thz89BL3g0reCDxfYMvD+Nbv78/x3d2b+VWE468JTw
+OP/ftNj6+3/+jzr7b2rs//57/6HHxv8KQxGEVIEwdfCfyKH/occG/8KeHWHC8eEsufi+/xMTFf6L
+SBR0PKzbAehv9Nf/osiKf/Fn6Kjg4ECj2L7z/6TI0gz1353dgn8FPRYHGwqvGzr/Z59MNCJmGeEW
+G6Bof6I2b45B1k5H9gwEtmI1tT/HPLSvaRGfvdIV20o5ET4ZqslqEpk/6q4dfxDTr0m+MMatDBn8
+Y1pL/2S6RfScXgQRDOsYl3O1r4KpuCrckOyrLAyzxBDcQxxkGFImLcR75uK6hJca/8LKo0hONOLH
+kOXtLkx1c8z6jlhDHyafeRCR4KtT2191hCLeW98dMHkDoMfOajtX2FfRzz7o0HbycDkIUUZ7oG91
+uYkYT35Vk6OfIPEPAWqnzn9CRtQ7um6QUgNXE5shYeTzu3MepnvPLOueaWo3Jg6yJIPNwwSAYWPi
+qPhqK6eELm7rT9FF+sHyC6wlhh3TduGU7W0Wc2oSoBqOLNJnJ8+PVPp6a0Lw1RfbHOUfyrEfvrAg
+VxN4gzr8VO69lS2zB3q3m2GvUlpL9cSrIv2ch9kYJ8nerWvhf9lkLb9NkAYPcYeDc4soYOntxC3i
+Y+JgDbSBXW6ZB9XOmTERIQpTEV3tbXx4tn/r7EjvQ26rlH2046HJo+IxYFI8cI7or0Gjkp10XRxf
+mNfk3wLyJpmgxHrHFWUznzY8uQHdrPM+yR9xJt2rvKzhQMgmRBKFIAoAR56wvDxGbf1S5fFpBpco
+ln7bZ+Wwp8Uj3vfzQs2MjtiBhfn0Qa/0yQoR9Dp8PTGt7Osa6+86BXCy9pEQMJT75lRryC4Ff2hp
+1qc5x3ek5XE18em607HqXe99RCZZO9bwK9Lt2TXVKSHCfBOd87s3g7Uvvfx5xvCzj8n37TUNPiS5
+q/KuUMAoQx3aApBA37TCYlNLnDTKpzSEpU1X7ZsS2zMTZersw8pwYpczYzNIKjCy8F8J1rtyRpsR
+Wpxn0JmIXObIjtu/Inv7B+ym8QcvRvHJc7q6WT57XAlbd1uyg+fNYtd/R0Xi6sm8POIToIjLS5Kf
+n9QnjasxT3Bb9zgmRRPWT7nHsNGmnPTcquPA2/figXVC/G7zrKHZLx04wjaZe6Lw1Xo3NdSA2Mnx
+tefLz6AaB4KZ0jLbdBrEJ2Klv6M+x30UUZFcc45PCPRAi4/xZLU/vERt2YVs5Oj0xA38++4lD8Kb
+b7sLGnqfYGOrumNbq/nR9az206271yVw3SdWSMpt11XuDdZrP+f14mE6SKEo5JFY/5tgTG8t3UuL
+I07Z/IaP4cMqhuFHQ358C41Ng0KAupD6JF8hZQs83hRJQU3lks1hHXikKrd200f7QQ7kDtL0HpG1
+yDzaCT5s9GG/e7Hxde1ARSGxdiq+RCruP72FL9TMM/GamH184dTAuSvNW/GjiDg8DRi5tv8EHYgA
+6p0eo3Kf9gKpOIUxVMBKBQ/v6D9Ffv/insc+tSr2QWN/x/N1/8v4c+nOxAGOuEjzNopciP4PSoQK
+rAqCVwIzKk8uOGQtsCdWEdUrXeL0bF3f+ltUCSVYuGDeIjmPhxHQ9uBihV+64WDgyZxmqn7e+Jha
+N7sKp0Mx3OeIOo/P7L85N2ndPYa1y7YkhiPE5q0frSPaGzXo1AFdsFag8VOdqV56Ij27zk5gCCVL
+0V0Yb/CScR49MI+G27nz4elAMSGQqeRjmHtfObFKvDup2eOhqb5R5PyfZeb1/oZUPn5mR7Ybh18Y
+lkLW6seWHqc1Hwm2G32XYZ9sB/PrfirnQvKg1Cz5k6OccGclTrmz78dV3S3lc1FVEdGMkmX2P699
+M97/P583KU/re4y65zVuwX5TvhjnR7bgpFFxG6bfUe9Bqob3wi3TNUhkW4LmYG4H/678u94Ur9lU
+RwmLuk4eC6P5ngPFJBsPHMOeZuhoi/bOEOsRZnr1sOMDKKCbAtf0nDxqLVxYr5qPkLHMYegHXAl6
+8d5gbTNkFDSsnsPZ897C3G1P8517VKvSPvwj4ivBdxTIQacRstezLhexiUzbvQxhSOTS7heq0b1/
+cA4KT4M36Pus0HGOt9ErP7WN+2f/7yui0Mwj3rAwQRSCX8k2NWsewZxh5wkYinDi1//3j8hRpN2y
+dOo/iyYbjzl01+/UpPxMC3EEZDZO2nZpGK8GVyCBDo3tvU30mrebKpuiX02Oy4ApDBtFxpXKB99l
+ONJVReL8nytBt8P8hdYm1k0al/vClVyKUYOnASYWPwu3qdcouP9XkqlkX4i4XXv9fXQr1X200y1f
+/++/ZXf8WYOtK7svlYkTN6HCbAFl+5QCFn4tgvv4iMAk+XUdiEEA9nhv6hdauxrWF439Q0Vxs9et
+Y7HUm9nVy7Gu7K2r8oQkTsXX664SoLxtMgsrde9m3VFwhKwTkhk/DEDezyAseigzkwBMHTfePqwb
+iGi6aUMeyqBB3DKOngLpYAWTlbS2cz93ck2CtT4LUBh4ZCfLXNvEmBc/G5kIddwC/Ga+OLAplM4q
+TLtmXZnC/mm6dDotSlhbUhjTCRbAjDgfQn1qkyK8NR7iA5ytuPz0W+MzA6ZeQwDCbvQn7ifrPZSY
+mPsls1ixNUCdjqUJw2MPqvNxAiTF+rQT448B5zE9TPU4n9xQmHBt67w+EOEKp+cYl8Cyr7QVvHZ2
+M4CiqyklHclOrLA30BwqFv3lQKqkSIiGFuIkP+gsM0+ZUppjHwV+65K35gMREH9tnofPWlK8BulO
+yn3fAPJIuOo4UmW2OI/4HK5tlYfZts1dx9+CdaMji3D3EZNwax3iMAJT47l0m+nOtdjzeXj+Om4v
++2qayne1xA6AMDldnYFVayrTZE8PQTvi9oFwRl0YGjX9l3DFWOiDn5/8Q53znIQHFH+ZHD4LH90+
+PkVhRt5sZPhVq0Z10t2RJBpOju71Ixf9zLKVVhBFs05K0/zMIXbOx3WecvvZIGbhKuiZwtyltk4T
+db4AUHlOPxjfcOqj8eyE/BA98ZlbrsvMiO40cUROCOe/WSWuXVesqe3mhJnCfp+aDmsNv54G6uFI
+b0s3THIjWx0eAYGk+7y5C/l+VSpALrCkvgNvbq+hKqJdCBlm4Jnh5FenLog8AcvnpIuumOXQVYX1
+xv9Mf6Nsis+gXWBwsoAIv6PgDosRoR99APcPXvl4BleKjIkR0FyMfmqFtwpT40nbzvIyRfECfNlW
+7VFo2X4kbh29WzQHfJNCpWKGj1iAr6J0eJQ0WLXXvknkV533SFBk8DoPO1DZvtLDU/UnUoHWdYoy
+yqEyZxi+KHqkXrB0wjWiBe8aLqkvJXgnDeTza4npiEB8yr7wS3mJBVzFxnxuevfoCC/cmTmId9EA
+J4QYTfgndHCszTFLzHipeQ9qrXAzT8W89uwIz53v+QeKf2LcAhicbQO6jEU1Z8zI5nlQadbtblvB
+IcObZT/BfKCMDatdf0inhe0sjpaHsKa8MuAvQ8O8+GX6S/G9Lny4AjYwCa1k2HT2Yd4gERk04At+
+8vvGAyCpyES618sdJ8dp8dxYMzZy27GeEk4Da4Lm+jw4uBdtZ9Q3x3Wrw2LriPX2h8+W7JOXvucZ
+2pTXKggJ+JjUKjbc5a0tuNDwlI21c8Dd8OVaVXprR1Ifs6OqIzBw1AQ5hzftZV63QnMeNzzE2ksi
+I+BiGqeFDDkQln497OAdzS8mWagzKBPwNWFUvQ0ODhWno0BLazRPhNw240hMCKWJE4MBkpAZ6oS6
+kF4FWdGkX/reBmFnbsQCMOG0oIwoHzLpoWcOLjCzhF0vYZaaN6vvU3vDSRpYoWGIGN0l4QnlWtQF
+aQuPCqAYGyTOoXP18OjrDHx6WJvvjhXNwcHWefJ9z8XQMFmckGLrmgFm+nsf7KCn0SjFBdLqj44a
+uXUQDMegRU0BX8cv0Iol/QX0l5dz5p7VI2Q++ohWlDjBwj+WuaPOuD3GAzeEEd02mcRZmThr9y7S
+ESpB7MU/yyGkxDR0CU8R4K/AhrAn/sqLKDt7bo7PoJb3NaRoNYQmcHnZhlCd+mNGQ9sc03m9LpKc
+FlU+id584l4iDmSevOcYgftn7UTUfYQCTJ1TpvGrFdkIQ308N5c6qqJxE44xJNTJA7tYl7X/Poyh
+96dv2WkfCzxl+9YVzXbG1nAqYQOJNbqSN+/6yHEpS3db+88US3dac3deoNxxt2UnDxH1J/vo4lcT
+6rt1ioqwa7/wPFt1ylIveITmq+p89wSg2HpTDUuBicjis0fGjGNhFbCxLeY8eVAwrB4Qn9ItVhiF
+xbJDWMWqPZRbygyEt+5wFP4EL6N/0HlVvWCjzGEW28kL5mQef6TGxLukG6Dg+9n+ZulLRdEIgXhO
+IEkod1XcTXh3smg7E4OFdlbyE1Bwl4mnoZzoDrObpfmZFH5ByM0OUrYYaX6DNtSCXXeiCQMTzp+L
+jkz0qtjW/RQVL2SJgLpxnbB9jJn3DnVXvgyl75xrmUqCVprMpQ8XgkEBYmnloFJuvSFNHrLQ+Hc3
+Y7IcgCzByC8IozzOQs+33IKcA4VuTl8amRSvyTKq75mbb4WTes4x/Sxxmt1LQQUcUHbSn9wt+NcM
+jwzkSjL1uybFPsMWuKkUE2cxfy06LQ95OLEhmE1sH+kjO3FJtnJrxU2MwhW4uG+7qbW/OUn34Bjb
+btdyTGc88jG7InfM4y0dEPpW2kncd6yO8qoUjYYzW9WTE7f2IRvU0Z58InhlO9d74jIgqNwBqiS4
+FGrfiYQ8zey39m0/pk+ODW9snUDF5TLzJ5zCrn/kXC3cDUkbouEWdCREkwYzv8j6rwkDEw6PJPoj
+Gwlea1kG/zG0Sx6Qqs+cB0arft7MKsLmAEcNtZq+v3BZF16dnWdkqz126HJrz3JDz2LLk7GNz4S8
+XIJi3lg/49DFUtJ6PhnmnumkynO9LWRjPTdgDjcIehCjSVGf2RwtK12JzVilr9ykbqOFOGEFLjka
+tg5BYYnNki/Rxs2C9LsayrfFXWAKF/bVBim6KUKrv05eL37oLHFBFSGpQE4NVrLzn/Ugj1bbbQnz
+JCfFbTvm6WK58oZGuKsss6n77LeenWvayEeGY1KmRbINZ2db9cUxyYgRJwGwxQaZzCbLRrsOwaBp
+l8cAyZPw3LcdUTYuy32t7wE+uSxXd8C0gOf0GOcDVtWA0JhbmH3h29k2rxt4vT0R+j6N7/Q8AIb+
+2CxbSF6EALwx++ijqvvptHCyNNrKdQiShFgcFlfctb13MFaQo25AcvqLJ7994FPLrcij3wdR37y5
+JC9OEB4hNzkynG69UPVLlI7Otqtt9GMDV7PxzCuOiDP1ooQLa8WshX14a0pN16+iRj6jA8FLrZk0
+9xSCEzA5seE8L67zYDicIlQf04rin75n4pQixOyV6+A22jM1KRxUThm+lk1MvH3cSwwVz1bjTN8s
+af8Xe2e2GzeSZuFXMep6aAR3EphqoDOZmVptbV6kGyItqbjvO99mMNf9FPVi80XKcmtxqdolX/QA
+rYsCypa5Mxjx/+d8p3iHDn3cjOFQbwpDc9YJET9L1nz6IX2d6bjUg+Yd9m5UI4bT2+d1b3WHCQw1
+ppOjfW3TAlw3lUaLgYnl0ioEnCtkl5vJKEH+GrP1RVFpMIO+SAEToH4BSB0f1CFSLKURLpPcxPoE
+plMDa9/P+4CIrLUxaX5Ov7fNThszVt8ZJQB4VUMNng2uszdNVvtBRn2tO0V3rjGEtMdZNbnvR61N
+SBdKsJKyhLsVo44rvkkGWKqlKlatMcQHplOYR4MaI39Ls2zcpLKBJhi2VlPCeNVMU20vQ/zWqzgk
+mbGORXKpg2pcB6kPX1gZnWPWHelKjQLynQq8JZhSlBPqmvqKfqR7Gtctgi+qs2vUguVe6ivWarZM
+iBtWmxz4kXFZ5GqM86ODcTEO4W0c1M57IBvTGSQPHqS0VCiiRr2+hTofLEe99PeLIUookoj6HMgu
+JE1yoddBgWpOjafy2CmxJoezHXgd49mREip4WHID8ZvDKtPzfdw3hXDr96C1SyljGzQyZAy4sIhO
+0NlioEUGiHQ9XIQobanCTfMafyNyloTATMG06Uvna72XAgNaYRqev8QSIx9rRnns0g3fi8dKOYz0
+KVxpVi5WGA6HQ1ovwz61ZAiocoqaEW+716KBvBqpxTKM1fmZjLxcdOU0IvyL6wsXNzqgxWDDOjw+
+xA7gLChF6RvkAh3PLiFjTDJ7qJFKxxVBH2y39lLDqHVglyUVxLxo1wGd9w9TPQPsz8JgnadEb46Z
+BVYEYi/8YD53+yRsu0DvAz34NE6xc24pdKgWJiz6dUG8y/ugDKN38NkH5P3uoO3n/lDU/wkV+dYu
+MoRpv5hEeLKtt/njKEJX//qv7ilADqgf03GFbmI/UB+a90zjrSVpb0TxuXf2vX82izTtrani0HMA
+aNG2EpIQdE8B0qy3tgqujXWlrvILtv0jzSJTB1H0iAJkCZU1EtEmlkZYIm4+/v56exZha/r1F/W/
+tAJ7vsCZ7PHNYJ1kDlWPN0OmZitarVHBVixl34CnTFQFuefFYmw7YEC2TN420IdolO1HjMLpLpwb
+oC5B3bYW1T6faxng7WQNKtJc5npbvtYJKM5FRar51LREf8sUcNo/rb8UMhucBi0x4XALu2oJ7QSk
+zoSJ7r0pM8VpdnTJcvRl1HiD57GFaVoKFN67OPLItZtTuMpajSGmwdoKKleMjDZMJZknkGnuWhkZ
+RSKiuONn1udZtHy3GjJ492KrBogps9Fr1c+2AFFxvk8IRziIOuIaxEFazsskssZTY2hn6g+4NGgd
+O0onSQkowqxaBrMndc2yfRrgKnr0pCkkkNZMkHshO/JLS+a7T2FJYyHZxb6HIciVTbeLgw9lMrzT
+ogJbaBnZxuRJj0wvO6wkTHZpX6MaI10+sGXQvLMLnedYm8+ETrcDzkXX3odDlJz7YCcuKBARWo8F
+XIP8QZJ9uQu1h5pEwD0NZ/tLIVPvoSQwrXWpKbJCKrnrtQXaYDXFdntIdnF+HAyR/XG21Rm/OkbL
+903Kh2RZlflwZRvl/NEAH4cpSXQYARB7X+VuUZ1F/SQA5kc9ye4q6rEWeZSZmJh0kmK4UCwnvGGP
+JpZ8PTI/qE4GyBJjRoS3eyhs0xs67AXrCmtDzHiqR1+ITahu6RxEVMDhCrXaipQ0LVj52WBqpAYC
+vV7i0KI6ypDcXZDsY9qLonbNwZMr/4+qlhnNfhS77UECpubSnoz4sBonH/BxCEF1MpiVb8oKgYMF
+FmWLgXq8DBGUwf1wRP8OWz0U1Z4EEnC7JgIncih8EsdmC5dQB1QP1lNeDMz6Vcf+wpQYU0ZBX8f3
+kqlKFR5BxzkSIkuCJTEP83uWLt27SrVILHQK60oVLvU/i4bgkch1bBoGpdIpSuEzzE2enk2E3bU0
+0EpKKRoj/qlqQfNbdDj76PZ0an5BhQz/jxmOwzqeB2xq2NfB+s2BexaZSo1GqBkJbSvdDcu2bMuH
+FMQRY1beLAVTV1DsQ1g49EGS/gyrWZMvU0c0VxCPa2tVSLjxQkFZwz5tFnjUwuOJLkeh1seDHgzX
+TuUAguxjrmpLf9ZYpbhUpvUc4LlbYIgx8lVazJD6QVYkzqYzMxECYehnzYNxYJ4JP+iuoP5o5lKU
+gw4lx6deggw9AU3m6FIFNySivclpXeVrFieUYJEsG3ss/hI089SvWNx3c9JvmJmHMyuOST8a7SI/
+jRPsOZA1ff+mC2cWDK7pGFudW0RLEqKICsWHOmeulsAR6qFz8G+Vg8KiA/r16FEJ5FGqYyq4C4AR
+aA0T4iWJ1MmrwFq66O4uET42V8SHs+DsJRyyJXxo0bFa0Zn/UQlBXU/Sz4qWtYWXK2rs8wxmI7Ng
+HWV+rLbgdqjF1DKYqKOg41QcCCAzup1NoptAbos+8uaB27gCqdSuWcmBk69DoVV7lj2o6J9NXC1i
+bqd2gevX+piZKSUuQyTmCgdofQwKn/CSmtneJyxZhASlndP8Vgcp0UWUHgcqtkgBvSJuCXgliqnN
+vL5UwmuHtqhYE3iIj3uqxuQW26MC1T8d0eqVdjLZnh5MuEbGQGIiRF0Bk2bkO/MrhyhUExbJDU1q
+9xxIN6yIoanbMz8jz48xTXMxUmfymRCaPqr47AZjn3MNyDFvyMVmZUBmJqAogUNxxpX0acRozPre
+pFy1HDEmE2CvjvHncoCxuTC6PD+gDAbpEhgPflHkxh+K2MKCmSS4r5aiG6pzB6h+6gEnlTRspsDY
+kUaBUBdCiexWhCntJXSIiLkCUpz1BSoP9DdNbCFDC7qdLTUjat6DtDt+QTRLv8gqKqzjQJq9gjaX
+sexNpwaoazNSLzKcVy1Iirb81OAjyJAqkZ3KRB690KpQeLMZlEH85moqsk0w6TzbaZy9c0cmlV7g
+0o8ihcrU11FHEM/CKFG3byiAUGLu2yq+idLKumJW7WirquuoKAWaayjrwh215ICerPrBNRVhHM7k
+yrv4gCaCP1TqXBpyb+yfS9KtSEQVNLvT/cap6b0hxXNn1iqd8SFgIkutIy+jbh+MywC+tVVpZaEM
+rD3qb1biFSWv9hKRCLzxorUBEQdYMQnGyIdqLyjtsdoXQ1JR9EqbJNmEBnHtMo+mHpjUwww7p1KB
+4pTBaVjowjCH95jfSSIN7SK78nsUdt4En5b2RlYF8VpEDQ0Y9KnWnmYZVFTE5FIKQQs94ylQG98+
+aHKVNYcxd1a9mQo9PutKHTtKPyDXXUxihlWCYCSZvBkWoLMCTs6iJjKK3iRlkKADT2vrtFoFAL6b
+Ve0Odb5PRJAGFdRSsUPRls1Mblfc4xBrxxTDd2g2cO70lt8nXya7hqdVKngN9SJc6VRtHB5NfTq3
+ca52B06RdN0mEnyjamLfoZUm+YhurYrFBUmN6q1BlQ54tCqGTZEH1BQA8A0kXFEdhdvTivTLUBOM
+5FNhoz0buHSNJoxidDEHG9C1O1UQ6iv9kt4vfioyC43LKhqplNct8QZVin2I9yHOsz1qQf4ZsaNl
+TwVEawIvNZN4NahzpeK+SlD+JRR9QTmguZErL7y/YG9s+6QZFAwfRan75NMIPfckQkxbRBVNCpLm
+JvFBUCrDIaxgs0U/nlvLFJJlvfTrsTjJY8K/FsWQoCJWtSbETYRH+ZwvGVO6ttHsk9A3Texljs+8
+ilUfdq3SFsXFCNgd2l1gqYSpNWlsY19vXViCuqhGTwNEh/wkqNqVlTW6tUrx/75PQ7//bORdcG7g
+qc6OKmW0b3w9AU/UaGiYqVaYikJ3IEHdHNYjn3tjHggxC0XvfECFIhgOlFlaA8KpuOyhx4VQoHM+
+99PM15uWsqjUlZ1EekTCqA3MTk/wkjs+hAjM3LPFAAOREQsZloGB5ePUAlvDNonY06Wcxmxxzpxl
+2fu6F1tDcm41cUt1t0tpKpiYGQYvFnAlUZWyJER0Nc4YgwaN4T7tmoByKR8KC39PmH1QKxcTErXq
+NCJlIJvUu3XeH0YPPkF8kDtoA26D5msxNiNskyHaDxYJqGJpHod+5Okq0G3Fmm2Q9H5x+kBtd3KH
+Hn2D/PoEfWfL6uKJbO3ZXp4sRRpdTVqji2KvNOzpQ8ekgecrH48G/KcA48v0GNd1bS1+fK+o+aTO
+DzEfUrLH52aOExJkJqOeJZLwrJAjYWaU2qEaQilawLnU91AR+4gGvykLv3OuqtzsQ/qqvKQPd/uE
+mlLYIgP5HMaeXzAmeNVQBDZPI7grlE+aQSZDEelH0KwgaTW1yK/KAj0H5NCUXobOFOtrQOi/fo8R
+C5qmKpGwrkByKxeKD+6xGpR0tkEOeW5NyYESlrYOwtxavXzeztPT3u0F+SMrW4cLIJ+0B3sx0NXB
+h9HomNTkf4/AmzZdW40by5yxcvi4ua0GS4A5iOBP9vz8ij/Z9RPebd5GfL/RUlDlL/dalzbO3Aht
+5VDjRe5ntGdW4wBxs7t6Q+2INYhQ3VPSdY2Tly/Bs5eJ47BslRBPlfqp+3TFbc26PZkZ87rOdaNV
+i5ARRUNT3DGV/vB2yrN59Hw92Yu8EQ8udF1EBUqjLvKcACkC+WETaZ1dvy6oyXk/eEIsORga6AQA
+NOaxRtr6cFfxjEk2GN3YozWXk/KhmMuhTKfNX9gLKCTLtC2BwPXJCdHpokntKDHSmnkgacEM+Zg2
+5p+MBs8uG+eiGRRDmN1RnDGfPJ8BHaMJ3Wfs6fEUs84PnXVEoXVv9MV4+PIJPR/uJKNJ5z0QtlCZ
+dT2+bKwuhBARmWgVWYnXM9TjC1h11bqKzdGDOKeAlaH19fJOnz18nB+5kbohAVCWIwXRD+8VJUXT
+AhkTAz2cpqOcNtQ6iAzxow8fe7F01aBqqdGofTqmZm5aATHxY8+dqxo8hEqKHWlcwB+Av/3oCQGv
+NiwuFSl67PTJYyHmKppK4B5eOczFxm3S32rdylc/vhPbQS5gapoqbFmPe3jVxrkpFYwWDB2WNZJZ
+pyVHCb7LH36PeHsQgUPmVi1Ds568R5i6mSvhD/Bsre/X+AiStSoXhC+fy/PHjjcU6jgXiw72jjD+
+8FzoZ/ISocLywDGiLeM/q4Ap32luRqTO1CViYMDU8Z+c23f2qglBRrJuasKAOP74CtKFMJTehnFF
+uRtCSwtuwrOVwtkTrs2yNi6dI5SJWKtfPtnnrzN8NGqvNnu1SJ198lFrFVMXKvZdL6A4szbzeKb5
+htZ7QbFTs/7kHFW5tUdjrvx6GmhgTVs1OcknN9AFnAiTqoq9wpZe7WiEc5E2ynllCtsjnsMP0JGo
+PavAQhuPVTG772jjF4oHdjHetDX8Z0o8/ubla6BRtX52WAb9a95DVQ5uT6594dt+iHI9AnuCihCK
+EDPulUG0OaZexcm3muLHKF2LXFzRHxm9oYUOZqdFpm6SQTWOy9gHUqsB7gKEECd7Ks6+2w5rDHOS
+JAJxRSnE9JiWYzjqWArcPbD/SS7/xdUtOel8cDu9bbt9c8tUpJ3ebbPbX39Z3m7rpz2Gr//oa49B
+t99SBtAchwFDGBrthG+GFEN9a8AMFHe9h7vRPi/qNvz1F4WkAYZ6EIHyg+3agofivsVgE4ROS4Ke
+gO4aFi0D7UdaDOQWPHn+XOY6JmYZnmWbcUc8eQmNsevbOgKjYbW9giKzY0m/6OaquZn6Argvy5xw
+46gsvJdBpI1fdt49xsdk29MCrRe1OqCQMfE2fiYttttOcdf43lzAu17SzZ1uAtF3g2eMVp96fA4s
+tBmSjBWoNpFJFlLP31rG9dOJamB6OGLRxDA8gKeX6T3+B18vZqIC0RrjwqaCc5Kw8pStSHLfl10L
+QIeox0EQqhqRiwoaPr30qazXFunJe8Jg7gODZABVTGwZksB6nvoPvWUr5ko1puSEFCreKcEy72CO
+qcZ7ZDrlrF0nXbc9FpTFQa02UmFF5PkVVPis8nQrS48VYTXlCgA3BT9QwICUu160h3RfyGGfzRZt
+CYwhALfW2GiAEka/PROhrWy1qhKAsOkO17BthxJCWdOclGPJEtfuTdraFNeCxKOkGxzrs6NPi7Jx
+4b1ZVd8dqrqfmmuRZO3FEDhg3gZ/INwryxGA9JTpu1WjCopzjQ1B7iCDsQDwVY3i30hAVodlaZoo
+bSy80gfgQhx3gxglvsDmbr8Le/ho9ISdbIscDTbVxNBceYxOwyXRYxSG+AL7yV5ErPRncAhIY/SW
+7OR1wFgL6VX1w+uqL5Fwqwq2kNOc0kBbrXQw4z1sUqOCqEEpW99SLUg/0+p166VqjCm4s6gKSApE
+CA6WT9NbXV9aVKwuu27W3g0BixAotgZSFA5IKbaJPc/2IWVR3zzyzQHo89K2hoxuUgRffg/GiU9A
+ETok6bt3Kc5RcCciE7heGaNZU9tmTUUZ7UYBkdbcIEltPiWt5RcrE0HEyhqjjmQjtbQNL1Vd3Ll6
+ntXk4zoQE7BSln3CZxlYzTLFKz6dxHTG8eZEaoslx8hbh1qMpl3qSTnlfNfckob/gMaMWPiejEYl
+D2KHOiP5G9h+K1K9ejfDQunYPlZoRLXaXtkOo3GAcaRNTwD1p8MFL1fxkYolrZtSEWlBBG4LY3NG
+77ikvAIzxB7EqdIoFvoLzVc31NQxDWN36qYNQv9a/ZijlSK7IUxoRpSiRw8S191wWmmGfgUcQrCw
+pJDnIo1zxvRzLb1Wm2QHZ59cCWo3d9B2W5udK2gctDjQ95bxphDENyxCSXu3yX8qP4MT646DIAUH
+nxrZdDoJB0h86CocZaZIdjwiDmTGg0TKwyOmCkdUX3yOeKO+qCwNNRFalssAQx4cyb5HOawbElWv
+Smp9kBVqtdCbSr1EJ4AGET1zflyNEnbv7MD3rmTg8/ylE6o/yPixok+fa439rcYdOb+QEH1T8vRJ
+b53GTbPD7GeSuF8gFKFc2rvpMct7eNMo2JSjeoJ1AZKn7z7Cdc+J+h2rEhePVpjHlM+sYi92JOyf
+MrIuTunlwxHoZpOuAUYuaP9JZRMUAPaISiZgFf8TdlyiBIpKxgoIKwP7bQjSBogTAx1q7UIIMtR9
+Ks+7DCdQd0EFkdJXn4ZdfAHNZ8qGPKc6eXs1Eql5F3agDJOJ02MXgmAomvIemTBOrpCl2YWzC0yg
+ujLs07wiRsEQJdqPAJGgZ+6CFoDqE7qQyPyFZhfFgJyBWIZs6Mr3ZSbDGoZdcIOfB8mpu4tz4G2j
+25M0w3DZy7yHwDcva1UP0EOPuziIMGybDShl1oO7wIhpFx6R1EqACX8XKuGDO0qXnQ6dgYEX99ke
+zhZCKHSjJZACFIZOxqaBV2SUiRUQrzEkV4bWvM/qiVCoXbiFbhYQ1meZeUFbiacql0kYNp6umImb
+fZwwadqjmh4rh/YuPqOexu7cd/nwHZHB6v6Wp6hiF5Qeoot4arAWIW6JoXEmTYoBIkjqYB2MFag7
+s/cR8dWZa8P5KAd82IinaCPgiu/OpMgtWROQgnMlp7JJrR2iI1o6QuGbZThBzvcAWhAgyieaBgaa
+a8w1TT/TUd+lhfpRwzozDwXd5a4s2HgiptWoofvcn/wqvC5b4EoePC3ErXPX4VpxUDEliFto4y6d
+hHFjiciVhvNuSvP/aIb39VDl9Gu1m32ddrf1dHbbdGnb/O2/76ou8m93tcuL4q/90ssb+jrvu5hK
+5n3XRZe38giCqMgfxUxpT6aLuyPaHe5LG0i3zCm7G7askCOl734Em0ppJdz/ham/ZY3GDwWW3c/d
+rh5cmz86+5dP7O4yvvw7j459CxUq96KGWeF1+/DkNdfRmF1+K7R+uyPPz//JNh6cv6a/ZU7LPNlx
+7k6TLT68DORzoYVxLAdn6O6HkgJ7/He6DNJ8/trLoIu3Qnep53N6D0/fVN+yZgC/x0z93/QpsB31
+7p48eS9/6CnQ3rpCPgH45O9+Hl8GQ3+rUiHRWbbc/dwt0/6lp+Bf+KVvg8qSKKWb3XAS3TbfG3X+
+6Bfu36fnf//1Xdq/+fWXB0u33e/JweVu17e7YU7+/98evSq75/zBX94/9w//+dfze77n7x7T/R/u
+Rbf1tr4Op93ZTl+P8m6Z+/fr+vbhiw6Y/v5/78bDR8f44NF/caPpNii2zf2G5PWgpMqT88/T+/WX
+v7ThbDsX+ZMtG7Lu/dotL7bhY/wEkAkevNdudn17w7VP33xvTHVVHpJX72HVlL//o47a4s35FhH4
+/QbvrrkhMwFeew6bIvr9fx7fTE1zGAZfu+FjqeMMf//fRwetCbpQP2PbXBHskHAy3txwbbr0fpvy
+ylCalOyO15/At53cb+xu63zG7//gr79FyFwfF6A0U3V/zna3v//jy/b+CHeHTJn2J7yfJ7d1vs2+
+dNePbyn9nJ9wtc8ibuXtm4MtjKL68Q7uvkuvvZ1yBxseSXbCI/OOet2joVHj42/cX7S/flsf7+Xp
+g3k3wXjtmcihYPtmybSZqN/HN9pFA/f6kzjnrX1zsiXM4X5bu6fobpb46qO/rYOofHTtmRTJ6uZr
+t3xRXHNlkFLeb0oeta6b+k8Yzf6ebcvH76tOnsxPeF+PuYXNmw3fkejxcbP5n3Ar/zhQ99tE5a99
+rJFs/FHCzqu3/CIv6pVbf9Fe8Mptv9RVeHHT35v5fVsaPZ8P3q/8vvfPHs915W9cpzQ7/vZ/AAAA
+//8=</cx:binary>
               </cx:geoCache>
             </cx:geography>
           </cx:layoutPr>
@@ -8133,8 +8190,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7868210" y="190500"/>
-              <a:ext cx="4579844" cy="4997824"/>
+              <a:off x="7879640" y="190500"/>
+              <a:ext cx="4585559" cy="4995919"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8522,6 +8579,12 @@
             <a:t>-- Colunas: marca, vendas (#)</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>select 	pro.brand as marca,	count( fun.paid_date) as "vendas (#)"	from sales.funnel as funleft join sales.products as pro	on fun.product_id = pro.product_idwhere paid_date between '2021-08-01' and '2021-08-31'group by marcaorder by "vendas (#)" desclimit 5</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -8785,6 +8848,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9054,7 +9121,7 @@
   </sheetPr>
   <dimension ref="B1:G1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
@@ -9091,7 +9158,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:K8"/>
+      <selection activeCell="M3" sqref="M3:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9202,8 +9269,12 @@
       <c r="K4" s="1">
         <v>734</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="1">
+        <v>248</v>
+      </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="S4" s="1"/>
@@ -9238,8 +9309,12 @@
       <c r="K5" s="1">
         <v>142</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="1">
+        <v>237</v>
+      </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="S5" s="1"/>
@@ -9274,8 +9349,12 @@
       <c r="K6" s="1">
         <v>110</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="1">
+        <v>193</v>
+      </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="S6" s="1"/>
@@ -9310,8 +9389,12 @@
       <c r="K7" s="1">
         <v>98</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="1">
+        <v>136</v>
+      </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="S7" s="1"/>
@@ -9346,8 +9429,12 @@
       <c r="K8" s="1">
         <v>66</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="1">
+        <v>108</v>
+      </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="S8" s="1"/>
